--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21519"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5BF537-2E4D-4A5B-B9B0-CDB47C7C6530}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{149FE650-DD2D-4342-BE77-13711CCB8E13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1309">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -3961,7 +3961,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3977,6 +3977,11 @@
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3999,9 +4004,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -4340,11 +4346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F382" sqref="F382"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4417,7 +4422,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
@@ -4428,7 +4433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
@@ -4459,7 +4464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1">
+    <row r="6" spans="1:8">
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
@@ -4470,7 +4475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
@@ -4481,7 +4486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1">
+    <row r="8" spans="1:8">
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
@@ -4492,7 +4497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
@@ -4523,7 +4528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1">
+    <row r="14" spans="1:8">
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
@@ -4605,7 +4610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
@@ -4636,7 +4641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
@@ -4667,7 +4672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4718,7 +4723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="C23" s="1" t="s">
         <v>82</v>
       </c>
@@ -4749,7 +4754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="C25" s="1" t="s">
         <v>89</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="C26" s="1" t="s">
         <v>92</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="C27" s="1" t="s">
         <v>95</v>
       </c>
@@ -4802,7 +4807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="C29" s="1" t="s">
         <v>103</v>
       </c>
@@ -4813,7 +4818,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6">
       <c r="C30" s="1" t="s">
         <v>106</v>
       </c>
@@ -4824,7 +4829,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6">
       <c r="C31" s="1" t="s">
         <v>109</v>
       </c>
@@ -4835,7 +4840,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6">
       <c r="C32" s="1" t="s">
         <v>112</v>
       </c>
@@ -4846,7 +4851,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="C33" s="1" t="s">
         <v>115</v>
       </c>
@@ -4877,7 +4882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="C35" s="1" t="s">
         <v>120</v>
       </c>
@@ -4888,7 +4893,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="C36" s="1" t="s">
         <v>123</v>
       </c>
@@ -4899,7 +4904,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="C37" s="1" t="s">
         <v>126</v>
       </c>
@@ -4930,7 +4935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="C39" s="1" t="s">
         <v>134</v>
       </c>
@@ -4941,7 +4946,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="C40" s="1" t="s">
         <v>137</v>
       </c>
@@ -4972,7 +4977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="C42" s="1" t="s">
         <v>145</v>
       </c>
@@ -4983,7 +4988,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="C43" s="1" t="s">
         <v>148</v>
       </c>
@@ -5014,7 +5019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="C45" s="1" t="s">
         <v>156</v>
       </c>
@@ -5025,7 +5030,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="C46" s="1" t="s">
         <v>159</v>
       </c>
@@ -5056,7 +5061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="C48" s="1" t="s">
         <v>167</v>
       </c>
@@ -5067,7 +5072,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="C49" s="1" t="s">
         <v>170</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="C51" s="1" t="s">
         <v>175</v>
       </c>
@@ -5129,7 +5134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="C53" s="1" t="s">
         <v>183</v>
       </c>
@@ -5140,7 +5145,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="C54" s="1" t="s">
         <v>186</v>
       </c>
@@ -5171,7 +5176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="C56" s="1" t="s">
         <v>193</v>
       </c>
@@ -5182,7 +5187,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="C57" s="1" t="s">
         <v>196</v>
       </c>
@@ -5193,7 +5198,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="C58" s="1" t="s">
         <v>199</v>
       </c>
@@ -5204,7 +5209,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6">
       <c r="C59" s="1" t="s">
         <v>202</v>
       </c>
@@ -5235,7 +5240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="C61" s="1" t="s">
         <v>210</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="C63" s="1" t="s">
         <v>215</v>
       </c>
@@ -5277,7 +5282,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="C64" s="1" t="s">
         <v>218</v>
       </c>
@@ -5308,7 +5313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="C66" s="1" t="s">
         <v>224</v>
       </c>
@@ -5319,7 +5324,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="C67" s="1" t="s">
         <v>227</v>
       </c>
@@ -5330,7 +5335,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="C68" s="1" t="s">
         <v>230</v>
       </c>
@@ -5381,7 +5386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
         <v>240</v>
       </c>
@@ -5412,7 +5417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="C73" s="1" t="s">
         <v>247</v>
       </c>
@@ -5423,7 +5428,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="C74" s="1" t="s">
         <v>224</v>
       </c>
@@ -5454,7 +5459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1">
+    <row r="76" spans="1:6">
       <c r="C76" s="1" t="s">
         <v>255</v>
       </c>
@@ -5485,7 +5490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="C78" s="1" t="s">
         <v>263</v>
       </c>
@@ -5496,7 +5501,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="C79" s="1" t="s">
         <v>266</v>
       </c>
@@ -5507,7 +5512,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="C80" s="1" t="s">
         <v>269</v>
       </c>
@@ -5538,7 +5543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="C82" s="1" t="s">
         <v>276</v>
       </c>
@@ -5549,7 +5554,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="C83" s="1" t="s">
         <v>279</v>
       </c>
@@ -5580,7 +5585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="C85" s="1" t="s">
         <v>287</v>
       </c>
@@ -5631,7 +5636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="C88" s="1" t="s">
         <v>299</v>
       </c>
@@ -5662,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="C90" s="1" t="s">
         <v>307</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="C91" s="1" t="s">
         <v>240</v>
       </c>
@@ -5684,7 +5689,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
         <v>16</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="C94" s="1" t="s">
         <v>314</v>
       </c>
@@ -5726,7 +5731,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="C95" s="1" t="s">
         <v>21</v>
       </c>
@@ -5737,7 +5742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="C96" s="1" t="s">
         <v>317</v>
       </c>
@@ -5748,7 +5753,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="C97" s="1" t="s">
         <v>320</v>
       </c>
@@ -5779,7 +5784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1">
+    <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
         <v>327</v>
       </c>
@@ -5810,7 +5815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="C101" s="1" t="s">
         <v>335</v>
       </c>
@@ -5821,7 +5826,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="C102" s="1" t="s">
         <v>338</v>
       </c>
@@ -5832,7 +5837,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="C103" s="1" t="s">
         <v>341</v>
       </c>
@@ -5863,7 +5868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="C105" s="1" t="s">
         <v>349</v>
       </c>
@@ -5874,7 +5879,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6">
       <c r="C106" s="1" t="s">
         <v>352</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="C108" s="1" t="s">
         <v>357</v>
       </c>
@@ -5916,7 +5921,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="C109" s="1" t="s">
         <v>360</v>
       </c>
@@ -5927,7 +5932,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="C110" s="1" t="s">
         <v>363</v>
       </c>
@@ -5958,7 +5963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="C112" s="1" t="s">
         <v>368</v>
       </c>
@@ -5969,7 +5974,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:6">
       <c r="C113" s="1" t="s">
         <v>371</v>
       </c>
@@ -5980,7 +5985,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6">
       <c r="C114" s="1" t="s">
         <v>314</v>
       </c>
@@ -6031,7 +6036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1">
+    <row r="117" spans="1:6">
       <c r="C117" s="1" t="s">
         <v>349</v>
       </c>
@@ -6062,7 +6067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:6">
       <c r="C119" s="1" t="s">
         <v>388</v>
       </c>
@@ -6093,7 +6098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6">
       <c r="C121" s="1" t="s">
         <v>396</v>
       </c>
@@ -6104,7 +6109,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1">
+    <row r="122" spans="1:6">
       <c r="C122" s="1" t="s">
         <v>399</v>
       </c>
@@ -6135,7 +6140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1">
+    <row r="124" spans="1:6">
       <c r="C124" s="1" t="s">
         <v>406</v>
       </c>
@@ -6206,7 +6211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1">
+    <row r="128" spans="1:6">
       <c r="C128" s="1" t="s">
         <v>424</v>
       </c>
@@ -6237,7 +6242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6">
       <c r="C130" s="1" t="s">
         <v>432</v>
       </c>
@@ -6248,7 +6253,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6">
       <c r="C131" s="1" t="s">
         <v>435</v>
       </c>
@@ -6279,7 +6284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1">
+    <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
         <v>443</v>
       </c>
@@ -6290,7 +6295,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="C134" s="1" t="s">
         <v>446</v>
       </c>
@@ -6321,7 +6326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="C136" s="1" t="s">
         <v>454</v>
       </c>
@@ -6332,7 +6337,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="C137" s="1" t="s">
         <v>457</v>
       </c>
@@ -6343,7 +6348,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="C138" s="1" t="s">
         <v>52</v>
       </c>
@@ -6354,7 +6359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="C139" s="1" t="s">
         <v>460</v>
       </c>
@@ -6385,7 +6390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="C141" s="1" t="s">
         <v>468</v>
       </c>
@@ -6396,7 +6401,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="C142" s="1" t="s">
         <v>471</v>
       </c>
@@ -6427,7 +6432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="C144" s="1" t="s">
         <v>479</v>
       </c>
@@ -6438,7 +6443,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="C145" s="1" t="s">
         <v>482</v>
       </c>
@@ -6469,7 +6474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="C147" s="1" t="s">
         <v>490</v>
       </c>
@@ -6500,7 +6505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="C149" s="1" t="s">
         <v>498</v>
       </c>
@@ -6551,7 +6556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="C152" s="1" t="s">
         <v>511</v>
       </c>
@@ -6602,7 +6607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6">
       <c r="C155" s="1" t="s">
         <v>523</v>
       </c>
@@ -6613,7 +6618,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="C156" s="1" t="s">
         <v>526</v>
       </c>
@@ -6624,7 +6629,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="C157" s="1" t="s">
         <v>529</v>
       </c>
@@ -6655,7 +6660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1">
+    <row r="159" spans="1:6">
       <c r="C159" s="1" t="s">
         <v>536</v>
       </c>
@@ -6666,7 +6671,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6">
       <c r="C160" s="1" t="s">
         <v>539</v>
       </c>
@@ -6677,7 +6682,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1">
+    <row r="161" spans="1:6">
       <c r="C161" s="1" t="s">
         <v>542</v>
       </c>
@@ -6708,7 +6713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1">
+    <row r="163" spans="1:6">
       <c r="C163" s="1" t="s">
         <v>549</v>
       </c>
@@ -6739,7 +6744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1">
+    <row r="165" spans="1:6">
       <c r="C165" s="1" t="s">
         <v>556</v>
       </c>
@@ -6770,7 +6775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1">
+    <row r="167" spans="1:6">
       <c r="C167" s="1" t="s">
         <v>564</v>
       </c>
@@ -6781,7 +6786,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1">
+    <row r="168" spans="1:6">
       <c r="C168" s="1" t="s">
         <v>567</v>
       </c>
@@ -6792,7 +6797,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1">
+    <row r="169" spans="1:6">
       <c r="C169" s="1" t="s">
         <v>468</v>
       </c>
@@ -6823,7 +6828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1">
+    <row r="171" spans="1:6">
       <c r="C171" s="1" t="s">
         <v>576</v>
       </c>
@@ -6854,7 +6859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1">
+    <row r="173" spans="1:6">
       <c r="C173" s="1" t="s">
         <v>584</v>
       </c>
@@ -6885,7 +6890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
+    <row r="175" spans="1:6">
       <c r="C175" s="1" t="s">
         <v>592</v>
       </c>
@@ -6896,7 +6901,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
+    <row r="176" spans="1:6">
       <c r="C176" s="1" t="s">
         <v>595</v>
       </c>
@@ -6907,7 +6912,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
+    <row r="177" spans="1:6">
       <c r="C177" s="1" t="s">
         <v>598</v>
       </c>
@@ -6938,7 +6943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
+    <row r="179" spans="1:6">
       <c r="C179" s="1" t="s">
         <v>605</v>
       </c>
@@ -6969,7 +6974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1">
+    <row r="181" spans="1:6">
       <c r="C181" s="1" t="s">
         <v>612</v>
       </c>
@@ -6980,7 +6985,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1">
+    <row r="182" spans="1:6">
       <c r="C182" s="1" t="s">
         <v>615</v>
       </c>
@@ -6991,7 +6996,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1">
+    <row r="183" spans="1:6">
       <c r="C183" s="1" t="s">
         <v>115</v>
       </c>
@@ -7022,7 +7027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1">
+    <row r="185" spans="1:6">
       <c r="C185" s="1" t="s">
         <v>623</v>
       </c>
@@ -7033,7 +7038,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1">
+    <row r="186" spans="1:6">
       <c r="C186" s="1" t="s">
         <v>626</v>
       </c>
@@ -7064,7 +7069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1">
+    <row r="188" spans="1:6">
       <c r="C188" s="1" t="s">
         <v>634</v>
       </c>
@@ -7095,7 +7100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1">
+    <row r="190" spans="1:6">
       <c r="C190" s="1" t="s">
         <v>641</v>
       </c>
@@ -7106,7 +7111,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1">
+    <row r="191" spans="1:6">
       <c r="C191" s="1" t="s">
         <v>644</v>
       </c>
@@ -7137,7 +7142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1">
+    <row r="193" spans="1:6">
       <c r="C193" s="1" t="s">
         <v>652</v>
       </c>
@@ -7148,7 +7153,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1">
+    <row r="194" spans="1:6">
       <c r="C194" s="1" t="s">
         <v>655</v>
       </c>
@@ -7179,7 +7184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1">
+    <row r="196" spans="1:6">
       <c r="C196" s="1" t="s">
         <v>252</v>
       </c>
@@ -7190,7 +7195,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1">
+    <row r="197" spans="1:6">
       <c r="C197" s="1" t="s">
         <v>662</v>
       </c>
@@ -7241,7 +7246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1">
+    <row r="200" spans="1:6">
       <c r="C200" s="1" t="s">
         <v>673</v>
       </c>
@@ -7272,7 +7277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1">
+    <row r="202" spans="1:6">
       <c r="C202" s="1" t="s">
         <v>680</v>
       </c>
@@ -7303,7 +7308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1">
+    <row r="204" spans="1:6">
       <c r="C204" s="1" t="s">
         <v>687</v>
       </c>
@@ -7314,7 +7319,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1">
+    <row r="205" spans="1:6">
       <c r="C205" s="1" t="s">
         <v>690</v>
       </c>
@@ -7345,7 +7350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1">
+    <row r="207" spans="1:6">
       <c r="C207" s="1" t="s">
         <v>697</v>
       </c>
@@ -7356,7 +7361,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1">
+    <row r="208" spans="1:6">
       <c r="C208" s="1" t="s">
         <v>700</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1">
+    <row r="211" spans="1:6">
       <c r="C211" s="1" t="s">
         <v>712</v>
       </c>
@@ -7438,7 +7443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1">
+    <row r="213" spans="1:6">
       <c r="C213" s="1" t="s">
         <v>482</v>
       </c>
@@ -7489,7 +7494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1">
+    <row r="216" spans="1:6">
       <c r="C216" s="1" t="s">
         <v>730</v>
       </c>
@@ -7520,7 +7525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1">
+    <row r="218" spans="1:6">
       <c r="C218" s="1" t="s">
         <v>396</v>
       </c>
@@ -7531,7 +7536,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1">
+    <row r="219" spans="1:6">
       <c r="C219" s="1" t="s">
         <v>738</v>
       </c>
@@ -7562,7 +7567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1">
+    <row r="221" spans="1:6">
       <c r="C221" s="1" t="s">
         <v>746</v>
       </c>
@@ -7613,7 +7618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1">
+    <row r="224" spans="1:6">
       <c r="C224" s="1" t="s">
         <v>759</v>
       </c>
@@ -7644,7 +7649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1">
+    <row r="226" spans="1:6">
       <c r="C226" s="1" t="s">
         <v>766</v>
       </c>
@@ -7695,7 +7700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1">
+    <row r="229" spans="1:6">
       <c r="C229" s="1" t="s">
         <v>779</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1">
+    <row r="230" spans="1:6">
       <c r="C230" s="1" t="s">
         <v>782</v>
       </c>
@@ -7737,7 +7742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1">
+    <row r="232" spans="1:6">
       <c r="C232" s="1" t="s">
         <v>790</v>
       </c>
@@ -7808,7 +7813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1">
+    <row r="236" spans="1:6">
       <c r="C236" s="1" t="s">
         <v>576</v>
       </c>
@@ -7859,7 +7864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1">
+    <row r="239" spans="1:6">
       <c r="C239" s="1" t="s">
         <v>814</v>
       </c>
@@ -7870,7 +7875,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1">
+    <row r="240" spans="1:6">
       <c r="C240" s="1" t="s">
         <v>817</v>
       </c>
@@ -7901,7 +7906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1">
+    <row r="242" spans="1:6">
       <c r="C242" s="1" t="s">
         <v>156</v>
       </c>
@@ -7912,7 +7917,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1">
+    <row r="243" spans="1:6">
       <c r="C243" s="1" t="s">
         <v>824</v>
       </c>
@@ -7963,7 +7968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1">
+    <row r="246" spans="1:6">
       <c r="C246" s="1" t="s">
         <v>837</v>
       </c>
@@ -8014,7 +8019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1">
+    <row r="249" spans="1:6">
       <c r="C249" s="1" t="s">
         <v>850</v>
       </c>
@@ -8025,7 +8030,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1">
+    <row r="250" spans="1:6">
       <c r="C250" s="1" t="s">
         <v>853</v>
       </c>
@@ -8036,7 +8041,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1">
+    <row r="251" spans="1:6">
       <c r="C251" s="1" t="s">
         <v>856</v>
       </c>
@@ -8047,7 +8052,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1">
+    <row r="252" spans="1:6">
       <c r="C252" s="1" t="s">
         <v>859</v>
       </c>
@@ -8118,7 +8123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1">
+    <row r="256" spans="1:6">
       <c r="C256" s="1" t="s">
         <v>874</v>
       </c>
@@ -8129,7 +8134,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1">
+    <row r="257" spans="1:6">
       <c r="C257" s="1" t="s">
         <v>876</v>
       </c>
@@ -8160,7 +8165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1">
+    <row r="259" spans="1:6">
       <c r="C259" s="1" t="s">
         <v>884</v>
       </c>
@@ -8171,7 +8176,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1">
+    <row r="260" spans="1:6">
       <c r="C260" s="1" t="s">
         <v>887</v>
       </c>
@@ -8262,7 +8267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1">
+    <row r="265" spans="1:6">
       <c r="C265" s="1" t="s">
         <v>909</v>
       </c>
@@ -8293,7 +8298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1">
+    <row r="267" spans="1:6">
       <c r="C267" s="1" t="s">
         <v>917</v>
       </c>
@@ -8324,7 +8329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1">
+    <row r="269" spans="1:6">
       <c r="C269" s="1" t="s">
         <v>925</v>
       </c>
@@ -8335,7 +8340,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1">
+    <row r="270" spans="1:6">
       <c r="C270" s="1" t="s">
         <v>928</v>
       </c>
@@ -8366,7 +8371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1">
+    <row r="272" spans="1:6">
       <c r="C272" s="1" t="s">
         <v>936</v>
       </c>
@@ -8377,7 +8382,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1">
+    <row r="273" spans="1:6">
       <c r="C273" s="1" t="s">
         <v>939</v>
       </c>
@@ -8408,7 +8413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1">
+    <row r="275" spans="1:6">
       <c r="C275" s="1" t="s">
         <v>946</v>
       </c>
@@ -8419,7 +8424,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1">
+    <row r="276" spans="1:6">
       <c r="C276" s="1" t="s">
         <v>949</v>
       </c>
@@ -8430,7 +8435,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1">
+    <row r="277" spans="1:6">
       <c r="C277" s="1" t="s">
         <v>952</v>
       </c>
@@ -8461,7 +8466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1">
+    <row r="279" spans="1:6">
       <c r="C279" s="1" t="s">
         <v>959</v>
       </c>
@@ -8472,7 +8477,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1">
+    <row r="280" spans="1:6">
       <c r="C280" s="1" t="s">
         <v>962</v>
       </c>
@@ -8503,7 +8508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1">
+    <row r="282" spans="1:6">
       <c r="C282" s="1" t="s">
         <v>970</v>
       </c>
@@ -8514,7 +8519,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1">
+    <row r="283" spans="1:6">
       <c r="C283" s="1" t="s">
         <v>973</v>
       </c>
@@ -8525,7 +8530,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1">
+    <row r="284" spans="1:6">
       <c r="C284" s="1" t="s">
         <v>976</v>
       </c>
@@ -8556,7 +8561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1">
+    <row r="286" spans="1:6">
       <c r="C286" s="1" t="s">
         <v>984</v>
       </c>
@@ -8567,7 +8572,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1">
+    <row r="287" spans="1:6">
       <c r="C287" s="1" t="s">
         <v>987</v>
       </c>
@@ -8578,7 +8583,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1">
+    <row r="288" spans="1:6">
       <c r="C288" s="1" t="s">
         <v>990</v>
       </c>
@@ -8609,7 +8614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1">
+    <row r="290" spans="1:6">
       <c r="C290" s="1" t="s">
         <v>998</v>
       </c>
@@ -8640,7 +8645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1">
+    <row r="292" spans="1:6">
       <c r="C292" s="1" t="s">
         <v>1006</v>
       </c>
@@ -8671,7 +8676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1">
+    <row r="294" spans="1:6">
       <c r="C294" s="1" t="s">
         <v>1014</v>
       </c>
@@ -8742,7 +8747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1">
+    <row r="298" spans="1:6">
       <c r="C298" s="1" t="s">
         <v>1030</v>
       </c>
@@ -8753,7 +8758,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1">
+    <row r="299" spans="1:6">
       <c r="C299" s="1" t="s">
         <v>1033</v>
       </c>
@@ -8764,7 +8769,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1">
+    <row r="300" spans="1:6">
       <c r="C300" s="1" t="s">
         <v>1036</v>
       </c>
@@ -8815,7 +8820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1">
+    <row r="303" spans="1:6">
       <c r="C303" s="1" t="s">
         <v>1049</v>
       </c>
@@ -8826,7 +8831,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1">
+    <row r="304" spans="1:6">
       <c r="C304" s="1" t="s">
         <v>1052</v>
       </c>
@@ -8857,7 +8862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1">
+    <row r="306" spans="1:6">
       <c r="C306" s="1" t="s">
         <v>1060</v>
       </c>
@@ -8868,7 +8873,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1">
+    <row r="307" spans="1:6">
       <c r="C307" s="1" t="s">
         <v>145</v>
       </c>
@@ -8879,7 +8884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1">
+    <row r="308" spans="1:6">
       <c r="C308" s="1" t="s">
         <v>1063</v>
       </c>
@@ -8910,7 +8915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1">
+    <row r="310" spans="1:6">
       <c r="C310" s="1" t="s">
         <v>1071</v>
       </c>
@@ -8941,7 +8946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1">
+    <row r="312" spans="1:6">
       <c r="C312" s="1" t="s">
         <v>1079</v>
       </c>
@@ -8972,7 +8977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1">
+    <row r="314" spans="1:6">
       <c r="C314" s="1" t="s">
         <v>1087</v>
       </c>
@@ -8983,7 +8988,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1">
+    <row r="315" spans="1:6">
       <c r="C315" s="1" t="s">
         <v>1090</v>
       </c>
@@ -8994,7 +8999,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1">
+    <row r="316" spans="1:6">
       <c r="C316" s="1" t="s">
         <v>1093</v>
       </c>
@@ -9005,7 +9010,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1">
+    <row r="317" spans="1:6">
       <c r="C317" s="1" t="s">
         <v>1096</v>
       </c>
@@ -9036,7 +9041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1">
+    <row r="319" spans="1:6">
       <c r="C319" s="1" t="s">
         <v>1103</v>
       </c>
@@ -9047,7 +9052,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1">
+    <row r="320" spans="1:6">
       <c r="C320" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9058,7 +9063,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1">
+    <row r="321" spans="1:6">
       <c r="C321" s="1" t="s">
         <v>1109</v>
       </c>
@@ -9089,7 +9094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1">
+    <row r="323" spans="1:6">
       <c r="C323" s="1" t="s">
         <v>1117</v>
       </c>
@@ -9100,7 +9105,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1">
+    <row r="324" spans="1:6">
       <c r="C324" s="1" t="s">
         <v>1120</v>
       </c>
@@ -9111,7 +9116,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1">
+    <row r="325" spans="1:6">
       <c r="C325" s="1" t="s">
         <v>1123</v>
       </c>
@@ -9162,7 +9167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1">
+    <row r="328" spans="1:6">
       <c r="C328" s="1" t="s">
         <v>1136</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1">
+    <row r="329" spans="1:6">
       <c r="C329" s="1" t="s">
         <v>1139</v>
       </c>
@@ -9224,7 +9229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1">
+    <row r="332" spans="1:6">
       <c r="C332" s="1" t="s">
         <v>1151</v>
       </c>
@@ -9235,7 +9240,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1">
+    <row r="333" spans="1:6">
       <c r="C333" s="1" t="s">
         <v>393</v>
       </c>
@@ -9246,7 +9251,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1">
+    <row r="334" spans="1:6">
       <c r="C334" s="1" t="s">
         <v>1154</v>
       </c>
@@ -9257,7 +9262,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1">
+    <row r="335" spans="1:6">
       <c r="C335" s="1" t="s">
         <v>1157</v>
       </c>
@@ -9288,7 +9293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1">
+    <row r="337" spans="1:6">
       <c r="C337" s="1" t="s">
         <v>1163</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1">
+    <row r="338" spans="1:6">
       <c r="C338" s="1" t="s">
         <v>1165</v>
       </c>
@@ -9310,7 +9315,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1">
+    <row r="339" spans="1:6">
       <c r="C339" s="1" t="s">
         <v>1168</v>
       </c>
@@ -9321,7 +9326,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1">
+    <row r="340" spans="1:6">
       <c r="C340" s="1" t="s">
         <v>1171</v>
       </c>
@@ -9352,7 +9357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1">
+    <row r="342" spans="1:6">
       <c r="C342" s="1" t="s">
         <v>1178</v>
       </c>
@@ -9383,7 +9388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1">
+    <row r="344" spans="1:6">
       <c r="C344" s="1" t="s">
         <v>1186</v>
       </c>
@@ -9414,7 +9419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1">
+    <row r="346" spans="1:6">
       <c r="C346" s="1" t="s">
         <v>1194</v>
       </c>
@@ -9425,7 +9430,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1">
+    <row r="347" spans="1:6">
       <c r="C347" s="1" t="s">
         <v>1197</v>
       </c>
@@ -9456,7 +9461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1">
+    <row r="349" spans="1:6">
       <c r="C349" s="1" t="s">
         <v>1203</v>
       </c>
@@ -9507,7 +9512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1">
+    <row r="352" spans="1:6">
       <c r="C352" s="1" t="s">
         <v>1215</v>
       </c>
@@ -9518,7 +9523,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1">
+    <row r="353" spans="1:6">
       <c r="C353" s="1" t="s">
         <v>1218</v>
       </c>
@@ -9549,7 +9554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1">
+    <row r="355" spans="1:6">
       <c r="C355" s="1" t="s">
         <v>1223</v>
       </c>
@@ -9580,7 +9585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1">
+    <row r="357" spans="1:6">
       <c r="C357" s="1" t="s">
         <v>1230</v>
       </c>
@@ -9591,7 +9596,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1">
+    <row r="358" spans="1:6">
       <c r="C358" s="1" t="s">
         <v>1233</v>
       </c>
@@ -9622,7 +9627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1">
+    <row r="360" spans="1:6">
       <c r="C360" s="1" t="s">
         <v>1239</v>
       </c>
@@ -9633,7 +9638,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1">
+    <row r="361" spans="1:6">
       <c r="C361" s="1" t="s">
         <v>1242</v>
       </c>
@@ -9664,7 +9669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1">
+    <row r="363" spans="1:6">
       <c r="C363" s="1" t="s">
         <v>1249</v>
       </c>
@@ -9675,7 +9680,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1">
+    <row r="364" spans="1:6">
       <c r="C364" s="1" t="s">
         <v>1252</v>
       </c>
@@ -9706,7 +9711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1">
+    <row r="366" spans="1:6">
       <c r="C366" s="1" t="s">
         <v>1260</v>
       </c>
@@ -9737,7 +9742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1">
+    <row r="368" spans="1:6">
       <c r="C368" s="1" t="s">
         <v>1266</v>
       </c>
@@ -9788,7 +9793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1">
+    <row r="371" spans="1:6">
       <c r="C371" s="1" t="s">
         <v>1279</v>
       </c>
@@ -9799,7 +9804,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1">
+    <row r="372" spans="1:6">
       <c r="C372" s="1" t="s">
         <v>1282</v>
       </c>
@@ -9830,7 +9835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1">
+    <row r="374" spans="1:6">
       <c r="C374" s="1" t="s">
         <v>215</v>
       </c>
@@ -9841,7 +9846,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1">
+    <row r="375" spans="1:6">
       <c r="C375" s="1" t="s">
         <v>973</v>
       </c>
@@ -9852,7 +9857,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1">
+    <row r="376" spans="1:6">
       <c r="C376" s="1" t="s">
         <v>990</v>
       </c>
@@ -9903,7 +9908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1">
+    <row r="379" spans="1:6">
       <c r="C379" s="1" t="s">
         <v>1299</v>
       </c>
@@ -9914,7 +9919,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1">
+    <row r="380" spans="1:6">
       <c r="C380" s="1" t="s">
         <v>1301</v>
       </c>
@@ -9946,13 +9951,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E381" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E381" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9960,20 +9959,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9989,8 +9989,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -10006,8 +10009,11 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75">
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -10020,7 +10026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -10033,7 +10039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -10049,8 +10055,11 @@
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -10063,7 +10072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -10076,7 +10085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -10089,7 +10098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -10102,7 +10111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -10118,8 +10127,11 @@
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75">
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21523"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{149FE650-DD2D-4342-BE77-13711CCB8E13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A73309-0229-4771-B7DD-84482009EF6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1332">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -3955,6 +3955,75 @@
   </si>
   <si>
     <t>thứ ~</t>
+  </si>
+  <si>
+    <t>急</t>
+  </si>
+  <si>
+    <t>Tốc</t>
+  </si>
+  <si>
+    <t>いそぎます</t>
+  </si>
+  <si>
+    <t>急ぎます</t>
+  </si>
+  <si>
+    <t>vội vàng</t>
+  </si>
+  <si>
+    <t>きゅうこう</t>
+  </si>
+  <si>
+    <t>急行</t>
+  </si>
+  <si>
+    <t>tàu tốc hành</t>
+  </si>
+  <si>
+    <t>とっきゅう</t>
+  </si>
+  <si>
+    <t>特急</t>
+  </si>
+  <si>
+    <t>tàu tốc hành đặc biệt</t>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>うた</t>
+  </si>
+  <si>
+    <t>bài hát</t>
+  </si>
+  <si>
+    <t>うたいます</t>
+  </si>
+  <si>
+    <t>歌います</t>
+  </si>
+  <si>
+    <t>hát</t>
+  </si>
+  <si>
+    <t>終</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>おわります</t>
+  </si>
+  <si>
+    <t>終わります</t>
+  </si>
+  <si>
+    <t>kết thúc</t>
   </si>
 </sst>
 </file>
@@ -4346,10 +4415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H381"/>
+  <dimension ref="A1:H387"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A369" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E381" sqref="E381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4415,11 +4484,11 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTA(A2:A100000)</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA(C2:C10000)</f>
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9948,6 +10017,99 @@
       </c>
       <c r="F381" s="1">
         <v>19</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F382" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="C383" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="C384" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F385" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="C386" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F387" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -9962,7 +10124,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9995,154 +10157,133 @@
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1309</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F2" s="1">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>1314</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>1315</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>1316</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>1317</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>1318</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>1319</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>1320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>1321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>1322</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>1320</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
+        <v>1323</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>1324</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>1325</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>1326</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1328</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>1329</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>1330</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>1331</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21528"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A73309-0229-4771-B7DD-84482009EF6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C0CFB2A-4A16-4E69-9D03-D1FE0E3D7F82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$325</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$326</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1374">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -549,6 +549,15 @@
     <t>nha sĩ</t>
   </si>
   <si>
+    <t>いがくぶ</t>
+  </si>
+  <si>
+    <t>医学部</t>
+  </si>
+  <si>
+    <t>khoa y</t>
+  </si>
+  <si>
     <t>者</t>
   </si>
   <si>
@@ -4024,6 +4033,123 @@
   </si>
   <si>
     <t>kết thúc</t>
+  </si>
+  <si>
+    <t>病</t>
+  </si>
+  <si>
+    <t>びょういん</t>
+  </si>
+  <si>
+    <t>病院</t>
+  </si>
+  <si>
+    <t>bệnh viện</t>
+  </si>
+  <si>
+    <t>ốm</t>
+  </si>
+  <si>
+    <t>院</t>
+  </si>
+  <si>
+    <t>viện</t>
+  </si>
+  <si>
+    <t>だいがくいん</t>
+  </si>
+  <si>
+    <t>大学院</t>
+  </si>
+  <si>
+    <t>cao học</t>
+  </si>
+  <si>
+    <t>にゅういんします</t>
+  </si>
+  <si>
+    <t>入院します</t>
+  </si>
+  <si>
+    <t>nhập viện</t>
+  </si>
+  <si>
+    <t>びよういん</t>
+  </si>
+  <si>
+    <t>美容院</t>
+  </si>
+  <si>
+    <t>thẩm mĩ viện</t>
+  </si>
+  <si>
+    <t>たいいんします</t>
+  </si>
+  <si>
+    <t>退院します</t>
+  </si>
+  <si>
+    <t>xuất viện</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>thế</t>
+  </si>
+  <si>
+    <t>せわ</t>
+  </si>
+  <si>
+    <t>世話</t>
+  </si>
+  <si>
+    <t>chăm sóc</t>
+  </si>
+  <si>
+    <t>世界中</t>
+  </si>
+  <si>
+    <t>せいき</t>
+  </si>
+  <si>
+    <t>世紀</t>
+  </si>
+  <si>
+    <t>thế kỉ</t>
+  </si>
+  <si>
+    <t>界</t>
+  </si>
+  <si>
+    <t>giới</t>
+  </si>
+  <si>
+    <t>せかい</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>thế giới</t>
+  </si>
+  <si>
+    <t>せかいいさん</t>
+  </si>
+  <si>
+    <t>世界遺産</t>
+  </si>
+  <si>
+    <t>di sản thế giới</t>
+  </si>
+  <si>
+    <t>せかいはつ</t>
+  </si>
+  <si>
+    <t>世界初</t>
+  </si>
+  <si>
+    <t>thế giới mới</t>
   </si>
 </sst>
 </file>
@@ -4415,10 +4541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H387"/>
+  <dimension ref="A1:H388"/>
   <sheetViews>
-    <sheetView topLeftCell="A369" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E381" sqref="E381"/>
+    <sheetView topLeftCell="A373" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4483,12 +4609,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100000)</f>
+        <f>COUNTA(A2:A100001)</f>
         <v>155</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10000)</f>
-        <v>386</v>
+        <f>COUNTA(C2:C10001)</f>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5153,57 +5279,54 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="C51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F52" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
       <c r="C53" s="1" t="s">
         <v>183</v>
       </c>
@@ -5212,6 +5335,9 @@
       </c>
       <c r="E53" s="1" t="s">
         <v>185</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5226,34 +5352,34 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="B56" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>195</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5290,26 +5416,23 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F60" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
       <c r="C61" s="1" t="s">
         <v>210</v>
       </c>
@@ -5319,36 +5442,39 @@
       <c r="E61" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="F61" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="C63" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5363,34 +5489,34 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>226</v>
+      </c>
+      <c r="F66" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5416,23 +5542,14 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F69" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5449,86 +5566,92 @@
         <v>236</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F70" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="B71" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="C71" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="F71" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F72" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="B73" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C73" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="F73" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="74" spans="1:6">
       <c r="C74" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F75" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
       <c r="C76" s="1" t="s">
         <v>255</v>
       </c>
@@ -5538,28 +5661,28 @@
       <c r="E76" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="F76" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F77" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
       <c r="C78" s="1" t="s">
         <v>263</v>
       </c>
@@ -5568,6 +5691,9 @@
       </c>
       <c r="E78" s="1" t="s">
         <v>265</v>
+      </c>
+      <c r="F78" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5586,33 +5712,30 @@
         <v>269</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="C81" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F81" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
       <c r="C82" s="1" t="s">
         <v>276</v>
       </c>
@@ -5621,6 +5744,9 @@
       </c>
       <c r="E82" s="1" t="s">
         <v>278</v>
+      </c>
+      <c r="F82" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5635,26 +5761,23 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F84" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
       <c r="C85" s="1" t="s">
         <v>287</v>
       </c>
@@ -5664,48 +5787,48 @@
       <c r="E85" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="F85" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F86" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="F87" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>299</v>
       </c>
@@ -5715,81 +5838,81 @@
       <c r="E88" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="F88" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D89" s="1" t="s">
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F89" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
       <c r="C90" s="1" t="s">
         <v>307</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="F90" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="C91" s="1" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="C92" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="C93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D93" s="1" t="s">
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F93" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
       <c r="C94" s="1" t="s">
         <v>314</v>
       </c>
@@ -5799,27 +5922,30 @@
       <c r="E94" s="1" t="s">
         <v>316</v>
       </c>
+      <c r="F94" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="95" spans="1:6">
       <c r="C95" s="1" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>23</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="C96" s="1" t="s">
-        <v>317</v>
+        <v>21</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>318</v>
+        <v>22</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>319</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5834,57 +5960,54 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E98" s="1" t="s">
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F98" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="B99" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C99" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="F99" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F100" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
       <c r="C101" s="1" t="s">
         <v>335</v>
       </c>
@@ -5893,6 +6016,9 @@
       </c>
       <c r="E101" s="1" t="s">
         <v>337</v>
+      </c>
+      <c r="F101" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5918,26 +6044,23 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D104" s="1" t="s">
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F104" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
       <c r="C105" s="1" t="s">
         <v>349</v>
       </c>
@@ -5946,6 +6069,9 @@
       </c>
       <c r="E105" s="1" t="s">
         <v>351</v>
+      </c>
+      <c r="F105" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5960,34 +6086,34 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="E107" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F108" s="1">
         <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="C108" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6013,34 +6139,34 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="E111" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F112" s="1">
         <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="C112" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6056,118 +6182,115 @@
     </row>
     <row r="114" spans="1:6">
       <c r="C114" s="1" t="s">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>315</v>
+        <v>375</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="C115" s="1" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F115" s="1">
-        <v>5</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="F116" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F116" s="1">
+      <c r="C117" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F117" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="C117" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="C118" s="1" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F118" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="B119" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="C119" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>390</v>
       </c>
+      <c r="F119" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D120" s="1" t="s">
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F120" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
       <c r="C121" s="1" t="s">
         <v>396</v>
       </c>
@@ -6176,6 +6299,9 @@
       </c>
       <c r="E121" s="1" t="s">
         <v>398</v>
+      </c>
+      <c r="F121" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6190,97 +6316,94 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E123" s="1" t="s">
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F123" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="B124" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="F124" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F125" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="F126" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="F127" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>424</v>
       </c>
@@ -6290,28 +6413,28 @@
       <c r="E128" s="1" t="s">
         <v>426</v>
       </c>
+      <c r="F128" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D129" s="1" t="s">
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F129" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
       <c r="C130" s="1" t="s">
         <v>432</v>
       </c>
@@ -6320,6 +6443,9 @@
       </c>
       <c r="E130" s="1" t="s">
         <v>434</v>
+      </c>
+      <c r="F130" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6334,26 +6460,23 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D132" s="1" t="s">
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F132" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
         <v>443</v>
       </c>
@@ -6362,6 +6485,9 @@
       </c>
       <c r="E133" s="1" t="s">
         <v>445</v>
+      </c>
+      <c r="F133" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6376,26 +6502,23 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D135" s="1" t="s">
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F135" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
       <c r="C136" s="1" t="s">
         <v>454</v>
       </c>
@@ -6404,6 +6527,9 @@
       </c>
       <c r="E136" s="1" t="s">
         <v>456</v>
+      </c>
+      <c r="F136" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6419,47 +6545,44 @@
     </row>
     <row r="138" spans="1:6">
       <c r="C138" s="1" t="s">
-        <v>52</v>
+        <v>460</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>53</v>
+        <v>461</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>54</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="C139" s="1" t="s">
-        <v>460</v>
+        <v>52</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>461</v>
+        <v>53</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>462</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D140" s="1" t="s">
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F140" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
       <c r="C141" s="1" t="s">
         <v>468</v>
       </c>
@@ -6468,6 +6591,9 @@
       </c>
       <c r="E141" s="1" t="s">
         <v>470</v>
+      </c>
+      <c r="F141" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6482,26 +6608,23 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F143" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
       <c r="C144" s="1" t="s">
         <v>479</v>
       </c>
@@ -6510,6 +6633,9 @@
       </c>
       <c r="E144" s="1" t="s">
         <v>481</v>
+      </c>
+      <c r="F144" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6524,26 +6650,23 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F146" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
       <c r="C147" s="1" t="s">
         <v>490</v>
       </c>
@@ -6553,28 +6676,28 @@
       <c r="E147" s="1" t="s">
         <v>492</v>
       </c>
+      <c r="F147" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D148" s="1" t="s">
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F148" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
       <c r="C149" s="1" t="s">
         <v>498</v>
       </c>
@@ -6584,48 +6707,48 @@
       <c r="E149" s="1" t="s">
         <v>500</v>
       </c>
+      <c r="F149" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F150" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="F151" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F151" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
       <c r="C152" s="1" t="s">
         <v>511</v>
       </c>
@@ -6635,56 +6758,59 @@
       <c r="E152" s="1" t="s">
         <v>513</v>
       </c>
+      <c r="F152" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F153" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F154" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="B155" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="C155" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>525</v>
+      </c>
+      <c r="F155" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6710,34 +6836,34 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E158" s="1" t="s">
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F158" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="B159" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="C159" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>538</v>
+      </c>
+      <c r="F159" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6763,88 +6889,85 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E162" s="1" t="s">
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F162" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="B163" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="C163" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>551</v>
       </c>
+      <c r="F163" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E164" s="1" t="s">
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F164" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="B165" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="C165" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>558</v>
       </c>
+      <c r="F165" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D166" s="1" t="s">
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F166" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
       <c r="C167" s="1" t="s">
         <v>564</v>
       </c>
@@ -6853,6 +6976,9 @@
       </c>
       <c r="E167" s="1" t="s">
         <v>566</v>
+      </c>
+      <c r="F167" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6868,67 +6994,64 @@
     </row>
     <row r="169" spans="1:6">
       <c r="C169" s="1" t="s">
-        <v>468</v>
+        <v>570</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E170" s="1" t="s">
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F170" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="B171" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="C171" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>578</v>
       </c>
+      <c r="F171" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F172" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
       <c r="C173" s="1" t="s">
         <v>584</v>
       </c>
@@ -6938,28 +7061,28 @@
       <c r="E173" s="1" t="s">
         <v>586</v>
       </c>
+      <c r="F173" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D174" s="1" t="s">
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F174" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
       <c r="C175" s="1" t="s">
         <v>592</v>
       </c>
@@ -6968,6 +7091,9 @@
       </c>
       <c r="E175" s="1" t="s">
         <v>594</v>
+      </c>
+      <c r="F175" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6993,65 +7119,65 @@
       </c>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="E178" s="1" t="s">
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="F178" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="B179" s="1" t="s">
+        <v>605</v>
+      </c>
       <c r="C179" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>607</v>
       </c>
+      <c r="F179" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E180" s="1" t="s">
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F180" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="B181" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="C181" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>614</v>
+      </c>
+      <c r="F181" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7067,36 +7193,33 @@
     </row>
     <row r="183" spans="1:6">
       <c r="C183" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="C184" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D184" s="1" t="s">
+    <row r="185" spans="1:6">
+      <c r="A185" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F184" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
       <c r="C185" s="1" t="s">
         <v>623</v>
       </c>
@@ -7105,6 +7228,9 @@
       </c>
       <c r="E185" s="1" t="s">
         <v>625</v>
+      </c>
+      <c r="F185" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7119,26 +7245,23 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="D187" s="1" t="s">
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F187" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
       <c r="C188" s="1" t="s">
         <v>634</v>
       </c>
@@ -7148,36 +7271,39 @@
       <c r="E188" s="1" t="s">
         <v>636</v>
       </c>
+      <c r="F188" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E189" s="1" t="s">
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="F189" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="B190" s="1" t="s">
+        <v>641</v>
+      </c>
       <c r="C190" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>643</v>
+      </c>
+      <c r="F190" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7192,26 +7318,23 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D192" s="1" t="s">
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F192" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
       <c r="C193" s="1" t="s">
         <v>652</v>
       </c>
@@ -7220,6 +7343,9 @@
       </c>
       <c r="E193" s="1" t="s">
         <v>654</v>
+      </c>
+      <c r="F193" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7234,158 +7360,158 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="E195" s="1" t="s">
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F195" s="1">
+      <c r="B196" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F196" s="1">
         <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="C196" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="C197" s="1" t="s">
-        <v>662</v>
+        <v>255</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>663</v>
+        <v>256</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>664</v>
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="F198" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="F199" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:6">
+      <c r="A200" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="C200" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>675</v>
       </c>
+      <c r="F200" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="E201" s="1" t="s">
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F201" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="B202" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="C202" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>682</v>
       </c>
+      <c r="F202" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E203" s="1" t="s">
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F203" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="B204" s="1" t="s">
+        <v>687</v>
+      </c>
       <c r="C204" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>689</v>
+      </c>
+      <c r="F204" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -7400,34 +7526,34 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E206" s="1" t="s">
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F206" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="B207" s="1" t="s">
+        <v>697</v>
+      </c>
       <c r="C207" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>699</v>
+      </c>
+      <c r="F207" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -7442,46 +7568,43 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="F209" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="F210" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="F210" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
       <c r="C211" s="1" t="s">
         <v>712</v>
       </c>
@@ -7491,79 +7614,79 @@
       <c r="E211" s="1" t="s">
         <v>714</v>
       </c>
+      <c r="F211" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D212" s="1" t="s">
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F212" s="1">
+      <c r="C213" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F213" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
-      <c r="C213" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="C214" s="1" t="s">
-        <v>722</v>
+        <v>485</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>723</v>
+        <v>486</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="F214" s="1">
-        <v>14</v>
+        <v>487</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="F215" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="F215" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
       <c r="C216" s="1" t="s">
         <v>730</v>
       </c>
@@ -7573,70 +7696,70 @@
       <c r="E216" s="1" t="s">
         <v>732</v>
       </c>
+      <c r="F216" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D217" s="1" t="s">
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F217" s="1">
+      <c r="C218" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F218" s="1">
         <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="C218" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="C219" s="1" t="s">
-        <v>738</v>
+        <v>399</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>739</v>
+        <v>400</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>740</v>
+        <v>401</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="D220" s="1" t="s">
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="F220" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
       <c r="C221" s="1" t="s">
         <v>746</v>
       </c>
@@ -7646,48 +7769,48 @@
       <c r="E221" s="1" t="s">
         <v>748</v>
       </c>
+      <c r="F221" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="F222" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="F223" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:6">
+      <c r="A224" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="C224" s="1" t="s">
         <v>759</v>
       </c>
@@ -7697,28 +7820,28 @@
       <c r="E224" s="1" t="s">
         <v>761</v>
       </c>
+      <c r="F224" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E225" s="1" t="s">
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="F225" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="B226" s="1" t="s">
+        <v>669</v>
+      </c>
       <c r="C226" s="1" t="s">
         <v>766</v>
       </c>
@@ -7728,48 +7851,48 @@
       <c r="E226" s="1" t="s">
         <v>768</v>
       </c>
+      <c r="F226" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="F227" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="F228" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="F228" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
       <c r="C229" s="1" t="s">
         <v>779</v>
       </c>
@@ -7778,6 +7901,9 @@
       </c>
       <c r="E229" s="1" t="s">
         <v>781</v>
+      </c>
+      <c r="F229" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -7792,26 +7918,23 @@
       </c>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D231" s="1" t="s">
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="F231" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
       <c r="C232" s="1" t="s">
         <v>790</v>
       </c>
@@ -7821,45 +7944,39 @@
       <c r="E232" s="1" t="s">
         <v>792</v>
       </c>
+      <c r="F232" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="F233" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>797</v>
-      </c>
       <c r="F234" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -7873,75 +7990,84 @@
         <v>803</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F235" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:6">
+      <c r="A236" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>805</v>
+      </c>
       <c r="C236" s="1" t="s">
-        <v>576</v>
+        <v>806</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>578</v>
+        <v>807</v>
+      </c>
+      <c r="F236" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>807</v>
-      </c>
       <c r="C237" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>809</v>
-      </c>
       <c r="E237" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="F237" s="1">
-        <v>9</v>
+        <v>581</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>810</v>
-      </c>
       <c r="F238" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F239" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="C239" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -7956,88 +8082,85 @@
       </c>
     </row>
     <row r="241" spans="1:6">
-      <c r="A241" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="E241" s="1" t="s">
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="F241" s="1">
+      <c r="B242" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F242" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="C242" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="C243" s="1" t="s">
-        <v>824</v>
+        <v>156</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>825</v>
+        <v>157</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>826</v>
+        <v>158</v>
       </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F244" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="F245" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="F245" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
       <c r="C246" s="1" t="s">
         <v>837</v>
       </c>
@@ -8047,48 +8170,48 @@
       <c r="E246" s="1" t="s">
         <v>839</v>
       </c>
+      <c r="F246" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="F247" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="F248" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="F248" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
       <c r="C249" s="1" t="s">
         <v>850</v>
       </c>
@@ -8097,6 +8220,9 @@
       </c>
       <c r="E249" s="1" t="s">
         <v>852</v>
+      </c>
+      <c r="F249" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -8133,108 +8259,105 @@
       </c>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="F253" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>871</v>
-      </c>
       <c r="F254" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E255" s="1" t="s">
-        <v>343</v>
+        <v>874</v>
       </c>
       <c r="F255" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:6">
+      <c r="A256" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>876</v>
+      </c>
       <c r="C256" s="1" t="s">
-        <v>874</v>
+        <v>344</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>872</v>
+        <v>345</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>875</v>
+        <v>346</v>
+      </c>
+      <c r="F256" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="C257" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="D258" s="1" t="s">
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="F258" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
       <c r="C259" s="1" t="s">
         <v>884</v>
       </c>
@@ -8243,6 +8366,9 @@
       </c>
       <c r="E259" s="1" t="s">
         <v>886</v>
+      </c>
+      <c r="F259" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -8257,117 +8383,114 @@
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="1" t="s">
+      <c r="C261" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="F261" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="F262" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>904</v>
-      </c>
       <c r="F263" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="E264" s="1" t="s">
+      <c r="F264" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="F264" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="B265" s="1" t="s">
+        <v>909</v>
+      </c>
       <c r="C265" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>911</v>
       </c>
+      <c r="F265" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="D266" s="1" t="s">
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="F266" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
       <c r="C267" s="1" t="s">
         <v>917</v>
       </c>
@@ -8377,28 +8500,28 @@
       <c r="E267" s="1" t="s">
         <v>919</v>
       </c>
+      <c r="F267" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="D268" s="1" t="s">
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="E268" s="1" t="s">
+      <c r="B269" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="F268" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
       <c r="C269" s="1" t="s">
         <v>925</v>
       </c>
@@ -8407,6 +8530,9 @@
       </c>
       <c r="E269" s="1" t="s">
         <v>927</v>
+      </c>
+      <c r="F269" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -8421,26 +8547,23 @@
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="D271" s="1" t="s">
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="E271" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="F271" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
       <c r="C272" s="1" t="s">
         <v>936</v>
       </c>
@@ -8449,6 +8572,9 @@
       </c>
       <c r="E272" s="1" t="s">
         <v>938</v>
+      </c>
+      <c r="F272" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -8463,26 +8589,23 @@
       </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="E274" s="1" t="s">
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="F274" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="B275" s="1" t="s">
+        <v>805</v>
+      </c>
       <c r="C275" s="1" t="s">
         <v>946</v>
       </c>
@@ -8491,6 +8614,9 @@
       </c>
       <c r="E275" s="1" t="s">
         <v>948</v>
+      </c>
+      <c r="F275" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -8516,34 +8642,34 @@
       </c>
     </row>
     <row r="278" spans="1:6">
-      <c r="A278" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="E278" s="1" t="s">
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="F278" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="B279" s="1" t="s">
+        <v>959</v>
+      </c>
       <c r="C279" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>961</v>
+      </c>
+      <c r="F279" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -8558,26 +8684,23 @@
       </c>
     </row>
     <row r="281" spans="1:6">
-      <c r="A281" s="1" t="s">
+      <c r="C281" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="E281" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="D281" s="1" t="s">
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="E281" s="1" t="s">
+      <c r="B282" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="F281" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
       <c r="C282" s="1" t="s">
         <v>970</v>
       </c>
@@ -8586,6 +8709,9 @@
       </c>
       <c r="E282" s="1" t="s">
         <v>972</v>
+      </c>
+      <c r="F282" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -8611,26 +8737,23 @@
       </c>
     </row>
     <row r="285" spans="1:6">
-      <c r="A285" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D285" s="1" t="s">
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="E285" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="F285" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
       <c r="C286" s="1" t="s">
         <v>984</v>
       </c>
@@ -8639,6 +8762,9 @@
       </c>
       <c r="E286" s="1" t="s">
         <v>986</v>
+      </c>
+      <c r="F286" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8664,26 +8790,23 @@
       </c>
     </row>
     <row r="289" spans="1:6">
-      <c r="A289" s="1" t="s">
+      <c r="C289" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="D289" s="1" t="s">
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="E289" s="1" t="s">
+      <c r="B290" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="F289" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
       <c r="C290" s="1" t="s">
         <v>998</v>
       </c>
@@ -8693,28 +8816,28 @@
       <c r="E290" s="1" t="s">
         <v>1000</v>
       </c>
+      <c r="F290" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="291" spans="1:6">
-      <c r="A291" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="E291" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="D291" s="1" t="s">
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="E291" s="1" t="s">
+      <c r="B292" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="F291" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
       <c r="C292" s="1" t="s">
         <v>1006</v>
       </c>
@@ -8724,28 +8847,28 @@
       <c r="E292" s="1" t="s">
         <v>1008</v>
       </c>
+      <c r="F292" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="D293" s="1" t="s">
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="E293" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="F293" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
       <c r="C294" s="1" t="s">
         <v>1014</v>
       </c>
@@ -8755,68 +8878,68 @@
       <c r="E294" s="1" t="s">
         <v>1016</v>
       </c>
+      <c r="F294" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="295" spans="1:6">
-      <c r="A295" s="1" t="s">
+      <c r="C295" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F295" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>1024</v>
-      </c>
       <c r="E296" s="1" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="F296" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="E297" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F297" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="E297" s="1" t="s">
+      <c r="B298" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="F297" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
       <c r="C298" s="1" t="s">
         <v>1030</v>
       </c>
@@ -8825,6 +8948,9 @@
       </c>
       <c r="E298" s="1" t="s">
         <v>1032</v>
+      </c>
+      <c r="F298" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -8850,46 +8976,43 @@
       </c>
     </row>
     <row r="301" spans="1:6">
-      <c r="A301" s="1" t="s">
+      <c r="C301" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F301" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="E302" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="F302" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="E302" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="F302" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
       <c r="C303" s="1" t="s">
         <v>1049</v>
       </c>
@@ -8898,6 +9021,9 @@
       </c>
       <c r="E303" s="1" t="s">
         <v>1051</v>
+      </c>
+      <c r="F303" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -8912,26 +9038,23 @@
       </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="1" t="s">
+      <c r="C305" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="E305" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="D305" s="1" t="s">
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="E305" s="1" t="s">
+      <c r="B306" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="F305" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
       <c r="C306" s="1" t="s">
         <v>1060</v>
       </c>
@@ -8941,50 +9064,50 @@
       <c r="E306" s="1" t="s">
         <v>1062</v>
       </c>
+      <c r="F306" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="307" spans="1:6">
       <c r="C307" s="1" t="s">
-        <v>145</v>
+        <v>1063</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>146</v>
+        <v>1064</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>147</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="C308" s="1" t="s">
-        <v>1063</v>
+        <v>145</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1064</v>
+        <v>146</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1065</v>
+        <v>147</v>
       </c>
     </row>
     <row r="309" spans="1:6">
-      <c r="A309" s="1" t="s">
+      <c r="C309" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="E309" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D309" s="1" t="s">
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="E309" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="F309" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
       <c r="C310" s="1" t="s">
         <v>1071</v>
       </c>
@@ -8994,28 +9117,28 @@
       <c r="E310" s="1" t="s">
         <v>1073</v>
       </c>
+      <c r="F310" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="1" t="s">
+      <c r="C311" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="D311" s="1" t="s">
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="E311" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="F311" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
       <c r="C312" s="1" t="s">
         <v>1079</v>
       </c>
@@ -9025,28 +9148,28 @@
       <c r="E312" s="1" t="s">
         <v>1081</v>
       </c>
+      <c r="F312" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="1" t="s">
+      <c r="C313" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="E313" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="D313" s="1" t="s">
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="E313" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="F313" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
       <c r="C314" s="1" t="s">
         <v>1087</v>
       </c>
@@ -9055,6 +9178,9 @@
       </c>
       <c r="E314" s="1" t="s">
         <v>1089</v>
+      </c>
+      <c r="F314" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -9087,30 +9213,27 @@
         <v>1097</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>855</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="D318" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="E318" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="F318" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
       <c r="C319" s="1" t="s">
         <v>1103</v>
       </c>
@@ -9119,6 +9242,9 @@
       </c>
       <c r="E319" s="1" t="s">
         <v>1105</v>
+      </c>
+      <c r="F319" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -9144,26 +9270,23 @@
       </c>
     </row>
     <row r="322" spans="1:6">
-      <c r="A322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="E322" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="D322" s="1" t="s">
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="E322" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="F322" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
       <c r="C323" s="1" t="s">
         <v>1117</v>
       </c>
@@ -9172,6 +9295,9 @@
       </c>
       <c r="E323" s="1" t="s">
         <v>1119</v>
+      </c>
+      <c r="F323" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -9197,46 +9323,43 @@
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="E326" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F326" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="E327" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="D327" s="1" t="s">
+      <c r="F327" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="E327" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="F327" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
       <c r="C328" s="1" t="s">
         <v>1136</v>
       </c>
@@ -9245,6 +9368,9 @@
       </c>
       <c r="E328" s="1" t="s">
         <v>1138</v>
+      </c>
+      <c r="F328" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -9259,46 +9385,43 @@
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F330" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E331" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="D331" s="1" t="s">
+      <c r="F331" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="E331" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="F331" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
       <c r="C332" s="1" t="s">
         <v>1151</v>
       </c>
@@ -9308,27 +9431,30 @@
       <c r="E332" s="1" t="s">
         <v>1153</v>
       </c>
+      <c r="F332" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="333" spans="1:6">
       <c r="C333" s="1" t="s">
-        <v>393</v>
+        <v>1154</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>394</v>
+        <v>1155</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>395</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="C334" s="1" t="s">
-        <v>1154</v>
+        <v>396</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>1155</v>
+        <v>397</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1156</v>
+        <v>398</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -9343,42 +9469,42 @@
       </c>
     </row>
     <row r="336" spans="1:6">
-      <c r="A336" s="1" t="s">
+      <c r="C336" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>851</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="F336" s="1">
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F337" s="1">
         <v>16</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="C337" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="C338" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>1167</v>
@@ -9407,26 +9533,23 @@
       </c>
     </row>
     <row r="341" spans="1:6">
-      <c r="A341" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="E341" s="1" t="s">
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="F341" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="B342" s="1" t="s">
+        <v>669</v>
+      </c>
       <c r="C342" s="1" t="s">
         <v>1178</v>
       </c>
@@ -9436,28 +9559,28 @@
       <c r="E342" s="1" t="s">
         <v>1180</v>
       </c>
+      <c r="F342" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="E343" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="D343" s="1" t="s">
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="E343" s="1" t="s">
+      <c r="B344" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="F343" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
       <c r="C344" s="1" t="s">
         <v>1186</v>
       </c>
@@ -9467,28 +9590,28 @@
       <c r="E344" s="1" t="s">
         <v>1188</v>
       </c>
+      <c r="F344" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="345" spans="1:6">
-      <c r="A345" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="E345" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="D345" s="1" t="s">
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="E345" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="F345" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
       <c r="C346" s="1" t="s">
         <v>1194</v>
       </c>
@@ -9497,6 +9620,9 @@
       </c>
       <c r="E346" s="1" t="s">
         <v>1196</v>
+      </c>
+      <c r="F346" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -9511,85 +9637,85 @@
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>1200</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="F348" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="349" spans="1:6">
+      <c r="A349" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>849</v>
+      </c>
       <c r="C349" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>1203</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>1204</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>1205</v>
       </c>
+      <c r="F349" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="350" spans="1:6">
-      <c r="A350" s="1" t="s">
+      <c r="C350" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="E350" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F350" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="D351" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E351" s="1" t="s">
+      <c r="F351" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="F351" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+      <c r="B352" s="1" t="s">
+        <v>1215</v>
+      </c>
       <c r="C352" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>1217</v>
+      </c>
+      <c r="F352" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -9600,69 +9726,69 @@
         <v>1219</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>625</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="354" spans="1:6">
-      <c r="A354" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="D354" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="D354" s="1" t="s">
-        <v>1220</v>
-      </c>
       <c r="E354" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F354" s="1">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F355" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
-      <c r="C355" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>1225</v>
-      </c>
-    </row>
     <row r="356" spans="1:6">
-      <c r="A356" s="1" t="s">
+      <c r="C356" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="E356" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E356" s="1" t="s">
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="F356" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
+      <c r="B357" s="1" t="s">
+        <v>1230</v>
+      </c>
       <c r="C357" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>1232</v>
+      </c>
+      <c r="F357" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -9677,34 +9803,34 @@
       </c>
     </row>
     <row r="359" spans="1:6">
-      <c r="A359" s="1" t="s">
+      <c r="C359" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>1237</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>1236</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="F359" s="1">
-        <v>9</v>
-      </c>
     </row>
     <row r="360" spans="1:6">
+      <c r="A360" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>687</v>
+      </c>
       <c r="C360" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D360" s="1" t="s">
         <v>1239</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>1240</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>1241</v>
+      </c>
+      <c r="F360" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -9719,34 +9845,34 @@
       </c>
     </row>
     <row r="362" spans="1:6">
-      <c r="A362" s="1" t="s">
+      <c r="C362" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="E362" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="D362" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E362" s="1" t="s">
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="F362" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="B363" s="1" t="s">
+        <v>1249</v>
+      </c>
       <c r="C363" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>1251</v>
+      </c>
+      <c r="F363" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -9761,26 +9887,23 @@
       </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="E365" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="D365" s="1" t="s">
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="E365" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="F365" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
       <c r="C366" s="1" t="s">
         <v>1260</v>
       </c>
@@ -9790,79 +9913,79 @@
       <c r="E366" s="1" t="s">
         <v>1262</v>
       </c>
+      <c r="F366" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="E367" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="D367" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F367" s="1">
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F368" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
-      <c r="C368" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
     <row r="369" spans="1:6">
-      <c r="A369" s="1" t="s">
+      <c r="C369" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>1271</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F369" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="E370" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="F370" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="E370" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="F370" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
       <c r="C371" s="1" t="s">
         <v>1279</v>
       </c>
@@ -9871,6 +9994,9 @@
       </c>
       <c r="E371" s="1" t="s">
         <v>1281</v>
+      </c>
+      <c r="F371" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -9885,161 +10011,158 @@
       </c>
     </row>
     <row r="373" spans="1:6">
-      <c r="A373" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="D373" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="E373" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E373" s="1" t="s">
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="F373" s="1">
+      <c r="B374" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F374" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="C374" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="C375" s="1" t="s">
-        <v>973</v>
+        <v>218</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>974</v>
+        <v>219</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="C376" s="1" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>975</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="377" spans="1:6">
-      <c r="A377" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>1292</v>
-      </c>
       <c r="C377" s="1" t="s">
-        <v>1293</v>
+        <v>993</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1291</v>
+        <v>994</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F377" s="1">
-        <v>5</v>
+        <v>978</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="D378" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E378" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D378" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E378" s="1" t="s">
+      <c r="F378" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="F378" s="1">
+      <c r="B379" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F379" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="C379" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="C380" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="381" spans="1:6">
-      <c r="A381" s="1" t="s">
+      <c r="C381" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="E381" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F381" s="1">
-        <v>19</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="E382" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="F382" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="E382" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="F382" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
       <c r="C383" s="1" t="s">
         <v>1314</v>
       </c>
@@ -10048,6 +10171,9 @@
       </c>
       <c r="E383" s="1" t="s">
         <v>1316</v>
+      </c>
+      <c r="F383" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -10062,58 +10188,69 @@
       </c>
     </row>
     <row r="385" spans="1:6">
-      <c r="A385" s="1" t="s">
+      <c r="C385" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="D385" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E385" s="1" t="s">
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="F385" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
+      <c r="B386" s="1" t="s">
+        <v>1324</v>
+      </c>
       <c r="C386" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>1326</v>
       </c>
+      <c r="F386" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="387" spans="1:6">
-      <c r="A387" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="E387" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D387" s="1" t="s">
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E387" s="1" t="s">
+      <c r="B388" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="F387" s="1">
+      <c r="C388" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F388" s="1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E381" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E382" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10121,10 +10258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10157,133 +10294,187 @@
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>1309</v>
+        <v>1335</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1310</v>
+        <v>1162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1311</v>
+        <v>1336</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1312</v>
+        <v>1337</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1313</v>
+        <v>1338</v>
       </c>
       <c r="F2" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1314</v>
+        <v>1160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1315</v>
+        <v>1161</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1316</v>
+        <v>1339</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1341</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>1317</v>
+        <v>1342</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1318</v>
+        <v>1343</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>1344</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1321</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>1322</v>
+        <v>1345</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1320</v>
+        <v>1346</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F5" s="1">
-        <v>14</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>1324</v>
+        <v>1348</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1325</v>
+        <v>1349</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1326</v>
+        <v>1350</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1328</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>1329</v>
+        <v>1351</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1330</v>
+        <v>1352</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F7" s="1">
-        <v>11</v>
-      </c>
+        <v>1353</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1362</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1373</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21609"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C0CFB2A-4A16-4E69-9D03-D1FE0E3D7F82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9020FFD9-2EB4-4077-9643-2C6E6F7E43AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$330</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1412">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -2700,6 +2700,21 @@
     <t>phòng học</t>
   </si>
   <si>
+    <t>きょうし</t>
+  </si>
+  <si>
+    <t>教師</t>
+  </si>
+  <si>
+    <t>きょういく</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>giáo dục</t>
+  </si>
+  <si>
     <t>だいきょうかい</t>
   </si>
   <si>
@@ -3033,6 +3048,18 @@
     <t>bán</t>
   </si>
   <si>
+    <t>うりば</t>
+  </si>
+  <si>
+    <t>売り場</t>
+  </si>
+  <si>
+    <t>quầy bán</t>
+  </si>
+  <si>
+    <t>自動販売機</t>
+  </si>
+  <si>
     <t>うれます</t>
   </si>
   <si>
@@ -4150,6 +4177,93 @@
   </si>
   <si>
     <t>thế giới mới</t>
+  </si>
+  <si>
+    <t>研</t>
+  </si>
+  <si>
+    <t>nghiên</t>
+  </si>
+  <si>
+    <t>けんきゅうしゃ</t>
+  </si>
+  <si>
+    <t>研究者</t>
+  </si>
+  <si>
+    <t>nhà nghiên cứu</t>
+  </si>
+  <si>
+    <t>けんきゅうしつ</t>
+  </si>
+  <si>
+    <t>研究室</t>
+  </si>
+  <si>
+    <t>phòng nghiên cứu</t>
+  </si>
+  <si>
+    <t>究</t>
+  </si>
+  <si>
+    <t>cứu</t>
+  </si>
+  <si>
+    <t>けんきゅうします</t>
+  </si>
+  <si>
+    <t>研究します</t>
+  </si>
+  <si>
+    <t>nghiên cứu</t>
+  </si>
+  <si>
+    <t>働</t>
+  </si>
+  <si>
+    <t>động</t>
+  </si>
+  <si>
+    <t>はたらきます</t>
+  </si>
+  <si>
+    <t>働きます</t>
+  </si>
+  <si>
+    <t>làm việc</t>
+  </si>
+  <si>
+    <t>はたらきすぎ</t>
+  </si>
+  <si>
+    <t>働きすぎ</t>
+  </si>
+  <si>
+    <t>làm việc quá nhiều</t>
+  </si>
+  <si>
+    <t>泳</t>
+  </si>
+  <si>
+    <t>vịnh</t>
+  </si>
+  <si>
+    <t>すいえい</t>
+  </si>
+  <si>
+    <t>水泳</t>
+  </si>
+  <si>
+    <t>bơi lội</t>
+  </si>
+  <si>
+    <t>およぎます</t>
+  </si>
+  <si>
+    <t>泳ぎます</t>
+  </si>
+  <si>
+    <t>bơi(v)</t>
   </si>
 </sst>
 </file>
@@ -4541,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H388"/>
+  <dimension ref="A1:H404"/>
   <sheetViews>
-    <sheetView topLeftCell="A373" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A247" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E263" sqref="E263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4609,12 +4723,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100001)</f>
-        <v>155</v>
+        <f>COUNTA(A2:A100005)</f>
+        <v>159</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10001)</f>
-        <v>387</v>
+        <f>COUNTA(C2:C10005)</f>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8382,72 +8496,60 @@
         <v>889</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
-      <c r="C261" s="1" t="s">
+    <row r="261" spans="1:6" customFormat="1">
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="E261" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="1:6" customFormat="1">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="1" t="s">
+      <c r="D262" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="E262" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="C263" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="F262" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="F263" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F264" s="1">
         <v>11</v>
@@ -8455,50 +8557,59 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F265" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="E265" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="F265" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="C266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>914</v>
+      <c r="F266" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="D267" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="F267" s="1">
         <v>7</v>
@@ -8506,969 +8617,975 @@
     </row>
     <row r="268" spans="1:6">
       <c r="C268" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>927</v>
-      </c>
       <c r="F269" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="C270" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="E270" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E271" s="1" t="s">
+      <c r="F271" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="C272" s="1" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="F272" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="C273" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="E273" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="E274" s="1" t="s">
+      <c r="F274" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="C275" s="1" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="C275" s="1" t="s">
+      <c r="E275" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="F275" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="C276" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="D276" s="1" t="s">
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="E276" s="1" t="s">
+      <c r="B277" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="E277" s="1" t="s">
-        <v>954</v>
+      <c r="F277" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="C278" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="E278" s="1" t="s">
+    </row>
+    <row r="279" spans="1:6">
+      <c r="C279" s="1" t="s">
         <v>957</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>958</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="F279" s="1">
-        <v>8</v>
+        <v>959</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="C280" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D280" s="1" t="s">
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="B281" s="1" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
       <c r="C281" s="1" t="s">
         <v>965</v>
       </c>
       <c r="D281" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E281" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="E281" s="1" t="s">
+      <c r="F281" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="C282" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="F282" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="C283" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="E283" s="1" t="s">
+      <c r="C284" s="1" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>978</v>
+      <c r="F284" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="C285" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="E285" s="1" t="s">
+    </row>
+    <row r="286" spans="1:6">
+      <c r="C286" s="1" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="F286" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="C287" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="E287" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="E288" s="1" t="s">
-        <v>992</v>
+      <c r="F288" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="C289" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="E289" s="1" t="s">
+    </row>
+    <row r="290" spans="1:6">
+      <c r="C290" s="1" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F290" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="C291" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C292" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>1008</v>
-      </c>
       <c r="F292" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="C293" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="C294" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D294" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="E294" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F294" s="1">
-        <v>7</v>
+        <v>429</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="C295" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F296" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="C297" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F296" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F297" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="F298" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="C299" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F300" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="B301" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="E299" s="1" t="s">
+      <c r="C301" s="1" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="C300" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="C301" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>1040</v>
-      </c>
       <c r="E301" s="1" t="s">
-        <v>1041</v>
+        <v>249</v>
+      </c>
+      <c r="F301" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F302" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="C303" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F302" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F303" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="C304" s="1" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="C305" s="1" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F306" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="E307" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F306" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
-      <c r="C307" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>1065</v>
+      <c r="F307" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="C308" s="1" t="s">
-        <v>145</v>
+        <v>1061</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>146</v>
+        <v>1062</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>147</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="C309" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E309" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="E310" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>1073</v>
-      </c>
       <c r="F310" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="C311" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E311" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="D311" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1076</v>
-      </c>
     </row>
     <row r="312" spans="1:6">
-      <c r="A312" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>1078</v>
-      </c>
       <c r="C312" s="1" t="s">
-        <v>1079</v>
+        <v>145</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1080</v>
+        <v>146</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F312" s="1">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="C313" s="1" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="F314" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="C315" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
-      <c r="C316" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1095</v>
+      <c r="F316" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="C317" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="D318" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="E317" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
-      <c r="C318" s="1" t="s">
+      <c r="F318" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="C319" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="E318" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
-      <c r="A319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F319" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="C320" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="C321" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="C322" s="1" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1114</v>
+        <v>858</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="1" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="F323" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="C324" s="1" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="C325" s="1" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="C326" s="1" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F327" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="C328" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="E328" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F327" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
-      <c r="A328" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F328" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="C329" s="1" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="C330" s="1" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="1" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="F331" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="1" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="F332" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="C333" s="1" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="C334" s="1" t="s">
-        <v>396</v>
+        <v>1151</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>397</v>
+        <v>1152</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>398</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="335" spans="1:6">
+      <c r="A335" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1155</v>
+      </c>
       <c r="C335" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E335" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="F335" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="E335" s="1" t="s">
+      <c r="B336" s="1" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="336" spans="1:6">
       <c r="C336" s="1" t="s">
         <v>1160</v>
       </c>
@@ -9478,148 +9595,133 @@
       <c r="E336" s="1" t="s">
         <v>1162</v>
       </c>
+      <c r="F336" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="337" spans="1:6">
-      <c r="A337" s="1" t="s">
+      <c r="C337" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="F337" s="1">
-        <v>16</v>
-      </c>
     </row>
     <row r="338" spans="1:6">
       <c r="C338" s="1" t="s">
-        <v>1166</v>
+        <v>396</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1163</v>
+        <v>397</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1167</v>
+        <v>398</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="C339" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E339" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="C340" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E340" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="D340" s="1" t="s">
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="E340" s="1" t="s">
+      <c r="B341" s="1" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="341" spans="1:6">
       <c r="C341" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E341" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="F341" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="C342" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="E341" s="1" t="s">
+      <c r="D342" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E342" s="1" t="s">
         <v>1176</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="A342" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F342" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="C343" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="C344" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D344" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F344" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="C345" s="1" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="1" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1193</v>
+        <v>669</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="F346" s="1">
         <v>6</v>
@@ -9627,437 +9729,446 @@
     </row>
     <row r="347" spans="1:6">
       <c r="C347" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E348" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="F348" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="C349" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="E347" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="348" spans="1:6">
-      <c r="C348" s="1" t="s">
+      <c r="E349" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="D348" s="1" t="s">
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="E348" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="349" spans="1:6">
-      <c r="A349" s="1" t="s">
+      <c r="C350" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="D350" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F350" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="C351" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="C352" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F349" s="1">
+      <c r="C353" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F353" s="1">
         <v>13</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="C350" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="A351" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F351" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F352" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="C353" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="C354" s="1" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>628</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F355" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C356" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F355" s="1">
+      <c r="E356" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F356" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
-      <c r="C356" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D356" s="1" t="s">
+    <row r="357" spans="1:6">
+      <c r="C357" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="E356" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="357" spans="1:6">
-      <c r="A357" s="1" t="s">
+      <c r="E357" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F357" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="C358" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="C359" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="E358" s="1" t="s">
+      <c r="D359" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F359" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="C360" s="1" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="359" spans="1:6">
-      <c r="C359" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="E360" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="E359" s="1" t="s">
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="C360" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="D360" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E360" s="1" t="s">
+      <c r="D361" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E361" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="F360" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="C361" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>1244</v>
+      <c r="F361" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="C362" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="C363" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="D362" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="E362" s="1" t="s">
+      <c r="E363" s="1" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
-      <c r="A363" s="1" t="s">
+    <row r="364" spans="1:6">
+      <c r="A364" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B364" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="D364" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E364" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="D363" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F363" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="C364" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>1254</v>
+      <c r="F364" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="C365" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="C366" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D366" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="D365" s="1" t="s">
+      <c r="E366" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="E365" s="1" t="s">
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="A366" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="D367" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E367" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="F367" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="C368" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="E366" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="F366" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
-      <c r="C367" s="1" t="s">
+      <c r="E368" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="A368" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F368" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="C369" s="1" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F370" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="C371" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="E371" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="D370" s="1" t="s">
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="E370" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="F370" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="A371" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F371" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
-      <c r="C372" s="1" t="s">
-        <v>1282</v>
-      </c>
       <c r="D372" s="1" t="s">
-        <v>1283</v>
+        <v>1275</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1284</v>
+        <v>249</v>
+      </c>
+      <c r="F372" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="C373" s="1" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F374" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="E375" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="D374" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F374" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="C375" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>1292</v>
+      <c r="F375" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="C376" s="1" t="s">
-        <v>976</v>
+        <v>1291</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>977</v>
+        <v>1292</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>1293</v>
@@ -10065,192 +10176,423 @@
     </row>
     <row r="377" spans="1:6">
       <c r="C377" s="1" t="s">
-        <v>993</v>
+        <v>1294</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>994</v>
+        <v>1295</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>978</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="1" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="F378" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:6">
-      <c r="A379" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>1299</v>
-      </c>
       <c r="C379" s="1" t="s">
-        <v>1300</v>
+        <v>218</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1298</v>
+        <v>219</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="F379" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="380" spans="1:6">
       <c r="C380" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E380" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="C381" s="1" t="s">
-        <v>1304</v>
+        <v>998</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1305</v>
+        <v>999</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1306</v>
+        <v>983</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="1" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="F382" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="1" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="F383" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="C384" s="1" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1319</v>
+        <v>273</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="C385" s="1" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F386" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="E387" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="D386" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E386" s="1" t="s">
+      <c r="F387" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="C388" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="F386" s="1">
+      <c r="D388" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="C389" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F390" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
-      <c r="C387" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F388" s="1">
+    <row r="391" spans="1:6">
+      <c r="C391" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F392" s="1">
         <v>11</v>
       </c>
     </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F393" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="C394" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F395" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="C396" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="C397" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="C398" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="C400" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F400"/>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
+      <c r="C401" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F401" s="2"/>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F402" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="2"/>
+      <c r="B403" s="2"/>
+      <c r="C403" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F403" s="2"/>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="2"/>
+      <c r="B404" s="2"/>
+      <c r="C404" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F404" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E382" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E386" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10258,16 +10600,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
@@ -10293,188 +10635,126 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1373</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21609"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9020FFD9-2EB4-4077-9643-2C6E6F7E43AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FDB1A1-A4D8-4DF2-9383-FF74C5D59A58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10603,7 +10603,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10650,7 +10650,9 @@
       <c r="E2" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="2"/>
@@ -10682,7 +10684,9 @@
       <c r="E4" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="2" t="s">
@@ -10700,7 +10704,9 @@
       <c r="E5" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="2"/>
@@ -10732,7 +10738,9 @@
       <c r="E7" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="2"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21607"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34FDB1A1-A4D8-4DF2-9383-FF74C5D59A58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24025C9B-189C-44F3-8247-AB5CD7383B3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1443">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -4264,6 +4264,99 @@
   </si>
   <si>
     <t>bơi(v)</t>
+  </si>
+  <si>
+    <t>部</t>
+  </si>
+  <si>
+    <t>bộ</t>
+  </si>
+  <si>
+    <t>ぶちょう</t>
+  </si>
+  <si>
+    <t>部長</t>
+  </si>
+  <si>
+    <t>trưởng phòng</t>
+  </si>
+  <si>
+    <t>へや</t>
+  </si>
+  <si>
+    <t>部屋</t>
+  </si>
+  <si>
+    <t>căn phòng</t>
+  </si>
+  <si>
+    <t>ぜんぶ</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>toàn bộ</t>
+  </si>
+  <si>
+    <t>khoa Y</t>
+  </si>
+  <si>
+    <t>屋</t>
+  </si>
+  <si>
+    <t>ốc</t>
+  </si>
+  <si>
+    <t>～や</t>
+  </si>
+  <si>
+    <t>～屋</t>
+  </si>
+  <si>
+    <t>hiệu ~</t>
+  </si>
+  <si>
+    <t>おくじょう</t>
+  </si>
+  <si>
+    <t>屋上</t>
+  </si>
+  <si>
+    <t>tầng thượng</t>
+  </si>
+  <si>
+    <t>室</t>
+  </si>
+  <si>
+    <t>thất</t>
+  </si>
+  <si>
+    <t>かいぎしつ</t>
+  </si>
+  <si>
+    <t>会議室</t>
+  </si>
+  <si>
+    <t>phòng họp</t>
+  </si>
+  <si>
+    <t>わしつ</t>
+  </si>
+  <si>
+    <t>和室</t>
+  </si>
+  <si>
+    <t>phòng kiểu nhật</t>
+  </si>
+  <si>
+    <t>ごうしつ</t>
+  </si>
+  <si>
+    <t>号室</t>
+  </si>
+  <si>
+    <t>số phòng</t>
   </si>
 </sst>
 </file>
@@ -4655,9 +4748,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H404"/>
+  <dimension ref="A1:H411"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView topLeftCell="A398" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="E263" sqref="E263"/>
     </sheetView>
   </sheetViews>
@@ -4724,11 +4817,11 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTA(A2:A100005)</f>
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA(C2:C10005)</f>
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10590,6 +10683,128 @@
         <v>1382</v>
       </c>
       <c r="F404" s="2"/>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F405" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="2"/>
+      <c r="B406" s="2"/>
+      <c r="C406" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F406" s="2"/>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F407" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F408" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="2"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F409" s="2"/>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F410" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
+      <c r="C411" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F411" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E386" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -10600,10 +10815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10614,7 +10829,7 @@
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:18" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10634,135 +10849,519 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:18" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1383</v>
+        <v>1412</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1384</v>
+        <v>1413</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1385</v>
+        <v>1414</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1386</v>
+        <v>1415</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1387</v>
+        <v>1416</v>
       </c>
       <c r="F2" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18.75">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>1388</v>
+        <v>1417</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1389</v>
+        <v>1418</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1390</v>
+        <v>1419</v>
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="2" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1392</v>
-      </c>
+    <row r="4" spans="1:18" ht="18.75">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>1393</v>
+        <v>1420</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1394</v>
+        <v>1421</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1397</v>
-      </c>
+        <v>1422</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.75">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>1398</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1399</v>
+        <v>174</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F5" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+        <v>1423</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="18.75">
+      <c r="A6" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1425</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>1401</v>
+        <v>1417</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1402</v>
+        <v>1418</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75">
-      <c r="A7" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1405</v>
-      </c>
+        <v>1419</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18.75">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>1406</v>
+        <v>1426</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1407</v>
+        <v>1427</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75">
+        <v>1428</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>1409</v>
+        <v>1429</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1410</v>
+        <v>1430</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="1:18" ht="18.75">
+      <c r="A9" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="18.75">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="18.75">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="18.75">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="18.75">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="18.75">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="18.75">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.75">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="18.75">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="18.75">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" ht="18.75">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" ht="18.75">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="18.75">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="18.75">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="18.75">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="18.75">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" ht="18.75">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" ht="18.75">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" ht="18.75">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21615"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24025C9B-189C-44F3-8247-AB5CD7383B3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB6FC7DB-BC1B-49A8-A482-3DF3AE17432D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1517">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -4357,6 +4357,228 @@
   </si>
   <si>
     <t>số phòng</t>
+  </si>
+  <si>
+    <t>場</t>
+  </si>
+  <si>
+    <t>trường</t>
+  </si>
+  <si>
+    <t>のりば</t>
+  </si>
+  <si>
+    <t>乗り場</t>
+  </si>
+  <si>
+    <t>chỗ đợi lên xe</t>
+  </si>
+  <si>
+    <t>ばしょ</t>
+  </si>
+  <si>
+    <t>場所</t>
+  </si>
+  <si>
+    <t>địa điểm</t>
+  </si>
+  <si>
+    <t>おきば</t>
+  </si>
+  <si>
+    <t>置き場</t>
+  </si>
+  <si>
+    <t>nơi đặt để</t>
+  </si>
+  <si>
+    <t>ちゅうしゃじょう</t>
+  </si>
+  <si>
+    <t>駐車場</t>
+  </si>
+  <si>
+    <t>bãi đỗ xe</t>
+  </si>
+  <si>
+    <t>かいじょう</t>
+  </si>
+  <si>
+    <t>会場</t>
+  </si>
+  <si>
+    <t>hội trường</t>
+  </si>
+  <si>
+    <t>しじょうちょうさ</t>
+  </si>
+  <si>
+    <t>市場調査</t>
+  </si>
+  <si>
+    <t>điều tra thị trường</t>
+  </si>
+  <si>
+    <t>スキーじょう</t>
+  </si>
+  <si>
+    <t>スキー場</t>
+  </si>
+  <si>
+    <t>nơi trượt tuyết</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>sở</t>
+  </si>
+  <si>
+    <t>ところ</t>
+  </si>
+  <si>
+    <t>nơi</t>
+  </si>
+  <si>
+    <t>じむしょ</t>
+  </si>
+  <si>
+    <t>事務所</t>
+  </si>
+  <si>
+    <t>văn phòng</t>
+  </si>
+  <si>
+    <t>じゅうしょ</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>địa chỉ</t>
+  </si>
+  <si>
+    <t>しやくしょ</t>
+  </si>
+  <si>
+    <t>市役所</t>
+  </si>
+  <si>
+    <t>tòa thị chính</t>
+  </si>
+  <si>
+    <t>だいどころ</t>
+  </si>
+  <si>
+    <t>台所</t>
+  </si>
+  <si>
+    <t>nhà bếp</t>
+  </si>
+  <si>
+    <t>図</t>
+  </si>
+  <si>
+    <t>đồ</t>
+  </si>
+  <si>
+    <t>館</t>
+  </si>
+  <si>
+    <t>quán</t>
+  </si>
+  <si>
+    <t>びじゅつかん</t>
+  </si>
+  <si>
+    <t>美術館</t>
+  </si>
+  <si>
+    <t>bảo tàng mỹ thuật</t>
+  </si>
+  <si>
+    <t>lữ quán( nhà trọ du lịch)</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>gia</t>
+  </si>
+  <si>
+    <t>いえ</t>
+  </si>
+  <si>
+    <t>nhà</t>
+  </si>
+  <si>
+    <t>やちん</t>
+  </si>
+  <si>
+    <t>家賃</t>
+  </si>
+  <si>
+    <t>tiền thuê nhà</t>
+  </si>
+  <si>
+    <t>かない</t>
+  </si>
+  <si>
+    <t>家内</t>
+  </si>
+  <si>
+    <t>vợ(mình)</t>
+  </si>
+  <si>
+    <t>かぐ</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>đồ dùng trong nhà</t>
+  </si>
+  <si>
+    <t>～か</t>
+  </si>
+  <si>
+    <t>～家</t>
+  </si>
+  <si>
+    <t>~ gia</t>
+  </si>
+  <si>
+    <t>しょうせつか</t>
+  </si>
+  <si>
+    <t>小説家</t>
+  </si>
+  <si>
+    <t>tiểu thuyết gia</t>
+  </si>
+  <si>
+    <t>おんがくか</t>
+  </si>
+  <si>
+    <t>音楽家</t>
+  </si>
+  <si>
+    <t>nhạc sĩ</t>
+  </si>
+  <si>
+    <t>族</t>
+  </si>
+  <si>
+    <t>tộc</t>
+  </si>
+  <si>
+    <t>かぞく</t>
+  </si>
+  <si>
+    <t>家族</t>
+  </si>
+  <si>
+    <t>gia đình</t>
   </si>
 </sst>
 </file>
@@ -4748,10 +4970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H411"/>
+  <dimension ref="A1:H423"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E263" sqref="E263"/>
+    <sheetView topLeftCell="A411" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A424" sqref="A424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4817,11 +5039,11 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTA(A2:A100005)</f>
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA(C2:C10005)</f>
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10805,6 +11027,192 @@
         <v>1411</v>
       </c>
       <c r="F411" s="2"/>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F412" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F413" s="2"/>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F414" s="2"/>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="2"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F415" s="2"/>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F416" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F417" s="2"/>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F418" s="2"/>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F419" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F420" s="2"/>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" s="2"/>
+      <c r="B421" s="2"/>
+      <c r="C421" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F421" s="2"/>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="2"/>
+      <c r="B422" s="2"/>
+      <c r="C422" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F422" s="2"/>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="2"/>
+      <c r="B423" s="2"/>
+      <c r="C423" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F423" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E386" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -10815,17 +11223,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10851,147 +11259,181 @@
     </row>
     <row r="2" spans="1:18" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1412</v>
+        <v>1443</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1413</v>
+        <v>1444</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1414</v>
+        <v>1006</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1415</v>
+        <v>1007</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1416</v>
+        <v>1008</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="18.75">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>1417</v>
+        <v>1445</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1418</v>
+        <v>1446</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1419</v>
+        <v>1447</v>
       </c>
       <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="18.75">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>1420</v>
+        <v>1448</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1421</v>
+        <v>1449</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1422</v>
+        <v>1450</v>
       </c>
       <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="18.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>1451</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>174</v>
+        <v>1452</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1423</v>
+        <v>1453</v>
       </c>
       <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="18.75">
-      <c r="A6" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1425</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>1417</v>
+        <v>1454</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1418</v>
+        <v>1455</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9</v>
-      </c>
+        <v>1456</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="18.75">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>1426</v>
+        <v>1457</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1427</v>
+        <v>1458</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1428</v>
+        <v>1459</v>
       </c>
       <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="18.75">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>1429</v>
+        <v>1460</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1430</v>
+        <v>1461</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1431</v>
+        <v>1462</v>
       </c>
       <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>887</v>
+        <v>1463</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>888</v>
+        <v>1464</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9</v>
-      </c>
+        <v>1465</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1467</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>1434</v>
+        <v>1468</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1435</v>
+        <v>1466</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>1469</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11009,13 +11451,13 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>1437</v>
+        <v>1470</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1438</v>
+        <v>1471</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1439</v>
+        <v>1472</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -11035,13 +11477,13 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>1388</v>
+        <v>1473</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1389</v>
+        <v>1474</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1390</v>
+        <v>1475</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -11061,13 +11503,13 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>1440</v>
+        <v>1476</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1441</v>
+        <v>1477</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1442</v>
+        <v>1478</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -11086,9 +11528,15 @@
     <row r="14" spans="1:18" ht="18.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1481</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -11104,12 +11552,24 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="18.75">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11124,12 +11584,24 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="18.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F16" s="2">
+        <v>16</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11146,9 +11618,15 @@
     <row r="17" spans="1:18" ht="18.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1488</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -11166,9 +11644,15 @@
     <row r="18" spans="1:18" ht="18.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1489</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -11184,12 +11668,24 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="18.75">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -11206,9 +11702,15 @@
     <row r="20" spans="1:18" ht="18.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1496</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -11226,9 +11728,15 @@
     <row r="21" spans="1:18" ht="18.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1499</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -11246,9 +11754,15 @@
     <row r="22" spans="1:18" ht="18.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1502</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -11266,9 +11780,15 @@
     <row r="23" spans="1:18" ht="18.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1505</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -11286,9 +11806,15 @@
     <row r="24" spans="1:18" ht="18.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1508</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -11306,9 +11832,15 @@
     <row r="25" spans="1:18" ht="18.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1511</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -11324,12 +11856,24 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="18.75">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F26" s="2">
+        <v>11</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -11342,26 +11886,6 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" ht="18.75">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB6FC7DB-BC1B-49A8-A482-3DF3AE17432D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFA0313-C6EB-4F77-85F9-3A601F67151C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1542">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -4579,6 +4579,81 @@
   </si>
   <si>
     <t>gia đình</t>
+  </si>
+  <si>
+    <t>試</t>
+  </si>
+  <si>
+    <t>Thí</t>
+  </si>
+  <si>
+    <t>しあい</t>
+  </si>
+  <si>
+    <t>試合</t>
+  </si>
+  <si>
+    <t>Trận đấu</t>
+  </si>
+  <si>
+    <t>験</t>
+  </si>
+  <si>
+    <t>Nghiệm</t>
+  </si>
+  <si>
+    <t>しけん</t>
+  </si>
+  <si>
+    <t>試験</t>
+  </si>
+  <si>
+    <t>Kì thi</t>
+  </si>
+  <si>
+    <t>じっけん</t>
+  </si>
+  <si>
+    <t>実験</t>
+  </si>
+  <si>
+    <t>Thực nghiệm</t>
+  </si>
+  <si>
+    <t>宿</t>
+  </si>
+  <si>
+    <t>しゅくだい</t>
+  </si>
+  <si>
+    <t>宿題</t>
+  </si>
+  <si>
+    <t>Bài tập</t>
+  </si>
+  <si>
+    <t>題</t>
+  </si>
+  <si>
+    <t>Đề</t>
+  </si>
+  <si>
+    <t>もんだい</t>
+  </si>
+  <si>
+    <t>問題</t>
+  </si>
+  <si>
+    <t>Vấn đề</t>
+  </si>
+  <si>
+    <t>のみほうだい</t>
+  </si>
+  <si>
+    <t>飲み放題</t>
+  </si>
+  <si>
+    <t>Uống buffet</t>
   </si>
 </sst>
 </file>
@@ -4970,10 +5045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H423"/>
+  <dimension ref="A1:H448"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A424" sqref="A424"/>
+    <sheetView topLeftCell="A427" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5039,11 +5114,11 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTA(A2:A100005)</f>
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA(C2:C10005)</f>
-        <v>422</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -11213,6 +11288,392 @@
         <v>1442</v>
       </c>
       <c r="F423" s="2"/>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F424" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="2"/>
+      <c r="B425" s="2"/>
+      <c r="C425" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F425" s="2"/>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
+      <c r="C426" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F426" s="2"/>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="2"/>
+      <c r="B427" s="2"/>
+      <c r="C427" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F427" s="2"/>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" s="2"/>
+      <c r="B428" s="2"/>
+      <c r="C428" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F428" s="2"/>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
+      <c r="C429" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F429" s="2"/>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" s="2"/>
+      <c r="B430" s="2"/>
+      <c r="C430" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F430" s="2"/>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F431" s="2"/>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F432" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="2"/>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F433" s="2"/>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="2"/>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F434" s="2"/>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" s="2"/>
+      <c r="B435" s="2"/>
+      <c r="C435" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F435" s="2"/>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" s="2"/>
+      <c r="B436" s="2"/>
+      <c r="C436" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F436" s="2"/>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F437" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F438" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" s="2"/>
+      <c r="B439" s="2"/>
+      <c r="C439" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F439" s="2"/>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" s="2"/>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F440" s="2"/>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F441" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="2"/>
+      <c r="B442" s="2"/>
+      <c r="C442" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F442" s="2"/>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="2"/>
+      <c r="B443" s="2"/>
+      <c r="C443" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F443" s="2"/>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="2"/>
+      <c r="B444" s="2"/>
+      <c r="C444" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F444" s="2"/>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="2"/>
+      <c r="B445" s="2"/>
+      <c r="C445" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F445" s="2"/>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="2"/>
+      <c r="B446" s="2"/>
+      <c r="C446" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F446" s="2"/>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="2"/>
+      <c r="B447" s="2"/>
+      <c r="C447" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F447" s="2"/>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F448" s="2">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E386" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -11225,8 +11686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11259,22 +11720,22 @@
     </row>
     <row r="2" spans="1:18" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>1443</v>
+        <v>1517</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1444</v>
+        <v>1518</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1006</v>
+        <v>1519</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1007</v>
+        <v>1520</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1008</v>
+        <v>1521</v>
       </c>
       <c r="F2" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -11283,18 +11744,24 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1523</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>1445</v>
+        <v>1524</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1446</v>
+        <v>1525</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>1526</v>
+      </c>
+      <c r="F3" s="2">
+        <v>18</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -11305,13 +11772,13 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>1448</v>
+        <v>1527</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1449</v>
+        <v>1528</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1450</v>
+        <v>1529</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -11321,18 +11788,24 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="18.75">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1308</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>1451</v>
+        <v>1531</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1452</v>
+        <v>1532</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>1533</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -11340,18 +11813,24 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="18.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1535</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>1454</v>
+        <v>1536</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1455</v>
+        <v>1537</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>1538</v>
+      </c>
+      <c r="F6" s="2">
+        <v>18</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -11362,13 +11841,13 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>1457</v>
+        <v>1539</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1458</v>
+        <v>1540</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1459</v>
+        <v>1541</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -11380,15 +11859,9 @@
     <row r="8" spans="1:18" ht="18.75">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>1462</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -11399,15 +11872,9 @@
     <row r="9" spans="1:18" ht="18.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1465</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -11416,24 +11883,12 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="18.75">
-      <c r="A10" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="F10" s="2">
-        <v>8</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11450,15 +11905,9 @@
     <row r="11" spans="1:18" ht="18.75">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>1472</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -11476,15 +11925,9 @@
     <row r="12" spans="1:18" ht="18.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1475</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -11502,15 +11945,9 @@
     <row r="13" spans="1:18" ht="18.75">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>1478</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -11528,15 +11965,9 @@
     <row r="14" spans="1:18" ht="18.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>1481</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -11552,24 +11983,12 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="18.75">
-      <c r="A15" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11584,24 +12003,12 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="18.75">
-      <c r="A16" s="2" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F16" s="2">
-        <v>16</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -11618,15 +12025,9 @@
     <row r="17" spans="1:18" ht="18.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1488</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -11644,15 +12045,9 @@
     <row r="18" spans="1:18" ht="18.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1489</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -11668,24 +12063,12 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="18.75">
-      <c r="A19" s="2" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F19" s="2">
-        <v>10</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -11702,15 +12085,9 @@
     <row r="20" spans="1:18" ht="18.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>1496</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -11728,15 +12105,9 @@
     <row r="21" spans="1:18" ht="18.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1499</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -11754,15 +12125,9 @@
     <row r="22" spans="1:18" ht="18.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>1502</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -11780,15 +12145,9 @@
     <row r="23" spans="1:18" ht="18.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>1505</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -11806,15 +12165,9 @@
     <row r="24" spans="1:18" ht="18.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>1508</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -11832,15 +12185,9 @@
     <row r="25" spans="1:18" ht="18.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>1511</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -11856,24 +12203,12 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="18.75">
-      <c r="A26" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F26" s="2">
-        <v>11</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21705"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFA0313-C6EB-4F77-85F9-3A601F67151C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F1B2B3-79DF-4994-BC3B-46E684138EBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="1542">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -5045,10 +5045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H448"/>
+  <dimension ref="A1:H454"/>
   <sheetViews>
-    <sheetView topLeftCell="A427" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C443" sqref="C443"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5114,11 +5114,11 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTA(A2:A100005)</f>
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA(C2:C10005)</f>
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -11674,6 +11674,114 @@
       <c r="F448" s="2">
         <v>11</v>
       </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F449" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F450" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="2"/>
+      <c r="B451" s="2"/>
+      <c r="C451" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F451" s="2"/>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F452" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F453" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" s="2"/>
+      <c r="B454" s="2"/>
+      <c r="C454" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F454" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E386" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -11686,8 +11794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21715"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A6FDFDF-BF85-49DC-BFD5-A033BCB7FEEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4501DB1C-A44E-4A1D-A557-37763C7A52D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$367</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1763">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -3225,6 +3225,15 @@
     <t>cấm</t>
   </si>
   <si>
+    <t>たちいりきんし</t>
+  </si>
+  <si>
+    <t>立ち入り禁止</t>
+  </si>
+  <si>
+    <t>cấm vào</t>
+  </si>
+  <si>
     <t>雨</t>
   </si>
   <si>
@@ -3399,6 +3408,24 @@
     <t>đại sứ quán</t>
   </si>
   <si>
+    <t>しようきんし</t>
+  </si>
+  <si>
+    <t>使用禁止</t>
+  </si>
+  <si>
+    <t>cấm sử dụng</t>
+  </si>
+  <si>
+    <t>しようちゅう</t>
+  </si>
+  <si>
+    <t>使用中</t>
+  </si>
+  <si>
+    <t>đang sử dụng</t>
+  </si>
+  <si>
     <t>作</t>
   </si>
   <si>
@@ -5107,6 +5134,189 @@
   </si>
   <si>
     <t>chim</t>
+  </si>
+  <si>
+    <t>開</t>
+  </si>
+  <si>
+    <t>khai</t>
+  </si>
+  <si>
+    <t>あけます</t>
+  </si>
+  <si>
+    <t>開けます</t>
+  </si>
+  <si>
+    <t>mở(tha)</t>
+  </si>
+  <si>
+    <t>あきます</t>
+  </si>
+  <si>
+    <t>開きます</t>
+  </si>
+  <si>
+    <t>mở(tự)</t>
+  </si>
+  <si>
+    <t>ひらきます</t>
+  </si>
+  <si>
+    <t>mở(công ty)</t>
+  </si>
+  <si>
+    <t>かいはつします</t>
+  </si>
+  <si>
+    <t>開発します</t>
+  </si>
+  <si>
+    <t>phát triển</t>
+  </si>
+  <si>
+    <t>閉</t>
+  </si>
+  <si>
+    <t>bế</t>
+  </si>
+  <si>
+    <t>しめます</t>
+  </si>
+  <si>
+    <t>閉めます</t>
+  </si>
+  <si>
+    <t>đóng(tha)</t>
+  </si>
+  <si>
+    <t>しまります</t>
+  </si>
+  <si>
+    <t>閉まります</t>
+  </si>
+  <si>
+    <t>đóng(tự)</t>
+  </si>
+  <si>
+    <t>とじます</t>
+  </si>
+  <si>
+    <t>閉じます</t>
+  </si>
+  <si>
+    <t>nhắm</t>
+  </si>
+  <si>
+    <t>持</t>
+  </si>
+  <si>
+    <t>trì</t>
+  </si>
+  <si>
+    <t>もちます</t>
+  </si>
+  <si>
+    <t>持ちます</t>
+  </si>
+  <si>
+    <t>lấy</t>
+  </si>
+  <si>
+    <t>もっていきます</t>
+  </si>
+  <si>
+    <t>持っていきます</t>
+  </si>
+  <si>
+    <t>mang đi</t>
+  </si>
+  <si>
+    <t>もってきます</t>
+  </si>
+  <si>
+    <t>持ってきます</t>
+  </si>
+  <si>
+    <t>mang đến</t>
+  </si>
+  <si>
+    <t>きもち</t>
+  </si>
+  <si>
+    <t>気持ち</t>
+  </si>
+  <si>
+    <t>cảm xúc</t>
+  </si>
+  <si>
+    <t>住</t>
+  </si>
+  <si>
+    <t>trụ(trú)</t>
+  </si>
+  <si>
+    <t>すみます</t>
+  </si>
+  <si>
+    <t>住みます</t>
+  </si>
+  <si>
+    <t>乗</t>
+  </si>
+  <si>
+    <t>thừa</t>
+  </si>
+  <si>
+    <t>nơi lên xe</t>
+  </si>
+  <si>
+    <t>のります</t>
+  </si>
+  <si>
+    <t>乗ります</t>
+  </si>
+  <si>
+    <t>lên xe</t>
+  </si>
+  <si>
+    <t>のりかえます</t>
+  </si>
+  <si>
+    <t>乗り換えます</t>
+  </si>
+  <si>
+    <t>chuyển xe</t>
+  </si>
+  <si>
+    <t>降</t>
+  </si>
+  <si>
+    <t>hàng(giáng)</t>
+  </si>
+  <si>
+    <t>ふります</t>
+  </si>
+  <si>
+    <t>降ります</t>
+  </si>
+  <si>
+    <t>rơi</t>
+  </si>
+  <si>
+    <t>おります</t>
+  </si>
+  <si>
+    <t>xuống xe</t>
+  </si>
+  <si>
+    <t>おろします</t>
+  </si>
+  <si>
+    <t>降ろします</t>
+  </si>
+  <si>
+    <t>cho xuống xe</t>
   </si>
 </sst>
 </file>
@@ -5498,10 +5708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H488"/>
+  <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView topLeftCell="A486" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A489" sqref="A489:F502"/>
+    <sheetView topLeftCell="A465" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D472" sqref="D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5566,12 +5776,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100039)</f>
-        <v>176</v>
+        <f>COUNTA(A2:A100042)</f>
+        <v>184</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10039)</f>
-        <v>487</v>
+        <f>COUNTA(C2:C10042)</f>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10012,34 +10222,34 @@
       </c>
     </row>
     <row r="315" spans="1:6">
-      <c r="A315" s="1" t="s">
+      <c r="C315" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="E315" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E315" s="1" t="s">
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="F315" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="B316" s="1" t="s">
+        <v>1069</v>
+      </c>
       <c r="C316" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>1071</v>
+      </c>
+      <c r="F316" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -10054,26 +10264,23 @@
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="1" t="s">
+      <c r="C318" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="D318" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="D318" s="1" t="s">
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="E318" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="F318" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
       <c r="C319" s="1" t="s">
         <v>1080</v>
       </c>
@@ -10082,6 +10289,9 @@
       </c>
       <c r="E319" s="1" t="s">
         <v>1082</v>
+      </c>
+      <c r="F319" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -10107,26 +10317,23 @@
       </c>
     </row>
     <row r="322" spans="1:6">
-      <c r="A322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="E322" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="D322" s="1" t="s">
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="E322" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="F322" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
       <c r="C323" s="1" t="s">
         <v>1094</v>
       </c>
@@ -10135,6 +10342,9 @@
       </c>
       <c r="E323" s="1" t="s">
         <v>1096</v>
+      </c>
+      <c r="F323" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -10160,26 +10370,23 @@
       </c>
     </row>
     <row r="326" spans="1:6">
-      <c r="A326" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="E326" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="D326" s="1" t="s">
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="E326" s="1" t="s">
+      <c r="B327" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="F326" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
       <c r="C327" s="1" t="s">
         <v>1108</v>
       </c>
@@ -10189,50 +10396,50 @@
       <c r="E327" s="1" t="s">
         <v>1110</v>
       </c>
+      <c r="F327" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="328" spans="1:6">
       <c r="C328" s="1" t="s">
-        <v>496</v>
+        <v>1111</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>498</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="C329" s="1" t="s">
-        <v>1112</v>
+        <v>496</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1114</v>
+        <v>498</v>
       </c>
     </row>
     <row r="330" spans="1:6">
-      <c r="A330" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="D330" s="1" t="s">
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="E330" s="1" t="s">
+      <c r="B331" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="F330" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
       <c r="C331" s="1" t="s">
         <v>1120</v>
       </c>
@@ -10242,121 +10449,121 @@
       <c r="E331" s="1" t="s">
         <v>1122</v>
       </c>
+      <c r="F331" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="332" spans="1:6">
-      <c r="A332" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="E332" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F332" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="C333" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E333" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="D333" s="1" t="s">
+    </row>
+    <row r="334" spans="1:6">
+      <c r="C334" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="E333" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="334" spans="1:6">
-      <c r="A334" s="1" t="s">
+      <c r="E334" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F334" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="E335" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="F335" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="C336" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="E335" s="1" t="s">
+      <c r="E336" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F337" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E338" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F335" s="1">
+      <c r="F338" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
-      <c r="A336" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F336" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="C337" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="C338" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D338" s="1" t="s">
+    <row r="339" spans="1:6">
+      <c r="A339" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="E338" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="339" spans="1:6">
       <c r="C339" s="1" t="s">
         <v>1150</v>
       </c>
@@ -10366,227 +10573,227 @@
       <c r="E339" s="1" t="s">
         <v>1152</v>
       </c>
+      <c r="F339" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="340" spans="1:6">
-      <c r="A340" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="D340" s="1" t="s">
+    </row>
+    <row r="341" spans="1:6">
+      <c r="C341" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E340" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="F340" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F341" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="C342" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="E342" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="C343" s="1" t="s">
+      <c r="E343" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>1168</v>
+      <c r="F343" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="D344" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>1173</v>
-      </c>
       <c r="F344" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="C345" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E345" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="C346" s="1" t="s">
-        <v>178</v>
+        <v>1175</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>179</v>
+        <v>1176</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="347" spans="1:6">
+      <c r="A347" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1179</v>
+      </c>
       <c r="C347" s="1" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1179</v>
+        <v>1182</v>
+      </c>
+      <c r="F347" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>1181</v>
-      </c>
       <c r="C348" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F348" s="1">
-        <v>12</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="C349" s="1" t="s">
-        <v>1185</v>
+        <v>178</v>
       </c>
       <c r="D349" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="C350" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="E349" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="350" spans="1:6">
-      <c r="A350" s="1" t="s">
+      <c r="E350" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B350" s="1" t="s">
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="E350" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="F350" s="1">
+      <c r="E351" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F351" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="C352" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F353" s="1">
         <v>11</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
-      <c r="C351" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
-      <c r="A352" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F352" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
-      <c r="C353" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="C354" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="D354" s="1" t="s">
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="E354" s="1" t="s">
+      <c r="B355" s="1" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="355" spans="1:6">
       <c r="C355" s="1" t="s">
         <v>1207</v>
       </c>
@@ -10595,6 +10802,9 @@
       </c>
       <c r="E355" s="1" t="s">
         <v>1209</v>
+      </c>
+      <c r="F355" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -10605,52 +10815,49 @@
         <v>1211</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>936</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="357" spans="1:6">
-      <c r="A357" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B357" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="E357" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F357" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="C358" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="C359" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D359" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="E359" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="E359" s="1" t="s">
+      <c r="B360" s="1" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="360" spans="1:6">
       <c r="C360" s="1" t="s">
         <v>1223</v>
       </c>
@@ -10660,50 +10867,50 @@
       <c r="E360" s="1" t="s">
         <v>1225</v>
       </c>
+      <c r="F360" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="E361" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F361" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="C362" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E362" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="C363" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E363" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="D363" s="1" t="s">
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="E363" s="1" t="s">
+      <c r="B364" s="1" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="364" spans="1:6">
       <c r="C364" s="1" t="s">
         <v>1237</v>
       </c>
@@ -10713,171 +10920,165 @@
       <c r="E364" s="1" t="s">
         <v>1239</v>
       </c>
+      <c r="F364" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="E365" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="D365" s="1" t="s">
+    </row>
+    <row r="366" spans="1:6">
+      <c r="C366" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="E365" s="1" t="s">
+      <c r="D366" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="F365" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
-      <c r="A366" s="1" t="s">
+      <c r="E366" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F366" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="C367" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="E367" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="C368" s="1" t="s">
+      <c r="E368" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>1255</v>
+      <c r="F368" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="D369" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E369" s="1" t="s">
+      <c r="F369" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="C370" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="F369" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="E370" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F370" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="C371" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="E371" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="372" spans="1:6">
-      <c r="C372" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="D372" s="1" t="s">
-        <v>466</v>
+        <v>1265</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>467</v>
+        <v>1268</v>
+      </c>
+      <c r="F372" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:6">
+      <c r="A373" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1270</v>
+      </c>
       <c r="C373" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1270</v>
+        <v>1273</v>
+      </c>
+      <c r="F373" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="C374" s="1" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="375" spans="1:6">
-      <c r="A375" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>1275</v>
-      </c>
       <c r="C375" s="1" t="s">
-        <v>931</v>
+        <v>465</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>932</v>
+        <v>466</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F375" s="1">
-        <v>16</v>
+        <v>467</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -10885,167 +11086,167 @@
         <v>1277</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="C377" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="378" spans="1:6">
+      <c r="A378" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1284</v>
+      </c>
       <c r="C378" s="1" t="s">
-        <v>1282</v>
+        <v>931</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1283</v>
+        <v>932</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
+      </c>
+      <c r="F378" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="C379" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="380" spans="1:6">
-      <c r="A380" s="1" t="s">
+      <c r="C380" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="E380" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F380" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="C381" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D381" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="E381" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="E381" s="1" t="s">
+    </row>
+    <row r="382" spans="1:6">
+      <c r="C382" s="1" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="E382" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="C382" s="1" t="s">
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="B383" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="E382" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="F382" s="1">
+      <c r="E383" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F383" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
-      <c r="C383" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D383" s="1" t="s">
+    <row r="384" spans="1:6">
+      <c r="C384" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="E383" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="B384" s="1" t="s">
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="B385" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="C385" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="E384" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="F384" s="1">
+      <c r="E385" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F385" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
-      <c r="C385" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="C386" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E386" s="1" t="s">
         <v>1311</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="C387" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>1315</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1314</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>1316</v>
       </c>
       <c r="F387" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -11060,65 +11261,65 @@
       </c>
     </row>
     <row r="389" spans="1:6">
-      <c r="A389" s="1" t="s">
+      <c r="C389" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="D389" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="E389" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F389" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E390" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E390" s="1" t="s">
-        <v>1328</v>
-      </c>
       <c r="F390" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:6">
       <c r="C391" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="B392" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E391" s="1" t="s">
+      <c r="C392" s="1" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="392" spans="1:6">
-      <c r="C392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="E392" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="E392" s="1" t="s">
-        <v>706</v>
+      <c r="F392" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -11135,7 +11336,7 @@
         <v>1334</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F393" s="1">
         <v>8</v>
@@ -11143,75 +11344,75 @@
     </row>
     <row r="394" spans="1:6">
       <c r="C394" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="395" spans="1:6">
-      <c r="A395" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B395" s="1" t="s">
+      <c r="C395" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="D395" s="1" t="s">
-        <v>1340</v>
-      </c>
       <c r="E395" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="F395" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
+      <c r="B396" s="1" t="s">
+        <v>1344</v>
+      </c>
       <c r="C396" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E396" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="D396" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E396" s="1" t="s">
-        <v>1346</v>
+      <c r="F396" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="C397" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D397" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="E397" s="1" t="s">
         <v>1348</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>1350</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>1352</v>
       </c>
       <c r="F398" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -11241,95 +11442,92 @@
         <v>1359</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>1361</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>1359</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F401" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="C402" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D402" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D402" s="1" t="s">
+      <c r="E402" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="C403" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D403" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="D403" s="1" t="s">
+      <c r="E403" s="1" t="s">
         <v>1367</v>
-      </c>
-      <c r="E403" s="1" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="C404" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E404" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="D404" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>1373</v>
-      </c>
       <c r="F404" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="C405" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E405" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="D405" s="1" t="s">
+    </row>
+    <row r="406" spans="1:6">
+      <c r="C406" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="E405" s="1" t="s">
+      <c r="D406" s="1" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="406" spans="1:6">
-      <c r="A406" s="1" t="s">
+      <c r="E406" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="B406" s="1" t="s">
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="C406" s="1" t="s">
+      <c r="B407" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="D406" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F406" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6">
       <c r="C407" s="1" t="s">
         <v>1380</v>
       </c>
@@ -11338,6 +11536,9 @@
       </c>
       <c r="E407" s="1" t="s">
         <v>1382</v>
+      </c>
+      <c r="F407" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -11362,170 +11563,170 @@
         <v>1388</v>
       </c>
       <c r="D409" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F409" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="C410" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="E409" s="1" t="s">
+      <c r="D410" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="F409" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6">
-      <c r="A410" s="1" t="s">
+      <c r="E410" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F410" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="411" spans="1:6">
       <c r="C411" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="D411" s="1" t="s">
+      <c r="C412" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="E411" s="1" t="s">
+      <c r="D412" s="1" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="412" spans="1:6">
-      <c r="C412" s="1" t="s">
+      <c r="E412" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="D412" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>1401</v>
+      <c r="F412" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="D413" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="C413" s="1" t="s">
+      <c r="E413" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="D413" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="E413" s="1" t="s">
-        <v>1405</v>
-      </c>
       <c r="F413" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="C414" s="1" t="s">
-        <v>263</v>
+        <v>1405</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>264</v>
+        <v>1406</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="C415" s="1" t="s">
-        <v>1083</v>
+        <v>1408</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1084</v>
+        <v>1409</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="416" spans="1:6">
+      <c r="A416" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1412</v>
+      </c>
       <c r="C416" s="1" t="s">
-        <v>1100</v>
+        <v>1413</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1101</v>
+        <v>1411</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1085</v>
+        <v>1414</v>
+      </c>
+      <c r="F416" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:6">
-      <c r="A417" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>1409</v>
-      </c>
       <c r="C417" s="1" t="s">
-        <v>1410</v>
+        <v>263</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1408</v>
+        <v>264</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F417" s="1">
-        <v>5</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="418" spans="1:6">
-      <c r="A418" s="1" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>1413</v>
-      </c>
       <c r="C418" s="1" t="s">
-        <v>1414</v>
+        <v>1086</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1412</v>
+        <v>1087</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F418" s="1">
-        <v>7</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="C419" s="1" t="s">
-        <v>1416</v>
+        <v>1103</v>
       </c>
       <c r="D419" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="E419" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6">
+      <c r="B420" s="1" t="s">
+        <v>1418</v>
+      </c>
       <c r="C420" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>1420</v>
+      </c>
+      <c r="F420" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -11539,160 +11740,157 @@
         <v>1423</v>
       </c>
       <c r="D421" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E421" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="E421" s="1" t="s">
+      <c r="F421" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="C422" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="F421" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6">
-      <c r="A422" s="1" t="s">
+      <c r="D422" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>1429</v>
-      </c>
       <c r="E422" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F422" s="1">
-        <v>9</v>
+        <v>333</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="C423" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B424" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="D423" s="1" t="s">
+      <c r="C424" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="E423" s="1" t="s">
+      <c r="D424" s="1" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="424" spans="1:6">
-      <c r="C424" s="1" t="s">
+      <c r="E424" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="D424" s="1" t="s">
-        <v>1435</v>
-      </c>
-      <c r="E424" s="1" t="s">
-        <v>1436</v>
+      <c r="F424" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="D425" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="C425" s="1" t="s">
+      <c r="E425" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="D425" s="1" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E425" s="1" t="s">
-        <v>1440</v>
-      </c>
       <c r="F425" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="C426" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D426" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="D426" s="1" t="s">
+      <c r="E426" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="E426" s="1" t="s">
+    </row>
+    <row r="427" spans="1:6">
+      <c r="C427" s="1" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="427" spans="1:6">
-      <c r="A427" s="1" t="s">
+      <c r="D427" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="E427" s="1" t="s">
         <v>1445</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E427" s="1" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F427" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E428" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E428" s="1" t="s">
-        <v>1452</v>
-      </c>
       <c r="F428" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="429" spans="1:6">
       <c r="C429" s="1" t="s">
-        <v>1271</v>
+        <v>1450</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1272</v>
+        <v>1451</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="C430" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="C430" s="1" t="s">
+      <c r="D430" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="D430" s="1" t="s">
+      <c r="E430" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="E430" s="1" t="s">
+      <c r="F430" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="F430" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6">
+      <c r="B431" s="1" t="s">
+        <v>1282</v>
+      </c>
       <c r="C431" s="1" t="s">
         <v>1459</v>
       </c>
@@ -11702,19 +11900,28 @@
       <c r="E431" s="1" t="s">
         <v>1461</v>
       </c>
+      <c r="F431" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="432" spans="1:6">
       <c r="C432" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E432" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="D432" s="1" t="s">
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="E432" s="1" t="s">
+      <c r="B433" s="1" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="433" spans="1:6">
       <c r="C433" s="1" t="s">
         <v>1465</v>
       </c>
@@ -11724,116 +11931,104 @@
       <c r="E433" s="1" t="s">
         <v>1467</v>
       </c>
+      <c r="F433" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="434" spans="1:6">
-      <c r="A434" s="1" t="s">
+      <c r="C434" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="D434" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="C434" s="1" t="s">
+      <c r="E434" s="1" t="s">
         <v>1470</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F434">
-        <v>5</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="C435" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="C436" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F437">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="C438" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D435" s="1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E435" s="1" t="s">
+      <c r="D438" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E438" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F435"/>
-    </row>
-    <row r="436" spans="1:6">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="C436" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D436" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E436" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="F436" s="2"/>
-    </row>
-    <row r="437" spans="1:6">
-      <c r="A437" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E437" s="2" t="s">
-        <v>1481</v>
-      </c>
-      <c r="F437" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E438" s="2" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F438" s="2"/>
+      <c r="F438"/>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E439" s="2" t="s">
         <v>1485</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E439" s="2" t="s">
-        <v>1487</v>
       </c>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="D440" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="E440" s="2" t="s">
         <v>1490</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E440" s="2" t="s">
-        <v>1492</v>
       </c>
       <c r="F440" s="2">
         <v>9</v>
@@ -11843,197 +12038,197 @@
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E441" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="D441" s="2" t="s">
+      <c r="F441" s="2"/>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="2"/>
+      <c r="B442" s="2"/>
+      <c r="C442" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="E441" s="2" t="s">
+      <c r="D442" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="F441" s="2"/>
-    </row>
-    <row r="442" spans="1:6">
-      <c r="A442" s="2" t="s">
+      <c r="E442" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="B442" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D442" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E442" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F442" s="2">
-        <v>7</v>
-      </c>
+      <c r="F442" s="2"/>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E443" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="B443" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D443" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E443" s="2" t="s">
-        <v>1505</v>
-      </c>
       <c r="F443" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E445" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="F445" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="B446" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="D445" s="2" t="s">
+      <c r="C446" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="E445" s="2" t="s">
+      <c r="D446" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="F445" s="2">
+      <c r="E446" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F446" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="2"/>
+      <c r="B447" s="2"/>
+      <c r="C447" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F447" s="2"/>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F448" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E446" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F446" s="2"/>
-    </row>
-    <row r="447" spans="1:6">
-      <c r="A447" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F447" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F448" s="2"/>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E449" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="D449" s="2" t="s">
+      <c r="F449" s="2"/>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="E449" s="2" t="s">
+      <c r="B450" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="F449" s="2"/>
-    </row>
-    <row r="450" spans="1:6">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
       <c r="C450" s="2" t="s">
-        <v>212</v>
+        <v>1528</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>213</v>
+        <v>1529</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F450" s="2"/>
+        <v>1530</v>
+      </c>
+      <c r="F450" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="451" spans="1:6">
-      <c r="A451" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>1530</v>
-      </c>
+      <c r="A451" s="2"/>
+      <c r="B451" s="2"/>
       <c r="C451" s="2" t="s">
-        <v>1522</v>
+        <v>1531</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F451" s="2">
-        <v>9</v>
-      </c>
+        <v>1533</v>
+      </c>
+      <c r="F451" s="2"/>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="F452" s="2"/>
     </row>
@@ -12041,31 +12236,31 @@
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2" t="s">
-        <v>1534</v>
+        <v>212</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1535</v>
+        <v>213</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="F453" s="2"/>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>974</v>
+        <v>1531</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>975</v>
+        <v>1532</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>976</v>
+        <v>1533</v>
       </c>
       <c r="F454" s="2">
         <v>9</v>
@@ -12075,13 +12270,13 @@
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="F455" s="2"/>
     </row>
@@ -12089,75 +12284,75 @@
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="F456" s="2"/>
     </row>
     <row r="457" spans="1:6">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
+      <c r="A457" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>1547</v>
+      </c>
       <c r="C457" s="2" t="s">
-        <v>1493</v>
+        <v>974</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>1494</v>
+        <v>975</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F457" s="2"/>
+        <v>976</v>
+      </c>
+      <c r="F457" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="F458" s="2"/>
     </row>
     <row r="459" spans="1:6">
-      <c r="A459" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>1549</v>
-      </c>
+      <c r="A459" s="2"/>
+      <c r="B459" s="2"/>
       <c r="C459" s="2" t="s">
-        <v>1108</v>
+        <v>1551</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>1109</v>
+        <v>1552</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F459" s="2">
-        <v>12</v>
-      </c>
+        <v>1553</v>
+      </c>
+      <c r="F459" s="2"/>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2" t="s">
-        <v>1550</v>
+        <v>1502</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>1551</v>
+        <v>1503</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1552</v>
+        <v>1504</v>
       </c>
       <c r="F460" s="2"/>
     </row>
@@ -12165,29 +12360,35 @@
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="F461" s="2"/>
     </row>
     <row r="462" spans="1:6">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
+      <c r="A462" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>1558</v>
+      </c>
       <c r="C462" s="2" t="s">
-        <v>1556</v>
+        <v>1111</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>1557</v>
+        <v>1112</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F462" s="2"/>
+        <v>1113</v>
+      </c>
+      <c r="F462" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="2"/>
@@ -12246,36 +12447,30 @@
       <c r="F466" s="2"/>
     </row>
     <row r="467" spans="1:6">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="2"/>
+      <c r="B467" s="2"/>
+      <c r="C467" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="D467" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="E467" s="2" t="s">
         <v>1573</v>
       </c>
-      <c r="D467" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E467" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F467" s="2">
-        <v>8</v>
-      </c>
+      <c r="F467" s="2"/>
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D468" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="D468" s="2" t="s">
+      <c r="E468" s="2" t="s">
         <v>1576</v>
-      </c>
-      <c r="E468" s="2" t="s">
-        <v>1577</v>
       </c>
       <c r="F468" s="2"/>
     </row>
@@ -12283,29 +12478,35 @@
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="D469" s="2" t="s">
+      <c r="E469" s="2" t="s">
         <v>1579</v>
       </c>
-      <c r="E469" s="2" t="s">
+      <c r="F469" s="2"/>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="F469" s="2"/>
-    </row>
-    <row r="470" spans="1:6">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
+      <c r="B470" s="2" t="s">
+        <v>1581</v>
+      </c>
       <c r="C470" s="2" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="F470" s="2"/>
+      <c r="F470" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="2"/>
@@ -12322,104 +12523,98 @@
       <c r="F471" s="2"/>
     </row>
     <row r="472" spans="1:6">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="2"/>
+      <c r="B472" s="2"/>
+      <c r="C472" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="D472" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="C472" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>1309</v>
-      </c>
       <c r="E472" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F472" s="2">
-        <v>7</v>
-      </c>
+        <v>1589</v>
+      </c>
+      <c r="F472" s="2"/>
     </row>
     <row r="473" spans="1:6">
-      <c r="A473" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B473" s="2" t="s">
+      <c r="A473" s="2"/>
+      <c r="B473" s="2"/>
+      <c r="C473" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="C473" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="D473" s="2" t="s">
-        <v>794</v>
+        <v>1591</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="F473" s="2">
-        <v>16</v>
-      </c>
+        <v>1592</v>
+      </c>
+      <c r="F473" s="2"/>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="F474" s="2"/>
     </row>
     <row r="475" spans="1:6">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
+      <c r="A475" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>1597</v>
+      </c>
       <c r="C475" s="2" t="s">
-        <v>966</v>
+        <v>1317</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>967</v>
+        <v>1318</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F475" s="2"/>
+        <v>1319</v>
+      </c>
+      <c r="F475" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="476" spans="1:6">
       <c r="A476" s="2" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1597</v>
+        <v>793</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1595</v>
+        <v>794</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1598</v>
+        <v>795</v>
       </c>
       <c r="F476" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="477" spans="1:6">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="F477" s="2"/>
     </row>
@@ -12427,29 +12622,35 @@
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2" t="s">
-        <v>1602</v>
+        <v>966</v>
       </c>
       <c r="D478" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E478" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="E478" s="2" t="s">
+      <c r="F478" s="2"/>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="F478" s="2"/>
-    </row>
-    <row r="479" spans="1:6">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
+      <c r="B479" s="2" t="s">
+        <v>1605</v>
+      </c>
       <c r="C479" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="F479" s="2"/>
+      <c r="F479" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="2"/>
@@ -12480,114 +12681,102 @@
       <c r="F481" s="2"/>
     </row>
     <row r="482" spans="1:6">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="2"/>
+      <c r="B482" s="2"/>
+      <c r="C482" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="D482" s="2" t="s">
         <v>1615</v>
       </c>
-      <c r="C482" s="2" t="s">
+      <c r="E482" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="D482" s="2" t="s">
+      <c r="F482" s="2"/>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" s="2"/>
+      <c r="B483" s="2"/>
+      <c r="C483" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="E482" s="2" t="s">
+      <c r="D483" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="F482" s="2">
+      <c r="E483" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F483" s="2"/>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" s="2"/>
+      <c r="B484" s="2"/>
+      <c r="C484" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F484" s="2"/>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F485" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="483" spans="1:6">
-      <c r="A483" s="2" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B483" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D483" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E483" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F483" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6">
-      <c r="A484" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D484" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E484" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F484" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
-      <c r="C485" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D485" s="2" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E485" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F485" s="2"/>
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E486" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="B486" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D486" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E486" s="2" t="s">
-        <v>1635</v>
-      </c>
       <c r="F486" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D487" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="E487" s="2" t="s">
         <v>1637</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D487" s="2" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E487" s="2" t="s">
-        <v>1640</v>
       </c>
       <c r="F487" s="2">
         <v>18</v>
@@ -12597,18 +12786,298 @@
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F488" s="2"/>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="D488" s="2" t="s">
+      <c r="B489" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C489" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="E488" s="2" t="s">
+      <c r="D489" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="F488" s="2"/>
+      <c r="E489" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F489" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F490" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" s="2"/>
+      <c r="B491" s="2"/>
+      <c r="C491" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F491" s="2"/>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F492" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="C493" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F494" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F495" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="C496" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="C497" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="C498" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F499" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="C500" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F501" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F502" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F503" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="C504" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F505" s="1">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E421" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E424" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12619,7 +13088,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12631,19 +13100,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -12651,23 +13120,23 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -12676,18 +13145,18 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -12695,24 +13164,18 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -12720,24 +13183,18 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -12745,18 +13202,24 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -12764,18 +13227,18 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -12783,18 +13246,18 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -12802,23 +13265,23 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6</v>
+      <c r="A9" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -12827,18 +13290,18 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -12853,24 +13316,18 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1674</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -12885,24 +13342,18 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="18.75">
-      <c r="A12" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -12917,23 +13368,23 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="18.75">
-      <c r="A13" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5</v>
+      <c r="A13" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -12949,18 +13400,18 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -12975,23 +13426,23 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="18.75">
-      <c r="A15" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F15" s="1">
-        <v>11</v>
+      <c r="A15" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -13009,9 +13460,15 @@
     <row r="16" spans="1:18" ht="18.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1749</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -13029,9 +13486,15 @@
     <row r="17" spans="1:18" ht="18.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1752</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -13047,12 +13510,24 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="18.75">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -13069,9 +13544,15 @@
     <row r="19" spans="1:18" ht="18.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1759</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -13089,9 +13570,15 @@
     <row r="20" spans="1:18" ht="18.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1762</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21723"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4501DB1C-A44E-4A1D-A557-37763C7A52D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2636DA8E-8572-4284-A668-264956C78D60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$367</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$368</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="1893">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -2067,6 +2067,15 @@
     <t>chủ sở hữu</t>
   </si>
   <si>
+    <t>しゅじんこう</t>
+  </si>
+  <si>
+    <t>主人公</t>
+  </si>
+  <si>
+    <t>nhân vật chính</t>
+  </si>
+  <si>
     <t>かいぬし</t>
   </si>
   <si>
@@ -5317,6 +5326,387 @@
   </si>
   <si>
     <t>cho xuống xe</t>
+  </si>
+  <si>
+    <t>私</t>
+  </si>
+  <si>
+    <t>tư</t>
+  </si>
+  <si>
+    <t>わたし</t>
+  </si>
+  <si>
+    <t>tôi</t>
+  </si>
+  <si>
+    <t>わたくし</t>
+  </si>
+  <si>
+    <t>tôi(lịch sự)</t>
+  </si>
+  <si>
+    <t>わたしたち</t>
+  </si>
+  <si>
+    <t>私達</t>
+  </si>
+  <si>
+    <t>chúng tôi</t>
+  </si>
+  <si>
+    <t>してつ</t>
+  </si>
+  <si>
+    <t>私鉄</t>
+  </si>
+  <si>
+    <t>đường sắt tư nhân</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>phu(phù)</t>
+  </si>
+  <si>
+    <t>おっと</t>
+  </si>
+  <si>
+    <t>chồng</t>
+  </si>
+  <si>
+    <t>だいじょうぶ</t>
+  </si>
+  <si>
+    <t>大丈夫</t>
+  </si>
+  <si>
+    <t>ổn</t>
+  </si>
+  <si>
+    <t>じょうぶ</t>
+  </si>
+  <si>
+    <t>丈夫</t>
+  </si>
+  <si>
+    <t>chắc(bền)</t>
+  </si>
+  <si>
+    <t>ふうふ</t>
+  </si>
+  <si>
+    <t>夫婦</t>
+  </si>
+  <si>
+    <t>vợ chồng</t>
+  </si>
+  <si>
+    <t>奥</t>
+  </si>
+  <si>
+    <t>áo(úc)</t>
+  </si>
+  <si>
+    <t>おくさん</t>
+  </si>
+  <si>
+    <t>奥さん</t>
+  </si>
+  <si>
+    <t>vợ</t>
+  </si>
+  <si>
+    <t>おく</t>
+  </si>
+  <si>
+    <t>bên trong</t>
+  </si>
+  <si>
+    <t>おくち</t>
+  </si>
+  <si>
+    <t>奥地</t>
+  </si>
+  <si>
+    <t>vùng xa xôi</t>
+  </si>
+  <si>
+    <t>おくさま</t>
+  </si>
+  <si>
+    <t>奥様</t>
+  </si>
+  <si>
+    <t>phu nhân</t>
+  </si>
+  <si>
+    <t>妻</t>
+  </si>
+  <si>
+    <t>thê</t>
+  </si>
+  <si>
+    <t>つま</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vợ </t>
+  </si>
+  <si>
+    <t>ふさい</t>
+  </si>
+  <si>
+    <t>夫妻</t>
+  </si>
+  <si>
+    <t>さいし</t>
+  </si>
+  <si>
+    <t>妻子</t>
+  </si>
+  <si>
+    <t>vợ con</t>
+  </si>
+  <si>
+    <t>兄</t>
+  </si>
+  <si>
+    <t>huynh</t>
+  </si>
+  <si>
+    <t>あに</t>
+  </si>
+  <si>
+    <t>anh trai</t>
+  </si>
+  <si>
+    <t>おにいさん</t>
+  </si>
+  <si>
+    <t>お兄さん</t>
+  </si>
+  <si>
+    <t>anh trai người khác</t>
+  </si>
+  <si>
+    <t>きょうだい</t>
+  </si>
+  <si>
+    <t>兄弟</t>
+  </si>
+  <si>
+    <t>anh em</t>
+  </si>
+  <si>
+    <t>弟</t>
+  </si>
+  <si>
+    <t>đệ</t>
+  </si>
+  <si>
+    <t>おとうと</t>
+  </si>
+  <si>
+    <t>em trai</t>
+  </si>
+  <si>
+    <t>おとうとさん</t>
+  </si>
+  <si>
+    <t>弟さん</t>
+  </si>
+  <si>
+    <t>em trai người khác</t>
+  </si>
+  <si>
+    <t>姉</t>
+  </si>
+  <si>
+    <t>tỉ</t>
+  </si>
+  <si>
+    <t>あね</t>
+  </si>
+  <si>
+    <t>chị gái</t>
+  </si>
+  <si>
+    <t>おねえさん</t>
+  </si>
+  <si>
+    <t>お姉さん</t>
+  </si>
+  <si>
+    <t>chị gái người khác</t>
+  </si>
+  <si>
+    <t>しまい</t>
+  </si>
+  <si>
+    <t>姉妹</t>
+  </si>
+  <si>
+    <t>chị em</t>
+  </si>
+  <si>
+    <t>妹</t>
+  </si>
+  <si>
+    <t>muội</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>em gái</t>
+  </si>
+  <si>
+    <t>いもうとさん</t>
+  </si>
+  <si>
+    <t>妹さん</t>
+  </si>
+  <si>
+    <t>em gái người khác</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>xuân</t>
+  </si>
+  <si>
+    <t>はる</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>hạ</t>
+  </si>
+  <si>
+    <t>なつ</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>あき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thu </t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>đông</t>
+  </si>
+  <si>
+    <t>ふゆ</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>tuyết</t>
+  </si>
+  <si>
+    <t>ゆき</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>hải</t>
+  </si>
+  <si>
+    <t>うみ</t>
+  </si>
+  <si>
+    <t>かいがい</t>
+  </si>
+  <si>
+    <t>海外</t>
+  </si>
+  <si>
+    <t>hải ngoại</t>
+  </si>
+  <si>
+    <t>かいがん</t>
+  </si>
+  <si>
+    <t>海岸</t>
+  </si>
+  <si>
+    <t>bờ biển</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>thiên</t>
+  </si>
+  <si>
+    <t>てんさい</t>
+  </si>
+  <si>
+    <t>天才</t>
+  </si>
+  <si>
+    <t>thiên tài</t>
+  </si>
+  <si>
+    <t>てんきよほう</t>
+  </si>
+  <si>
+    <t>天気予報</t>
+  </si>
+  <si>
+    <t>dự báo thời tiết</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>không</t>
+  </si>
+  <si>
+    <t>そら</t>
+  </si>
+  <si>
+    <t>bầu trời</t>
+  </si>
+  <si>
+    <t>こうくうびん</t>
+  </si>
+  <si>
+    <t>航空便</t>
+  </si>
+  <si>
+    <t>gửi đường hàng không</t>
+  </si>
+  <si>
+    <t>くうこう</t>
+  </si>
+  <si>
+    <t>空港</t>
+  </si>
+  <si>
+    <t>sân bay</t>
+  </si>
+  <si>
+    <t>くうき</t>
+  </si>
+  <si>
+    <t>空気</t>
+  </si>
+  <si>
+    <t>không khí</t>
   </si>
 </sst>
 </file>
@@ -5327,7 +5717,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -5335,7 +5725,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -5708,25 +6098,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:H565"/>
   <sheetViews>
-    <sheetView topLeftCell="A465" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D472" sqref="D472"/>
+    <sheetView topLeftCell="A543" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E557" sqref="E557"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5776,12 +6166,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100042)</f>
-        <v>184</v>
+        <f>COUNTA(A2:A100043)</f>
+        <v>206</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10042)</f>
-        <v>504</v>
+        <f>COUNTA(C2:C10043)</f>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8583,65 +8973,65 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E205" s="1" t="s">
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="F205" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="B206" s="1" t="s">
+        <v>686</v>
+      </c>
       <c r="C206" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>688</v>
       </c>
+      <c r="F206" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E207" s="1" t="s">
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="F207" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="B208" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="C208" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>695</v>
+      </c>
+      <c r="F208" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8657,36 +9047,33 @@
     </row>
     <row r="210" spans="1:6">
       <c r="C210" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="C211" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D211" s="1" t="s">
+    <row r="212" spans="1:6">
+      <c r="A212" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="F211" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
       <c r="C212" s="1" t="s">
         <v>704</v>
       </c>
@@ -8695,6 +9082,9 @@
       </c>
       <c r="E212" s="1" t="s">
         <v>706</v>
+      </c>
+      <c r="F212" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8709,26 +9099,23 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D214" s="1" t="s">
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="F214" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
       <c r="C215" s="1" t="s">
         <v>715</v>
       </c>
@@ -8738,36 +9125,39 @@
       <c r="E215" s="1" t="s">
         <v>717</v>
       </c>
+      <c r="F215" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="E216" s="1" t="s">
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="F216" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="B217" s="1" t="s">
+        <v>722</v>
+      </c>
       <c r="C217" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>724</v>
+      </c>
+      <c r="F217" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8782,26 +9172,23 @@
       </c>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D219" s="1" t="s">
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="F219" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
       <c r="C220" s="1" t="s">
         <v>733</v>
       </c>
@@ -8810,6 +9197,9 @@
       </c>
       <c r="E220" s="1" t="s">
         <v>735</v>
+      </c>
+      <c r="F220" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8824,158 +9214,158 @@
       </c>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E222" s="1" t="s">
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F222" s="1">
+      <c r="B223" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F223" s="1">
         <v>12</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="C223" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="C224" s="1" t="s">
-        <v>743</v>
+        <v>315</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>744</v>
+        <v>316</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>745</v>
+        <v>317</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="F225" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="F226" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:6">
+      <c r="A227" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>754</v>
+      </c>
       <c r="C227" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>756</v>
       </c>
+      <c r="F227" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E228" s="1" t="s">
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="F228" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="B229" s="1" t="s">
+        <v>761</v>
+      </c>
       <c r="C229" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>763</v>
       </c>
+      <c r="F229" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E230" s="1" t="s">
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="F230" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="B231" s="1" t="s">
+        <v>768</v>
+      </c>
       <c r="C231" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>770</v>
+      </c>
+      <c r="F231" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8990,34 +9380,34 @@
       </c>
     </row>
     <row r="233" spans="1:6">
-      <c r="A233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="E233" s="1" t="s">
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="F233" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="B234" s="1" t="s">
+        <v>778</v>
+      </c>
       <c r="C234" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>780</v>
+      </c>
+      <c r="F234" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -9032,46 +9422,43 @@
       </c>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="F236" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="F237" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="F237" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
       <c r="C238" s="1" t="s">
         <v>793</v>
       </c>
@@ -9081,79 +9468,79 @@
       <c r="E238" s="1" t="s">
         <v>795</v>
       </c>
+      <c r="F238" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D239" s="1" t="s">
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="F239" s="1">
+      <c r="C240" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F240" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
-      <c r="C240" s="1" t="s">
+    <row r="241" spans="1:6">
+      <c r="C241" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="F241" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="F242" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="F242" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
       <c r="C243" s="1" t="s">
         <v>811</v>
       </c>
@@ -9163,70 +9550,70 @@
       <c r="E243" s="1" t="s">
         <v>813</v>
       </c>
+      <c r="F243" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="244" spans="1:6">
-      <c r="A244" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="D244" s="1" t="s">
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="E244" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="F244" s="1">
+      <c r="C245" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F245" s="1">
         <v>13</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="C245" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="C246" s="1" t="s">
-        <v>819</v>
+        <v>468</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>820</v>
+        <v>469</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>821</v>
+        <v>470</v>
       </c>
     </row>
     <row r="247" spans="1:6">
-      <c r="A247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D247" s="1" t="s">
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="F247" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
       <c r="C248" s="1" t="s">
         <v>827</v>
       </c>
@@ -9236,48 +9623,48 @@
       <c r="E248" s="1" t="s">
         <v>829</v>
       </c>
+      <c r="F248" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="249" spans="1:6">
-      <c r="A249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="F249" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>839</v>
       </c>
       <c r="F250" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:6">
+      <c r="A251" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>839</v>
+      </c>
       <c r="C251" s="1" t="s">
         <v>840</v>
       </c>
@@ -9287,28 +9674,28 @@
       <c r="E251" s="1" t="s">
         <v>842</v>
       </c>
+      <c r="F251" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="E252" s="1" t="s">
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="F252" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="B253" s="1" t="s">
+        <v>750</v>
+      </c>
       <c r="C253" s="1" t="s">
         <v>847</v>
       </c>
@@ -9318,48 +9705,48 @@
       <c r="E253" s="1" t="s">
         <v>849</v>
       </c>
+      <c r="F253" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="F254" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="F255" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="F255" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
       <c r="C256" s="1" t="s">
         <v>860</v>
       </c>
@@ -9368,6 +9755,9 @@
       </c>
       <c r="E256" s="1" t="s">
         <v>862</v>
+      </c>
+      <c r="F256" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9382,26 +9772,23 @@
       </c>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="D258" s="1" t="s">
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="F258" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
       <c r="C259" s="1" t="s">
         <v>871</v>
       </c>
@@ -9411,45 +9798,39 @@
       <c r="E259" s="1" t="s">
         <v>873</v>
       </c>
+      <c r="F259" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="F260" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>878</v>
-      </c>
       <c r="F261" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9463,75 +9844,84 @@
         <v>884</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F262" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:6">
+      <c r="A263" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>886</v>
+      </c>
       <c r="C263" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="F263" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="C264" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="E263" s="1" t="s">
+      <c r="D264" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="F264" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>891</v>
-      </c>
       <c r="F265" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F266" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="C266" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9546,88 +9936,85 @@
       </c>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="E268" s="1" t="s">
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="F268" s="1">
+      <c r="B269" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F269" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="C269" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="C270" s="1" t="s">
-        <v>905</v>
+        <v>195</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>906</v>
+        <v>196</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>907</v>
+        <v>197</v>
       </c>
     </row>
     <row r="271" spans="1:6">
-      <c r="A271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="F271" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="F272" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="E272" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="F272" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
       <c r="C273" s="1" t="s">
         <v>918</v>
       </c>
@@ -9637,48 +10024,48 @@
       <c r="E273" s="1" t="s">
         <v>920</v>
       </c>
+      <c r="F273" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="274" spans="1:6">
-      <c r="A274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="F274" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="E275" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="F275" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="E275" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="F275" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
       <c r="C276" s="1" t="s">
         <v>931</v>
       </c>
@@ -9687,6 +10074,9 @@
       </c>
       <c r="E276" s="1" t="s">
         <v>933</v>
+      </c>
+      <c r="F276" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -9756,108 +10146,105 @@
       </c>
     </row>
     <row r="283" spans="1:6">
-      <c r="A283" s="1" t="s">
+      <c r="C283" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="E283" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="F283" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="E284" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>961</v>
-      </c>
       <c r="F284" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="E285" s="1" t="s">
-        <v>412</v>
+        <v>964</v>
       </c>
       <c r="F285" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:6">
+      <c r="A286" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>966</v>
+      </c>
       <c r="C286" s="1" t="s">
-        <v>964</v>
+        <v>410</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>962</v>
+        <v>411</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>965</v>
+        <v>412</v>
+      </c>
+      <c r="F286" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="C287" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="288" spans="1:6">
-      <c r="A288" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="D288" s="1" t="s">
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="B289" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="F288" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
       <c r="C289" s="1" t="s">
         <v>974</v>
       </c>
@@ -9867,67 +10254,67 @@
       <c r="E289" s="1" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="2" t="s">
+      <c r="F289" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="C290" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D290" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="E290" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F290" s="2"/>
+      <c r="E290" s="1" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="291" spans="1:6" customFormat="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>981</v>
+        <v>102</v>
       </c>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="1:6">
-      <c r="C292" s="1" t="s">
+    <row r="292" spans="1:6" customFormat="1">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="D292" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="E292" s="1" t="s">
+      <c r="E292" s="2" t="s">
         <v>984</v>
       </c>
+      <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D293" s="1" t="s">
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="E293" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="F293" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
       <c r="C294" s="1" t="s">
         <v>990</v>
       </c>
@@ -9936,6 +10323,9 @@
       </c>
       <c r="E294" s="1" t="s">
         <v>992</v>
+      </c>
+      <c r="F294" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -9983,97 +10373,94 @@
       </c>
     </row>
     <row r="299" spans="1:6">
-      <c r="A299" s="1" t="s">
+      <c r="C299" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="E299" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F299" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>1014</v>
-      </c>
       <c r="F300" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E301" s="1" t="s">
+      <c r="F301" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="F301" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="B302" s="1" t="s">
+        <v>1019</v>
+      </c>
       <c r="C302" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>1021</v>
       </c>
+      <c r="F302" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="D303" s="1" t="s">
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="E303" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="F303" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
       <c r="C304" s="1" t="s">
         <v>1027</v>
       </c>
@@ -10083,28 +10470,28 @@
       <c r="E304" s="1" t="s">
         <v>1029</v>
       </c>
+      <c r="F304" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="305" spans="1:6">
-      <c r="A305" s="1" t="s">
+      <c r="C305" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="E305" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="D305" s="1" t="s">
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="E305" s="1" t="s">
+      <c r="B306" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="F305" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
       <c r="C306" s="1" t="s">
         <v>1035</v>
       </c>
@@ -10113,6 +10500,9 @@
       </c>
       <c r="E306" s="1" t="s">
         <v>1037</v>
+      </c>
+      <c r="F306" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -10127,26 +10517,23 @@
       </c>
     </row>
     <row r="308" spans="1:6">
-      <c r="A308" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="E308" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D308" s="1" t="s">
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="E308" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="F308" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
       <c r="C309" s="1" t="s">
         <v>1046</v>
       </c>
@@ -10155,6 +10542,9 @@
       </c>
       <c r="E309" s="1" t="s">
         <v>1048</v>
+      </c>
+      <c r="F309" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -10169,26 +10559,23 @@
       </c>
     </row>
     <row r="311" spans="1:6">
-      <c r="A311" s="1" t="s">
+      <c r="C311" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="E311" s="1" t="s">
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="F311" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="B312" s="1" t="s">
+        <v>886</v>
+      </c>
       <c r="C312" s="1" t="s">
         <v>1056</v>
       </c>
@@ -10197,6 +10584,9 @@
       </c>
       <c r="E312" s="1" t="s">
         <v>1058</v>
+      </c>
+      <c r="F312" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -10233,34 +10623,34 @@
       </c>
     </row>
     <row r="316" spans="1:6">
-      <c r="A316" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="D316" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="E316" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="D316" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E316" s="1" t="s">
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="F316" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="B317" s="1" t="s">
+        <v>1072</v>
+      </c>
       <c r="C317" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>1074</v>
+      </c>
+      <c r="F317" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -10275,26 +10665,23 @@
       </c>
     </row>
     <row r="319" spans="1:6">
-      <c r="A319" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="D319" s="1" t="s">
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="E319" s="1" t="s">
+      <c r="B320" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="F319" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
       <c r="C320" s="1" t="s">
         <v>1083</v>
       </c>
@@ -10303,6 +10690,9 @@
       </c>
       <c r="E320" s="1" t="s">
         <v>1085</v>
+      </c>
+      <c r="F320" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -10328,26 +10718,23 @@
       </c>
     </row>
     <row r="323" spans="1:6">
-      <c r="A323" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="E323" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="D323" s="1" t="s">
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="E323" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="F323" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
       <c r="C324" s="1" t="s">
         <v>1097</v>
       </c>
@@ -10356,6 +10743,9 @@
       </c>
       <c r="E324" s="1" t="s">
         <v>1099</v>
+      </c>
+      <c r="F324" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -10381,26 +10771,23 @@
       </c>
     </row>
     <row r="327" spans="1:6">
-      <c r="A327" s="1" t="s">
+      <c r="C327" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="E327" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="D327" s="1" t="s">
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="E327" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="F327" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
       <c r="C328" s="1" t="s">
         <v>1111</v>
       </c>
@@ -10410,50 +10797,50 @@
       <c r="E328" s="1" t="s">
         <v>1113</v>
       </c>
+      <c r="F328" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="329" spans="1:6">
       <c r="C329" s="1" t="s">
-        <v>496</v>
+        <v>1114</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>498</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="C330" s="1" t="s">
-        <v>1115</v>
+        <v>496</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1117</v>
+        <v>498</v>
       </c>
     </row>
     <row r="331" spans="1:6">
-      <c r="A331" s="1" t="s">
+      <c r="C331" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="E331" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="D331" s="1" t="s">
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="E331" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="F331" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
       <c r="C332" s="1" t="s">
         <v>1123</v>
       </c>
@@ -10462,6 +10849,9 @@
       </c>
       <c r="E332" s="1" t="s">
         <v>1125</v>
+      </c>
+      <c r="F332" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -10487,26 +10877,23 @@
       </c>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="1" t="s">
+      <c r="C335" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="E335" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D335" s="1" t="s">
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="E335" s="1" t="s">
+      <c r="B336" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="F335" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
       <c r="C336" s="1" t="s">
         <v>1137</v>
       </c>
@@ -10516,68 +10903,68 @@
       <c r="E336" s="1" t="s">
         <v>1139</v>
       </c>
+      <c r="F336" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="337" spans="1:6">
-      <c r="A337" s="1" t="s">
+      <c r="C337" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="E337" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F337" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="D338" s="1" t="s">
-        <v>1147</v>
-      </c>
       <c r="E338" s="1" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F338" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="E339" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F339" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="E339" s="1" t="s">
+      <c r="B340" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="F339" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
       <c r="C340" s="1" t="s">
         <v>1153</v>
       </c>
@@ -10586,6 +10973,9 @@
       </c>
       <c r="E340" s="1" t="s">
         <v>1155</v>
+      </c>
+      <c r="F340" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -10611,46 +11001,43 @@
       </c>
     </row>
     <row r="343" spans="1:6">
-      <c r="A343" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="E343" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F343" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="F344" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="E344" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="F344" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
       <c r="C345" s="1" t="s">
         <v>1172</v>
       </c>
@@ -10659,6 +11046,9 @@
       </c>
       <c r="E345" s="1" t="s">
         <v>1174</v>
+      </c>
+      <c r="F345" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -10673,26 +11063,23 @@
       </c>
     </row>
     <row r="347" spans="1:6">
-      <c r="A347" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="D347" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="E347" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="D347" s="1" t="s">
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="E347" s="1" t="s">
+      <c r="B348" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="F347" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
       <c r="C348" s="1" t="s">
         <v>1183</v>
       </c>
@@ -10702,50 +11089,50 @@
       <c r="E348" s="1" t="s">
         <v>1185</v>
       </c>
+      <c r="F348" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="349" spans="1:6">
       <c r="C349" s="1" t="s">
-        <v>178</v>
+        <v>1186</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>179</v>
+        <v>1187</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>180</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="C350" s="1" t="s">
-        <v>1186</v>
+        <v>178</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1187</v>
+        <v>179</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="351" spans="1:6">
-      <c r="A351" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="D351" s="1" t="s">
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="E351" s="1" t="s">
+      <c r="B352" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="F351" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
       <c r="C352" s="1" t="s">
         <v>1194</v>
       </c>
@@ -10755,28 +11142,28 @@
       <c r="E352" s="1" t="s">
         <v>1196</v>
       </c>
+      <c r="F352" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="353" spans="1:6">
-      <c r="A353" s="1" t="s">
+      <c r="C353" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="D353" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="E353" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="D353" s="1" t="s">
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="E353" s="1" t="s">
+      <c r="B354" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="F353" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
       <c r="C354" s="1" t="s">
         <v>1202</v>
       </c>
@@ -10786,28 +11173,28 @@
       <c r="E354" s="1" t="s">
         <v>1204</v>
       </c>
+      <c r="F354" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="355" spans="1:6">
-      <c r="A355" s="1" t="s">
+      <c r="C355" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="E355" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="D355" s="1" t="s">
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="E355" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="F355" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
       <c r="C356" s="1" t="s">
         <v>1210</v>
       </c>
@@ -10816,6 +11203,9 @@
       </c>
       <c r="E356" s="1" t="s">
         <v>1212</v>
+      </c>
+      <c r="F356" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -10848,30 +11238,27 @@
         <v>1220</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>936</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="360" spans="1:6">
-      <c r="A360" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B360" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="E360" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="E360" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="F360" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
       <c r="C361" s="1" t="s">
         <v>1226</v>
       </c>
@@ -10880,6 +11267,9 @@
       </c>
       <c r="E361" s="1" t="s">
         <v>1228</v>
+      </c>
+      <c r="F361" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -10905,26 +11295,23 @@
       </c>
     </row>
     <row r="364" spans="1:6">
-      <c r="A364" s="1" t="s">
+      <c r="C364" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="E364" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="D364" s="1" t="s">
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="E364" s="1" t="s">
+      <c r="B365" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="F364" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
       <c r="C365" s="1" t="s">
         <v>1240</v>
       </c>
@@ -10933,6 +11320,9 @@
       </c>
       <c r="E365" s="1" t="s">
         <v>1242</v>
+      </c>
+      <c r="F365" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -10958,46 +11348,43 @@
       </c>
     </row>
     <row r="368" spans="1:6">
-      <c r="A368" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="E368" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F368" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="F369" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="E369" s="1" t="s">
+      <c r="B370" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="F369" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
       <c r="C370" s="1" t="s">
         <v>1259</v>
       </c>
@@ -11006,6 +11393,9 @@
       </c>
       <c r="E370" s="1" t="s">
         <v>1261</v>
+      </c>
+      <c r="F370" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -11020,46 +11410,43 @@
       </c>
     </row>
     <row r="372" spans="1:6">
-      <c r="A372" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="E372" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F372" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="D373" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E373" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="D373" s="1" t="s">
+      <c r="F373" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="E373" s="1" t="s">
+      <c r="B374" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="F373" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
       <c r="C374" s="1" t="s">
         <v>1274</v>
       </c>
@@ -11069,27 +11456,30 @@
       <c r="E374" s="1" t="s">
         <v>1276</v>
       </c>
+      <c r="F374" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="375" spans="1:6">
       <c r="C375" s="1" t="s">
-        <v>465</v>
+        <v>1277</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>466</v>
+        <v>1278</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>467</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="C376" s="1" t="s">
-        <v>1277</v>
+        <v>465</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1278</v>
+        <v>466</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1279</v>
+        <v>467</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -11104,42 +11494,42 @@
       </c>
     </row>
     <row r="378" spans="1:6">
-      <c r="A378" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="F378" s="1">
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F379" s="1">
         <v>16</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="C379" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="C380" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>1290</v>
@@ -11168,26 +11558,23 @@
       </c>
     </row>
     <row r="383" spans="1:6">
-      <c r="A383" s="1" t="s">
+      <c r="C383" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="C383" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="E383" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="E383" s="1" t="s">
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="F383" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
+      <c r="B384" s="1" t="s">
+        <v>750</v>
+      </c>
       <c r="C384" s="1" t="s">
         <v>1301</v>
       </c>
@@ -11197,28 +11584,28 @@
       <c r="E384" s="1" t="s">
         <v>1303</v>
       </c>
+      <c r="F384" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="385" spans="1:6">
-      <c r="A385" s="1" t="s">
+      <c r="C385" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="D385" s="1" t="s">
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="E385" s="1" t="s">
+      <c r="B386" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="F385" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
       <c r="C386" s="1" t="s">
         <v>1309</v>
       </c>
@@ -11228,28 +11615,28 @@
       <c r="E386" s="1" t="s">
         <v>1311</v>
       </c>
+      <c r="F386" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="387" spans="1:6">
-      <c r="A387" s="1" t="s">
+      <c r="C387" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="D387" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="E387" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="D387" s="1" t="s">
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="E387" s="1" t="s">
+      <c r="B388" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="F387" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
       <c r="C388" s="1" t="s">
         <v>1317</v>
       </c>
@@ -11258,6 +11645,9 @@
       </c>
       <c r="E388" s="1" t="s">
         <v>1319</v>
+      </c>
+      <c r="F388" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -11272,85 +11662,85 @@
       </c>
     </row>
     <row r="390" spans="1:6">
-      <c r="A390" s="1" t="s">
+      <c r="C390" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="C390" s="1" t="s">
+      <c r="D390" s="1" t="s">
         <v>1324</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1323</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="F390" s="1">
-        <v>13</v>
-      </c>
     </row>
     <row r="391" spans="1:6">
+      <c r="A391" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>930</v>
+      </c>
       <c r="C391" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D391" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1327</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>1328</v>
       </c>
+      <c r="F391" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="392" spans="1:6">
-      <c r="A392" s="1" t="s">
+      <c r="C392" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="B392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="E392" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F392" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="D393" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="E393" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="D393" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E393" s="1" t="s">
+      <c r="F393" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="F393" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
+      <c r="B394" s="1" t="s">
+        <v>1338</v>
+      </c>
       <c r="C394" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>1340</v>
+      </c>
+      <c r="F394" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -11361,69 +11751,69 @@
         <v>1342</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>706</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="396" spans="1:6">
-      <c r="A396" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B396" s="1" t="s">
+      <c r="C396" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="D396" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D396" s="1" t="s">
-        <v>1343</v>
-      </c>
       <c r="E396" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F396" s="1">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F397" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
-      <c r="C397" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>1348</v>
-      </c>
-    </row>
     <row r="398" spans="1:6">
-      <c r="A398" s="1" t="s">
+      <c r="C398" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="E398" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="D398" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E398" s="1" t="s">
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="F398" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
+      <c r="B399" s="1" t="s">
+        <v>1353</v>
+      </c>
       <c r="C399" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>1355</v>
+      </c>
+      <c r="F399" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -11438,34 +11828,34 @@
       </c>
     </row>
     <row r="401" spans="1:6">
-      <c r="A401" s="1" t="s">
+      <c r="C401" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>1359</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="F401" s="1">
-        <v>9</v>
-      </c>
     </row>
     <row r="402" spans="1:6">
+      <c r="A402" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>768</v>
+      </c>
       <c r="C402" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D402" s="1" t="s">
         <v>1362</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>1363</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>1364</v>
+      </c>
+      <c r="F402" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -11480,34 +11870,34 @@
       </c>
     </row>
     <row r="404" spans="1:6">
-      <c r="A404" s="1" t="s">
+      <c r="C404" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="E404" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D404" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E404" s="1" t="s">
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="F404" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6">
+      <c r="B405" s="1" t="s">
+        <v>1372</v>
+      </c>
       <c r="C405" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>1374</v>
+      </c>
+      <c r="F405" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -11522,26 +11912,23 @@
       </c>
     </row>
     <row r="407" spans="1:6">
-      <c r="A407" s="1" t="s">
+      <c r="C407" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="D407" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="C407" s="1" t="s">
+      <c r="E407" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="D407" s="1" t="s">
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="E407" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="F407" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6">
       <c r="C408" s="1" t="s">
         <v>1383</v>
       </c>
@@ -11551,36 +11938,39 @@
       <c r="E408" s="1" t="s">
         <v>1385</v>
       </c>
+      <c r="F408" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" s="1" t="s">
+      <c r="C409" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="D409" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="C409" s="1" t="s">
+      <c r="E409" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="D409" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E409" s="1" t="s">
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E410" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F409" s="1">
+      <c r="F410" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6">
-      <c r="C410" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -11595,46 +11985,43 @@
       </c>
     </row>
     <row r="412" spans="1:6">
-      <c r="A412" s="1" t="s">
+      <c r="C412" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="D412" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="C412" s="1" t="s">
+      <c r="E412" s="1" t="s">
         <v>1397</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F412" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="D413" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="C413" s="1" t="s">
+      <c r="E413" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D413" s="1" t="s">
+      <c r="F413" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="E413" s="1" t="s">
+      <c r="B414" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F413" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6">
       <c r="C414" s="1" t="s">
         <v>1405</v>
       </c>
@@ -11643,6 +12030,9 @@
       </c>
       <c r="E414" s="1" t="s">
         <v>1407</v>
+      </c>
+      <c r="F414" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -11657,161 +12047,158 @@
       </c>
     </row>
     <row r="416" spans="1:6">
-      <c r="A416" s="1" t="s">
+      <c r="C416" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="D416" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="C416" s="1" t="s">
+      <c r="E416" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="D416" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E416" s="1" t="s">
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="F416" s="1">
+      <c r="B417" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F417" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6">
-      <c r="C417" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="C418" s="1" t="s">
-        <v>1086</v>
+        <v>263</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1087</v>
+        <v>264</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="C419" s="1" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1088</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="420" spans="1:6">
-      <c r="A420" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>1418</v>
-      </c>
       <c r="C420" s="1" t="s">
-        <v>1419</v>
+        <v>1106</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1417</v>
+        <v>1107</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F420" s="1">
-        <v>5</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B421" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B421" s="1" t="s">
+      <c r="C421" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="C421" s="1" t="s">
+      <c r="D421" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E421" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="D421" s="1" t="s">
-        <v>1421</v>
-      </c>
-      <c r="E421" s="1" t="s">
+      <c r="F421" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="F421" s="1">
+      <c r="B422" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F422" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6">
-      <c r="C422" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E422" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="C423" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1429</v>
+        <v>333</v>
       </c>
     </row>
     <row r="424" spans="1:6">
-      <c r="A424" s="1" t="s">
+      <c r="C424" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="D424" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="C424" s="1" t="s">
+      <c r="E424" s="1" t="s">
         <v>1432</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E424" s="1" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F424" s="1">
-        <v>19</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="D425" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="C425" s="1" t="s">
+      <c r="E425" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="D425" s="1" t="s">
+      <c r="F425" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="E425" s="1" t="s">
+      <c r="B426" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="F425" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6">
       <c r="C426" s="1" t="s">
         <v>1440</v>
       </c>
@@ -11820,6 +12207,9 @@
       </c>
       <c r="E426" s="1" t="s">
         <v>1442</v>
+      </c>
+      <c r="F426" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -11834,108 +12224,105 @@
       </c>
     </row>
     <row r="428" spans="1:6">
-      <c r="A428" s="1" t="s">
+      <c r="C428" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="D428" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="C428" s="1" t="s">
+      <c r="E428" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="D428" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="E428" s="1" t="s">
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="F428" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6">
+      <c r="B429" s="1" t="s">
+        <v>1450</v>
+      </c>
       <c r="C429" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>1452</v>
       </c>
+      <c r="F429" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="430" spans="1:6">
-      <c r="A430" s="1" t="s">
+      <c r="C430" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="D430" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="C430" s="1" t="s">
+      <c r="E430" s="1" t="s">
         <v>1455</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="F430" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C431" s="1" t="s">
+      <c r="D431" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="D431" s="1" t="s">
+      <c r="E431" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="E431" s="1" t="s">
+      <c r="F431" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="F431" s="1">
+      <c r="B432" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F432" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
-      <c r="C432" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>1462</v>
-      </c>
-    </row>
     <row r="433" spans="1:6">
-      <c r="A433" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>1464</v>
-      </c>
       <c r="C433" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E433" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="D433" s="1" t="s">
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="E433" s="1" t="s">
+      <c r="B434" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="F433" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6">
       <c r="C434" s="1" t="s">
         <v>1468</v>
       </c>
@@ -11944,6 +12331,9 @@
       </c>
       <c r="E434" s="1" t="s">
         <v>1470</v>
+      </c>
+      <c r="F434" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -11969,74 +12359,69 @@
       </c>
     </row>
     <row r="437" spans="1:6">
-      <c r="A437" s="1" t="s">
+      <c r="C437" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="D437" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="E437" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="D437" s="1" t="s">
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="E437" s="1" t="s">
+      <c r="B438" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="F437">
+      <c r="C438" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F438">
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
-      <c r="C438" s="1" t="s">
+    <row r="439" spans="1:6">
+      <c r="C439" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D438" s="1" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E438" s="1" t="s">
+      <c r="D439" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E439" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F438"/>
-    </row>
-    <row r="439" spans="1:6">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D439" s="2" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E439" s="2" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F439" s="2"/>
+      <c r="F439"/>
     </row>
     <row r="440" spans="1:6">
-      <c r="A440" s="2" t="s">
+      <c r="A440" s="2"/>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="D440" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="C440" s="2" t="s">
+      <c r="E440" s="2" t="s">
         <v>1488</v>
       </c>
-      <c r="D440" s="2" t="s">
+      <c r="F440" s="2"/>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="E440" s="2" t="s">
+      <c r="B441" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="F440" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
       <c r="C441" s="2" t="s">
         <v>1491</v>
       </c>
@@ -12046,7 +12431,9 @@
       <c r="E441" s="2" t="s">
         <v>1493</v>
       </c>
-      <c r="F441" s="2"/>
+      <c r="F441" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="2"/>
@@ -12063,28 +12450,26 @@
       <c r="F442" s="2"/>
     </row>
     <row r="443" spans="1:6">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="2"/>
+      <c r="B443" s="2"/>
+      <c r="C443" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="D443" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="E443" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="D443" s="2" t="s">
+      <c r="F443" s="2"/>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="E443" s="2" t="s">
+      <c r="B444" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="F443" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
       <c r="C444" s="2" t="s">
         <v>1502</v>
       </c>
@@ -12094,51 +12479,51 @@
       <c r="E444" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="F444" s="2"/>
+      <c r="F444" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="445" spans="1:6">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="2"/>
+      <c r="B445" s="2"/>
+      <c r="C445" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="D445" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="E445" s="2" t="s">
         <v>1507</v>
       </c>
-      <c r="D445" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E445" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F445" s="2">
-        <v>7</v>
-      </c>
+      <c r="F445" s="2"/>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="D446" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="C446" s="2" t="s">
+      <c r="E446" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="D446" s="2" t="s">
+      <c r="F446" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="E446" s="2" t="s">
+      <c r="B447" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="F446" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
       <c r="C447" s="2" t="s">
         <v>1515</v>
       </c>
@@ -12148,31 +12533,31 @@
       <c r="E447" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="F447" s="2"/>
+      <c r="F447" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="448" spans="1:6">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="2"/>
+      <c r="B448" s="2"/>
+      <c r="C448" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="D448" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="C448" s="2" t="s">
+      <c r="E448" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="D448" s="2" t="s">
+      <c r="F448" s="2"/>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="E448" s="2" t="s">
+      <c r="B449" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="F448" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
       <c r="C449" s="2" t="s">
         <v>1523</v>
       </c>
@@ -12182,31 +12567,31 @@
       <c r="E449" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="F449" s="2"/>
+      <c r="F449" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="450" spans="1:6">
-      <c r="A450" s="2" t="s">
+      <c r="A450" s="2"/>
+      <c r="B450" s="2"/>
+      <c r="C450" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="D450" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="E450" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="D450" s="2" t="s">
+      <c r="F450" s="2"/>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="2" t="s">
         <v>1529</v>
       </c>
-      <c r="E450" s="2" t="s">
+      <c r="B451" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="F450" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
       <c r="C451" s="2" t="s">
         <v>1531</v>
       </c>
@@ -12216,7 +12601,9 @@
       <c r="E451" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="F451" s="2"/>
+      <c r="F451" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="2"/>
@@ -12236,49 +12623,49 @@
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F453" s="2"/>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" s="2"/>
+      <c r="B454" s="2"/>
+      <c r="C454" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D453" s="2" t="s">
+      <c r="D454" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E453" s="2" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F453" s="2"/>
-    </row>
-    <row r="454" spans="1:6">
-      <c r="A454" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D454" s="2" t="s">
-        <v>1532</v>
-      </c>
       <c r="E454" s="2" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F454" s="2">
+        <v>1540</v>
+      </c>
+      <c r="F454" s="2"/>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F455" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="455" spans="1:6">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D455" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E455" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F455" s="2"/>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="2"/>
@@ -12295,38 +12682,38 @@
       <c r="F456" s="2"/>
     </row>
     <row r="457" spans="1:6">
-      <c r="A457" s="2" t="s">
+      <c r="A457" s="2"/>
+      <c r="B457" s="2"/>
+      <c r="C457" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="D457" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="D457" s="2" t="s">
-        <v>975</v>
-      </c>
       <c r="E457" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="F457" s="2">
+        <v>1548</v>
+      </c>
+      <c r="F457" s="2"/>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="F458" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="458" spans="1:6">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E458" s="2" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F458" s="2"/>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="2"/>
@@ -12346,13 +12733,13 @@
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2" t="s">
-        <v>1502</v>
+        <v>1554</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>1503</v>
+        <v>1555</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1504</v>
+        <v>1556</v>
       </c>
       <c r="F460" s="2"/>
     </row>
@@ -12360,49 +12747,49 @@
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2" t="s">
-        <v>1554</v>
+        <v>1505</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>1555</v>
+        <v>1506</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1556</v>
+        <v>1507</v>
       </c>
       <c r="F461" s="2"/>
     </row>
     <row r="462" spans="1:6">
-      <c r="A462" s="2" t="s">
+      <c r="A462" s="2"/>
+      <c r="B462" s="2"/>
+      <c r="C462" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="D462" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="C462" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>1112</v>
-      </c>
       <c r="E462" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F462" s="2">
+        <v>1559</v>
+      </c>
+      <c r="F462" s="2"/>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F463" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="463" spans="1:6">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
-      <c r="C463" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D463" s="2" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E463" s="2" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F463" s="2"/>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="2"/>
@@ -12489,38 +12876,38 @@
       <c r="F469" s="2"/>
     </row>
     <row r="470" spans="1:6">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="2"/>
+      <c r="B470" s="2"/>
+      <c r="C470" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="D470" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="C470" s="2" t="s">
+      <c r="E470" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="D470" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E470" s="2" t="s">
+      <c r="F470" s="2"/>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="F470" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
+      <c r="B471" s="2" t="s">
+        <v>1584</v>
+      </c>
       <c r="C471" s="2" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="F471" s="2"/>
+      <c r="F471" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="2"/>
@@ -12565,106 +12952,106 @@
       <c r="F474" s="2"/>
     </row>
     <row r="475" spans="1:6">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="2"/>
+      <c r="B475" s="2"/>
+      <c r="C475" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="D475" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>1318</v>
-      </c>
       <c r="E475" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F475" s="2">
-        <v>7</v>
-      </c>
+        <v>1598</v>
+      </c>
+      <c r="F475" s="2"/>
     </row>
     <row r="476" spans="1:6">
       <c r="A476" s="2" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>793</v>
+        <v>1320</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>794</v>
+        <v>1321</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>795</v>
+        <v>1322</v>
       </c>
       <c r="F476" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="F477" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="477" spans="1:6">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
-      <c r="C477" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E477" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="F477" s="2"/>
     </row>
     <row r="478" spans="1:6">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2" t="s">
-        <v>966</v>
+        <v>1603</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>967</v>
+        <v>1604</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="F478" s="2"/>
     </row>
     <row r="479" spans="1:6">
-      <c r="A479" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>1605</v>
-      </c>
+      <c r="A479" s="2"/>
+      <c r="B479" s="2"/>
       <c r="C479" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="E479" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="D479" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E479" s="2" t="s">
+      <c r="F479" s="2"/>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="F479" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
+      <c r="B480" s="2" t="s">
+        <v>1608</v>
+      </c>
       <c r="C480" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="F480" s="2"/>
+      <c r="F480" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="2"/>
@@ -12723,68 +13110,66 @@
       <c r="F484" s="2"/>
     </row>
     <row r="485" spans="1:6">
-      <c r="A485" s="2" t="s">
+      <c r="A485" s="2"/>
+      <c r="B485" s="2"/>
+      <c r="C485" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="B485" s="2" t="s">
+      <c r="D485" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="C485" s="2" t="s">
+      <c r="E485" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="D485" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E485" s="2" t="s">
-        <v>1627</v>
-      </c>
-      <c r="F485" s="2">
-        <v>11</v>
-      </c>
+      <c r="F485" s="2"/>
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C486" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="D486" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="C486" s="2" t="s">
+      <c r="E486" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="D486" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E486" s="2" t="s">
-        <v>1632</v>
-      </c>
       <c r="F486" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C487" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="D487" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="C487" s="2" t="s">
+      <c r="E487" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="D487" s="2" t="s">
+      <c r="F487" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="E487" s="2" t="s">
+      <c r="B488" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="F487" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
       <c r="C488" s="2" t="s">
         <v>1638</v>
       </c>
@@ -12794,51 +13179,51 @@
       <c r="E488" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="F488" s="2"/>
+      <c r="F488" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="2" t="s">
+      <c r="A489" s="2"/>
+      <c r="B489" s="2"/>
+      <c r="C489" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C489" s="2" t="s">
+      <c r="D489" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="D489" s="2" t="s">
+      <c r="E489" s="2" t="s">
         <v>1643</v>
       </c>
-      <c r="E489" s="2" t="s">
-        <v>1644</v>
-      </c>
-      <c r="F489" s="2">
-        <v>11</v>
-      </c>
+      <c r="F489" s="2"/>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C490" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="B490" s="2" t="s">
+      <c r="D490" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="C490" s="2" t="s">
+      <c r="E490" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="D490" s="2" t="s">
+      <c r="F490" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="E490" s="2" t="s">
+      <c r="B491" s="2" t="s">
         <v>1649</v>
       </c>
-      <c r="F490" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
       <c r="C491" s="2" t="s">
         <v>1650</v>
       </c>
@@ -12848,29 +13233,31 @@
       <c r="E491" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="F491" s="2"/>
+      <c r="F491" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="492" spans="1:6">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="2"/>
+      <c r="B492" s="2"/>
+      <c r="C492" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="D492" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="C492" s="1" t="s">
+      <c r="E492" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="D492" s="1" t="s">
+      <c r="F492" s="2"/>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="E492" s="1" t="s">
+      <c r="B493" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="F492" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6">
       <c r="C493" s="1" t="s">
         <v>1658</v>
       </c>
@@ -12880,56 +13267,59 @@
       <c r="E493" s="1" t="s">
         <v>1660</v>
       </c>
+      <c r="F493" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="494" spans="1:6">
-      <c r="A494" s="1" t="s">
+      <c r="C494" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="D494" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="C494" s="1" t="s">
+      <c r="E494" s="1" t="s">
         <v>1663</v>
-      </c>
-      <c r="D494" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E494" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F494" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B495" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="C495" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="D495" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E495" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="D495" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="E495" s="1" t="s">
+      <c r="F495" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="F495" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6">
+      <c r="B496" s="1" t="s">
+        <v>1669</v>
+      </c>
       <c r="C496" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>1671</v>
+      </c>
+      <c r="F496" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -12955,129 +13345,1026 @@
       </c>
     </row>
     <row r="499" spans="1:6">
-      <c r="A499" s="1" t="s">
+      <c r="C499" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="D499" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="C499" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D499" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="E499" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F499" s="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F500" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
-      <c r="C500" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D500" s="1" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E500" s="1" t="s">
-        <v>1682</v>
-      </c>
-    </row>
     <row r="501" spans="1:6">
-      <c r="A501" s="1" t="s">
+      <c r="C501" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="D501" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="C501" s="1" t="s">
+      <c r="E501" s="1" t="s">
         <v>1685</v>
-      </c>
-      <c r="D501" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E501" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F501" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="502" spans="1:6">
       <c r="A502" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B502" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="C502" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="C502" s="1" t="s">
+      <c r="D502" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E502" s="1" t="s">
         <v>1689</v>
       </c>
-      <c r="D502" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E502" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="F502" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="503" spans="1:6">
       <c r="A503" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="C503" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="C503" s="1" t="s">
+      <c r="D503" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="D503" s="1" t="s">
-        <v>1691</v>
-      </c>
       <c r="E503" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F503" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="F503" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6">
+      <c r="B504" s="1" t="s">
+        <v>1695</v>
+      </c>
       <c r="C504" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>1697</v>
       </c>
+      <c r="F504" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="505" spans="1:6">
-      <c r="A505" s="1" t="s">
+      <c r="C505" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="B505" s="1" t="s">
+      <c r="D505" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="C505" s="1" t="s">
+      <c r="E505" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="D505" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E505" s="1" t="s">
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="F505" s="1">
+      <c r="B506" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F506" s="1">
         <v>11</v>
       </c>
     </row>
+    <row r="507" spans="1:6">
+      <c r="A507" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F507" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" s="2"/>
+      <c r="B508" s="2"/>
+      <c r="C508" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F508" s="2"/>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" s="2"/>
+      <c r="B509" s="2"/>
+      <c r="C509" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F509" s="2"/>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" s="2"/>
+      <c r="B510" s="2"/>
+      <c r="C510" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F510" s="2"/>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F511" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" s="2"/>
+      <c r="B512" s="2"/>
+      <c r="C512" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F512" s="2"/>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" s="2"/>
+      <c r="B513" s="2"/>
+      <c r="C513" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F513" s="2"/>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F514" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" s="2"/>
+      <c r="B515" s="2"/>
+      <c r="C515" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F515" s="2"/>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" s="2"/>
+      <c r="B516" s="2"/>
+      <c r="C516" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F516" s="2"/>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" s="2"/>
+      <c r="B517" s="2"/>
+      <c r="C517" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F517" s="2"/>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F518" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" s="2"/>
+      <c r="B519" s="2"/>
+      <c r="C519" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F519" s="2"/>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="F520" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521" s="2"/>
+      <c r="B521" s="2"/>
+      <c r="C521" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F521" s="2"/>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" s="2"/>
+      <c r="B522" s="2"/>
+      <c r="C522" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F522" s="2"/>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F523" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524" s="2"/>
+      <c r="B524" s="2"/>
+      <c r="C524" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F524" s="2"/>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" s="2"/>
+      <c r="B525" s="2"/>
+      <c r="C525" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F525" s="2"/>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F526" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="C527" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="C528" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="C529" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F530" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="C531" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="C532" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="C533" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F534" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="C535" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="C536" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="C537" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
+      <c r="A538" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F538" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="C539" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="C540" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="A541" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F541" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="C542" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
+      <c r="C543" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F544" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6">
+      <c r="C545" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F546" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6">
+      <c r="C547" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="C548" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F549" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6">
+      <c r="C550" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
+      <c r="A551" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F551" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F552" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F553" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F554" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F555" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F556" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="C557" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="C558" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
+      <c r="A559" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F559" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="C560" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="C561" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6">
+      <c r="A562" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F562" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="C563" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="C564" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="C565" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>1892</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E424" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E425" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13085,21 +14372,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:18" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13120,23 +14407,23 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="18.75">
-      <c r="A2" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12</v>
+      <c r="A2" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -13145,18 +14432,18 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -13164,18 +14451,18 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="18.75">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -13183,18 +14470,18 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="18.75">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -13202,23 +14489,23 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="18.75">
-      <c r="A6" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="F6" s="2">
-        <v>11</v>
+      <c r="A6" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -13227,18 +14514,18 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="18.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -13246,18 +14533,18 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1724</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>1725</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -13265,24 +14552,18 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>1730</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -13290,18 +14571,24 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -13316,18 +14603,18 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="18.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -13342,18 +14629,18 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="18.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -13368,24 +14655,18 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="18.75">
-      <c r="A13" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="2">
-        <v>7</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -13400,18 +14681,24 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="18.75">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F14" s="1">
+        <v>8</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -13426,24 +14713,18 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="18.75">
-      <c r="A15" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -13458,18 +14739,18 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="18.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>1749</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -13484,18 +14765,24 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="18.75">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -13510,24 +14797,18 @@
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="18.75">
-      <c r="A18" s="2" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1757</v>
-      </c>
-      <c r="F18" s="2">
-        <v>10</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -13542,18 +14823,18 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="18.75">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -13568,18 +14849,24 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="18.75">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1761</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -13594,12 +14881,18 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="18.75">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -13614,12 +14907,24 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="18.75">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -13634,12 +14939,18 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="18.75">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -13654,12 +14965,18 @@
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" ht="18.75">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -13674,12 +14991,24 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="18.75">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A25" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -13694,12 +15023,18 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18" ht="18.75">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -13713,6 +15048,264 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
+    <row r="27" spans="1:18" ht="18">
+      <c r="A27" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="18">
+      <c r="A28" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="18">
+      <c r="A29" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="18">
+      <c r="A30" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="18">
+      <c r="A31" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F31" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="18">
+      <c r="A32" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="18">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="18">
+      <c r="A35" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="18">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="18">
+      <c r="A38" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="18">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="18">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13724,7 +15317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21728"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2636DA8E-8572-4284-A668-264956C78D60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A372AEB0-0627-41E5-8043-527B9FDF0F60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="1893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="1925">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -5707,6 +5707,102 @@
   </si>
   <si>
     <t>không khí</t>
+  </si>
+  <si>
+    <t>暑</t>
+  </si>
+  <si>
+    <t>thử</t>
+  </si>
+  <si>
+    <t>あつい</t>
+  </si>
+  <si>
+    <t>暑い</t>
+  </si>
+  <si>
+    <t>nóng</t>
+  </si>
+  <si>
+    <t>寒</t>
+  </si>
+  <si>
+    <t>hàn</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>寒い</t>
+  </si>
+  <si>
+    <t>lạnh</t>
+  </si>
+  <si>
+    <t>速</t>
+  </si>
+  <si>
+    <t>tốc</t>
+  </si>
+  <si>
+    <t>速い</t>
+  </si>
+  <si>
+    <t>nhanh</t>
+  </si>
+  <si>
+    <t>そくど</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>tốc độ</t>
+  </si>
+  <si>
+    <t>遅</t>
+  </si>
+  <si>
+    <t>おそい</t>
+  </si>
+  <si>
+    <t>遅い</t>
+  </si>
+  <si>
+    <t>chậm</t>
+  </si>
+  <si>
+    <t>おくれる</t>
+  </si>
+  <si>
+    <t>遅れる</t>
+  </si>
+  <si>
+    <t>chậm trễ</t>
+  </si>
+  <si>
+    <t>ちこくする</t>
+  </si>
+  <si>
+    <t>遅刻する</t>
+  </si>
+  <si>
+    <t>đi muộn</t>
+  </si>
+  <si>
+    <t>遠</t>
+  </si>
+  <si>
+    <t>viễn</t>
+  </si>
+  <si>
+    <t>とおい</t>
+  </si>
+  <si>
+    <t>遠い</t>
+  </si>
+  <si>
+    <t>xa</t>
   </si>
 </sst>
 </file>
@@ -6098,10 +6194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H565"/>
+  <dimension ref="A1:H573"/>
   <sheetViews>
-    <sheetView topLeftCell="A543" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E557" sqref="E557"/>
+    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="A566" sqref="A566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -6167,11 +6263,11 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTA(A2:A100043)</f>
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA(C2:C10043)</f>
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14361,6 +14457,139 @@
       </c>
       <c r="E565" s="1" t="s">
         <v>1892</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F566" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F567" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6">
+      <c r="A568" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F568" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="C569" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6">
+      <c r="A570" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F570" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6">
+      <c r="C571" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6">
+      <c r="C572" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6">
+      <c r="A573" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F573" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -14372,10 +14601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14408,22 +14637,22 @@
     </row>
     <row r="2" spans="1:18" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>1766</v>
+        <v>1893</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1767</v>
+        <v>1894</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1768</v>
+        <v>1895</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1766</v>
+        <v>1896</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1769</v>
+        <v>1897</v>
       </c>
       <c r="F2" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -14432,18 +14661,24 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1899</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>1770</v>
+        <v>1900</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1766</v>
+        <v>1901</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>1902</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -14451,18 +14686,24 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1904</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>1772</v>
+        <v>1240</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1773</v>
+        <v>1905</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>1906</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -14473,13 +14714,13 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>1775</v>
+        <v>1907</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1776</v>
+        <v>1908</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1777</v>
+        <v>1909</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
@@ -14490,22 +14731,22 @@
     </row>
     <row r="6" spans="1:18" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>1778</v>
+        <v>1910</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1779</v>
+        <v>1730</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1780</v>
+        <v>1911</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1778</v>
+        <v>1912</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1781</v>
+        <v>1913</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -14517,13 +14758,13 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>1782</v>
+        <v>1914</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1783</v>
+        <v>1915</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1784</v>
+        <v>1916</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
@@ -14536,13 +14777,13 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>1785</v>
+        <v>1917</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1786</v>
+        <v>1918</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1787</v>
+        <v>1919</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
@@ -14552,18 +14793,24 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>1788</v>
+      <c r="A9" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1922</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1789</v>
+        <v>1923</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>1924</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -14571,49 +14818,24 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="18.75">
-      <c r="A10" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F10" s="1">
-        <v>12</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1797</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -14631,15 +14853,9 @@
     <row r="12" spans="1:18" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1800</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -14657,15 +14873,9 @@
     <row r="13" spans="1:18" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1803</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -14681,24 +14891,12 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F14" s="1">
-        <v>8</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -14715,15 +14913,9 @@
     <row r="15" spans="1:18" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1790</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -14741,15 +14933,9 @@
     <row r="16" spans="1:18" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1812</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -14765,24 +14951,12 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="18.75">
-      <c r="A17" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -14799,15 +14973,9 @@
     <row r="18" spans="1:18" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1819</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -14825,15 +14993,9 @@
     <row r="19" spans="1:18" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1822</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -14849,24 +15011,12 @@
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F20" s="1">
-        <v>7</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -14883,15 +15033,9 @@
     <row r="21" spans="1:18" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1829</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -14907,24 +15051,12 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="18.75">
-      <c r="A22" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1833</v>
-      </c>
-      <c r="F22" s="1">
-        <v>8</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -14941,15 +15073,9 @@
     <row r="23" spans="1:18" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1836</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -14967,15 +15093,9 @@
     <row r="24" spans="1:18" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1839</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -14991,24 +15111,12 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="18.75">
-      <c r="A25" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F25" s="1">
-        <v>8</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -15025,15 +15133,9 @@
     <row r="26" spans="1:18" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1846</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -15048,263 +15150,145 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" ht="18">
-      <c r="A27" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="F27" s="1">
-        <v>9</v>
-      </c>
+    <row r="27" spans="1:18" ht="18.75">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="18">
-      <c r="A28" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F28" s="1">
-        <v>10</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="18">
-      <c r="A29" s="1" t="s">
-        <v>1853</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>1856</v>
-      </c>
-      <c r="F29" s="1">
-        <v>9</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="18">
-      <c r="A30" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F30" s="1">
-        <v>5</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="18">
-      <c r="A31" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F31" s="1">
-        <v>11</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="18">
-      <c r="A32" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1865</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1863</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1864</v>
-      </c>
-      <c r="F32" s="1">
-        <v>9</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="18">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>1868</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="18">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1871</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="18">
-      <c r="A35" s="1" t="s">
-        <v>1872</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F35" s="1">
-        <v>4</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="18">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>1874</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1875</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1876</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="18">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1878</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>1879</v>
-      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="18">
-      <c r="A38" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1883</v>
-      </c>
-      <c r="F38" s="1">
-        <v>8</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="18">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1885</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1886</v>
-      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="18">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1888</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1889</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="18">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1892</v>
-      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="18">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15315,7 +15299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21728"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A372AEB0-0627-41E5-8043-527B9FDF0F60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11EF48E-3C19-4D6A-B1BC-BADB9BD7F834}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="1925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1928">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -5803,6 +5803,15 @@
   </si>
   <si>
     <t>xa</t>
+  </si>
+  <si>
+    <t>とおく</t>
+  </si>
+  <si>
+    <t>遠く</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xa (adv)</t>
   </si>
 </sst>
 </file>
@@ -6196,8 +6205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
-      <selection activeCell="A566" sqref="A566"/>
+    <sheetView topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -14603,8 +14612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14820,9 +14829,15 @@
     <row r="10" spans="1:18" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1927</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -14831,12 +14846,24 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:18" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -14853,9 +14880,15 @@
     <row r="12" spans="1:18" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -14873,9 +14906,15 @@
     <row r="13" spans="1:18" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -14891,12 +14930,24 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -14913,9 +14964,15 @@
     <row r="15" spans="1:18" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -14933,9 +14990,15 @@
     <row r="16" spans="1:18" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -14953,9 +15016,15 @@
     <row r="17" spans="1:18" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -14973,9 +15042,15 @@
     <row r="18" spans="1:18" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21728"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11EF48E-3C19-4D6A-B1BC-BADB9BD7F834}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F7AD4B5-47C5-44C5-9270-488D6F7F41EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$368</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$370</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="2002">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -3459,6 +3459,24 @@
     <t>tác giả</t>
   </si>
   <si>
+    <t>さくぶん</t>
+  </si>
+  <si>
+    <t>作文</t>
+  </si>
+  <si>
+    <t>bài văn</t>
+  </si>
+  <si>
+    <t>そうさ</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>thao tác</t>
+  </si>
+  <si>
     <t>明</t>
   </si>
   <si>
@@ -5803,6 +5821,210 @@
   </si>
   <si>
     <t>xa</t>
+  </si>
+  <si>
+    <t>質</t>
+  </si>
+  <si>
+    <t>chất</t>
+  </si>
+  <si>
+    <t>しつもんする</t>
+  </si>
+  <si>
+    <t>質問する</t>
+  </si>
+  <si>
+    <t>hỏi</t>
+  </si>
+  <si>
+    <t>問</t>
+  </si>
+  <si>
+    <t>vấn</t>
+  </si>
+  <si>
+    <t>vấn đề</t>
+  </si>
+  <si>
+    <t>とい</t>
+  </si>
+  <si>
+    <t>問い</t>
+  </si>
+  <si>
+    <t>câu hỏi</t>
+  </si>
+  <si>
+    <t>答</t>
+  </si>
+  <si>
+    <t>đáp</t>
+  </si>
+  <si>
+    <t>こたえ</t>
+  </si>
+  <si>
+    <t>答え</t>
+  </si>
+  <si>
+    <t>câu trả lời</t>
+  </si>
+  <si>
+    <t>かいとう</t>
+  </si>
+  <si>
+    <t>回答</t>
+  </si>
+  <si>
+    <t>思</t>
+  </si>
+  <si>
+    <t>おもう</t>
+  </si>
+  <si>
+    <t>思う</t>
+  </si>
+  <si>
+    <t>nhớ</t>
+  </si>
+  <si>
+    <t>おもいだす</t>
+  </si>
+  <si>
+    <t>思い出す</t>
+  </si>
+  <si>
+    <t>nhớ ra</t>
+  </si>
+  <si>
+    <t>ふしぎな</t>
+  </si>
+  <si>
+    <t>不思議な</t>
+  </si>
+  <si>
+    <t>kì lạ</t>
+  </si>
+  <si>
+    <t>始</t>
+  </si>
+  <si>
+    <t>thủy</t>
+  </si>
+  <si>
+    <t>はじめる</t>
+  </si>
+  <si>
+    <t>始める</t>
+  </si>
+  <si>
+    <t>bắt đầu(tha)</t>
+  </si>
+  <si>
+    <t>はじまる</t>
+  </si>
+  <si>
+    <t>始まる</t>
+  </si>
+  <si>
+    <t>bắt đầu(tự)</t>
+  </si>
+  <si>
+    <t>着</t>
+  </si>
+  <si>
+    <t>trứ,trữ</t>
+  </si>
+  <si>
+    <t>きもの</t>
+  </si>
+  <si>
+    <t>着物</t>
+  </si>
+  <si>
+    <t>kimono</t>
+  </si>
+  <si>
+    <t>うわぎ</t>
+  </si>
+  <si>
+    <t>上着</t>
+  </si>
+  <si>
+    <t>áo khoác</t>
+  </si>
+  <si>
+    <t>したぎ</t>
+  </si>
+  <si>
+    <t>下着</t>
+  </si>
+  <si>
+    <t>áo lót</t>
+  </si>
+  <si>
+    <t>きる</t>
+  </si>
+  <si>
+    <t>着る</t>
+  </si>
+  <si>
+    <t>mặc</t>
+  </si>
+  <si>
+    <t>つく</t>
+  </si>
+  <si>
+    <t>着く</t>
+  </si>
+  <si>
+    <t>とうちゃくする</t>
+  </si>
+  <si>
+    <t>到着する</t>
+  </si>
+  <si>
+    <t>đến nơi</t>
+  </si>
+  <si>
+    <t>集</t>
+  </si>
+  <si>
+    <t>tập</t>
+  </si>
+  <si>
+    <t>あつめる</t>
+  </si>
+  <si>
+    <t>集める</t>
+  </si>
+  <si>
+    <t>thu thập(tha)</t>
+  </si>
+  <si>
+    <t>あつまる</t>
+  </si>
+  <si>
+    <t>集まる</t>
+  </si>
+  <si>
+    <t>tập hợp(tự)</t>
+  </si>
+  <si>
+    <t>しゅうちゅう</t>
+  </si>
+  <si>
+    <t>集中</t>
+  </si>
+  <si>
+    <t>tập trung</t>
+  </si>
+  <si>
+    <t>練</t>
+  </si>
+  <si>
+    <t>luyện</t>
   </si>
   <si>
     <t>とおく</t>
@@ -6203,10 +6425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H573"/>
+  <dimension ref="A1:H596"/>
   <sheetViews>
-    <sheetView topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F9"/>
+    <sheetView topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="F597" sqref="F597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -6271,12 +6493,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100043)</f>
-        <v>211</v>
+        <f>COUNTA(A2:A100045)</f>
+        <v>219</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10043)</f>
-        <v>572</v>
+        <f>COUNTA(C2:C10045)</f>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -11024,77 +11246,74 @@
       </c>
     </row>
     <row r="338" spans="1:6">
-      <c r="A338" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="E338" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="D338" s="1" t="s">
+    </row>
+    <row r="339" spans="1:6">
+      <c r="C339" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="E338" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F338" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="E339" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F339" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="E340" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F340" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="B341" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="E340" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="F340" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F341" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="E341" s="1" t="s">
+      <c r="B342" s="1" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="342" spans="1:6">
       <c r="C342" s="1" t="s">
         <v>1159</v>
       </c>
@@ -11103,6 +11322,9 @@
       </c>
       <c r="E342" s="1" t="s">
         <v>1161</v>
+      </c>
+      <c r="F342" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -11117,57 +11339,54 @@
       </c>
     </row>
     <row r="344" spans="1:6">
-      <c r="A344" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="D344" s="1" t="s">
+    </row>
+    <row r="345" spans="1:6">
+      <c r="C345" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="E344" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="F344" s="1">
+      <c r="E345" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F346" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
-      <c r="A345" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F345" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
-      <c r="C346" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D346" s="1" t="s">
+    <row r="347" spans="1:6">
+      <c r="A347" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="E346" s="1" t="s">
+      <c r="B347" s="1" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="347" spans="1:6">
       <c r="C347" s="1" t="s">
         <v>1178</v>
       </c>
@@ -11177,154 +11396,154 @@
       <c r="E347" s="1" t="s">
         <v>1180</v>
       </c>
+      <c r="F347" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="348" spans="1:6">
-      <c r="A348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="E348" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F348" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="C349" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E349" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="D349" s="1" t="s">
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="E349" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="350" spans="1:6">
       <c r="C350" s="1" t="s">
-        <v>178</v>
+        <v>1189</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>179</v>
+        <v>1190</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>180</v>
+        <v>1191</v>
+      </c>
+      <c r="F350" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="C351" s="1" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="352" spans="1:6">
-      <c r="A352" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>1193</v>
-      </c>
       <c r="C352" s="1" t="s">
-        <v>1194</v>
+        <v>178</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1195</v>
+        <v>179</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="F352" s="1">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="C353" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="D354" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="E354" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="D354" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1204</v>
-      </c>
       <c r="F354" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="C355" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E355" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="E356" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>1212</v>
-      </c>
       <c r="F356" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="C357" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E357" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="D357" s="1" t="s">
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="E357" s="1" t="s">
+      <c r="B358" s="1" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="358" spans="1:6">
       <c r="C358" s="1" t="s">
         <v>1216</v>
       </c>
@@ -11333,6 +11552,9 @@
       </c>
       <c r="E358" s="1" t="s">
         <v>1218</v>
+      </c>
+      <c r="F358" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -11354,41 +11576,38 @@
         <v>1223</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>939</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="361" spans="1:6">
-      <c r="A361" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B361" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="D361" s="1" t="s">
+      <c r="E361" s="1" t="s">
         <v>1227</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F361" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="C362" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D362" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="D362" s="1" t="s">
+      <c r="E362" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="E362" s="1" t="s">
+      <c r="B363" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="363" spans="1:6">
       <c r="C363" s="1" t="s">
         <v>1232</v>
       </c>
@@ -11397,6 +11616,9 @@
       </c>
       <c r="E363" s="1" t="s">
         <v>1234</v>
+      </c>
+      <c r="F363" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -11411,37 +11633,34 @@
       </c>
     </row>
     <row r="365" spans="1:6">
-      <c r="A365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="E365" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F365" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="C366" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E366" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="D366" s="1" t="s">
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="E366" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="367" spans="1:6">
       <c r="C367" s="1" t="s">
         <v>1246</v>
       </c>
@@ -11450,6 +11669,9 @@
       </c>
       <c r="E367" s="1" t="s">
         <v>1248</v>
+      </c>
+      <c r="F367" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -11464,57 +11686,54 @@
       </c>
     </row>
     <row r="369" spans="1:6">
-      <c r="A369" s="1" t="s">
+      <c r="C369" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="D369" s="1" t="s">
+    </row>
+    <row r="370" spans="1:6">
+      <c r="C370" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="E369" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="F369" s="1">
+      <c r="E370" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F371" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F370" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="C371" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D371" s="1" t="s">
+    <row r="372" spans="1:6">
+      <c r="A372" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="E371" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="372" spans="1:6">
       <c r="C372" s="1" t="s">
         <v>1265</v>
       </c>
@@ -11524,109 +11743,103 @@
       <c r="E372" s="1" t="s">
         <v>1267</v>
       </c>
+      <c r="F372" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="373" spans="1:6">
-      <c r="A373" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="D373" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="E373" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E373" s="1" t="s">
+    </row>
+    <row r="374" spans="1:6">
+      <c r="C374" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="F373" s="1">
+      <c r="D374" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F375" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F374" s="1">
+    <row r="376" spans="1:6">
+      <c r="A376" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F376" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="C375" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="C376" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="377" spans="1:6">
       <c r="C377" s="1" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="C378" s="1" t="s">
-        <v>1283</v>
+        <v>465</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1284</v>
+        <v>466</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1285</v>
+        <v>467</v>
       </c>
     </row>
     <row r="379" spans="1:6">
-      <c r="A379" s="1" t="s">
+      <c r="C379" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>1287</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>935</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="F379" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -11634,29 +11847,38 @@
         <v>1289</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="381" spans="1:6">
+      <c r="A381" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1293</v>
+      </c>
       <c r="C381" s="1" t="s">
-        <v>1291</v>
+        <v>934</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1292</v>
+        <v>935</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
+      </c>
+      <c r="F381" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="C382" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>1296</v>
@@ -11674,51 +11896,42 @@
       </c>
     </row>
     <row r="384" spans="1:6">
-      <c r="A384" s="1" t="s">
+      <c r="C384" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C384" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="D384" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F384" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="C385" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D385" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>1305</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="D386" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="E386" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>1311</v>
       </c>
       <c r="F386" s="1">
         <v>6</v>
@@ -11726,30 +11939,30 @@
     </row>
     <row r="387" spans="1:6">
       <c r="C387" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E387" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="E388" s="1" t="s">
         <v>1317</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>1319</v>
       </c>
       <c r="F388" s="1">
         <v>6</v>
@@ -11757,16 +11970,22 @@
     </row>
     <row r="389" spans="1:6">
       <c r="C389" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E389" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="D389" s="1" t="s">
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="E389" s="1" t="s">
+      <c r="B390" s="1" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="390" spans="1:6">
       <c r="C390" s="1" t="s">
         <v>1323</v>
       </c>
@@ -11776,25 +11995,19 @@
       <c r="E390" s="1" t="s">
         <v>1325</v>
       </c>
+      <c r="F390" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="391" spans="1:6">
-      <c r="A391" s="1" t="s">
+      <c r="C391" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1326</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="F391" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -11813,92 +12026,92 @@
         <v>1332</v>
       </c>
       <c r="B393" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="D393" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E393" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="D393" s="1" t="s">
+      <c r="F393" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="C394" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="E393" s="1" t="s">
+      <c r="D394" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="F393" s="1">
+      <c r="E394" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F395" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
-      <c r="A394" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F394" s="1">
+    <row r="396" spans="1:6">
+      <c r="A396" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F396" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
-      <c r="C395" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
-      <c r="C396" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E396" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B397" s="1" t="s">
+      <c r="C397" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="D397" s="1" t="s">
-        <v>1346</v>
-      </c>
       <c r="E397" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F397" s="1">
-        <v>8</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="C398" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1351</v>
+        <v>709</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -11915,52 +12128,52 @@
         <v>1352</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F399" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="E400" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="E400" s="1" t="s">
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="1" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="401" spans="1:6">
+      <c r="B401" s="1" t="s">
+        <v>1359</v>
+      </c>
       <c r="C401" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>1361</v>
       </c>
+      <c r="F401" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="402" spans="1:6">
-      <c r="A402" s="1" t="s">
+      <c r="C402" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C402" s="1" t="s">
+      <c r="D402" s="1" t="s">
         <v>1363</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>1362</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="F402" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -11975,104 +12188,104 @@
       </c>
     </row>
     <row r="404" spans="1:6">
+      <c r="A404" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>768</v>
+      </c>
       <c r="C404" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D404" s="1" t="s">
         <v>1368</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>1369</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>1370</v>
       </c>
+      <c r="F404" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="405" spans="1:6">
-      <c r="A405" s="1" t="s">
+      <c r="C405" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="D405" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="C405" s="1" t="s">
+      <c r="E405" s="1" t="s">
         <v>1373</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F405" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="C406" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="D406" s="1" t="s">
+      <c r="E406" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="E406" s="1" t="s">
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="1" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="407" spans="1:6">
+      <c r="B407" s="1" t="s">
+        <v>1378</v>
+      </c>
       <c r="C407" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>1380</v>
       </c>
+      <c r="F407" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="408" spans="1:6">
-      <c r="A408" s="1" t="s">
+      <c r="C408" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="D408" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="C408" s="1" t="s">
+      <c r="E408" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F408" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="C409" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E409" s="1" t="s">
         <v>1386</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="D410" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="C410" s="1" t="s">
+      <c r="E410" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="F410" s="1">
         <v>8</v>
@@ -12090,68 +12303,74 @@
       </c>
     </row>
     <row r="412" spans="1:6">
+      <c r="A412" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1396</v>
+      </c>
       <c r="C412" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D412" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="D412" s="1" t="s">
-        <v>1396</v>
-      </c>
       <c r="E412" s="1" t="s">
-        <v>1397</v>
+        <v>309</v>
+      </c>
+      <c r="F412" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="413" spans="1:6">
-      <c r="A413" s="1" t="s">
+      <c r="C413" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="D413" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="C413" s="1" t="s">
+      <c r="E413" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="D413" s="1" t="s">
+    </row>
+    <row r="414" spans="1:6">
+      <c r="C414" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="E413" s="1" t="s">
+      <c r="D414" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="F413" s="1">
+      <c r="E414" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F415" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
-      <c r="A414" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F414" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6">
-      <c r="C415" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D415" s="1" t="s">
+    <row r="416" spans="1:6">
+      <c r="A416" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="E415" s="1" t="s">
+      <c r="B416" s="1" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="416" spans="1:6">
       <c r="C416" s="1" t="s">
         <v>1411</v>
       </c>
@@ -12161,174 +12380,174 @@
       <c r="E416" s="1" t="s">
         <v>1413</v>
       </c>
+      <c r="F416" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="417" spans="1:6">
-      <c r="A417" s="1" t="s">
+      <c r="C417" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="D417" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="C417" s="1" t="s">
+      <c r="E417" s="1" t="s">
         <v>1416</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F417" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="C418" s="1" t="s">
-        <v>263</v>
+        <v>1417</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>264</v>
+        <v>1418</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="419" spans="1:6">
+      <c r="A419" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1421</v>
+      </c>
       <c r="C419" s="1" t="s">
-        <v>1089</v>
+        <v>1422</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1090</v>
+        <v>1420</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1419</v>
+        <v>1423</v>
+      </c>
+      <c r="F419" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="C420" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="C421" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="C422" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="D420" s="1" t="s">
+      <c r="D422" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="E420" s="1" t="s">
+      <c r="E422" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
-      <c r="A421" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E421" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F421" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6">
-      <c r="A422" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C422" s="1" t="s">
+    <row r="423" spans="1:6">
+      <c r="A423" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="D422" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E422" s="1" t="s">
+      <c r="B423" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="F422" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6">
       <c r="C423" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D423" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E423" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="E423" s="1" t="s">
+      <c r="F423" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F424" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="C425" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E425" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
-      <c r="C424" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E424" s="1" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6">
-      <c r="A425" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D425" s="1" t="s">
+    <row r="426" spans="1:6">
+      <c r="C426" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="E425" s="1" t="s">
+      <c r="D426" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="F425" s="1">
+      <c r="E426" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F427" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
-      <c r="A426" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E426" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F426" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6">
-      <c r="C427" s="1" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D427" s="1" t="s">
+    <row r="428" spans="1:6">
+      <c r="A428" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="E427" s="1" t="s">
+      <c r="B428" s="1" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="428" spans="1:6">
       <c r="C428" s="1" t="s">
         <v>1446</v>
       </c>
@@ -12338,95 +12557,89 @@
       <c r="E428" s="1" t="s">
         <v>1448</v>
       </c>
+      <c r="F428" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="429" spans="1:6">
-      <c r="A429" s="1" t="s">
+      <c r="C429" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="D429" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="C429" s="1" t="s">
+      <c r="E429" s="1" t="s">
         <v>1451</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E429" s="1" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F429" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="C430" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D430" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="D430" s="1" t="s">
+      <c r="E430" s="1" t="s">
         <v>1454</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="C431" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="D431" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E431" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="D431" s="1" t="s">
+      <c r="F431" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="C432" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="E431" s="1" t="s">
+      <c r="D432" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="F431" s="1">
+      <c r="E432" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F433" s="1">
         <v>11</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6">
-      <c r="A432" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F432" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6">
-      <c r="C433" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1467</v>
+        <v>1291</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>1468</v>
@@ -12443,16 +12656,22 @@
     </row>
     <row r="435" spans="1:6">
       <c r="C435" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E435" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="D435" s="1" t="s">
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="E435" s="1" t="s">
+      <c r="B436" s="1" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="436" spans="1:6">
       <c r="C436" s="1" t="s">
         <v>1474</v>
       </c>
@@ -12461,6 +12680,9 @@
       </c>
       <c r="E436" s="1" t="s">
         <v>1476</v>
+      </c>
+      <c r="F436" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -12475,88 +12697,80 @@
       </c>
     </row>
     <row r="438" spans="1:6">
-      <c r="A438" s="1" t="s">
+      <c r="C438" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="D438" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="C438" s="1" t="s">
+      <c r="E438" s="1" t="s">
         <v>1482</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E438" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F438">
-        <v>5</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="C439" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F440">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="C441" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D439" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E439" s="1" t="s">
+      <c r="D441" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E441" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F439"/>
-    </row>
-    <row r="440" spans="1:6">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D440" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E440" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F440" s="2"/>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="A441" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E441" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F441" s="2">
-        <v>9</v>
-      </c>
+      <c r="F441"/>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E442" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="D442" s="2" t="s">
+      <c r="F442" s="2"/>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="E442" s="2" t="s">
+      <c r="B443" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="F442" s="2"/>
-    </row>
-    <row r="443" spans="1:6">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
       <c r="C443" s="2" t="s">
         <v>1497</v>
       </c>
@@ -12566,167 +12780,167 @@
       <c r="E443" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="F443" s="2"/>
+      <c r="F443" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="444" spans="1:6">
-      <c r="A444" s="2" t="s">
+      <c r="A444" s="2"/>
+      <c r="B444" s="2"/>
+      <c r="C444" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="D444" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="C444" s="2" t="s">
+      <c r="E444" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="D444" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E444" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F444" s="2">
-        <v>9</v>
-      </c>
+      <c r="F444" s="2"/>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E445" s="2" t="s">
         <v>1505</v>
-      </c>
-      <c r="D445" s="2" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E445" s="2" t="s">
-        <v>1507</v>
       </c>
       <c r="F445" s="2"/>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="D446" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="C446" s="2" t="s">
+      <c r="E446" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="D446" s="2" t="s">
+      <c r="F446" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="2"/>
+      <c r="B447" s="2"/>
+      <c r="C447" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="E446" s="2" t="s">
+      <c r="D447" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="F446" s="2">
+      <c r="E447" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F447" s="2"/>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F448" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="447" spans="1:6">
-      <c r="A447" s="2" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D447" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F447" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D448" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F448" s="2"/>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C449" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="D449" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="C449" s="2" t="s">
+      <c r="E449" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="D449" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E449" s="2" t="s">
-        <v>1525</v>
-      </c>
       <c r="F449" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E450" s="2" t="s">
         <v>1526</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E450" s="2" t="s">
-        <v>1528</v>
       </c>
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C451" s="2" t="s">
         <v>1529</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="D451" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="E451" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="D451" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E451" s="2" t="s">
-        <v>1533</v>
-      </c>
       <c r="F451" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E452" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="D452" s="2" t="s">
+      <c r="F452" s="2"/>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="E452" s="2" t="s">
+      <c r="B453" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="F452" s="2"/>
-    </row>
-    <row r="453" spans="1:6">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
       <c r="C453" s="2" t="s">
         <v>1537</v>
       </c>
@@ -12736,129 +12950,131 @@
       <c r="E453" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="F453" s="2"/>
+      <c r="F453" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2" t="s">
-        <v>212</v>
+        <v>1540</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>213</v>
+        <v>1541</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="F454" s="2"/>
     </row>
     <row r="455" spans="1:6">
-      <c r="A455" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>1542</v>
-      </c>
+      <c r="A455" s="2"/>
+      <c r="B455" s="2"/>
       <c r="C455" s="2" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>1535</v>
+        <v>1544</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F455" s="2">
-        <v>9</v>
-      </c>
+        <v>1545</v>
+      </c>
+      <c r="F455" s="2"/>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2" t="s">
-        <v>1543</v>
+        <v>212</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1544</v>
+        <v>213</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F456" s="2"/>
     </row>
     <row r="457" spans="1:6">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
+      <c r="A457" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>1548</v>
+      </c>
       <c r="C457" s="2" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="F457" s="2"/>
+        <v>1542</v>
+      </c>
+      <c r="F457" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="458" spans="1:6">
-      <c r="A458" s="2" t="s">
+      <c r="A458" s="2"/>
+      <c r="B458" s="2"/>
+      <c r="C458" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="D458" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="C458" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="D458" s="2" t="s">
-        <v>978</v>
-      </c>
       <c r="E458" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="F458" s="2">
-        <v>9</v>
-      </c>
+        <v>1551</v>
+      </c>
+      <c r="F458" s="2"/>
     </row>
     <row r="459" spans="1:6">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="F459" s="2"/>
     </row>
     <row r="460" spans="1:6">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
+      <c r="A460" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>1556</v>
+      </c>
       <c r="C460" s="2" t="s">
-        <v>1554</v>
+        <v>977</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>1555</v>
+        <v>978</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="F460" s="2"/>
+        <v>979</v>
+      </c>
+      <c r="F460" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2" t="s">
-        <v>1505</v>
+        <v>1557</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>1506</v>
+        <v>1558</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1507</v>
+        <v>1559</v>
       </c>
       <c r="F461" s="2"/>
     </row>
@@ -12866,63 +13082,63 @@
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="F462" s="2"/>
     </row>
     <row r="463" spans="1:6">
-      <c r="A463" s="2" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>1561</v>
-      </c>
+      <c r="A463" s="2"/>
+      <c r="B463" s="2"/>
       <c r="C463" s="2" t="s">
-        <v>1114</v>
+        <v>1511</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1115</v>
+        <v>1512</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F463" s="2">
-        <v>12</v>
-      </c>
+        <v>1513</v>
+      </c>
+      <c r="F463" s="2"/>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="F464" s="2"/>
     </row>
     <row r="465" spans="1:6">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
+      <c r="A465" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>1567</v>
+      </c>
       <c r="C465" s="2" t="s">
-        <v>1565</v>
+        <v>1114</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>1566</v>
+        <v>1115</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F465" s="2"/>
+        <v>1116</v>
+      </c>
+      <c r="F465" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="2"/>
@@ -12995,52 +13211,52 @@
       <c r="F470" s="2"/>
     </row>
     <row r="471" spans="1:6">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="2"/>
+      <c r="B471" s="2"/>
+      <c r="C471" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="D471" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="C471" s="2" t="s">
+      <c r="E471" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="D471" s="2" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E471" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F471" s="2">
-        <v>8</v>
-      </c>
+      <c r="F471" s="2"/>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D472" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="D472" s="2" t="s">
+      <c r="E472" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="E472" s="2" t="s">
+      <c r="F472" s="2"/>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="F472" s="2"/>
-    </row>
-    <row r="473" spans="1:6">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
+      <c r="B473" s="2" t="s">
+        <v>1590</v>
+      </c>
       <c r="C473" s="2" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="F473" s="2"/>
+      <c r="F473" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="2"/>
@@ -13071,120 +13287,120 @@
       <c r="F475" s="2"/>
     </row>
     <row r="476" spans="1:6">
-      <c r="A476" s="2" t="s">
+      <c r="A476" s="2"/>
+      <c r="B476" s="2"/>
+      <c r="C476" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="D476" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="C476" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>1321</v>
-      </c>
       <c r="E476" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F476" s="2">
+        <v>1601</v>
+      </c>
+      <c r="F476" s="2"/>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" s="2"/>
+      <c r="B477" s="2"/>
+      <c r="C477" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F477" s="2"/>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F478" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
-      <c r="A477" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C477" s="2" t="s">
+    <row r="479" spans="1:6">
+      <c r="A479" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C479" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="D477" s="2" t="s">
+      <c r="D479" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="E477" s="2" t="s">
+      <c r="E479" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="F477" s="2">
+      <c r="F479" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
-      <c r="C478" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E478" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F478" s="2"/>
-    </row>
-    <row r="479" spans="1:6">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
-      <c r="C479" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="E479" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F479" s="2"/>
-    </row>
     <row r="480" spans="1:6">
-      <c r="A480" s="2" t="s">
-        <v>1607</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>1608</v>
-      </c>
+      <c r="A480" s="2"/>
+      <c r="B480" s="2"/>
       <c r="C480" s="2" t="s">
         <v>1609</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F480" s="2">
-        <v>10</v>
-      </c>
+        <v>1611</v>
+      </c>
+      <c r="F480" s="2"/>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2" t="s">
-        <v>1611</v>
+        <v>969</v>
       </c>
       <c r="D481" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="E481" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="E481" s="2" t="s">
+      <c r="F481" s="2"/>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="F481" s="2"/>
-    </row>
-    <row r="482" spans="1:6">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
+      <c r="B482" s="2" t="s">
+        <v>1614</v>
+      </c>
       <c r="C482" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="F482" s="2"/>
+      <c r="F482" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="483" spans="1:6">
       <c r="A483" s="2"/>
@@ -13229,224 +13445,230 @@
       <c r="F485" s="2"/>
     </row>
     <row r="486" spans="1:6">
-      <c r="A486" s="2" t="s">
+      <c r="A486" s="2"/>
+      <c r="B486" s="2"/>
+      <c r="C486" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="D486" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="C486" s="2" t="s">
+      <c r="E486" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="D486" s="2" t="s">
+      <c r="F486" s="2"/>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" s="2"/>
+      <c r="B487" s="2"/>
+      <c r="C487" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="E486" s="2" t="s">
+      <c r="D487" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="F486" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6">
-      <c r="A487" s="2" t="s">
+      <c r="E487" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="B487" s="2" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D487" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E487" s="2" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F487" s="2">
-        <v>13</v>
-      </c>
+      <c r="F487" s="2"/>
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E488" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="F488" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="C488" s="2" t="s">
+      <c r="B489" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="D488" s="2" t="s">
+      <c r="C489" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="E488" s="2" t="s">
+      <c r="D489" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="F488" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
-      <c r="C489" s="2" t="s">
+      <c r="E489" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="D489" s="2" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E489" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F489" s="2"/>
+      <c r="F489" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C490" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="B490" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C490" s="2" t="s">
+      <c r="D490" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="D490" s="2" t="s">
+      <c r="E490" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="E490" s="2" t="s">
+      <c r="F490" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" s="2"/>
+      <c r="B491" s="2"/>
+      <c r="C491" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="F490" s="2">
+      <c r="D491" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F491" s="2"/>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F492" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
-      <c r="A491" s="2" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D491" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E491" s="2" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F491" s="2">
+    <row r="493" spans="1:6">
+      <c r="A493" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F493" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
-      <c r="C492" s="2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D492" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E492" s="2" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F492" s="2"/>
-    </row>
-    <row r="493" spans="1:6">
-      <c r="A493" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D493" s="1" t="s">
+    <row r="494" spans="1:6">
+      <c r="A494" s="2"/>
+      <c r="B494" s="2"/>
+      <c r="C494" s="2" t="s">
         <v>1659</v>
       </c>
-      <c r="E493" s="1" t="s">
+      <c r="D494" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="F493" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6">
-      <c r="C494" s="1" t="s">
+      <c r="E494" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="D494" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E494" s="1" t="s">
-        <v>1663</v>
-      </c>
+      <c r="F494" s="2"/>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="D495" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="E495" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="D495" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="E495" s="1" t="s">
+      <c r="F495" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="C496" s="1" t="s">
         <v>1667</v>
-      </c>
-      <c r="F495" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6">
-      <c r="A496" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>1670</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>1668</v>
       </c>
       <c r="E496" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B497" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="F496" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6">
       <c r="C497" s="1" t="s">
         <v>1672</v>
       </c>
       <c r="D497" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E497" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="E497" s="1" t="s">
+      <c r="F497" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" s="1" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="498" spans="1:6">
+      <c r="B498" s="1" t="s">
+        <v>1675</v>
+      </c>
       <c r="C498" s="1" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>1677</v>
+      </c>
+      <c r="F498" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -13461,97 +13683,85 @@
       </c>
     </row>
     <row r="500" spans="1:6">
-      <c r="A500" s="1" t="s">
+      <c r="C500" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="D500" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="C500" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D500" s="1" t="s">
-        <v>1006</v>
-      </c>
       <c r="E500" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F500" s="1">
-        <v>6</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="501" spans="1:6">
       <c r="C501" s="1" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="502" spans="1:6">
       <c r="A502" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1688</v>
+        <v>1005</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1686</v>
+        <v>1006</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1689</v>
+        <v>1007</v>
       </c>
       <c r="F502" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="503" spans="1:6">
-      <c r="A503" s="1" t="s">
+      <c r="C503" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D503" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="E503" s="1" t="s">
         <v>1691</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D503" s="1" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E503" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F503" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:6">
       <c r="A504" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C504" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="D504" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E504" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="C504" s="1" t="s">
+      <c r="F504" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="D504" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E504" s="1" t="s">
+      <c r="B505" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="F504" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6">
       <c r="C505" s="1" t="s">
         <v>1698</v>
       </c>
@@ -13559,128 +13769,132 @@
         <v>1699</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1700</v>
+        <v>352</v>
+      </c>
+      <c r="F505" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:6">
       <c r="A506" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B506" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="C506" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="C506" s="1" t="s">
+      <c r="D506" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E506" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="D506" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E506" s="1" t="s">
+      <c r="F506" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="C507" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="F506" s="1">
+      <c r="D507" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F508" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
-      <c r="A507" s="2" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F507" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
-      <c r="C508" s="2" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D508" s="2" t="s">
+    <row r="509" spans="1:6">
+      <c r="A509" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="E508" s="2" t="s">
+      <c r="B509" s="2" t="s">
         <v>1712</v>
       </c>
-      <c r="F508" s="2"/>
-    </row>
-    <row r="509" spans="1:6">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
       <c r="C509" s="2" t="s">
         <v>1713</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F509" s="2"/>
+        <v>1715</v>
+      </c>
+      <c r="F509" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="510" spans="1:6">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E510" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F510" s="2"/>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" s="2"/>
+      <c r="B511" s="2"/>
+      <c r="C511" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D511" s="2" t="s">
         <v>1717</v>
       </c>
-      <c r="F510" s="2"/>
-    </row>
-    <row r="511" spans="1:6">
-      <c r="A511" s="2" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B511" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C511" s="2" t="s">
+      <c r="E511" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="D511" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E511" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="F511" s="2">
-        <v>11</v>
-      </c>
+      <c r="F511" s="2"/>
     </row>
     <row r="512" spans="1:6">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E512" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="D512" s="2" t="s">
+      <c r="F512" s="2"/>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" s="2" t="s">
         <v>1724</v>
       </c>
-      <c r="E512" s="2" t="s">
+      <c r="B513" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="F512" s="2"/>
-    </row>
-    <row r="513" spans="1:6">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
       <c r="C513" s="2" t="s">
         <v>1726</v>
       </c>
@@ -13690,45 +13904,45 @@
       <c r="E513" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="F513" s="2"/>
+      <c r="F513" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="514" spans="1:6">
-      <c r="A514" s="2" t="s">
+      <c r="A514" s="2"/>
+      <c r="B514" s="2"/>
+      <c r="C514" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="D514" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="C514" s="2" t="s">
+      <c r="E514" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="D514" s="2" t="s">
-        <v>1732</v>
-      </c>
-      <c r="E514" s="2" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F514" s="2">
-        <v>9</v>
-      </c>
+      <c r="F514" s="2"/>
     </row>
     <row r="515" spans="1:6">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E515" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="D515" s="2" t="s">
+      <c r="F515" s="2"/>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="E515" s="2" t="s">
+      <c r="B516" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="F515" s="2"/>
-    </row>
-    <row r="516" spans="1:6">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
       <c r="C516" s="2" t="s">
         <v>1737</v>
       </c>
@@ -13738,7 +13952,9 @@
       <c r="E516" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="F516" s="2"/>
+      <c r="F516" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="517" spans="1:6">
       <c r="A517" s="2"/>
@@ -13755,228 +13971,234 @@
       <c r="F517" s="2"/>
     </row>
     <row r="518" spans="1:6">
-      <c r="A518" s="2" t="s">
+      <c r="A518" s="2"/>
+      <c r="B518" s="2"/>
+      <c r="C518" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="D518" s="2" t="s">
         <v>1744</v>
       </c>
-      <c r="C518" s="2" t="s">
+      <c r="E518" s="2" t="s">
         <v>1745</v>
       </c>
-      <c r="D518" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="E518" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F518" s="2">
-        <v>7</v>
-      </c>
+      <c r="F518" s="2"/>
     </row>
     <row r="519" spans="1:6">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2" t="s">
-        <v>1590</v>
+        <v>1746</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1591</v>
+        <v>1747</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1592</v>
+        <v>1748</v>
       </c>
       <c r="F519" s="2"/>
     </row>
     <row r="520" spans="1:6">
       <c r="A520" s="2" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1562</v>
+        <v>1751</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>1563</v>
+        <v>1752</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>1749</v>
+        <v>108</v>
       </c>
       <c r="F520" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="521" spans="1:6">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2" t="s">
-        <v>1750</v>
+        <v>1596</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1751</v>
+        <v>1597</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1752</v>
+        <v>1598</v>
       </c>
       <c r="F521" s="2"/>
     </row>
     <row r="522" spans="1:6">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
+      <c r="A522" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>1754</v>
+      </c>
       <c r="C522" s="2" t="s">
-        <v>1753</v>
+        <v>1568</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1754</v>
+        <v>1569</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="F522" s="2"/>
+      <c r="F522" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="523" spans="1:6">
-      <c r="A523" s="2" t="s">
+      <c r="A523" s="2"/>
+      <c r="B523" s="2"/>
+      <c r="C523" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="D523" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="C523" s="2" t="s">
+      <c r="E523" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="D523" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E523" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F523" s="2">
-        <v>10</v>
-      </c>
+      <c r="F523" s="2"/>
     </row>
     <row r="524" spans="1:6">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E524" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="D524" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E524" s="2" t="s">
+      <c r="F524" s="2"/>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="F524" s="2"/>
-    </row>
-    <row r="525" spans="1:6">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
+      <c r="B525" s="2" t="s">
+        <v>1763</v>
+      </c>
       <c r="C525" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="E525" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F525" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" s="2"/>
+      <c r="B526" s="2"/>
+      <c r="C526" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D526" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="F525" s="2"/>
-    </row>
-    <row r="526" spans="1:6">
-      <c r="A526" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C526" s="1" t="s">
+      <c r="E526" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="D526" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E526" s="1" t="s">
+      <c r="F526" s="2"/>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" s="2"/>
+      <c r="B527" s="2"/>
+      <c r="C527" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="F526" s="1">
+      <c r="D527" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F527" s="2"/>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F528" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="527" spans="1:6">
-      <c r="C527" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D527" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E527" s="1" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="528" spans="1:6">
-      <c r="C528" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D528" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E528" s="1" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="529" spans="1:6">
       <c r="C529" s="1" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="E529" s="1" t="s">
         <v>1777</v>
       </c>
     </row>
     <row r="530" spans="1:6">
-      <c r="A530" s="1" t="s">
+      <c r="C530" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="D530" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="C530" s="1" t="s">
+      <c r="E530" s="1" t="s">
         <v>1780</v>
-      </c>
-      <c r="D530" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E530" s="1" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F530" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:6">
       <c r="C531" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D531" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="D531" s="1" t="s">
+      <c r="E531" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="E531" s="1" t="s">
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" s="1" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="532" spans="1:6">
+      <c r="B532" s="1" t="s">
+        <v>1785</v>
+      </c>
       <c r="C532" s="1" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>1787</v>
+      </c>
+      <c r="F532" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -13991,284 +14213,266 @@
       </c>
     </row>
     <row r="534" spans="1:6">
-      <c r="A534" s="1" t="s">
+      <c r="C534" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="D534" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="C534" s="1" t="s">
+      <c r="E534" s="1" t="s">
         <v>1793</v>
-      </c>
-      <c r="D534" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="E534" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F534" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="535" spans="1:6">
       <c r="C535" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E535" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="D535" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E535" s="1" t="s">
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536" s="1" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="536" spans="1:6">
+      <c r="B536" s="1" t="s">
+        <v>1798</v>
+      </c>
       <c r="C536" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1800</v>
+        <v>1801</v>
+      </c>
+      <c r="F536" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="537" spans="1:6">
       <c r="C537" s="1" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
       <c r="E537" s="1" t="s">
         <v>1803</v>
       </c>
     </row>
     <row r="538" spans="1:6">
-      <c r="A538" s="1" t="s">
+      <c r="C538" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="D538" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="C538" s="1" t="s">
+      <c r="E538" s="1" t="s">
         <v>1806</v>
-      </c>
-      <c r="D538" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="E538" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F538" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="539" spans="1:6">
       <c r="C539" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D539" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="D539" s="1" t="s">
+      <c r="E539" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="E539" s="1" t="s">
-        <v>1790</v>
-      </c>
     </row>
     <row r="540" spans="1:6">
+      <c r="A540" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1811</v>
+      </c>
       <c r="C540" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D540" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="D540" s="1" t="s">
-        <v>1811</v>
-      </c>
       <c r="E540" s="1" t="s">
-        <v>1812</v>
+        <v>1813</v>
+      </c>
+      <c r="F540" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="541" spans="1:6">
-      <c r="A541" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B541" s="1" t="s">
+      <c r="C541" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="C541" s="1" t="s">
+      <c r="D541" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="D541" s="1" t="s">
-        <v>1813</v>
-      </c>
       <c r="E541" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="F541" s="1">
-        <v>5</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="542" spans="1:6">
       <c r="C542" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D542" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="D542" s="1" t="s">
+      <c r="E542" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="E542" s="1" t="s">
+    </row>
+    <row r="543" spans="1:6">
+      <c r="A543" s="1" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="543" spans="1:6">
+      <c r="B543" s="1" t="s">
+        <v>1820</v>
+      </c>
       <c r="C543" s="1" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>1822</v>
       </c>
+      <c r="F543" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="544" spans="1:6">
-      <c r="A544" s="1" t="s">
+      <c r="C544" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="D544" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="C544" s="1" t="s">
+      <c r="E544" s="1" t="s">
         <v>1825</v>
-      </c>
-      <c r="D544" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="E544" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F544" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="545" spans="1:6">
       <c r="C545" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D545" s="1" t="s">
         <v>1827</v>
       </c>
-      <c r="D545" s="1" t="s">
+      <c r="E545" s="1" t="s">
         <v>1828</v>
-      </c>
-      <c r="E545" s="1" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="546" spans="1:6">
       <c r="A546" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B546" s="1" t="s">
         <v>1830</v>
       </c>
-      <c r="B546" s="1" t="s">
+      <c r="C546" s="1" t="s">
         <v>1831</v>
       </c>
-      <c r="C546" s="1" t="s">
+      <c r="D546" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E546" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="D546" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E546" s="1" t="s">
-        <v>1833</v>
-      </c>
       <c r="F546" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="547" spans="1:6">
       <c r="C547" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D547" s="1" t="s">
         <v>1834</v>
       </c>
-      <c r="D547" s="1" t="s">
+      <c r="E547" s="1" t="s">
         <v>1835</v>
       </c>
-      <c r="E547" s="1" t="s">
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" s="1" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="548" spans="1:6">
+      <c r="B548" s="1" t="s">
+        <v>1837</v>
+      </c>
       <c r="C548" s="1" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E548" s="1" t="s">
         <v>1839</v>
       </c>
+      <c r="F548" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="549" spans="1:6">
-      <c r="A549" s="1" t="s">
+      <c r="C549" s="1" t="s">
         <v>1840</v>
       </c>
-      <c r="B549" s="1" t="s">
+      <c r="D549" s="1" t="s">
         <v>1841</v>
       </c>
-      <c r="C549" s="1" t="s">
+      <c r="E549" s="1" t="s">
         <v>1842</v>
-      </c>
-      <c r="D549" s="1" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E549" s="1" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F549" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="550" spans="1:6">
       <c r="C550" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D550" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="D550" s="1" t="s">
+      <c r="E550" s="1" t="s">
         <v>1845</v>
-      </c>
-      <c r="E550" s="1" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="551" spans="1:6">
       <c r="A551" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B551" s="1" t="s">
         <v>1847</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="C551" s="1" t="s">
         <v>1848</v>
       </c>
-      <c r="C551" s="1" t="s">
+      <c r="D551" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E551" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="D551" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E551" s="1" t="s">
-        <v>1848</v>
-      </c>
       <c r="F551" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="552" spans="1:6">
-      <c r="A552" s="1" t="s">
+      <c r="C552" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="B552" s="1" t="s">
+      <c r="D552" s="1" t="s">
         <v>1851</v>
       </c>
-      <c r="C552" s="1" t="s">
+      <c r="E552" s="1" t="s">
         <v>1852</v>
-      </c>
-      <c r="D552" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="E552" s="1" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F552" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -14285,7 +14489,7 @@
         <v>1853</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="F553" s="1">
         <v>9</v>
@@ -14293,42 +14497,42 @@
     </row>
     <row r="554" spans="1:6">
       <c r="A554" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B554" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="B554" s="1" t="s">
+      <c r="C554" s="1" t="s">
         <v>1858</v>
       </c>
-      <c r="C554" s="1" t="s">
-        <v>1859</v>
-      </c>
       <c r="D554" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E554" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="E554" s="1" t="s">
-        <v>1858</v>
-      </c>
       <c r="F554" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="555" spans="1:6">
       <c r="A555" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>1860</v>
       </c>
-      <c r="B555" s="1" t="s">
+      <c r="C555" s="1" t="s">
         <v>1861</v>
       </c>
-      <c r="C555" s="1" t="s">
+      <c r="D555" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E555" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="D555" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E555" s="1" t="s">
-        <v>1861</v>
-      </c>
       <c r="F555" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -14348,113 +14552,131 @@
         <v>1864</v>
       </c>
       <c r="F556" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F557" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F558" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
-      <c r="C557" s="1" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D557" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="E557" s="1" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="558" spans="1:6">
-      <c r="C558" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D558" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E558" s="1" t="s">
-        <v>1871</v>
-      </c>
-    </row>
     <row r="559" spans="1:6">
-      <c r="A559" s="1" t="s">
+      <c r="C559" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="B559" s="1" t="s">
+      <c r="D559" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="C559" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D559" s="1" t="s">
-        <v>1281</v>
-      </c>
       <c r="E559" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F559" s="1">
-        <v>4</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="560" spans="1:6">
       <c r="C560" s="1" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="561" spans="1:6">
+      <c r="A561" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1879</v>
+      </c>
       <c r="C561" s="1" t="s">
-        <v>1877</v>
+        <v>1286</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1878</v>
+        <v>1287</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>1879</v>
+        <v>1288</v>
+      </c>
+      <c r="F561" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="562" spans="1:6">
-      <c r="A562" s="1" t="s">
+      <c r="C562" s="1" t="s">
         <v>1880</v>
       </c>
-      <c r="B562" s="1" t="s">
+      <c r="D562" s="1" t="s">
         <v>1881</v>
       </c>
-      <c r="C562" s="1" t="s">
+      <c r="E562" s="1" t="s">
         <v>1882</v>
-      </c>
-      <c r="D562" s="1" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E562" s="1" t="s">
-        <v>1883</v>
-      </c>
-      <c r="F562" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="563" spans="1:6">
       <c r="C563" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D563" s="1" t="s">
         <v>1884</v>
       </c>
-      <c r="D563" s="1" t="s">
+      <c r="E563" s="1" t="s">
         <v>1885</v>
       </c>
-      <c r="E563" s="1" t="s">
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" s="1" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="564" spans="1:6">
+      <c r="B564" s="1" t="s">
+        <v>1887</v>
+      </c>
       <c r="C564" s="1" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="E564" s="1" t="s">
         <v>1889</v>
+      </c>
+      <c r="F564" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -14469,108 +14691,105 @@
       </c>
     </row>
     <row r="566" spans="1:6">
-      <c r="A566" s="1" t="s">
+      <c r="C566" s="1" t="s">
         <v>1893</v>
       </c>
-      <c r="B566" s="1" t="s">
+      <c r="D566" s="1" t="s">
         <v>1894</v>
       </c>
-      <c r="C566" s="1" t="s">
+      <c r="E566" s="1" t="s">
         <v>1895</v>
       </c>
-      <c r="D566" s="1" t="s">
+    </row>
+    <row r="567" spans="1:6">
+      <c r="C567" s="1" t="s">
         <v>1896</v>
       </c>
-      <c r="E566" s="1" t="s">
+      <c r="D567" s="1" t="s">
         <v>1897</v>
       </c>
-      <c r="F566" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6">
-      <c r="A567" s="1" t="s">
+      <c r="E567" s="1" t="s">
         <v>1898</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D567" s="1" t="s">
-        <v>1901</v>
-      </c>
-      <c r="E567" s="1" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F567" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E568" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="B568" s="1" t="s">
+      <c r="F568" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="C568" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D568" s="1" t="s">
+      <c r="B569" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="E568" s="1" t="s">
+      <c r="C569" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="F568" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="569" spans="1:6">
-      <c r="C569" s="1" t="s">
+      <c r="D569" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="D569" s="1" t="s">
+      <c r="E569" s="1" t="s">
         <v>1908</v>
       </c>
-      <c r="E569" s="1" t="s">
-        <v>1909</v>
+      <c r="F569" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="570" spans="1:6">
       <c r="A570" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B570" s="1" t="s">
         <v>1910</v>
       </c>
-      <c r="B570" s="1" t="s">
-        <v>1730</v>
-      </c>
       <c r="C570" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D570" s="1" t="s">
         <v>1911</v>
       </c>
-      <c r="D570" s="1" t="s">
+      <c r="E570" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="E570" s="1" t="s">
-        <v>1913</v>
-      </c>
       <c r="F570" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="571" spans="1:6">
       <c r="C571" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D571" s="1" t="s">
         <v>1914</v>
       </c>
-      <c r="D571" s="1" t="s">
+      <c r="E571" s="1" t="s">
         <v>1915</v>
       </c>
-      <c r="E571" s="1" t="s">
+    </row>
+    <row r="572" spans="1:6">
+      <c r="A572" s="1" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="572" spans="1:6">
+      <c r="B572" s="1" t="s">
+        <v>1736</v>
+      </c>
       <c r="C572" s="1" t="s">
         <v>1917</v>
       </c>
@@ -14580,29 +14799,357 @@
       <c r="E572" s="1" t="s">
         <v>1919</v>
       </c>
+      <c r="F572" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="573" spans="1:6">
-      <c r="A573" s="1" t="s">
+      <c r="C573" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="B573" s="1" t="s">
+      <c r="D573" s="1" t="s">
         <v>1921</v>
       </c>
-      <c r="C573" t="s">
+      <c r="E573" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="D573" s="1" t="s">
+    </row>
+    <row r="574" spans="1:6">
+      <c r="C574" s="1" t="s">
         <v>1923</v>
       </c>
-      <c r="E573" s="1" t="s">
+      <c r="D574" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="F573" s="1">
+      <c r="E574" s="1" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6">
+      <c r="A575" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F575" s="1">
         <v>13</v>
       </c>
     </row>
+    <row r="576" spans="1:6">
+      <c r="A576" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F576" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6">
+      <c r="A577" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F577" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6">
+      <c r="C578" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6">
+      <c r="C579" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6">
+      <c r="A580" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F580" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6">
+      <c r="C581" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
+      <c r="A582" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F582" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
+      <c r="C583" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6">
+      <c r="C584" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6">
+      <c r="A585" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F585" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6">
+      <c r="C586" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
+      <c r="A587" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F587" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6">
+      <c r="C588" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6">
+      <c r="C589" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6">
+      <c r="C590" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6">
+      <c r="C591" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
+      <c r="C592" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6">
+      <c r="A593" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F593" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6">
+      <c r="C594" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6">
+      <c r="C595" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6">
+      <c r="A596" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="F596" s="1">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E425" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E427" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14613,7 +15160,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14646,19 +15193,19 @@
     </row>
     <row r="2" spans="1:18" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1894</v>
+        <v>1900</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1895</v>
+        <v>1901</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1896</v>
+        <v>1902</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1897</v>
+        <v>1903</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -14671,19 +15218,19 @@
     </row>
     <row r="3" spans="1:18" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>1898</v>
+        <v>1904</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1899</v>
+        <v>1905</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1900</v>
+        <v>1906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1901</v>
+        <v>1907</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1902</v>
+        <v>1908</v>
       </c>
       <c r="F3" s="1">
         <v>12</v>
@@ -14696,19 +15243,19 @@
     </row>
     <row r="4" spans="1:18" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>1903</v>
+        <v>1909</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1904</v>
+        <v>1910</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1905</v>
+        <v>1911</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1906</v>
+        <v>1912</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
@@ -14723,13 +15270,13 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>1907</v>
+        <v>1913</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1908</v>
+        <v>1914</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1909</v>
+        <v>1915</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
@@ -14740,19 +15287,19 @@
     </row>
     <row r="6" spans="1:18" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>1910</v>
+        <v>1916</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1730</v>
+        <v>1736</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1911</v>
+        <v>1917</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1912</v>
+        <v>1918</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1913</v>
+        <v>1919</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -14767,13 +15314,13 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>1914</v>
+        <v>1920</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1915</v>
+        <v>1921</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1916</v>
+        <v>1922</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
@@ -14786,13 +15333,13 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>1917</v>
+        <v>1923</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1918</v>
+        <v>1924</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1919</v>
+        <v>1925</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
@@ -14803,19 +15350,19 @@
     </row>
     <row r="9" spans="1:18" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>1920</v>
+        <v>1926</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1921</v>
+        <v>1927</v>
       </c>
       <c r="C9" t="s">
-        <v>1922</v>
+        <v>1928</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1923</v>
+        <v>1929</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1924</v>
+        <v>1930</v>
       </c>
       <c r="F9" s="1">
         <v>13</v>
@@ -14830,13 +15377,13 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>1925</v>
+        <v>1999</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1926</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1927</v>
+        <v>2001</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21818"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A3D8401-816A-4BBB-8D84-96D80CD1C531}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63AFB026-ED22-4207-AA71-9C9716DECCF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="2232">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -6243,6 +6243,15 @@
     <t>hỏi</t>
   </si>
   <si>
+    <t>ひんしつ</t>
+  </si>
+  <si>
+    <t>品質</t>
+  </si>
+  <si>
+    <t>chất lượng</t>
+  </si>
+  <si>
     <t>問</t>
   </si>
   <si>
@@ -6282,6 +6291,21 @@
     <t>回答</t>
   </si>
   <si>
+    <t>解答</t>
+  </si>
+  <si>
+    <t>giải đáp</t>
+  </si>
+  <si>
+    <t>ようし</t>
+  </si>
+  <si>
+    <t>用紙</t>
+  </si>
+  <si>
+    <t>phiếu trả lời</t>
+  </si>
+  <si>
     <t>思</t>
   </si>
   <si>
@@ -6312,6 +6336,12 @@
     <t>kì lạ</t>
   </si>
   <si>
+    <t>意思</t>
+  </si>
+  <si>
+    <t>ý chí</t>
+  </si>
+  <si>
     <t>始</t>
   </si>
   <si>
@@ -6336,6 +6366,24 @@
     <t>bắt đầu(tự)</t>
   </si>
   <si>
+    <t>かいし</t>
+  </si>
+  <si>
+    <t>開始</t>
+  </si>
+  <si>
+    <t>bắt đầu</t>
+  </si>
+  <si>
+    <t>しぎょうしき</t>
+  </si>
+  <si>
+    <t>始業式</t>
+  </si>
+  <si>
+    <t>lễ khai trương</t>
+  </si>
+  <si>
     <t>着</t>
   </si>
   <si>
@@ -6423,7 +6471,13 @@
     <t>集中</t>
   </si>
   <si>
-    <t>tập trung</t>
+    <t>tập trung(chú ý)</t>
+  </si>
+  <si>
+    <t>収集</t>
+  </si>
+  <si>
+    <t>tập trung(rác)</t>
   </si>
   <si>
     <t>練</t>
@@ -6445,6 +6499,222 @@
   </si>
   <si>
     <t>tài khoản ngân hàng</t>
+  </si>
+  <si>
+    <t>晴</t>
+  </si>
+  <si>
+    <t>tình</t>
+  </si>
+  <si>
+    <t>はれる</t>
+  </si>
+  <si>
+    <t>晴れる</t>
+  </si>
+  <si>
+    <t>quang đãng</t>
+  </si>
+  <si>
+    <t>はれ</t>
+  </si>
+  <si>
+    <t>晴れ</t>
+  </si>
+  <si>
+    <t>nắng</t>
+  </si>
+  <si>
+    <t>はらす</t>
+  </si>
+  <si>
+    <t>晴らす</t>
+  </si>
+  <si>
+    <t>xua tan(mây,mỏi)</t>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>tinh</t>
+  </si>
+  <si>
+    <t>ほし</t>
+  </si>
+  <si>
+    <t>sao</t>
+  </si>
+  <si>
+    <t>ほしうらない</t>
+  </si>
+  <si>
+    <t>星占い</t>
+  </si>
+  <si>
+    <t>bói sao</t>
+  </si>
+  <si>
+    <t>もくせい</t>
+  </si>
+  <si>
+    <t>木星</t>
+  </si>
+  <si>
+    <t>sao mộc</t>
+  </si>
+  <si>
+    <t>せいざ</t>
+  </si>
+  <si>
+    <t>星座</t>
+  </si>
+  <si>
+    <t>tinh tú</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>phong</t>
+  </si>
+  <si>
+    <t>かぜ</t>
+  </si>
+  <si>
+    <t>gió</t>
+  </si>
+  <si>
+    <t>たいふう</t>
+  </si>
+  <si>
+    <t>台風</t>
+  </si>
+  <si>
+    <t>bão</t>
+  </si>
+  <si>
+    <t>ふうせん</t>
+  </si>
+  <si>
+    <t>風船</t>
+  </si>
+  <si>
+    <t>bóng bay</t>
+  </si>
+  <si>
+    <t>然</t>
+  </si>
+  <si>
+    <t>nhiên</t>
+  </si>
+  <si>
+    <t>しぜん</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>tự nhiên</t>
+  </si>
+  <si>
+    <t>ぜんぜん</t>
+  </si>
+  <si>
+    <t>全然</t>
+  </si>
+  <si>
+    <t>hoàn toàn</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>あぶら</t>
+  </si>
+  <si>
+    <t>dầu</t>
+  </si>
+  <si>
+    <t>原</t>
+  </si>
+  <si>
+    <t>nguyên</t>
+  </si>
+  <si>
+    <t>げんりょう</t>
+  </si>
+  <si>
+    <t>原料</t>
+  </si>
+  <si>
+    <t>nguyên liệu</t>
+  </si>
+  <si>
+    <t>げんいん</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>tài nguyên</t>
+  </si>
+  <si>
+    <t>皿</t>
+  </si>
+  <si>
+    <t>mãnh</t>
+  </si>
+  <si>
+    <t>おさら</t>
+  </si>
+  <si>
+    <t>お皿</t>
+  </si>
+  <si>
+    <t>đĩa</t>
+  </si>
+  <si>
+    <t>発</t>
+  </si>
+  <si>
+    <t>phát</t>
+  </si>
+  <si>
+    <t>はつめいする</t>
+  </si>
+  <si>
+    <t>発明する</t>
+  </si>
+  <si>
+    <t>phát minh</t>
+  </si>
+  <si>
+    <t>はっけんする</t>
+  </si>
+  <si>
+    <t>発見する</t>
+  </si>
+  <si>
+    <t>phát kiến</t>
+  </si>
+  <si>
+    <t>しゅっぱつする</t>
+  </si>
+  <si>
+    <t>出発する</t>
+  </si>
+  <si>
+    <t>xuất phát</t>
+  </si>
+  <si>
+    <t>かいはつする</t>
+  </si>
+  <si>
+    <t>開発する</t>
   </si>
   <si>
     <t>とおく</t>
@@ -6851,10 +7121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H642"/>
+  <dimension ref="A1:H670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="A667" sqref="A667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -6919,12 +7189,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100089)</f>
-        <v>220</v>
+        <f>COUNTA(A2:A100096)</f>
+        <v>228</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10089)</f>
-        <v>641</v>
+        <f>COUNTA(C2:C10096)</f>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -15815,68 +16085,65 @@
       </c>
     </row>
     <row r="621" spans="1:6">
-      <c r="A621" s="1" t="s">
+      <c r="C621" s="1" t="s">
         <v>2071</v>
       </c>
-      <c r="B621" s="1" t="s">
+      <c r="D621" s="1" t="s">
         <v>2072</v>
-      </c>
-      <c r="C621" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D621" s="1" t="s">
-        <v>1736</v>
       </c>
       <c r="E621" s="1" t="s">
         <v>2073</v>
       </c>
-      <c r="F621" s="1">
+    </row>
+    <row r="622" spans="1:6">
+      <c r="A622" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F622" s="1">
         <v>11</v>
-      </c>
-    </row>
-    <row r="622" spans="1:6">
-      <c r="C622" s="1" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D622" s="1" t="s">
-        <v>2069</v>
-      </c>
-      <c r="E622" s="1" t="s">
-        <v>2070</v>
       </c>
     </row>
     <row r="623" spans="1:6">
       <c r="C623" s="1" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="624" spans="1:6">
-      <c r="A624" s="1" t="s">
+      <c r="C624" s="1" t="s">
         <v>2077</v>
       </c>
-      <c r="B624" s="1" t="s">
+      <c r="D624" s="1" t="s">
         <v>2078</v>
       </c>
-      <c r="C624" s="1" t="s">
+      <c r="E624" s="1" t="s">
         <v>2079</v>
       </c>
-      <c r="D624" s="1" t="s">
+    </row>
+    <row r="625" spans="1:6">
+      <c r="A625" s="1" t="s">
         <v>2080</v>
       </c>
-      <c r="E624" s="1" t="s">
+      <c r="B625" s="1" t="s">
         <v>2081</v>
       </c>
-      <c r="F624" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6">
       <c r="C625" s="1" t="s">
         <v>2082</v>
       </c>
@@ -15884,16 +16151,13 @@
         <v>2083</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>2081</v>
+        <v>2084</v>
+      </c>
+      <c r="F625" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="626" spans="1:6">
-      <c r="A626" s="1" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>1870</v>
-      </c>
       <c r="C626" s="1" t="s">
         <v>2085</v>
       </c>
@@ -15901,155 +16165,152 @@
         <v>2086</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F626" s="1">
-        <v>9</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="627" spans="1:6">
       <c r="C627" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E627" s="1" t="s">
         <v>2088</v>
-      </c>
-      <c r="D627" s="1" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E627" s="1" t="s">
-        <v>2090</v>
       </c>
     </row>
     <row r="628" spans="1:6">
       <c r="C628" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E628" s="1" t="s">
         <v>2091</v>
-      </c>
-      <c r="D628" s="1" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E628" s="1" t="s">
-        <v>2093</v>
       </c>
     </row>
     <row r="629" spans="1:6">
       <c r="A629" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D629" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="B629" s="1" t="s">
+      <c r="E629" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="C629" s="1" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D629" s="1" t="s">
-        <v>2097</v>
-      </c>
-      <c r="E629" s="1" t="s">
-        <v>2098</v>
-      </c>
       <c r="F629" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="630" spans="1:6">
       <c r="C630" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6">
+      <c r="C631" s="1" t="s">
         <v>2099</v>
       </c>
-      <c r="D630" s="1" t="s">
+      <c r="D631" s="1" t="s">
         <v>2100</v>
       </c>
-      <c r="E630" s="1" t="s">
+      <c r="E631" s="1" t="s">
         <v>2101</v>
-      </c>
-    </row>
-    <row r="631" spans="1:6">
-      <c r="A631" s="1" t="s">
-        <v>2102</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>2103</v>
-      </c>
-      <c r="C631" s="1" t="s">
-        <v>2104</v>
-      </c>
-      <c r="D631" s="1" t="s">
-        <v>2105</v>
-      </c>
-      <c r="E631" s="1" t="s">
-        <v>2106</v>
-      </c>
-      <c r="F631" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="632" spans="1:6">
       <c r="C632" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6">
+      <c r="A633" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D633" s="1" t="s">
         <v>2107</v>
       </c>
-      <c r="D632" s="1" t="s">
+      <c r="E633" s="1" t="s">
         <v>2108</v>
       </c>
-      <c r="E632" s="1" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6">
-      <c r="C633" s="1" t="s">
-        <v>2110</v>
-      </c>
-      <c r="D633" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="E633" s="1" t="s">
-        <v>2112</v>
+      <c r="F633" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="634" spans="1:6">
       <c r="C634" s="1" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="635" spans="1:6">
       <c r="C635" s="1" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>414</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="636" spans="1:6">
       <c r="C636" s="1" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="637" spans="1:6">
       <c r="A637" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D637" s="1" t="s">
         <v>2121</v>
       </c>
-      <c r="B637" s="1" t="s">
+      <c r="E637" s="1" t="s">
         <v>2122</v>
-      </c>
-      <c r="C637" s="1" t="s">
-        <v>2123</v>
-      </c>
-      <c r="D637" s="1" t="s">
-        <v>2124</v>
-      </c>
-      <c r="E637" s="1" t="s">
-        <v>2125</v>
       </c>
       <c r="F637" s="1">
         <v>12</v>
@@ -16057,79 +16318,468 @@
     </row>
     <row r="638" spans="1:6">
       <c r="C638" s="1" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="639" spans="1:6">
       <c r="C639" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6">
+      <c r="C640" s="1" t="s">
         <v>2129</v>
       </c>
-      <c r="D639" s="1" t="s">
+      <c r="D640" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="E639" s="1" t="s">
+      <c r="E640" s="1" t="s">
         <v>2131</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
-      <c r="A640" s="1" t="s">
+    <row r="641" spans="1:6">
+      <c r="C641" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="B640" s="1" t="s">
+      <c r="D641" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="C640" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D640" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E640" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F640" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="641" spans="1:6">
-      <c r="A641" s="1" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>2135</v>
-      </c>
-      <c r="C641" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D641" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="E641" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F641" s="1">
-        <v>14</v>
+        <v>414</v>
       </c>
     </row>
     <row r="642" spans="1:6">
       <c r="C642" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E642" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="D642" s="1" t="s">
+    </row>
+    <row r="643" spans="1:6">
+      <c r="A643" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="E642" s="1" t="s">
+      <c r="B643" s="1" t="s">
         <v>2138</v>
       </c>
+      <c r="C643" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F643" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6">
+      <c r="C644" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6">
+      <c r="C645" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6">
+      <c r="C646" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6">
+      <c r="A647" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F647" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6">
+      <c r="A648" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F648" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6">
+      <c r="C649" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6">
+      <c r="A650" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F650" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6">
+      <c r="C651" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6">
+      <c r="C652" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6">
+      <c r="A653" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F653" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6">
+      <c r="C654" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6">
+      <c r="C655" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6">
+      <c r="C656" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6">
+      <c r="A657" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F657" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6">
+      <c r="C658" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6">
+      <c r="C659" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6">
+      <c r="A660" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F660" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6">
+      <c r="C661" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6">
+      <c r="A662" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F662" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6">
+      <c r="C663" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
+      <c r="A664" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F664" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6">
+      <c r="C665" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6">
+      <c r="A666" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F666" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6">
+      <c r="A667" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="F667" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6">
+      <c r="C668" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6">
+      <c r="C669" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6">
+      <c r="C670" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>1805</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E642" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E649" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16357,13 +17007,13 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>2139</v>
+        <v>2229</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2140</v>
+        <v>2230</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2141</v>
+        <v>2231</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21818"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21823"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63AFB026-ED22-4207-AA71-9C9716DECCF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41753FF6-FD88-4AD2-B779-C1F3E02C7C4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="2232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="2271">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -3966,6 +3966,15 @@
     <t>bất tiện</t>
   </si>
   <si>
+    <t>ゆうびんきょく</t>
+  </si>
+  <si>
+    <t>郵便局</t>
+  </si>
+  <si>
+    <t>bưu điện</t>
+  </si>
+  <si>
     <t>利</t>
   </si>
   <si>
@@ -3999,6 +4008,15 @@
     <t>lợi ích</t>
   </si>
   <si>
+    <t>りようする</t>
+  </si>
+  <si>
+    <t>利用する</t>
+  </si>
+  <si>
+    <t>sử dụng</t>
+  </si>
+  <si>
     <t>元</t>
   </si>
   <si>
@@ -4449,9 +4467,6 @@
     <t>miệng</t>
   </si>
   <si>
-    <t>son môi</t>
-  </si>
-  <si>
     <t>dân số</t>
   </si>
   <si>
@@ -6291,6 +6306,9 @@
     <t>回答</t>
   </si>
   <si>
+    <t>かいとう(2)</t>
+  </si>
+  <si>
     <t>解答</t>
   </si>
   <si>
@@ -6441,6 +6459,15 @@
     <t>đến nơi</t>
   </si>
   <si>
+    <t>ちゃくばらい</t>
+  </si>
+  <si>
+    <t>着払い</t>
+  </si>
+  <si>
+    <t>trả trước</t>
+  </si>
+  <si>
     <t>集</t>
   </si>
   <si>
@@ -6474,6 +6501,9 @@
     <t>tập trung(chú ý)</t>
   </si>
   <si>
+    <t>しゅうちゅう(2)</t>
+  </si>
+  <si>
     <t>収集</t>
   </si>
   <si>
@@ -6636,7 +6666,7 @@
     <t>あぶら</t>
   </si>
   <si>
-    <t>dầu</t>
+    <t>dầu(mỡ)</t>
   </si>
   <si>
     <t>原</t>
@@ -6663,6 +6693,15 @@
     <t>tài nguyên</t>
   </si>
   <si>
+    <t>のはら</t>
+  </si>
+  <si>
+    <t>野原</t>
+  </si>
+  <si>
+    <t>thảo nguyên</t>
+  </si>
+  <si>
     <t>皿</t>
   </si>
   <si>
@@ -6715,6 +6754,84 @@
   </si>
   <si>
     <t>開発する</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>bất</t>
+  </si>
+  <si>
+    <t>静</t>
+  </si>
+  <si>
+    <t>tĩnh</t>
+  </si>
+  <si>
+    <t>しずか</t>
+  </si>
+  <si>
+    <t>静か</t>
+  </si>
+  <si>
+    <t>yên tĩnh</t>
+  </si>
+  <si>
+    <t>同</t>
+  </si>
+  <si>
+    <t>đồng</t>
+  </si>
+  <si>
+    <t>おなじ</t>
+  </si>
+  <si>
+    <t>同じ</t>
+  </si>
+  <si>
+    <t>giống</t>
+  </si>
+  <si>
+    <t>どうい</t>
+  </si>
+  <si>
+    <t>同意</t>
+  </si>
+  <si>
+    <t>đồng ý</t>
+  </si>
+  <si>
+    <t>細</t>
+  </si>
+  <si>
+    <t>tế</t>
+  </si>
+  <si>
+    <t>ほそい</t>
+  </si>
+  <si>
+    <t>細い</t>
+  </si>
+  <si>
+    <t>gầy</t>
+  </si>
+  <si>
+    <t>こまかいおかね</t>
+  </si>
+  <si>
+    <t>細かいお金</t>
+  </si>
+  <si>
+    <t>tiền lẻ</t>
+  </si>
+  <si>
+    <t>さいぼう</t>
+  </si>
+  <si>
+    <t>細胞</t>
+  </si>
+  <si>
+    <t>tế bào</t>
   </si>
   <si>
     <t>とおく</t>
@@ -7121,10 +7238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H670"/>
+  <dimension ref="A1:H681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="A667" sqref="A667"/>
+    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
+      <selection activeCell="A679" sqref="A679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -7189,12 +7306,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100096)</f>
-        <v>228</v>
+        <f>COUNTA(A2:A100100)</f>
+        <v>232</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10096)</f>
-        <v>669</v>
+        <f>COUNTA(C2:C10100)</f>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -12600,26 +12717,23 @@
       </c>
     </row>
     <row r="388" spans="1:6">
-      <c r="A388" s="1" t="s">
+      <c r="C388" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="E388" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="D388" s="1" t="s">
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="E388" s="1" t="s">
+      <c r="B389" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="F388" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
       <c r="C389" s="1" t="s">
         <v>1317</v>
       </c>
@@ -12628,6 +12742,9 @@
       </c>
       <c r="E389" s="1" t="s">
         <v>1319</v>
+      </c>
+      <c r="F389" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -12642,107 +12759,98 @@
       </c>
     </row>
     <row r="391" spans="1:6">
-      <c r="A391" s="1" t="s">
+      <c r="C391" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="E391" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="D391" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E391" s="1" t="s">
+    </row>
+    <row r="392" spans="1:6">
+      <c r="C392" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="F391" s="1">
+      <c r="D392" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F393" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
-      <c r="A392" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F392" s="1">
+    <row r="394" spans="1:6">
+      <c r="A394" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F394" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="C393" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
-      <c r="C394" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="C395" s="1" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="C396" s="1" t="s">
-        <v>1338</v>
+        <v>465</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1339</v>
+        <v>466</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1340</v>
+        <v>467</v>
       </c>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="1" t="s">
+      <c r="C397" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="F397" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -12750,29 +12858,38 @@
         <v>1344</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="399" spans="1:6">
+      <c r="A399" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1348</v>
+      </c>
       <c r="C399" s="1" t="s">
-        <v>1346</v>
+        <v>949</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1347</v>
+        <v>950</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
+      </c>
+      <c r="F399" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>1351</v>
@@ -12790,51 +12907,42 @@
       </c>
     </row>
     <row r="402" spans="1:6">
-      <c r="A402" s="1" t="s">
+      <c r="C402" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C402" s="1" t="s">
+      <c r="D402" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="D402" s="1" t="s">
+      <c r="E402" s="1" t="s">
         <v>1357</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F402" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="C403" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D403" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="D403" s="1" t="s">
+      <c r="E403" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="E403" s="1" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="E404" s="1" t="s">
         <v>1364</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>1366</v>
       </c>
       <c r="F404" s="1">
         <v>6</v>
@@ -12842,30 +12950,30 @@
     </row>
     <row r="405" spans="1:6">
       <c r="C405" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E405" s="1" t="s">
         <v>1367</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="D406" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="C406" s="1" t="s">
+      <c r="E406" s="1" t="s">
         <v>1372</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>1374</v>
       </c>
       <c r="F406" s="1">
         <v>6</v>
@@ -12873,16 +12981,22 @@
     </row>
     <row r="407" spans="1:6">
       <c r="C407" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E407" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="D407" s="1" t="s">
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="E407" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="408" spans="1:6">
       <c r="C408" s="1" t="s">
         <v>1378</v>
       </c>
@@ -12892,25 +13006,19 @@
       <c r="E408" s="1" t="s">
         <v>1380</v>
       </c>
+      <c r="F408" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="409" spans="1:6">
-      <c r="A409" s="1" t="s">
+      <c r="C409" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="C409" s="1" t="s">
+      <c r="D409" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1381</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="F409" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -12929,92 +13037,92 @@
         <v>1387</v>
       </c>
       <c r="B411" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="C411" s="1" t="s">
+      <c r="D411" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E411" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="D411" s="1" t="s">
+      <c r="F411" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="C412" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="E411" s="1" t="s">
+      <c r="D412" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="F411" s="1">
+      <c r="E412" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F413" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
-      <c r="A412" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F412" s="1">
+    <row r="414" spans="1:6">
+      <c r="A414" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F414" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
-      <c r="C413" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D413" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E413" s="1" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6">
-      <c r="C414" s="1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
     <row r="415" spans="1:6">
-      <c r="A415" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B415" s="1" t="s">
+      <c r="C415" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="C415" s="1" t="s">
+      <c r="D415" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="D415" s="1" t="s">
-        <v>1401</v>
-      </c>
       <c r="E415" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F415" s="1">
-        <v>8</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="C416" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1406</v>
+        <v>712</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -13031,52 +13139,52 @@
         <v>1407</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F417" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="C418" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D418" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="D418" s="1" t="s">
+      <c r="E418" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="E418" s="1" t="s">
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="1" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="419" spans="1:6">
+      <c r="B419" s="1" t="s">
+        <v>1414</v>
+      </c>
       <c r="C419" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>1416</v>
       </c>
+      <c r="F419" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="420" spans="1:6">
-      <c r="A420" s="1" t="s">
+      <c r="C420" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="C420" s="1" t="s">
+      <c r="D420" s="1" t="s">
         <v>1418</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>1417</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>1419</v>
-      </c>
-      <c r="F420" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -13091,104 +13199,104 @@
       </c>
     </row>
     <row r="422" spans="1:6">
+      <c r="A422" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>771</v>
+      </c>
       <c r="C422" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D422" s="1" t="s">
         <v>1423</v>
-      </c>
-      <c r="D422" s="1" t="s">
-        <v>1424</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>1425</v>
       </c>
+      <c r="F422" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" s="1" t="s">
+      <c r="C423" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="D423" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="C423" s="1" t="s">
+      <c r="E423" s="1" t="s">
         <v>1428</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E423" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F423" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="C424" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D424" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="D424" s="1" t="s">
+      <c r="E424" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="E424" s="1" t="s">
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="1" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="B425" s="1" t="s">
+        <v>1433</v>
+      </c>
       <c r="C425" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>1435</v>
       </c>
+      <c r="F425" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="426" spans="1:6">
-      <c r="A426" s="1" t="s">
+      <c r="C426" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="D426" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="C426" s="1" t="s">
+      <c r="E426" s="1" t="s">
         <v>1438</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E426" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F426" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="C427" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E427" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="E427" s="1" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="D428" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="C428" s="1" t="s">
+      <c r="E428" s="1" t="s">
         <v>1446</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E428" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="F428" s="1">
         <v>8</v>
@@ -13206,68 +13314,74 @@
       </c>
     </row>
     <row r="430" spans="1:6">
+      <c r="A430" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1451</v>
+      </c>
       <c r="C430" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D430" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="D430" s="1" t="s">
-        <v>1451</v>
-      </c>
       <c r="E430" s="1" t="s">
-        <v>1452</v>
+        <v>300</v>
+      </c>
+      <c r="F430" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:6">
-      <c r="A431" s="1" t="s">
+      <c r="C431" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="D431" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="E431" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="D431" s="1" t="s">
+    </row>
+    <row r="432" spans="1:6">
+      <c r="C432" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="E431" s="1" t="s">
+      <c r="D432" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="F431" s="1">
+      <c r="E432" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F433" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
-      <c r="A432" s="1" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F432" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6">
-      <c r="C433" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D433" s="1" t="s">
+    <row r="434" spans="1:6">
+      <c r="A434" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="E433" s="1" t="s">
+      <c r="B434" s="1" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="434" spans="1:6">
       <c r="C434" s="1" t="s">
         <v>1466</v>
       </c>
@@ -13277,641 +13391,638 @@
       <c r="E434" s="1" t="s">
         <v>1468</v>
       </c>
+      <c r="F434" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="435" spans="1:6">
-      <c r="A435" s="1" t="s">
+      <c r="C435" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="D435" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="E435" s="1" t="s">
         <v>1471</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E435" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F435" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:6">
       <c r="C436" s="1" t="s">
-        <v>254</v>
+        <v>1472</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>255</v>
+        <v>1473</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="437" spans="1:6">
+      <c r="A437" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1476</v>
+      </c>
       <c r="C437" s="1" t="s">
-        <v>1121</v>
+        <v>1477</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1122</v>
+        <v>1475</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>1474</v>
+        <v>1478</v>
+      </c>
+      <c r="F437" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="C438" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="C439" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="C440" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="D438" s="1" t="s">
+      <c r="D440" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="E438" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6">
-      <c r="A439" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D439" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E439" s="1" t="s">
-        <v>1478</v>
-      </c>
-      <c r="F439" s="1">
+      <c r="E440" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F441" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
-      <c r="A440" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>1482</v>
-      </c>
-      <c r="F440" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="C441" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D441" s="1" t="s">
+    <row r="442" spans="1:6">
+      <c r="A442" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="E441" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6">
+      <c r="B442" s="1" t="s">
+        <v>1485</v>
+      </c>
       <c r="C442" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>1487</v>
       </c>
+      <c r="F442" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="443" spans="1:6">
-      <c r="A443" s="1" t="s">
+      <c r="C443" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="D443" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="E443" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="C444" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="D443" s="1" t="s">
+      <c r="D444" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="E443" s="1" t="s">
+      <c r="E444" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="F443" s="1">
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F445" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
-      <c r="A444" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E444" s="1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="F444" s="1">
+    <row r="446" spans="1:6">
+      <c r="A446" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F446" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
-      <c r="C445" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E445" s="1" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="C446" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E446" s="1" t="s">
+    <row r="447" spans="1:6">
+      <c r="C447" s="1" t="s">
         <v>1503</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6">
-      <c r="A447" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>1506</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>1504</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F447" s="1">
-        <v>14</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="448" spans="1:6">
       <c r="C448" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E448" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="D448" s="1" t="s">
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="E448" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="449" spans="1:6">
       <c r="C449" s="1" t="s">
         <v>1511</v>
       </c>
       <c r="D449" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E449" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="E449" s="1" t="s">
+      <c r="F449" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="C450" s="1" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="450" spans="1:6">
-      <c r="A450" s="1" t="s">
+      <c r="D450" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="E450" s="1" t="s">
         <v>1515</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F450" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="C451" s="1" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D452" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C452" s="1" t="s">
+      <c r="E452" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="D452" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E452" s="1" t="s">
-        <v>1525</v>
-      </c>
       <c r="F452" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="C453" s="1" t="s">
-        <v>1338</v>
+        <v>1524</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1339</v>
+        <v>1525</v>
       </c>
       <c r="E453" s="1" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="454" spans="1:6">
+      <c r="A454" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1346</v>
+      </c>
       <c r="C454" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
+      </c>
+      <c r="F454" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="455" spans="1:6">
-      <c r="A455" s="1" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B455" s="1" t="s">
+      <c r="C455" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E455" s="1" t="s">
         <v>1531</v>
-      </c>
-      <c r="C455" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E455" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F455" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="C456" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="D456" s="1" t="s">
+      <c r="B457" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="E456" s="1" t="s">
+      <c r="C457" s="3" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="457" spans="1:6">
-      <c r="C457" s="1" t="s">
+      <c r="D457" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="D457" s="1" t="s">
+      <c r="E457" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="E457" s="1" t="s">
-        <v>1540</v>
+      <c r="F457" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="C458" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D458" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="D458" s="1" t="s">
+      <c r="E458" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="E458" s="1" t="s">
+    </row>
+    <row r="459" spans="1:6">
+      <c r="C459" s="1" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="459" spans="1:6">
-      <c r="A459" s="1" t="s">
+      <c r="D459" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="E459" s="1" t="s">
         <v>1545</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E459" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="F459">
-        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="C460" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F461">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="C462" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D460" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E460" s="1" t="s">
+      <c r="D462" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E462" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F460"/>
-    </row>
-    <row r="461" spans="1:6">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
-      <c r="C461" s="2" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E461" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F461" s="2"/>
-    </row>
-    <row r="462" spans="1:6">
-      <c r="A462" s="2" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D462" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E462" s="2" t="s">
-        <v>1557</v>
-      </c>
-      <c r="F462" s="2">
-        <v>9</v>
-      </c>
+      <c r="F462"/>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F463" s="2"/>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="D463" s="2" t="s">
+      <c r="B464" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="E463" s="2" t="s">
+      <c r="C464" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="F463" s="2"/>
-    </row>
-    <row r="464" spans="1:6">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
-      <c r="C464" s="2" t="s">
+      <c r="D464" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="D464" s="2" t="s">
+      <c r="E464" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="E464" s="2" t="s">
+      <c r="F464" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" s="2"/>
+      <c r="B465" s="2"/>
+      <c r="C465" s="2" t="s">
         <v>1563</v>
       </c>
-      <c r="F464" s="2"/>
-    </row>
-    <row r="465" spans="1:6">
-      <c r="A465" s="2" t="s">
+      <c r="D465" s="2" t="s">
         <v>1564</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="E465" s="2" t="s">
         <v>1565</v>
       </c>
-      <c r="C465" s="2" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D465" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E465" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="F465" s="2">
-        <v>9</v>
-      </c>
+      <c r="F465" s="2"/>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="F466" s="2"/>
     </row>
     <row r="467" spans="1:6">
       <c r="A467" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D467" s="2" t="s">
         <v>1572</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="E467" s="2" t="s">
         <v>1573</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="F467" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" s="2"/>
+      <c r="B468" s="2"/>
+      <c r="C468" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="D467" s="2" t="s">
+      <c r="D468" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="E467" s="2" t="s">
+      <c r="E468" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="F467" s="2">
+      <c r="F468" s="2"/>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F469" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
-      <c r="A468" s="2" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E468" s="2" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F468" s="2">
+    <row r="470" spans="1:6">
+      <c r="A470" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F470" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
-      <c r="C469" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E469" s="2" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F469" s="2"/>
-    </row>
-    <row r="470" spans="1:6">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
-      <c r="C470" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E470" s="2" t="s">
+    <row r="471" spans="1:6">
+      <c r="A471" s="2"/>
+      <c r="B471" s="2"/>
+      <c r="C471" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="F470" s="2"/>
-    </row>
-    <row r="471" spans="1:6">
-      <c r="A471" s="2" t="s">
+      <c r="D471" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="E471" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="C471" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E471" s="2" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F471" s="2">
-        <v>8</v>
-      </c>
+      <c r="F471" s="2"/>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="F472" s="2"/>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D473" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="E473" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="C473" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E473" s="2" t="s">
-        <v>1600</v>
-      </c>
       <c r="F473" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F474" s="2"/>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="D474" s="2" t="s">
+      <c r="B475" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="E474" s="2" t="s">
+      <c r="C475" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="F474" s="2"/>
-    </row>
-    <row r="475" spans="1:6">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
-      <c r="C475" s="2" t="s">
+      <c r="D475" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="D475" s="2" t="s">
+      <c r="E475" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="E475" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F475" s="2"/>
+      <c r="F475" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="476" spans="1:6">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2" t="s">
-        <v>200</v>
+        <v>1606</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>201</v>
+        <v>1607</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="F476" s="2"/>
     </row>
@@ -13919,35 +14030,29 @@
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="F477" s="2"/>
     </row>
     <row r="478" spans="1:6">
-      <c r="A478" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B478" s="2" t="s">
+      <c r="A478" s="2"/>
+      <c r="B478" s="2"/>
+      <c r="C478" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E478" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="C478" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E478" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="F478" s="2">
-        <v>9</v>
-      </c>
+      <c r="F478" s="2"/>
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="2"/>
@@ -13964,38 +14069,38 @@
       <c r="F479" s="2"/>
     </row>
     <row r="480" spans="1:6">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
+      <c r="A480" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>1617</v>
+      </c>
       <c r="C480" s="2" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="E480" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F480" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" s="2"/>
+      <c r="B481" s="2"/>
+      <c r="C481" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="F480" s="2"/>
-    </row>
-    <row r="481" spans="1:6">
-      <c r="A481" s="2" t="s">
+      <c r="D481" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="E481" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="C481" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="D481" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="E481" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="F481" s="2">
-        <v>9</v>
-      </c>
+      <c r="F481" s="2"/>
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="2"/>
@@ -14012,30 +14117,36 @@
       <c r="F482" s="2"/>
     </row>
     <row r="483" spans="1:6">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
+      <c r="A483" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>1625</v>
+      </c>
       <c r="C483" s="2" t="s">
-        <v>1624</v>
+        <v>992</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1625</v>
+        <v>993</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F483" s="2"/>
+        <v>994</v>
+      </c>
+      <c r="F483" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="484" spans="1:6">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D484" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="D484" s="2" t="s">
+      <c r="E484" s="2" t="s">
         <v>1628</v>
-      </c>
-      <c r="E484" s="2" t="s">
-        <v>1629</v>
       </c>
       <c r="F484" s="2"/>
     </row>
@@ -14043,35 +14154,29 @@
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D485" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="D485" s="2" t="s">
+      <c r="E485" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="E485" s="2" t="s">
+      <c r="F485" s="2"/>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" s="2"/>
+      <c r="B486" s="2"/>
+      <c r="C486" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="F485" s="2"/>
-    </row>
-    <row r="486" spans="1:6">
-      <c r="A486" s="2" t="s">
+      <c r="D486" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="E486" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="C486" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D486" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E486" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F486" s="2">
-        <v>12</v>
-      </c>
+      <c r="F486" s="2"/>
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="2"/>
@@ -14088,30 +14193,36 @@
       <c r="F487" s="2"/>
     </row>
     <row r="488" spans="1:6">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
+      <c r="A488" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1639</v>
+      </c>
       <c r="C488" s="2" t="s">
-        <v>1638</v>
+        <v>1146</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1639</v>
+        <v>1147</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1640</v>
-      </c>
-      <c r="F488" s="2"/>
+        <v>1148</v>
+      </c>
+      <c r="F488" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D489" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="D489" s="2" t="s">
+      <c r="E489" s="2" t="s">
         <v>1642</v>
-      </c>
-      <c r="E489" s="2" t="s">
-        <v>1643</v>
       </c>
       <c r="F489" s="2"/>
     </row>
@@ -14119,13 +14230,13 @@
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D490" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="D490" s="2" t="s">
+      <c r="E490" s="2" t="s">
         <v>1645</v>
-      </c>
-      <c r="E490" s="2" t="s">
-        <v>1646</v>
       </c>
       <c r="F490" s="2"/>
     </row>
@@ -14133,13 +14244,13 @@
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D491" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="D491" s="2" t="s">
+      <c r="E491" s="2" t="s">
         <v>1648</v>
-      </c>
-      <c r="E491" s="2" t="s">
-        <v>1649</v>
       </c>
       <c r="F491" s="2"/>
     </row>
@@ -14147,13 +14258,13 @@
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D492" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="D492" s="2" t="s">
+      <c r="E492" s="2" t="s">
         <v>1651</v>
-      </c>
-      <c r="E492" s="2" t="s">
-        <v>1652</v>
       </c>
       <c r="F492" s="2"/>
     </row>
@@ -14161,75 +14272,75 @@
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D493" s="2" t="s">
         <v>1653</v>
       </c>
-      <c r="D493" s="2" t="s">
+      <c r="E493" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="E493" s="2" t="s">
+      <c r="F493" s="2"/>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" s="2"/>
+      <c r="B494" s="2"/>
+      <c r="C494" s="2" t="s">
         <v>1655</v>
-      </c>
-      <c r="F493" s="2"/>
-    </row>
-    <row r="494" spans="1:6">
-      <c r="A494" s="2" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>1658</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>1656</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1659</v>
-      </c>
-      <c r="F494" s="2">
-        <v>8</v>
-      </c>
+        <v>1657</v>
+      </c>
+      <c r="F494" s="2"/>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E495" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="D495" s="2" t="s">
+      <c r="F495" s="2"/>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="E495" s="2" t="s">
+      <c r="B496" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="F495" s="2"/>
-    </row>
-    <row r="496" spans="1:6">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
       <c r="C496" s="2" t="s">
         <v>1663</v>
       </c>
       <c r="D496" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E496" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="E496" s="2" t="s">
-        <v>1665</v>
-      </c>
-      <c r="F496" s="2"/>
+      <c r="F496" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="497" spans="1:6">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D497" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="D497" s="2" t="s">
+      <c r="E497" s="2" t="s">
         <v>1667</v>
-      </c>
-      <c r="E497" s="2" t="s">
-        <v>1668</v>
       </c>
       <c r="F497" s="2"/>
     </row>
@@ -14237,157 +14348,157 @@
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D498" s="2" t="s">
         <v>1669</v>
       </c>
-      <c r="D498" s="2" t="s">
+      <c r="E498" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="E498" s="2" t="s">
+      <c r="F498" s="2"/>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" s="2"/>
+      <c r="B499" s="2"/>
+      <c r="C499" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="F498" s="2"/>
-    </row>
-    <row r="499" spans="1:6">
-      <c r="A499" s="2" t="s">
+      <c r="D499" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="E499" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="C499" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D499" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E499" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F499" s="2">
+      <c r="F499" s="2"/>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" s="2"/>
+      <c r="B500" s="2"/>
+      <c r="C500" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F500" s="2"/>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F501" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
-      <c r="A500" s="2" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C500" s="2" t="s">
+    <row r="502" spans="1:6">
+      <c r="A502" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="D500" s="2" t="s">
+      <c r="D502" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="E500" s="2" t="s">
+      <c r="E502" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="F500" s="2">
+      <c r="F502" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
-      <c r="C501" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D501" s="2" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E501" s="2" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F501" s="2"/>
-    </row>
-    <row r="502" spans="1:6">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
-      <c r="C502" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="D502" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="E502" s="2" t="s">
-        <v>1679</v>
-      </c>
-      <c r="F502" s="2"/>
-    </row>
-    <row r="503" spans="1:6" ht="18.75">
+    <row r="503" spans="1:6">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
-      <c r="C503" s="4" t="s">
-        <v>1680</v>
+      <c r="C503" s="2" t="s">
+        <v>1681</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="F503" s="2"/>
     </row>
     <row r="504" spans="1:6">
-      <c r="A504" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B504" s="2" t="s">
+      <c r="A504" s="2"/>
+      <c r="B504" s="2"/>
+      <c r="C504" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="E504" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="C504" s="2" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D504" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E504" s="2" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F504" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6">
+      <c r="F504" s="2"/>
+    </row>
+    <row r="505" spans="1:6" ht="18.75">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
-      <c r="C505" s="2" t="s">
+      <c r="C505" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E505" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="D505" s="2" t="s">
+      <c r="F505" s="2"/>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" s="2" t="s">
         <v>1688</v>
       </c>
-      <c r="E505" s="2" t="s">
+      <c r="B506" s="2" t="s">
         <v>1689</v>
       </c>
-      <c r="F505" s="2"/>
-    </row>
-    <row r="506" spans="1:6">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
       <c r="C506" s="2" t="s">
         <v>1690</v>
       </c>
       <c r="D506" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E506" s="2" t="s">
         <v>1691</v>
       </c>
-      <c r="E506" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F506" s="2"/>
+      <c r="F506" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="507" spans="1:6">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D507" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="D507" s="2" t="s">
+      <c r="E507" s="2" t="s">
         <v>1694</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>1695</v>
       </c>
       <c r="F507" s="2"/>
     </row>
@@ -14395,13 +14506,13 @@
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D508" s="2" t="s">
         <v>1696</v>
       </c>
-      <c r="D508" s="2" t="s">
+      <c r="E508" s="2" t="s">
         <v>1697</v>
-      </c>
-      <c r="E508" s="2" t="s">
-        <v>1698</v>
       </c>
       <c r="F508" s="2"/>
     </row>
@@ -14409,322 +14520,319 @@
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D509" s="2" t="s">
         <v>1699</v>
       </c>
-      <c r="D509" s="2" t="s">
+      <c r="E509" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="E509" s="2" t="s">
+      <c r="F509" s="2"/>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" s="2"/>
+      <c r="B510" s="2"/>
+      <c r="C510" s="2" t="s">
         <v>1701</v>
       </c>
-      <c r="F509" s="2"/>
-    </row>
-    <row r="510" spans="1:6">
-      <c r="A510" s="2" t="s">
+      <c r="D510" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="E510" s="2" t="s">
         <v>1703</v>
       </c>
-      <c r="C510" s="2" t="s">
+      <c r="F510" s="2"/>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" s="2"/>
+      <c r="B511" s="2"/>
+      <c r="C511" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="D510" s="2" t="s">
+      <c r="D511" s="2" t="s">
         <v>1705</v>
       </c>
-      <c r="E510" s="2" t="s">
+      <c r="E511" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="F510" s="2">
+      <c r="F511" s="2"/>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F512" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
-      <c r="A511" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B511" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C511" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D511" s="2" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E511" s="2" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F511" s="2">
+    <row r="513" spans="1:6">
+      <c r="A513" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F513" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
-      <c r="C512" s="2" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D512" s="2" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E512" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F512" s="2"/>
-    </row>
-    <row r="513" spans="1:6" ht="18.75">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
-      <c r="C513" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D513" s="2" t="s">
-        <v>1716</v>
-      </c>
-      <c r="E513" s="2" t="s">
+    <row r="514" spans="1:6">
+      <c r="A514" s="2"/>
+      <c r="B514" s="2"/>
+      <c r="C514" s="2" t="s">
         <v>1717</v>
       </c>
-      <c r="F513" s="2"/>
-    </row>
-    <row r="514" spans="1:6">
-      <c r="A514" s="2" t="s">
+      <c r="D514" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="E514" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="C514" s="2" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D514" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E514" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="F514" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="515" spans="1:6">
+      <c r="F514" s="2"/>
+    </row>
+    <row r="515" spans="1:6" ht="18.75">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F515" s="2"/>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="D515" s="2" t="s">
+      <c r="B516" s="2" t="s">
         <v>1724</v>
       </c>
-      <c r="E515" s="2" t="s">
+      <c r="C516" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="F515" s="2"/>
-    </row>
-    <row r="516" spans="1:6" ht="18.75">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
-      <c r="C516" s="2" t="s">
+      <c r="D516" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="D516" s="2" t="s">
+      <c r="E516" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="E516" s="2" t="s">
+      <c r="F516" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" s="2"/>
+      <c r="B517" s="2"/>
+      <c r="C517" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="F516" s="2"/>
-    </row>
-    <row r="517" spans="1:6">
-      <c r="A517" s="2" t="s">
+      <c r="D517" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="B517" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C517" s="2" t="s">
+      <c r="E517" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="D517" s="2" t="s">
+      <c r="F517" s="2"/>
+    </row>
+    <row r="518" spans="1:6" ht="18.75">
+      <c r="A518" s="2"/>
+      <c r="B518" s="2"/>
+      <c r="C518" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="E517" s="2" t="s">
+      <c r="D518" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="F517" s="2">
+      <c r="E518" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F518" s="2"/>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F519" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
-      <c r="A518" s="2" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C518" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D518" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E518" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F518" s="2">
+    <row r="520" spans="1:6">
+      <c r="A520" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F520" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
-      <c r="C519" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D519" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="E519" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="F519" s="2"/>
-    </row>
-    <row r="520" spans="1:6" ht="18.75">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
-      <c r="C520" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E520" s="2" t="s">
+    <row r="521" spans="1:6">
+      <c r="A521" s="2"/>
+      <c r="B521" s="2"/>
+      <c r="C521" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="F520" s="2"/>
-    </row>
-    <row r="521" spans="1:6">
-      <c r="A521" s="1" t="s">
+      <c r="D521" s="2" t="s">
         <v>1744</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="E521" s="2" t="s">
         <v>1745</v>
       </c>
-      <c r="C521" s="1" t="s">
+      <c r="F521" s="2"/>
+    </row>
+    <row r="522" spans="1:6" ht="18.75">
+      <c r="A522" s="2"/>
+      <c r="B522" s="2"/>
+      <c r="C522" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="D521" s="1" t="s">
+      <c r="D522" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="E521" s="1" t="s">
+      <c r="E522" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="F521" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6">
-      <c r="C522" s="1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D522" s="1" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E522" s="1" t="s">
-        <v>1751</v>
-      </c>
+      <c r="F522" s="2"/>
     </row>
     <row r="523" spans="1:6">
       <c r="A523" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>1752</v>
       </c>
       <c r="E523" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F523" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="C524" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D524" s="1" t="s">
         <v>1755</v>
       </c>
-      <c r="F523" s="1">
+      <c r="E524" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F525" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
-      <c r="A524" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D524" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="E524" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F524" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6">
-      <c r="C525" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D525" s="1" t="s">
+    <row r="526" spans="1:6">
+      <c r="A526" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="E525" s="1" t="s">
+      <c r="B526" s="1" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="526" spans="1:6">
       <c r="C526" s="1" t="s">
         <v>1763</v>
       </c>
       <c r="D526" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E526" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="E526" s="1" t="s">
-        <v>1765</v>
+      <c r="F526" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="527" spans="1:6">
       <c r="C527" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D527" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="D527" s="1" t="s">
+      <c r="E527" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="E527" s="1" t="s">
+    </row>
+    <row r="528" spans="1:6">
+      <c r="C528" s="1" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="528" spans="1:6">
-      <c r="A528" s="1" t="s">
+      <c r="D528" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="B528" s="1" t="s">
+      <c r="E528" s="1" t="s">
         <v>1770</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D528" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E528" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F528" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -14746,136 +14854,139 @@
         <v>1775</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1776</v>
+        <v>1023</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>1774</v>
+        <v>1024</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>1777</v>
+        <v>1025</v>
       </c>
       <c r="F530" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="531" spans="1:6">
-      <c r="A531" s="1" t="s">
+      <c r="C531" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E531" s="1" t="s">
         <v>1778</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D531" s="1" t="s">
-        <v>1781</v>
-      </c>
-      <c r="E531" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F531" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:6">
       <c r="A532" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E532" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="F532" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="C532" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="D532" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E532" s="1" t="s">
+      <c r="C533" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="F532" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6">
-      <c r="C533" s="1" t="s">
+      <c r="D533" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="D533" s="1" t="s">
-        <v>1787</v>
-      </c>
       <c r="E533" s="1" t="s">
-        <v>1788</v>
+        <v>343</v>
+      </c>
+      <c r="F533" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:6">
       <c r="A534" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C534" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="D534" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E534" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="C534" s="1" t="s">
+      <c r="F534" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="C535" s="1" t="s">
         <v>1791</v>
       </c>
-      <c r="D534" s="1" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E534" s="1" t="s">
+      <c r="D535" s="1" t="s">
         <v>1792</v>
       </c>
-      <c r="F534" s="1">
+      <c r="E535" s="1" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F536" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
-      <c r="A535" s="2" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B535" s="2" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D535" s="2" t="s">
-        <v>1796</v>
-      </c>
-      <c r="E535" s="2" t="s">
-        <v>1797</v>
-      </c>
-      <c r="F535" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6">
-      <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
-      <c r="C536" s="2" t="s">
+    <row r="537" spans="1:6">
+      <c r="A537" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="D536" s="2" t="s">
+      <c r="B537" s="2" t="s">
         <v>1799</v>
       </c>
-      <c r="E536" s="2" t="s">
+      <c r="C537" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="F536" s="2"/>
-    </row>
-    <row r="537" spans="1:6">
-      <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
-      <c r="C537" s="2" t="s">
+      <c r="D537" s="2" t="s">
         <v>1801</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>1799</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="F537" s="2"/>
+      <c r="F537" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="538" spans="1:6">
       <c r="A538" s="2"/>
@@ -14891,305 +15002,303 @@
       </c>
       <c r="F538" s="2"/>
     </row>
-    <row r="539" spans="1:6" ht="18.75">
+    <row r="539" spans="1:6">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2" t="s">
         <v>1806</v>
       </c>
       <c r="D539" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E539" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="E539" s="2" t="s">
+      <c r="F539" s="2"/>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="A540" s="2"/>
+      <c r="B540" s="2"/>
+      <c r="C540" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="F539" s="2"/>
-    </row>
-    <row r="540" spans="1:6">
-      <c r="A540" s="2" t="s">
+      <c r="D540" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="E540" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="C540" s="2" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E540" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="F540" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6">
+      <c r="F540" s="2"/>
+    </row>
+    <row r="541" spans="1:6" ht="18.75">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F541" s="2"/>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="A542" s="2" t="s">
         <v>1814</v>
       </c>
-      <c r="D541" s="2" t="s">
+      <c r="B542" s="2" t="s">
         <v>1815</v>
       </c>
-      <c r="E541" s="2" t="s">
+      <c r="C542" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="F541" s="2"/>
-    </row>
-    <row r="542" spans="1:6">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
-      <c r="C542" s="2" t="s">
+      <c r="D542" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="D542" s="2" t="s">
+      <c r="E542" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="E542" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="F542" s="2"/>
-    </row>
-    <row r="543" spans="1:6" ht="18.75">
+      <c r="F542" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D543" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="D543" s="2" t="s">
+      <c r="E543" s="2" t="s">
         <v>1821</v>
       </c>
-      <c r="E543" s="2" t="s">
+      <c r="F543" s="2"/>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" s="2"/>
+      <c r="B544" s="2"/>
+      <c r="C544" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="F543" s="2"/>
-    </row>
-    <row r="544" spans="1:6">
-      <c r="A544" s="2" t="s">
+      <c r="D544" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="E544" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="C544" s="2" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D544" s="2" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E544" s="2" t="s">
-        <v>1827</v>
-      </c>
-      <c r="F544" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6">
+      <c r="F544" s="2"/>
+    </row>
+    <row r="545" spans="1:6" ht="18.75">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F545" s="2"/>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="D545" s="2" t="s">
+      <c r="B546" s="2" t="s">
         <v>1829</v>
       </c>
-      <c r="E545" s="2" t="s">
+      <c r="C546" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="F545" s="2"/>
-    </row>
-    <row r="546" spans="1:6">
-      <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
-      <c r="C546" s="2" t="s">
+      <c r="D546" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="D546" s="2" t="s">
+      <c r="E546" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="E546" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="F546" s="2"/>
+      <c r="F546" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="547" spans="1:6">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D547" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="D547" s="2" t="s">
+      <c r="E547" s="2" t="s">
         <v>1835</v>
       </c>
-      <c r="E547" s="2" t="s">
-        <v>1836</v>
-      </c>
       <c r="F547" s="2"/>
     </row>
-    <row r="548" spans="1:6" ht="18.75">
+    <row r="548" spans="1:6">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D548" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="D548" s="2" t="s">
+      <c r="E548" s="2" t="s">
         <v>1838</v>
       </c>
-      <c r="E548" s="2" t="s">
+      <c r="F548" s="2"/>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" s="2"/>
+      <c r="B549" s="2"/>
+      <c r="C549" s="2" t="s">
         <v>1839</v>
       </c>
-      <c r="F548" s="2"/>
-    </row>
-    <row r="549" spans="1:6">
-      <c r="A549" s="2" t="s">
+      <c r="D549" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="E549" s="2" t="s">
         <v>1841</v>
       </c>
-      <c r="C549" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E549" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F549" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6">
+      <c r="F549" s="2"/>
+    </row>
+    <row r="550" spans="1:6" ht="18.75">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2" t="s">
-        <v>1663</v>
+        <v>1842</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1664</v>
+        <v>1843</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>1665</v>
+        <v>1844</v>
       </c>
       <c r="F550" s="2"/>
     </row>
-    <row r="551" spans="1:6" ht="18.75">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
+    <row r="551" spans="1:6">
+      <c r="A551" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>1846</v>
+      </c>
       <c r="C551" s="2" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>1846</v>
-      </c>
-      <c r="F551" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F551" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="552" spans="1:6">
-      <c r="A552" s="2" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B552" s="2" t="s">
-        <v>1848</v>
-      </c>
+      <c r="A552" s="2"/>
+      <c r="B552" s="2"/>
       <c r="C552" s="2" t="s">
-        <v>1635</v>
+        <v>1668</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>1636</v>
+        <v>1669</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>1849</v>
-      </c>
-      <c r="F552" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6">
+        <v>1670</v>
+      </c>
+      <c r="F552" s="2"/>
+    </row>
+    <row r="553" spans="1:6" ht="18.75">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D553" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="D553" s="2" t="s">
+      <c r="E553" s="2" t="s">
         <v>1851</v>
       </c>
-      <c r="E553" s="2" t="s">
+      <c r="F553" s="2"/>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" s="2" t="s">
         <v>1852</v>
       </c>
-      <c r="F553" s="2"/>
-    </row>
-    <row r="554" spans="1:6">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
+      <c r="B554" s="2" t="s">
+        <v>1853</v>
+      </c>
       <c r="C554" s="2" t="s">
-        <v>1853</v>
+        <v>1640</v>
       </c>
       <c r="D554" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E554" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="E554" s="2" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F554" s="2"/>
-    </row>
-    <row r="555" spans="1:6" ht="18.75">
+      <c r="F554" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D555" s="2" t="s">
         <v>1856</v>
       </c>
-      <c r="D555" s="2" t="s">
+      <c r="E555" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="E555" s="2" t="s">
+      <c r="F555" s="2"/>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556" s="2"/>
+      <c r="B556" s="2"/>
+      <c r="C556" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="F555" s="2"/>
-    </row>
-    <row r="556" spans="1:6">
-      <c r="A556" s="2" t="s">
+      <c r="D556" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="E556" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="C556" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D556" s="2" t="s">
-        <v>1862</v>
-      </c>
-      <c r="E556" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F556" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6">
+      <c r="F556" s="2"/>
+    </row>
+    <row r="557" spans="1:6" ht="18.75">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>1862</v>
       </c>
       <c r="E557" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F557" s="2"/>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="A558" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B558" s="2" t="s">
         <v>1865</v>
       </c>
-      <c r="F557" s="2"/>
-    </row>
-    <row r="558" spans="1:6">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
       <c r="C558" s="2" t="s">
         <v>1866</v>
       </c>
@@ -15199,48 +15308,56 @@
       <c r="E558" s="2" t="s">
         <v>1868</v>
       </c>
-      <c r="F558" s="2"/>
+      <c r="F558" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="559" spans="1:6">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="2"/>
+      <c r="B559" s="2"/>
+      <c r="C559" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="B559" s="1" t="s">
+      <c r="D559" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E559" s="2" t="s">
         <v>1870</v>
       </c>
-      <c r="C559" s="1" t="s">
+      <c r="F559" s="2"/>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="A560" s="2"/>
+      <c r="B560" s="2"/>
+      <c r="C560" s="2" t="s">
         <v>1871</v>
       </c>
-      <c r="D559" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E559" s="1" t="s">
+      <c r="D560" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="F559" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6">
-      <c r="C560" s="1" t="s">
+      <c r="E560" s="2" t="s">
         <v>1873</v>
       </c>
-      <c r="D560" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E560" s="1" t="s">
+      <c r="F560" s="2"/>
+    </row>
+    <row r="561" spans="1:6">
+      <c r="A561" s="1" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="561" spans="1:6">
+      <c r="B561" s="1" t="s">
+        <v>1875</v>
+      </c>
       <c r="C561" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E561" s="1" t="s">
         <v>1877</v>
+      </c>
+      <c r="F561" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -15248,97 +15365,94 @@
         <v>1878</v>
       </c>
       <c r="D562" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E562" s="1" t="s">
         <v>1879</v>
       </c>
-      <c r="E562" s="1" t="s">
+    </row>
+    <row r="563" spans="1:6">
+      <c r="C563" s="1" t="s">
         <v>1880</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6">
-      <c r="A563" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>1883</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>1881</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F563" s="1">
-        <v>4</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="564" spans="1:6">
       <c r="C564" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E564" s="1" t="s">
         <v>1885</v>
       </c>
-      <c r="D564" s="1" t="s">
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565" s="1" t="s">
         <v>1886</v>
       </c>
-      <c r="E564" s="1" t="s">
+      <c r="B565" s="1" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="565" spans="1:6">
       <c r="C565" s="1" t="s">
         <v>1888</v>
       </c>
       <c r="D565" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E565" s="1" t="s">
         <v>1889</v>
       </c>
-      <c r="E565" s="1" t="s">
-        <v>1890</v>
+      <c r="F565" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:6">
       <c r="C566" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D566" s="1" t="s">
         <v>1891</v>
       </c>
-      <c r="D566" s="1" t="s">
+      <c r="E566" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="E566" s="1" t="s">
+    </row>
+    <row r="567" spans="1:6">
+      <c r="C567" s="1" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="567" spans="1:6">
-      <c r="A567" s="1" t="s">
+      <c r="D567" s="1" t="s">
         <v>1894</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="E567" s="1" t="s">
         <v>1895</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D567" s="1" t="s">
-        <v>1897</v>
-      </c>
-      <c r="E567" s="1" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F567" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="568" spans="1:6">
       <c r="C568" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" s="1" t="s">
         <v>1899</v>
       </c>
-      <c r="D568" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="E568" s="1" t="s">
+      <c r="B569" s="1" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="569" spans="1:6">
       <c r="C569" s="1" t="s">
         <v>1901</v>
       </c>
@@ -15347,6 +15461,9 @@
       </c>
       <c r="E569" s="1" t="s">
         <v>1903</v>
+      </c>
+      <c r="F569" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -15354,251 +15471,245 @@
         <v>1904</v>
       </c>
       <c r="D570" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E570" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="E570" s="1" t="s">
+    </row>
+    <row r="571" spans="1:6">
+      <c r="C571" s="1" t="s">
         <v>1906</v>
-      </c>
-    </row>
-    <row r="571" spans="1:6">
-      <c r="A571" s="1" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="C571" s="1" t="s">
-        <v>1909</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>1907</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1910</v>
-      </c>
-      <c r="F571" s="1">
-        <v>8</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="572" spans="1:6">
       <c r="C572" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E572" s="1" t="s">
         <v>1911</v>
       </c>
-      <c r="D572" s="1" t="s">
+    </row>
+    <row r="573" spans="1:6">
+      <c r="A573" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="E572" s="1" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6">
+      <c r="B573" s="1" t="s">
+        <v>1913</v>
+      </c>
       <c r="C573" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="E573" s="1" t="s">
         <v>1915</v>
       </c>
+      <c r="F573" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="574" spans="1:6">
-      <c r="A574" s="1" t="s">
+      <c r="C574" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="B574" s="1" t="s">
+      <c r="D574" s="1" t="s">
         <v>1917</v>
       </c>
-      <c r="C574" s="1" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D574" s="1" t="s">
-        <v>1916</v>
-      </c>
       <c r="E574" s="1" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F574" s="1">
-        <v>5</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="575" spans="1:6">
       <c r="C575" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E575" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="D575" s="1" t="s">
+    </row>
+    <row r="576" spans="1:6">
+      <c r="A576" s="1" t="s">
         <v>1921</v>
       </c>
-      <c r="E575" s="1" t="s">
+      <c r="B576" s="1" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="576" spans="1:6">
       <c r="C576" s="1" t="s">
         <v>1923</v>
       </c>
       <c r="D576" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E576" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="E576" s="1" t="s">
+      <c r="F576" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6">
+      <c r="C577" s="1" t="s">
         <v>1925</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6">
-      <c r="A577" s="1" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>1928</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>1926</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>1929</v>
-      </c>
-      <c r="F577" s="1">
-        <v>7</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="578" spans="1:6">
       <c r="C578" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E578" s="1" t="s">
         <v>1930</v>
-      </c>
-      <c r="D578" s="1" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E578" s="1" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="579" spans="1:6">
       <c r="A579" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C579" s="1" t="s">
         <v>1933</v>
       </c>
-      <c r="B579" s="1" t="s">
+      <c r="D579" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E579" s="1" t="s">
         <v>1934</v>
       </c>
-      <c r="C579" s="1" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D579" s="1" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E579" s="1" t="s">
-        <v>1936</v>
-      </c>
       <c r="F579" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580" spans="1:6">
       <c r="C580" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E580" s="1" t="s">
         <v>1937</v>
       </c>
-      <c r="D580" s="1" t="s">
+    </row>
+    <row r="581" spans="1:6">
+      <c r="A581" s="1" t="s">
         <v>1938</v>
       </c>
-      <c r="E580" s="1" t="s">
+      <c r="B581" s="1" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="581" spans="1:6">
       <c r="C581" s="1" t="s">
         <v>1940</v>
       </c>
       <c r="D581" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E581" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="E581" s="1" t="s">
+      <c r="F581" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
+      <c r="C582" s="1" t="s">
         <v>1942</v>
-      </c>
-    </row>
-    <row r="582" spans="1:6">
-      <c r="A582" s="1" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>1945</v>
       </c>
       <c r="D582" s="1" t="s">
         <v>1943</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>1946</v>
-      </c>
-      <c r="F582" s="1">
-        <v>8</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="583" spans="1:6">
       <c r="C583" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E583" s="1" t="s">
         <v>1947</v>
-      </c>
-      <c r="D583" s="1" t="s">
-        <v>1948</v>
-      </c>
-      <c r="E583" s="1" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="584" spans="1:6">
       <c r="A584" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C584" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="B584" s="1" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C584" s="1" t="s">
-        <v>1952</v>
-      </c>
       <c r="D584" s="1" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="E584" s="1" t="s">
         <v>1951</v>
       </c>
       <c r="F584" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="585" spans="1:6">
       <c r="C585" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D585" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="D585" s="1" t="s">
+      <c r="E585" s="1" t="s">
         <v>1954</v>
       </c>
-      <c r="E585" s="1" t="s">
+    </row>
+    <row r="586" spans="1:6">
+      <c r="A586" s="1" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="586" spans="1:6">
+      <c r="B586" s="1" t="s">
+        <v>1956</v>
+      </c>
       <c r="C586" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E586" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="D586" s="1" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E586" s="1" t="s">
+      <c r="F586" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
+      <c r="C587" s="1" t="s">
         <v>1958</v>
-      </c>
-    </row>
-    <row r="587" spans="1:6">
-      <c r="A587" s="1" t="s">
-        <v>1959</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>1960</v>
-      </c>
-      <c r="C587" s="1" t="s">
-        <v>1961</v>
       </c>
       <c r="D587" s="1" t="s">
         <v>1959</v>
@@ -15606,103 +15717,103 @@
       <c r="E587" s="1" t="s">
         <v>1960</v>
       </c>
-      <c r="F587" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="588" spans="1:6">
       <c r="C588" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D588" s="1" t="s">
         <v>1962</v>
       </c>
-      <c r="D588" s="1" t="s">
+      <c r="E588" s="1" t="s">
         <v>1963</v>
-      </c>
-      <c r="E588" s="1" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="589" spans="1:6">
       <c r="A589" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B589" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="B589" s="1" t="s">
+      <c r="C589" s="1" t="s">
         <v>1966</v>
       </c>
-      <c r="C589" s="1" t="s">
-        <v>1967</v>
-      </c>
       <c r="D589" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E589" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="E589" s="1" t="s">
-        <v>1968</v>
-      </c>
       <c r="F589" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="590" spans="1:6">
       <c r="C590" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E590" s="1" t="s">
         <v>1969</v>
-      </c>
-      <c r="D590" s="1" t="s">
-        <v>1970</v>
-      </c>
-      <c r="E590" s="1" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="591" spans="1:6">
       <c r="A591" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C591" s="1" t="s">
         <v>1972</v>
       </c>
-      <c r="B591" s="1" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C591" s="1" t="s">
-        <v>1974</v>
-      </c>
       <c r="D591" s="1" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="E591" s="1" t="s">
         <v>1973</v>
       </c>
       <c r="F591" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="592" spans="1:6">
       <c r="C592" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D592" s="1" t="s">
         <v>1975</v>
       </c>
-      <c r="D592" s="1" t="s">
+      <c r="E592" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="E592" s="1" t="s">
+    </row>
+    <row r="593" spans="1:6">
+      <c r="A593" s="1" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="593" spans="1:6">
+      <c r="B593" s="1" t="s">
+        <v>1978</v>
+      </c>
       <c r="C593" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E593" s="1" t="s">
         <v>1978</v>
       </c>
-      <c r="D593" s="1" t="s">
-        <v>1979</v>
-      </c>
-      <c r="E593" s="1" t="s">
+      <c r="F593" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6">
+      <c r="C594" s="1" t="s">
         <v>1980</v>
-      </c>
-    </row>
-    <row r="594" spans="1:6">
-      <c r="A594" s="1" t="s">
-        <v>1981</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C594" s="1" t="s">
-        <v>1983</v>
       </c>
       <c r="D594" s="1" t="s">
         <v>1981</v>
@@ -15710,41 +15821,41 @@
       <c r="E594" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="F594" s="1">
-        <v>11</v>
-      </c>
     </row>
     <row r="595" spans="1:6">
       <c r="C595" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D595" s="1" t="s">
         <v>1984</v>
       </c>
-      <c r="D595" s="1" t="s">
+      <c r="E595" s="1" t="s">
         <v>1985</v>
       </c>
-      <c r="E595" s="1" t="s">
+    </row>
+    <row r="596" spans="1:6">
+      <c r="A596" s="1" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="596" spans="1:6">
+      <c r="B596" s="1" t="s">
+        <v>1987</v>
+      </c>
       <c r="C596" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E596" s="1" t="s">
         <v>1987</v>
       </c>
-      <c r="D596" s="1" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E596" s="1" t="s">
+      <c r="F596" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6">
+      <c r="C597" s="1" t="s">
         <v>1989</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6">
-      <c r="A597" s="1" t="s">
-        <v>1990</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>1991</v>
-      </c>
-      <c r="C597" s="1" t="s">
-        <v>1992</v>
       </c>
       <c r="D597" s="1" t="s">
         <v>1990</v>
@@ -15752,50 +15863,47 @@
       <c r="E597" s="1" t="s">
         <v>1991</v>
       </c>
-      <c r="F597" s="1">
-        <v>9</v>
-      </c>
     </row>
     <row r="598" spans="1:6">
       <c r="C598" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D598" s="1" t="s">
         <v>1993</v>
       </c>
-      <c r="D598" s="1" t="s">
+      <c r="E598" s="1" t="s">
         <v>1994</v>
       </c>
-      <c r="E598" s="1" t="s">
+    </row>
+    <row r="599" spans="1:6">
+      <c r="A599" s="1" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="599" spans="1:6">
+      <c r="B599" s="1" t="s">
+        <v>1996</v>
+      </c>
       <c r="C599" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E599" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="D599" s="1" t="s">
-        <v>1997</v>
-      </c>
-      <c r="E599" s="1" t="s">
+      <c r="F599" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6">
+      <c r="C600" s="1" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="600" spans="1:6">
-      <c r="A600" s="1" t="s">
+      <c r="D600" s="1" t="s">
         <v>1999</v>
       </c>
-      <c r="B600" s="1" t="s">
+      <c r="E600" s="1" t="s">
         <v>2000</v>
-      </c>
-      <c r="C600" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D600" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E600" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F600" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -15810,418 +15918,424 @@
       </c>
     </row>
     <row r="602" spans="1:6">
+      <c r="A602" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>2005</v>
+      </c>
       <c r="C602" s="1" t="s">
-        <v>2004</v>
+        <v>1341</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>2005</v>
+        <v>1342</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>2006</v>
+        <v>1343</v>
+      </c>
+      <c r="F602" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="603" spans="1:6">
       <c r="C603" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D603" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="D603" s="1" t="s">
+      <c r="E603" s="1" t="s">
         <v>2008</v>
       </c>
-      <c r="E603" s="1" t="s">
+    </row>
+    <row r="604" spans="1:6">
+      <c r="C604" s="1" t="s">
         <v>2009</v>
-      </c>
-    </row>
-    <row r="604" spans="1:6">
-      <c r="A604" s="1" t="s">
-        <v>2010</v>
-      </c>
-      <c r="B604" s="1" t="s">
-        <v>2011</v>
-      </c>
-      <c r="C604" s="1" t="s">
-        <v>2012</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>2010</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>2013</v>
-      </c>
-      <c r="F604" s="1">
-        <v>8</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="605" spans="1:6">
       <c r="C605" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E605" s="1" t="s">
         <v>2014</v>
       </c>
-      <c r="D605" s="1" t="s">
+    </row>
+    <row r="606" spans="1:6">
+      <c r="A606" s="1" t="s">
         <v>2015</v>
       </c>
-      <c r="E605" s="1" t="s">
+      <c r="B606" s="1" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="606" spans="1:6">
       <c r="C606" s="1" t="s">
         <v>2017</v>
       </c>
       <c r="D606" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E606" s="1" t="s">
         <v>2018</v>
       </c>
-      <c r="E606" s="1" t="s">
-        <v>2019</v>
+      <c r="F606" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="607" spans="1:6">
       <c r="C607" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D607" s="1" t="s">
         <v>2020</v>
       </c>
-      <c r="D607" s="1" t="s">
+      <c r="E607" s="1" t="s">
         <v>2021</v>
-      </c>
-      <c r="E607" s="1" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="608" spans="1:6">
       <c r="C608" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D608" s="1" t="s">
         <v>2023</v>
       </c>
-      <c r="D608" s="1" t="s">
+      <c r="E608" s="1" t="s">
         <v>2024</v>
       </c>
-      <c r="E608" s="1" t="s">
+    </row>
+    <row r="609" spans="1:6">
+      <c r="C609" s="1" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="609" spans="1:6">
-      <c r="A609" s="1" t="s">
+      <c r="D609" s="1" t="s">
         <v>2026</v>
       </c>
-      <c r="B609" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C609" s="1" t="s">
+      <c r="E609" s="1" t="s">
         <v>2027</v>
-      </c>
-      <c r="D609" s="1" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E609" s="1" t="s">
-        <v>2029</v>
-      </c>
-      <c r="F609" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="610" spans="1:6">
       <c r="C610" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E610" s="1" t="s">
         <v>2030</v>
-      </c>
-      <c r="D610" s="1" t="s">
-        <v>2031</v>
-      </c>
-      <c r="E610" s="1" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="611" spans="1:6">
       <c r="A611" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D611" s="1" t="s">
         <v>2033</v>
       </c>
-      <c r="B611" s="1" t="s">
+      <c r="E611" s="1" t="s">
         <v>2034</v>
-      </c>
-      <c r="C611" s="1" t="s">
-        <v>2035</v>
-      </c>
-      <c r="D611" s="1" t="s">
-        <v>2036</v>
-      </c>
-      <c r="E611" s="1" t="s">
-        <v>2037</v>
       </c>
       <c r="F611" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="612" spans="1:6">
-      <c r="A612" s="1" t="s">
+      <c r="C612" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6">
+      <c r="A613" s="1" t="s">
         <v>2038</v>
       </c>
-      <c r="B612" s="1" t="s">
+      <c r="B613" s="1" t="s">
         <v>2039</v>
       </c>
-      <c r="C612" s="1" t="s">
+      <c r="C613" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F613" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6">
+      <c r="A614" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C614" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="D612" s="1" t="s">
-        <v>2040</v>
-      </c>
-      <c r="E612" s="1" t="s">
-        <v>2041</v>
-      </c>
-      <c r="F612" s="1">
+      <c r="D614" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F614" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
-      <c r="C613" s="1" t="s">
-        <v>2042</v>
-      </c>
-      <c r="D613" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="E613" s="1" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="614" spans="1:6">
-      <c r="C614" s="1" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D614" s="1" t="s">
-        <v>2046</v>
-      </c>
-      <c r="E614" s="1" t="s">
+    <row r="615" spans="1:6">
+      <c r="C615" s="1" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="615" spans="1:6">
-      <c r="A615" s="1" t="s">
+      <c r="D615" s="1" t="s">
         <v>2048</v>
       </c>
-      <c r="B615" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C615" s="1" t="s">
+      <c r="E615" s="1" t="s">
         <v>2049</v>
-      </c>
-      <c r="D615" s="1" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E615" s="1" t="s">
-        <v>2051</v>
-      </c>
-      <c r="F615" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="616" spans="1:6">
       <c r="C616" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E616" s="1" t="s">
         <v>2052</v>
       </c>
-      <c r="D616" s="1" t="s">
+    </row>
+    <row r="617" spans="1:6">
+      <c r="A617" s="1" t="s">
         <v>2053</v>
       </c>
-      <c r="E616" s="1" t="s">
+      <c r="B617" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C617" s="1" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="617" spans="1:6">
-      <c r="C617" s="1" t="s">
+      <c r="D617" s="1" t="s">
         <v>2055</v>
       </c>
-      <c r="D617" s="1" t="s">
+      <c r="E617" s="1" t="s">
         <v>2056</v>
       </c>
-      <c r="E617" s="1" t="s">
+      <c r="F617" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6">
+      <c r="C618" s="1" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="618" spans="1:6" ht="18.75">
-      <c r="A618" s="2" t="s">
+      <c r="D618" s="1" t="s">
         <v>2058</v>
       </c>
-      <c r="B618" s="2" t="s">
+      <c r="E618" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="C618" s="2" t="s">
+    </row>
+    <row r="619" spans="1:6">
+      <c r="C619" s="1" t="s">
         <v>2060</v>
       </c>
-      <c r="D618" s="2" t="s">
+      <c r="D619" s="1" t="s">
         <v>2061</v>
       </c>
-      <c r="E618" s="2" t="s">
+      <c r="E619" s="1" t="s">
         <v>2062</v>
       </c>
-      <c r="F618" s="2">
+    </row>
+    <row r="620" spans="1:6" ht="18.75">
+      <c r="A620" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F620" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="18.75">
-      <c r="A619" s="2"/>
-      <c r="B619" s="2"/>
-      <c r="C619" s="2" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D619" s="2" t="s">
-        <v>2064</v>
-      </c>
-      <c r="E619" s="2" t="s">
-        <v>2065</v>
-      </c>
-      <c r="F619" s="2"/>
-    </row>
-    <row r="620" spans="1:6">
-      <c r="A620" s="1" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B620" s="1" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C620" s="1" t="s">
+    <row r="621" spans="1:6" ht="18.75">
+      <c r="A621" s="2"/>
+      <c r="B621" s="2"/>
+      <c r="C621" s="2" t="s">
         <v>2068</v>
       </c>
-      <c r="D620" s="1" t="s">
+      <c r="D621" s="2" t="s">
         <v>2069</v>
       </c>
-      <c r="E620" s="1" t="s">
+      <c r="E621" s="2" t="s">
         <v>2070</v>
       </c>
-      <c r="F620" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="621" spans="1:6">
-      <c r="C621" s="1" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D621" s="1" t="s">
-        <v>2072</v>
-      </c>
-      <c r="E621" s="1" t="s">
-        <v>2073</v>
-      </c>
+      <c r="F621" s="2"/>
     </row>
     <row r="622" spans="1:6">
       <c r="A622" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D622" s="1" t="s">
         <v>2074</v>
       </c>
-      <c r="B622" s="1" t="s">
+      <c r="E622" s="1" t="s">
         <v>2075</v>
       </c>
-      <c r="C622" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D622" s="1" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E622" s="1" t="s">
-        <v>2076</v>
-      </c>
       <c r="F622" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="623" spans="1:6">
       <c r="C623" s="1" t="s">
-        <v>2068</v>
+        <v>2076</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>2069</v>
+        <v>2077</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>2070</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="624" spans="1:6">
+      <c r="A624" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>2080</v>
+      </c>
       <c r="C624" s="1" t="s">
-        <v>2077</v>
+        <v>1740</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>2078</v>
+        <v>1741</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>2079</v>
+        <v>2081</v>
+      </c>
+      <c r="F624" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="625" spans="1:6">
-      <c r="A625" s="1" t="s">
-        <v>2080</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>2081</v>
-      </c>
       <c r="C625" s="1" t="s">
-        <v>2082</v>
+        <v>2073</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>2084</v>
-      </c>
-      <c r="F625" s="1">
-        <v>12</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="626" spans="1:6">
       <c r="C626" s="1" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="E626" s="1" t="s">
         <v>2084</v>
       </c>
     </row>
     <row r="627" spans="1:6">
+      <c r="A627" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>2086</v>
+      </c>
       <c r="C627" s="1" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>2088</v>
+        <v>2089</v>
+      </c>
+      <c r="F627" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="628" spans="1:6">
       <c r="C628" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E628" s="1" t="s">
         <v>2089</v>
       </c>
-      <c r="D628" s="1" t="s">
-        <v>2090</v>
-      </c>
-      <c r="E628" s="1" t="s">
-        <v>2091</v>
-      </c>
     </row>
     <row r="629" spans="1:6">
-      <c r="A629" s="1" t="s">
+      <c r="C629" s="1" t="s">
         <v>2092</v>
       </c>
-      <c r="B629" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C629" s="1" t="s">
+      <c r="D629" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="D629" s="1" t="s">
+      <c r="E629" s="1" t="s">
         <v>2094</v>
-      </c>
-      <c r="E629" s="1" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F629" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="630" spans="1:6">
       <c r="C630" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D630" s="1" t="s">
         <v>2096</v>
       </c>
-      <c r="D630" s="1" t="s">
+      <c r="E630" s="1" t="s">
         <v>2097</v>
       </c>
-      <c r="E630" s="1" t="s">
+    </row>
+    <row r="631" spans="1:6">
+      <c r="A631" s="1" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="631" spans="1:6">
+      <c r="B631" s="1" t="s">
+        <v>1875</v>
+      </c>
       <c r="C631" s="1" t="s">
         <v>2099</v>
       </c>
@@ -16231,50 +16345,50 @@
       <c r="E631" s="1" t="s">
         <v>2101</v>
       </c>
+      <c r="F631" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="632" spans="1:6">
       <c r="C632" s="1" t="s">
-        <v>1784</v>
+        <v>2102</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="633" spans="1:6">
-      <c r="A633" s="1" t="s">
-        <v>2104</v>
-      </c>
-      <c r="B633" s="1" t="s">
+      <c r="C633" s="1" t="s">
         <v>2105</v>
       </c>
-      <c r="C633" s="1" t="s">
+      <c r="D633" s="1" t="s">
         <v>2106</v>
       </c>
-      <c r="D633" s="1" t="s">
+      <c r="E633" s="1" t="s">
         <v>2107</v>
-      </c>
-      <c r="E633" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="F633" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="634" spans="1:6">
       <c r="C634" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E634" s="1" t="s">
         <v>2109</v>
       </c>
-      <c r="D634" s="1" t="s">
+    </row>
+    <row r="635" spans="1:6">
+      <c r="A635" s="1" t="s">
         <v>2110</v>
       </c>
-      <c r="E634" s="1" t="s">
+      <c r="B635" s="1" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="635" spans="1:6">
       <c r="C635" s="1" t="s">
         <v>2112</v>
       </c>
@@ -16283,6 +16397,9 @@
       </c>
       <c r="E635" s="1" t="s">
         <v>2114</v>
+      </c>
+      <c r="F635" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -16297,37 +16414,34 @@
       </c>
     </row>
     <row r="637" spans="1:6">
-      <c r="A637" s="1" t="s">
+      <c r="C637" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="B637" s="1" t="s">
+      <c r="D637" s="1" t="s">
         <v>2119</v>
       </c>
-      <c r="C637" s="1" t="s">
+      <c r="E637" s="1" t="s">
         <v>2120</v>
-      </c>
-      <c r="D637" s="1" t="s">
-        <v>2121</v>
-      </c>
-      <c r="E637" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="F637" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="638" spans="1:6">
       <c r="C638" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E638" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="D638" s="1" t="s">
+    </row>
+    <row r="639" spans="1:6">
+      <c r="A639" s="1" t="s">
         <v>2124</v>
       </c>
-      <c r="E638" s="1" t="s">
+      <c r="B639" s="1" t="s">
         <v>2125</v>
       </c>
-    </row>
-    <row r="639" spans="1:6">
       <c r="C639" s="1" t="s">
         <v>2126</v>
       </c>
@@ -16336,6 +16450,9 @@
       </c>
       <c r="E639" s="1" t="s">
         <v>2128</v>
+      </c>
+      <c r="F639" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -16357,184 +16474,175 @@
         <v>2133</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>414</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="642" spans="1:6">
       <c r="C642" s="1" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="643" spans="1:6">
-      <c r="A643" s="1" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B643" s="1" t="s">
+      <c r="C643" s="1" t="s">
         <v>2138</v>
       </c>
-      <c r="C643" s="1" t="s">
+      <c r="D643" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="D643" s="1" t="s">
-        <v>2140</v>
-      </c>
       <c r="E643" s="1" t="s">
-        <v>2141</v>
-      </c>
-      <c r="F643" s="1">
-        <v>12</v>
+        <v>414</v>
       </c>
     </row>
     <row r="644" spans="1:6">
       <c r="C644" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E644" s="1" t="s">
         <v>2142</v>
-      </c>
-      <c r="D644" s="1" t="s">
-        <v>2143</v>
-      </c>
-      <c r="E644" s="1" t="s">
-        <v>2144</v>
       </c>
     </row>
     <row r="645" spans="1:6">
       <c r="C645" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E645" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="D645" s="1" t="s">
+    </row>
+    <row r="646" spans="1:6">
+      <c r="A646" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="E645" s="1" t="s">
+      <c r="B646" s="1" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="646" spans="1:6">
       <c r="C646" s="1" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>2149</v>
+        <v>2150</v>
+      </c>
+      <c r="F646" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="647" spans="1:6">
-      <c r="A647" s="1" t="s">
-        <v>2150</v>
-      </c>
-      <c r="B647" s="1" t="s">
+      <c r="C647" s="1" t="s">
         <v>2151</v>
       </c>
-      <c r="C647" s="1" t="s">
-        <v>1011</v>
-      </c>
       <c r="D647" s="1" t="s">
-        <v>1012</v>
+        <v>2152</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F647" s="1">
-        <v>14</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="648" spans="1:6">
-      <c r="A648" s="1" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>2153</v>
-      </c>
       <c r="C648" s="1" t="s">
-        <v>401</v>
+        <v>2154</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>402</v>
+        <v>2155</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F648" s="1">
-        <v>14</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="649" spans="1:6">
       <c r="C649" s="1" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="650" spans="1:6">
       <c r="A650" s="1" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>2159</v>
+        <v>1011</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>2160</v>
+        <v>1012</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>2161</v>
+        <v>1013</v>
       </c>
       <c r="F650" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="651" spans="1:6">
+      <c r="A651" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>2163</v>
+      </c>
       <c r="C651" s="1" t="s">
-        <v>2162</v>
+        <v>401</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>2163</v>
+        <v>402</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>2164</v>
+        <v>403</v>
+      </c>
+      <c r="F651" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="652" spans="1:6">
       <c r="C652" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D652" s="1" t="s">
         <v>2165</v>
       </c>
-      <c r="D652" s="1" t="s">
+      <c r="E652" s="1" t="s">
         <v>2166</v>
-      </c>
-      <c r="E652" s="1" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="653" spans="1:6">
       <c r="A653" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B653" s="1" t="s">
         <v>2168</v>
       </c>
-      <c r="B653" s="1" t="s">
+      <c r="C653" s="1" t="s">
         <v>2169</v>
       </c>
-      <c r="C653" s="1" t="s">
+      <c r="D653" s="1" t="s">
         <v>2170</v>
-      </c>
-      <c r="D653" s="1" t="s">
-        <v>2168</v>
       </c>
       <c r="E653" s="1" t="s">
         <v>2171</v>
       </c>
       <c r="F653" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -16560,34 +16668,34 @@
       </c>
     </row>
     <row r="656" spans="1:6">
+      <c r="A656" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>2179</v>
+      </c>
       <c r="C656" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D656" s="1" t="s">
         <v>2178</v>
       </c>
-      <c r="D656" s="1" t="s">
-        <v>2179</v>
-      </c>
       <c r="E656" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
+      </c>
+      <c r="F656" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="657" spans="1:6">
-      <c r="A657" s="1" t="s">
-        <v>2181</v>
-      </c>
-      <c r="B657" s="1" t="s">
+      <c r="C657" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="C657" s="1" t="s">
+      <c r="D657" s="1" t="s">
         <v>2183</v>
-      </c>
-      <c r="D657" s="1" t="s">
-        <v>2181</v>
       </c>
       <c r="E657" s="1" t="s">
         <v>2184</v>
-      </c>
-      <c r="F657" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -16623,163 +16731,329 @@
         <v>2193</v>
       </c>
       <c r="D660" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E660" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="E660" s="1" t="s">
-        <v>2195</v>
-      </c>
       <c r="F660" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="661" spans="1:6">
       <c r="C661" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D661" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="D661" s="1" t="s">
+      <c r="E661" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="E661" s="1" t="s">
+    </row>
+    <row r="662" spans="1:6">
+      <c r="C662" s="1" t="s">
         <v>2198</v>
       </c>
-    </row>
-    <row r="662" spans="1:6">
-      <c r="A662" s="1" t="s">
+      <c r="D662" s="1" t="s">
         <v>2199</v>
       </c>
-      <c r="B662" s="1" t="s">
+      <c r="E662" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="C662" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D662" s="1" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E662" s="1" t="s">
-        <v>1788</v>
-      </c>
-      <c r="F662" s="1">
+    </row>
+    <row r="663" spans="1:6">
+      <c r="A663" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F663" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
+      <c r="C664" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6">
+      <c r="A665" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F665" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
-      <c r="C663" s="1" t="s">
-        <v>2201</v>
-      </c>
-      <c r="D663" s="1" t="s">
-        <v>2199</v>
-      </c>
-      <c r="E663" s="1" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="664" spans="1:6">
-      <c r="A664" s="1" t="s">
-        <v>2203</v>
-      </c>
-      <c r="B664" s="1" t="s">
-        <v>2204</v>
-      </c>
-      <c r="C664" s="1" t="s">
-        <v>2205</v>
-      </c>
-      <c r="D664" s="1" t="s">
-        <v>2206</v>
-      </c>
-      <c r="E664" s="1" t="s">
-        <v>2207</v>
-      </c>
-      <c r="F664" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="665" spans="1:6">
-      <c r="C665" s="1" t="s">
-        <v>2208</v>
-      </c>
-      <c r="D665" s="1" t="s">
+    <row r="666" spans="1:6">
+      <c r="C666" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D666" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="E665" s="1" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="666" spans="1:6">
-      <c r="A666" s="1" t="s">
-        <v>2211</v>
-      </c>
-      <c r="B666" s="1" t="s">
+      <c r="E666" s="1" t="s">
         <v>2212</v>
-      </c>
-      <c r="C666" s="1" t="s">
-        <v>2213</v>
-      </c>
-      <c r="D666" s="1" t="s">
-        <v>2214</v>
-      </c>
-      <c r="E666" s="1" t="s">
-        <v>2215</v>
-      </c>
-      <c r="F666" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="667" spans="1:6">
       <c r="A667" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D667" s="1" t="s">
         <v>2216</v>
       </c>
-      <c r="B667" s="1" t="s">
+      <c r="E667" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="C667" s="1" t="s">
-        <v>2218</v>
-      </c>
-      <c r="D667" s="1" t="s">
-        <v>2219</v>
-      </c>
-      <c r="E667" s="1" t="s">
-        <v>2220</v>
-      </c>
       <c r="F667" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="668" spans="1:6">
       <c r="C668" s="1" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="669" spans="1:6">
       <c r="C669" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6">
+      <c r="A670" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="D669" s="1" t="s">
+      <c r="B670" s="1" t="s">
         <v>2225</v>
       </c>
-      <c r="E669" s="1" t="s">
+      <c r="C670" s="1" t="s">
         <v>2226</v>
       </c>
-    </row>
-    <row r="670" spans="1:6">
-      <c r="C670" s="1" t="s">
+      <c r="D670" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D670" s="1" t="s">
+      <c r="E670" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="E670" s="1" t="s">
-        <v>1805</v>
+      <c r="F670" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6">
+      <c r="A671" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F671" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6">
+      <c r="C672" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6">
+      <c r="C673" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6">
+      <c r="C674" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6">
+      <c r="A675" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F675" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6">
+      <c r="A676" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="F676" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6">
+      <c r="A677" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F677" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6">
+      <c r="C678" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6">
+      <c r="A679" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F679" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6">
+      <c r="C680" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6">
+      <c r="C681" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>2267</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E649" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E652" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16823,19 +17097,19 @@
     </row>
     <row r="2" spans="1:18" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>2026</v>
+        <v>2031</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2027</v>
+        <v>2032</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2028</v>
+        <v>2033</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2029</v>
+        <v>2034</v>
       </c>
       <c r="F2" s="1">
         <v>12</v>
@@ -16848,19 +17122,19 @@
     </row>
     <row r="3" spans="1:18" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>2033</v>
+        <v>2038</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2034</v>
+        <v>2039</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2036</v>
+        <v>2041</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2037</v>
+        <v>2042</v>
       </c>
       <c r="F3" s="1">
         <v>12</v>
@@ -16873,19 +17147,19 @@
     </row>
     <row r="4" spans="1:18" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1292</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2041</v>
+        <v>2046</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
@@ -16900,13 +17174,13 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>2042</v>
+        <v>2047</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2043</v>
+        <v>2048</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
@@ -16917,19 +17191,19 @@
     </row>
     <row r="6" spans="1:18" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>2048</v>
+        <v>2053</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2049</v>
+        <v>2054</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2050</v>
+        <v>2055</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2051</v>
+        <v>2056</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -16944,13 +17218,13 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>2052</v>
+        <v>2057</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2054</v>
+        <v>2059</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
@@ -16963,13 +17237,13 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>2055</v>
+        <v>2060</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2056</v>
+        <v>2061</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2057</v>
+        <v>2062</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
@@ -16980,19 +17254,19 @@
     </row>
     <row r="9" spans="1:18" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>2058</v>
+        <v>2063</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2059</v>
+        <v>2064</v>
       </c>
       <c r="C9" t="s">
-        <v>2060</v>
+        <v>2065</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2061</v>
+        <v>2066</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2062</v>
+        <v>2067</v>
       </c>
       <c r="F9" s="1">
         <v>13</v>
@@ -17007,13 +17281,13 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>2229</v>
+        <v>2268</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2230</v>
+        <v>2269</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2231</v>
+        <v>2270</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21903"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41753FF6-FD88-4AD2-B779-C1F3E02C7C4A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B21A5D3-74CD-4603-8BC2-0435DD48ED9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="2271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="2325">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -6832,6 +6832,168 @@
   </si>
   <si>
     <t>tế bào</t>
+  </si>
+  <si>
+    <t>池</t>
+  </si>
+  <si>
+    <t>いけ</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>でんち</t>
+  </si>
+  <si>
+    <t>電池</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>公</t>
+  </si>
+  <si>
+    <t>công</t>
+  </si>
+  <si>
+    <t>こうえん</t>
+  </si>
+  <si>
+    <t>公園</t>
+  </si>
+  <si>
+    <t>công viên</t>
+  </si>
+  <si>
+    <t>おおやけ</t>
+  </si>
+  <si>
+    <t>công cộng</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>viên</t>
+  </si>
+  <si>
+    <t>どうぶつえん</t>
+  </si>
+  <si>
+    <t>動物園</t>
+  </si>
+  <si>
+    <t>sở thú</t>
+  </si>
+  <si>
+    <t>ようちえん</t>
+  </si>
+  <si>
+    <t>幼稚園</t>
+  </si>
+  <si>
+    <t>nhà trẻ</t>
+  </si>
+  <si>
+    <t>洋</t>
+  </si>
+  <si>
+    <t>dương</t>
+  </si>
+  <si>
+    <t>ようふく</t>
+  </si>
+  <si>
+    <t>洋服</t>
+  </si>
+  <si>
+    <t>quần áo tây</t>
+  </si>
+  <si>
+    <t>せいようかする</t>
+  </si>
+  <si>
+    <t>西洋化する</t>
+  </si>
+  <si>
+    <t>tây hóa</t>
+  </si>
+  <si>
+    <t>ようしょく</t>
+  </si>
+  <si>
+    <t>洋食</t>
+  </si>
+  <si>
+    <t>đồ ăn tây</t>
+  </si>
+  <si>
+    <t>かいよう</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>hải dương</t>
+  </si>
+  <si>
+    <t>辺</t>
+  </si>
+  <si>
+    <t>biên</t>
+  </si>
+  <si>
+    <t>～へん</t>
+  </si>
+  <si>
+    <t>～辺</t>
+  </si>
+  <si>
+    <t>khu vực ~</t>
+  </si>
+  <si>
+    <t>あたり</t>
+  </si>
+  <si>
+    <t>辺り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khu vực </t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>giao</t>
+  </si>
+  <si>
+    <t>こうつう</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>giao thông</t>
+  </si>
+  <si>
+    <t>こうさてん</t>
+  </si>
+  <si>
+    <t>交差点</t>
+  </si>
+  <si>
+    <t>ngã tư</t>
+  </si>
+  <si>
+    <t>こうばん</t>
+  </si>
+  <si>
+    <t>交番</t>
+  </si>
+  <si>
+    <t>đồn cảnh sát</t>
   </si>
   <si>
     <t>とおく</t>
@@ -7238,10 +7400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H681"/>
+  <dimension ref="A1:H697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
-      <selection activeCell="A679" sqref="A679"/>
+    <sheetView tabSelected="1" topLeftCell="A687" workbookViewId="0">
+      <selection activeCell="F696" sqref="F696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -7307,11 +7469,11 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTA(A2:A100100)</f>
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA(C2:C10100)</f>
-        <v>680</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -17050,6 +17212,236 @@
       </c>
       <c r="E681" s="1" t="s">
         <v>2267</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6">
+      <c r="A682" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F682" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6">
+      <c r="C683" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6">
+      <c r="A684" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F684" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6">
+      <c r="C685" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6">
+      <c r="C686" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6">
+      <c r="A687" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="F687" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6">
+      <c r="C688" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6">
+      <c r="A689" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="F689" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6">
+      <c r="C690" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6">
+      <c r="C691" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6">
+      <c r="C692" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6">
+      <c r="A693" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F693" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6">
+      <c r="C694" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6">
+      <c r="A695" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F695" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6">
+      <c r="C696" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6">
+      <c r="C697" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>2321</v>
       </c>
     </row>
   </sheetData>
@@ -17063,7 +17455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -17281,13 +17673,13 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>2268</v>
+        <v>2322</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2269</v>
+        <v>2323</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2270</v>
+        <v>2324</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21916"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B21A5D3-74CD-4603-8BC2-0435DD48ED9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF5C22D-B6F9-4C8A-BEB4-D7757451CF60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="2325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="2375">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -6762,6 +6762,15 @@
     <t>bất</t>
   </si>
   <si>
+    <t>ふそくする</t>
+  </si>
+  <si>
+    <t>不足する</t>
+  </si>
+  <si>
+    <t>không đủ</t>
+  </si>
+  <si>
     <t>静</t>
   </si>
   <si>
@@ -6996,13 +7005,154 @@
     <t>đồn cảnh sát</t>
   </si>
   <si>
-    <t>とおく</t>
-  </si>
-  <si>
-    <t>遠く</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> xa (adv)</t>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>hán</t>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>số</t>
+  </si>
+  <si>
+    <t>かぞえる</t>
+  </si>
+  <si>
+    <t>数える</t>
+  </si>
+  <si>
+    <t>đếm</t>
+  </si>
+  <si>
+    <t>すうがく</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>toán học</t>
+  </si>
+  <si>
+    <t>かず</t>
+  </si>
+  <si>
+    <t>số lượng</t>
+  </si>
+  <si>
+    <t>薬</t>
+  </si>
+  <si>
+    <t>dược</t>
+  </si>
+  <si>
+    <t>くすり</t>
+  </si>
+  <si>
+    <t>thuốc</t>
+  </si>
+  <si>
+    <t>やっきょく</t>
+  </si>
+  <si>
+    <t>薬局</t>
+  </si>
+  <si>
+    <t>hiệu thuốc</t>
+  </si>
+  <si>
+    <t>台</t>
+  </si>
+  <si>
+    <t>đài</t>
+  </si>
+  <si>
+    <t>だい</t>
+  </si>
+  <si>
+    <t>bục</t>
+  </si>
+  <si>
+    <t>里</t>
+  </si>
+  <si>
+    <t>lí</t>
+  </si>
+  <si>
+    <t>ふるさと</t>
+  </si>
+  <si>
+    <t>古里</t>
+  </si>
+  <si>
+    <t>quê hương</t>
+  </si>
+  <si>
+    <t>ばんりのちょうじょう</t>
+  </si>
+  <si>
+    <t>万里の長城</t>
+  </si>
+  <si>
+    <t>vạn lý trường thành</t>
+  </si>
+  <si>
+    <t>才</t>
+  </si>
+  <si>
+    <t>tài</t>
+  </si>
+  <si>
+    <t>công thức</t>
+  </si>
+  <si>
+    <t>nghĩa tiếng việt công thức</t>
+  </si>
+  <si>
+    <t>công thức t.a tương đương</t>
+  </si>
+  <si>
+    <t>bài</t>
+  </si>
+  <si>
+    <t>mức độ</t>
+  </si>
+  <si>
+    <t>Câu tiếng nhật ví dụ</t>
+  </si>
+  <si>
+    <t>nghĩa của câu</t>
+  </si>
+  <si>
+    <t>Vて　いただけませんか</t>
+  </si>
+  <si>
+    <t>Anh/chị làm ~ giúp tôi được không ạ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please ~ </t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>いい店お　教えて　いただけませんか</t>
+  </si>
+  <si>
+    <t>Anh giới thiệu quán tốt giúp tôi được không ạ?</t>
+  </si>
+  <si>
+    <t>ゆっくり　話して　いただけませんか</t>
+  </si>
+  <si>
+    <t>Anh nói chậm giúp tôi được không ạ?</t>
+  </si>
+  <si>
+    <t>地図お　書いて　いただけませんか</t>
+  </si>
+  <si>
+    <t>Anh vẽ bản đồ giúp tôi được không ạ</t>
   </si>
 </sst>
 </file>
@@ -7052,7 +7202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7062,6 +7212,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -7400,10 +7552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H697"/>
+  <dimension ref="A1:H709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A687" workbookViewId="0">
-      <selection activeCell="F696" sqref="F696"/>
+    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="D676" sqref="D676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -7468,12 +7620,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100100)</f>
-        <v>238</v>
+        <f>COUNTA(A2:A100101)</f>
+        <v>244</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10100)</f>
-        <v>696</v>
+        <f>COUNTA(C2:C10101)</f>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -17122,46 +17274,43 @@
       </c>
     </row>
     <row r="676" spans="1:6">
-      <c r="A676" s="1" t="s">
+      <c r="C676" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="B676" s="1" t="s">
+      <c r="D676" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="C676" s="1" t="s">
+      <c r="E676" s="1" t="s">
         <v>2246</v>
-      </c>
-      <c r="D676" s="1" t="s">
-        <v>2247</v>
-      </c>
-      <c r="E676" s="1" t="s">
-        <v>2248</v>
-      </c>
-      <c r="F676" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="677" spans="1:6">
       <c r="A677" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C677" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="B677" s="1" t="s">
+      <c r="D677" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="C677" s="1" t="s">
+      <c r="E677" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="D677" s="1" t="s">
+      <c r="F677" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6">
+      <c r="A678" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E677" s="1" t="s">
+      <c r="B678" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="F677" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="678" spans="1:6">
       <c r="C678" s="1" t="s">
         <v>2254</v>
       </c>
@@ -17171,28 +17320,28 @@
       <c r="E678" s="1" t="s">
         <v>2256</v>
       </c>
+      <c r="F678" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="679" spans="1:6">
-      <c r="A679" s="1" t="s">
+      <c r="C679" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="B679" s="1" t="s">
+      <c r="D679" s="1" t="s">
         <v>2258</v>
       </c>
-      <c r="C679" s="1" t="s">
+      <c r="E679" s="1" t="s">
         <v>2259</v>
       </c>
-      <c r="D679" s="1" t="s">
+    </row>
+    <row r="680" spans="1:6">
+      <c r="A680" s="1" t="s">
         <v>2260</v>
       </c>
-      <c r="E679" s="1" t="s">
+      <c r="B680" s="1" t="s">
         <v>2261</v>
       </c>
-      <c r="F679" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="680" spans="1:6">
       <c r="C680" s="1" t="s">
         <v>2262</v>
       </c>
@@ -17201,6 +17350,9 @@
       </c>
       <c r="E680" s="1" t="s">
         <v>2264</v>
+      </c>
+      <c r="F680" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -17215,99 +17367,96 @@
       </c>
     </row>
     <row r="682" spans="1:6">
-      <c r="A682" s="1" t="s">
+      <c r="C682" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="B682" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C682" s="1" t="s">
+      <c r="D682" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="D682" s="1" t="s">
-        <v>2268</v>
       </c>
       <c r="E682" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="F682" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="683" spans="1:6">
+      <c r="A683" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1829</v>
+      </c>
       <c r="C683" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D683" s="1" t="s">
         <v>2271</v>
-      </c>
-      <c r="D683" s="1" t="s">
-        <v>2272</v>
       </c>
       <c r="E683" s="1" t="s">
         <v>2273</v>
       </c>
+      <c r="F683" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="684" spans="1:6">
-      <c r="A684" s="1" t="s">
+      <c r="C684" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="B684" s="1" t="s">
+      <c r="D684" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="C684" s="1" t="s">
+      <c r="E684" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="D684" s="1" t="s">
+    </row>
+    <row r="685" spans="1:6">
+      <c r="A685" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="E684" s="1" t="s">
+      <c r="B685" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="F684" s="1">
+      <c r="C685" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F685" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="685" spans="1:6">
-      <c r="C685" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D685" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="E685" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="686" spans="1:6">
       <c r="C686" s="1" t="s">
-        <v>2279</v>
+        <v>682</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>2274</v>
+        <v>683</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>2280</v>
+        <v>684</v>
       </c>
     </row>
     <row r="687" spans="1:6">
-      <c r="A687" s="1" t="s">
-        <v>2281</v>
-      </c>
-      <c r="B687" s="1" t="s">
+      <c r="C687" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="C687" s="1" t="s">
+      <c r="D687" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E687" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="D687" s="1" t="s">
+    </row>
+    <row r="688" spans="1:6">
+      <c r="A688" s="1" t="s">
         <v>2284</v>
       </c>
-      <c r="E687" s="1" t="s">
+      <c r="B688" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="F687" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="688" spans="1:6">
       <c r="C688" s="1" t="s">
         <v>2286</v>
       </c>
@@ -17317,28 +17466,28 @@
       <c r="E688" s="1" t="s">
         <v>2288</v>
       </c>
+      <c r="F688" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="689" spans="1:6">
-      <c r="A689" s="1" t="s">
+      <c r="C689" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="B689" s="1" t="s">
+      <c r="D689" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="C689" s="1" t="s">
+      <c r="E689" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="D689" s="1" t="s">
+    </row>
+    <row r="690" spans="1:6">
+      <c r="A690" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="E689" s="1" t="s">
+      <c r="B690" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="F689" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="690" spans="1:6">
       <c r="C690" s="1" t="s">
         <v>2294</v>
       </c>
@@ -17347,6 +17496,9 @@
       </c>
       <c r="E690" s="1" t="s">
         <v>2296</v>
+      </c>
+      <c r="F690" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -17372,26 +17524,23 @@
       </c>
     </row>
     <row r="693" spans="1:6">
-      <c r="A693" s="1" t="s">
+      <c r="C693" s="1" t="s">
         <v>2303</v>
       </c>
-      <c r="B693" s="1" t="s">
+      <c r="D693" s="1" t="s">
         <v>2304</v>
       </c>
-      <c r="C693" s="1" t="s">
+      <c r="E693" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="D693" s="1" t="s">
+    </row>
+    <row r="694" spans="1:6">
+      <c r="A694" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="E693" s="1" t="s">
+      <c r="B694" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="F693" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="694" spans="1:6">
       <c r="C694" s="1" t="s">
         <v>2308</v>
       </c>
@@ -17401,28 +17550,28 @@
       <c r="E694" s="1" t="s">
         <v>2310</v>
       </c>
+      <c r="F694" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="695" spans="1:6">
-      <c r="A695" s="1" t="s">
+      <c r="C695" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="B695" s="1" t="s">
+      <c r="D695" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="C695" s="1" t="s">
+      <c r="E695" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="D695" s="1" t="s">
+    </row>
+    <row r="696" spans="1:6">
+      <c r="A696" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="E695" s="1" t="s">
+      <c r="B696" s="1" t="s">
         <v>2315</v>
       </c>
-      <c r="F695" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="696" spans="1:6">
       <c r="C696" s="1" t="s">
         <v>2316</v>
       </c>
@@ -17431,6 +17580,9 @@
       </c>
       <c r="E696" s="1" t="s">
         <v>2318</v>
+      </c>
+      <c r="F696" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -17442,6 +17594,192 @@
       </c>
       <c r="E697" s="1" t="s">
         <v>2321</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6">
+      <c r="C698" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6">
+      <c r="A699" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F699" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6">
+      <c r="A700" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F700" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6">
+      <c r="C701" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6">
+      <c r="C702" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6">
+      <c r="A703" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F703" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6">
+      <c r="C704" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6">
+      <c r="A705" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F705" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6">
+      <c r="C706" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6">
+      <c r="A707" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F707" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6">
+      <c r="C708" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6">
+      <c r="A709" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F709" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -17453,264 +17791,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18">
+    <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>2358</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2359</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>2360</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2361</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>2362</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>2031</v>
+        <v>2363</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" ht="36">
+      <c r="A2" s="5" t="s">
+        <v>2365</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1722</v>
+        <v>2366</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2033</v>
+        <v>2367</v>
+      </c>
+      <c r="D2" s="1">
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2034</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <v>2368</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2370</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>2038</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2040</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2041</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2042</v>
-      </c>
-      <c r="F3" s="1">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" ht="18.75">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2045</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2046</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.75">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>2373</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" ht="18.75">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>2047</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2048</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2049</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>2053</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2054</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2055</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2056</v>
-      </c>
-      <c r="F6" s="1">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="18.75">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2058</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2059</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" ht="18.75">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>2060</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2061</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2062</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>2063</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2064</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2066</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2067</v>
-      </c>
-      <c r="F9" s="1">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" ht="18.75">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>2322</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2323</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2324</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" ht="18.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -17719,24 +18025,22 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" ht="18.75">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -17745,24 +18049,22 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" ht="18.75">
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>374</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -17771,30 +18073,22 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -17803,24 +18097,22 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" ht="18.75">
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -17829,24 +18121,22 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" ht="18.75">
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -17855,24 +18145,22 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" ht="18.75">
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -17881,24 +18169,22 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" ht="18.75">
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22" ht="18.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -17907,18 +18193,22 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" ht="18.75">
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -17927,18 +18217,22 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" ht="18.75">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" ht="18.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -17947,18 +18241,22 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" ht="18.75">
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -17967,18 +18265,22 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" ht="18.75">
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -17987,18 +18289,22 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" ht="18.75">
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -18007,18 +18313,22 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" ht="18.75">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" ht="18.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -18027,18 +18337,22 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" ht="18.75">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -18047,18 +18361,22 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" ht="18.75">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" ht="18.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -18067,18 +18385,22 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" ht="18.75">
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" ht="18.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -18087,126 +18409,190 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" ht="18">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" ht="18">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" ht="18">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" ht="18">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" ht="18">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" ht="18">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" ht="18">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" ht="18">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" ht="18">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" ht="18">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="18">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="18">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="18">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="18">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="18">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="18">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="18">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="18">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="18">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="18">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="18">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="18">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="18">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" ht="18">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="18">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="18">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" ht="18">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="18">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="18">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="18">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21916"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF5C22D-B6F9-4C8A-BEB4-D7757451CF60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C083E5-95A4-4197-85B9-48C2744758D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="2375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="2425">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -7102,6 +7102,156 @@
   </si>
   <si>
     <t>tài</t>
+  </si>
+  <si>
+    <t>若</t>
+  </si>
+  <si>
+    <t>nhược</t>
+  </si>
+  <si>
+    <t>わかい</t>
+  </si>
+  <si>
+    <t>若い</t>
+  </si>
+  <si>
+    <t>trẻ</t>
+  </si>
+  <si>
+    <t>弱</t>
+  </si>
+  <si>
+    <t>よわい</t>
+  </si>
+  <si>
+    <t>弱い</t>
+  </si>
+  <si>
+    <t>yếu</t>
+  </si>
+  <si>
+    <t>じゃくてん</t>
+  </si>
+  <si>
+    <t>弱点</t>
+  </si>
+  <si>
+    <t>điểm yếu</t>
+  </si>
+  <si>
+    <t>正</t>
+  </si>
+  <si>
+    <t>chính</t>
+  </si>
+  <si>
+    <t>ただし</t>
+  </si>
+  <si>
+    <t>正し</t>
+  </si>
+  <si>
+    <t>chính xác</t>
+  </si>
+  <si>
+    <t>おしょうがつ</t>
+  </si>
+  <si>
+    <t>お正月</t>
+  </si>
+  <si>
+    <t>tết</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>đê</t>
+  </si>
+  <si>
+    <t>ひくい</t>
+  </si>
+  <si>
+    <t>低い</t>
+  </si>
+  <si>
+    <t>thấp</t>
+  </si>
+  <si>
+    <t>さいてい</t>
+  </si>
+  <si>
+    <t>最低</t>
+  </si>
+  <si>
+    <t>tên đê tiện</t>
+  </si>
+  <si>
+    <t>楽</t>
+  </si>
+  <si>
+    <t>nhạc</t>
+  </si>
+  <si>
+    <t>たのしい</t>
+  </si>
+  <si>
+    <t>楽しい</t>
+  </si>
+  <si>
+    <t>thú vị</t>
+  </si>
+  <si>
+    <t>たのしむ</t>
+  </si>
+  <si>
+    <t>楽しむ</t>
+  </si>
+  <si>
+    <t>mong đợi</t>
+  </si>
+  <si>
+    <t>らくな</t>
+  </si>
+  <si>
+    <t>楽な</t>
+  </si>
+  <si>
+    <t>nhàn hạ</t>
+  </si>
+  <si>
+    <t>太</t>
+  </si>
+  <si>
+    <t>thái</t>
+  </si>
+  <si>
+    <t>ふとい</t>
+  </si>
+  <si>
+    <t>太い</t>
+  </si>
+  <si>
+    <t>béo</t>
+  </si>
+  <si>
+    <t>ふとる</t>
+  </si>
+  <si>
+    <t>太る</t>
+  </si>
+  <si>
+    <t>béo lên</t>
+  </si>
+  <si>
+    <t>たいよう</t>
+  </si>
+  <si>
+    <t>太陽</t>
+  </si>
+  <si>
+    <t>mặt trời</t>
   </si>
   <si>
     <t>công thức</t>
@@ -7552,10 +7702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H709"/>
+  <dimension ref="A1:H723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
-      <selection activeCell="D676" sqref="D676"/>
+    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
+      <selection activeCell="F722" sqref="F722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -7621,11 +7771,11 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTA(A2:A100101)</f>
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA(C2:C10101)</f>
-        <v>708</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -17780,6 +17930,214 @@
       </c>
       <c r="F709" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6">
+      <c r="A710" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>2361</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F710" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6">
+      <c r="C711" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6">
+      <c r="A712" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F712" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6">
+      <c r="C713" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6">
+      <c r="A714" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F714" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6">
+      <c r="C715" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6">
+      <c r="A716" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F716" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6">
+      <c r="C717" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6">
+      <c r="A718" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F718" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6">
+      <c r="C719" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6">
+      <c r="C720" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6">
+      <c r="A721" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F721" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6">
+      <c r="C722" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6">
+      <c r="C723" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>2407</v>
       </c>
     </row>
   </sheetData>
@@ -17813,50 +18171,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>2358</v>
+        <v>2408</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2359</v>
+        <v>2409</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2360</v>
+        <v>2410</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2361</v>
+        <v>2411</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2362</v>
+        <v>2412</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2363</v>
+        <v>2413</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2364</v>
+        <v>2414</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="36">
       <c r="A2" s="5" t="s">
-        <v>2365</v>
+        <v>2415</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2366</v>
+        <v>2416</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2367</v>
+        <v>2417</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2368</v>
+        <v>2418</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2369</v>
+        <v>2419</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -17874,10 +18232,10 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>2371</v>
+        <v>2421</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2372</v>
+        <v>2422</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -17895,10 +18253,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>2373</v>
+        <v>2423</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2374</v>
+        <v>2424</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21916"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84C083E5-95A4-4197-85B9-48C2744758D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E89B4A6-AE76-4DC3-88B4-AC17C0848E41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="2425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="2514">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -7252,6 +7252,273 @@
   </si>
   <si>
     <t>mặt trời</t>
+  </si>
+  <si>
+    <t>運</t>
+  </si>
+  <si>
+    <t>vận</t>
+  </si>
+  <si>
+    <t>はこぶ</t>
+  </si>
+  <si>
+    <t>運ぶ</t>
+  </si>
+  <si>
+    <t>うんてんする</t>
+  </si>
+  <si>
+    <t>運転する</t>
+  </si>
+  <si>
+    <t>lái xe</t>
+  </si>
+  <si>
+    <t>うんどうする</t>
+  </si>
+  <si>
+    <t>運動する</t>
+  </si>
+  <si>
+    <t>vận động</t>
+  </si>
+  <si>
+    <t>うんてんしゅ</t>
+  </si>
+  <si>
+    <t>運転手</t>
+  </si>
+  <si>
+    <t>合</t>
+  </si>
+  <si>
+    <t>hợp</t>
+  </si>
+  <si>
+    <t>おみあい</t>
+  </si>
+  <si>
+    <t>お見合い</t>
+  </si>
+  <si>
+    <t>xem mặt</t>
+  </si>
+  <si>
+    <t>あいます</t>
+  </si>
+  <si>
+    <t>合います</t>
+  </si>
+  <si>
+    <t>hợp, vừa</t>
+  </si>
+  <si>
+    <t>たすけあう</t>
+  </si>
+  <si>
+    <t>助け合う</t>
+  </si>
+  <si>
+    <t>giúp đỡ lẫn nhau</t>
+  </si>
+  <si>
+    <t>しりあう</t>
+  </si>
+  <si>
+    <t>知り合う</t>
+  </si>
+  <si>
+    <t>quen biết lẫn nhau</t>
+  </si>
+  <si>
+    <t>ぐあい</t>
+  </si>
+  <si>
+    <t>具合</t>
+  </si>
+  <si>
+    <t>tính trạng</t>
+  </si>
+  <si>
+    <t>つごう</t>
+  </si>
+  <si>
+    <t>都合</t>
+  </si>
+  <si>
+    <t>hoàn cảnh</t>
+  </si>
+  <si>
+    <t>ごうかくする</t>
+  </si>
+  <si>
+    <t>合格する</t>
+  </si>
+  <si>
+    <t>đỗ</t>
+  </si>
+  <si>
+    <t>当</t>
+  </si>
+  <si>
+    <t>đương</t>
+  </si>
+  <si>
+    <t>あたる</t>
+  </si>
+  <si>
+    <t>当たる</t>
+  </si>
+  <si>
+    <t>trúng</t>
+  </si>
+  <si>
+    <t>おべんとう</t>
+  </si>
+  <si>
+    <t>お弁当</t>
+  </si>
+  <si>
+    <t>cơm hộp</t>
+  </si>
+  <si>
+    <t>考</t>
+  </si>
+  <si>
+    <t>khảo</t>
+  </si>
+  <si>
+    <t>かんがえる</t>
+  </si>
+  <si>
+    <t>考える</t>
+  </si>
+  <si>
+    <t>suy nghĩ</t>
+  </si>
+  <si>
+    <t>走</t>
+  </si>
+  <si>
+    <t>tẩu</t>
+  </si>
+  <si>
+    <t>はしる</t>
+  </si>
+  <si>
+    <t>走る</t>
+  </si>
+  <si>
+    <t>chạy</t>
+  </si>
+  <si>
+    <t>治</t>
+  </si>
+  <si>
+    <t>trị</t>
+  </si>
+  <si>
+    <t>なおる</t>
+  </si>
+  <si>
+    <t>治る</t>
+  </si>
+  <si>
+    <t>khỏi</t>
+  </si>
+  <si>
+    <t>せいじ</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>chính trị</t>
+  </si>
+  <si>
+    <t>ちあん</t>
+  </si>
+  <si>
+    <t>治安</t>
+  </si>
+  <si>
+    <t>trị an</t>
+  </si>
+  <si>
+    <t>おさめる</t>
+  </si>
+  <si>
+    <t>治める</t>
+  </si>
+  <si>
+    <t>cai trị</t>
+  </si>
+  <si>
+    <t>通</t>
+  </si>
+  <si>
+    <t>thông</t>
+  </si>
+  <si>
+    <t>かよう</t>
+  </si>
+  <si>
+    <t>通う</t>
+  </si>
+  <si>
+    <t>đi đi về về</t>
+  </si>
+  <si>
+    <t>とおる</t>
+  </si>
+  <si>
+    <t>通る</t>
+  </si>
+  <si>
+    <t>đi qua</t>
+  </si>
+  <si>
+    <t>ふつう</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>thường</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>しる</t>
+  </si>
+  <si>
+    <t>知る</t>
+  </si>
+  <si>
+    <t>biết</t>
+  </si>
+  <si>
+    <t>おしらせ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>thông báo</t>
+  </si>
+  <si>
+    <t>ちしき</t>
+  </si>
+  <si>
+    <t>知識</t>
+  </si>
+  <si>
+    <t>tri thức</t>
   </si>
   <si>
     <t>công thức</t>
@@ -7702,10 +7969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H723"/>
+  <dimension ref="A1:H749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A702" workbookViewId="0">
-      <selection activeCell="F722" sqref="F722"/>
+    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
+      <selection activeCell="F740" sqref="F740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -7770,12 +8037,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100101)</f>
-        <v>250</v>
+        <f>COUNTA(A2:A100100)</f>
+        <v>258</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10101)</f>
-        <v>722</v>
+        <f>COUNTA(C2:C10100)</f>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -18138,6 +18405,364 @@
       </c>
       <c r="E723" s="1" t="s">
         <v>2407</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6">
+      <c r="A724" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="F724" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6">
+      <c r="C725" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6">
+      <c r="C726" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6">
+      <c r="C727" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6">
+      <c r="A728" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F728" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6">
+      <c r="C729" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6">
+      <c r="C730" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D730" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E730" s="1" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6">
+      <c r="C731" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6">
+      <c r="C732" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6">
+      <c r="C733" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6">
+      <c r="C734" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6">
+      <c r="A735" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F735" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6">
+      <c r="C736" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6">
+      <c r="A737" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="E737" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F737" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6">
+      <c r="A738" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="F738" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6">
+      <c r="A739" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F739" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6">
+      <c r="C740" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6">
+      <c r="C741" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6">
+      <c r="C742" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6">
+      <c r="A743" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F743" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6">
+      <c r="C744" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6">
+      <c r="C745" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6">
+      <c r="C746" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6">
+      <c r="A747" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="F747" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6">
+      <c r="C748" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6">
+      <c r="C749" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>2496</v>
       </c>
     </row>
   </sheetData>
@@ -18171,50 +18796,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>2408</v>
+        <v>2497</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2409</v>
+        <v>2498</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2410</v>
+        <v>2499</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2411</v>
+        <v>2500</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2412</v>
+        <v>2501</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2413</v>
+        <v>2502</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2414</v>
+        <v>2503</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="36">
       <c r="A2" s="5" t="s">
-        <v>2415</v>
+        <v>2504</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2416</v>
+        <v>2505</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2417</v>
+        <v>2506</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2418</v>
+        <v>2507</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2419</v>
+        <v>2508</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2420</v>
+        <v>2509</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -18232,10 +18857,10 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>2421</v>
+        <v>2510</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2422</v>
+        <v>2511</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -18253,10 +18878,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>2423</v>
+        <v>2512</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2424</v>
+        <v>2513</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21931"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA2CBD17-AD90-4683-8DB3-E10C62292015}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EA31FD-2619-478C-88C6-D91294BF21BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$389</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$391</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="2569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="2689">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -3657,6 +3657,24 @@
     <t>làm cho rộng ra (mở rộng)</t>
   </si>
   <si>
+    <t>こうこく</t>
+  </si>
+  <si>
+    <t>広告</t>
+  </si>
+  <si>
+    <t>quảng cáo</t>
+  </si>
+  <si>
+    <t>こうだい</t>
+  </si>
+  <si>
+    <t>広大</t>
+  </si>
+  <si>
+    <t>rộng lớn, rộng mở</t>
+  </si>
+  <si>
     <t>ひろば</t>
   </si>
   <si>
@@ -7353,6 +7371,15 @@
     <t>tên đê tiện</t>
   </si>
   <si>
+    <t>ていか</t>
+  </si>
+  <si>
+    <t>低下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sự suy giảm </t>
+  </si>
+  <si>
     <t>楽</t>
   </si>
   <si>
@@ -7386,6 +7413,15 @@
     <t>nhàn hạ</t>
   </si>
   <si>
+    <t>らっかん</t>
+  </si>
+  <si>
+    <t>楽観</t>
+  </si>
+  <si>
+    <t>lạc quan</t>
+  </si>
+  <si>
     <t>太</t>
   </si>
   <si>
@@ -7419,6 +7455,15 @@
     <t>mặt trời</t>
   </si>
   <si>
+    <t>ふとじ</t>
+  </si>
+  <si>
+    <t>太字</t>
+  </si>
+  <si>
+    <t>chữ in đậm</t>
+  </si>
+  <si>
     <t>運</t>
   </si>
   <si>
@@ -7455,6 +7500,24 @@
     <t>運転手</t>
   </si>
   <si>
+    <t>こううん</t>
+  </si>
+  <si>
+    <t>幸運</t>
+  </si>
+  <si>
+    <t>may mắn</t>
+  </si>
+  <si>
+    <t>うんがいい。わるい</t>
+  </si>
+  <si>
+    <t>運がいい。悪い</t>
+  </si>
+  <si>
+    <t>gặp may/ko may</t>
+  </si>
+  <si>
     <t>合</t>
   </si>
   <si>
@@ -7524,6 +7587,24 @@
     <t>đỗ</t>
   </si>
   <si>
+    <t>がっしゅく</t>
+  </si>
+  <si>
+    <t>合宿</t>
+  </si>
+  <si>
+    <t>trại huấn luyện</t>
+  </si>
+  <si>
+    <t>みつめあう</t>
+  </si>
+  <si>
+    <t>見詰め合う</t>
+  </si>
+  <si>
+    <t>nhìn chằm chằm vào nhau</t>
+  </si>
+  <si>
     <t>当</t>
   </si>
   <si>
@@ -7548,6 +7629,15 @@
     <t>cơm hộp</t>
   </si>
   <si>
+    <t>ほんとうに</t>
+  </si>
+  <si>
+    <t>本当に</t>
+  </si>
+  <si>
+    <t>sự thật</t>
+  </si>
+  <si>
     <t>考</t>
   </si>
   <si>
@@ -7563,6 +7653,15 @@
     <t>suy nghĩ</t>
   </si>
   <si>
+    <t>さんこうする</t>
+  </si>
+  <si>
+    <t>参考する</t>
+  </si>
+  <si>
+    <t>tham khảo</t>
+  </si>
+  <si>
     <t>走</t>
   </si>
   <si>
@@ -7578,6 +7677,24 @@
     <t>chạy</t>
   </si>
   <si>
+    <t>きょうそう</t>
+  </si>
+  <si>
+    <t>競走</t>
+  </si>
+  <si>
+    <t>chạy thi</t>
+  </si>
+  <si>
+    <t>とうそう</t>
+  </si>
+  <si>
+    <t>逃走</t>
+  </si>
+  <si>
+    <t>bỏ trốn</t>
+  </si>
+  <si>
     <t>治</t>
   </si>
   <si>
@@ -7620,6 +7737,15 @@
     <t>cai trị</t>
   </si>
   <si>
+    <t>ちりょう</t>
+  </si>
+  <si>
+    <t>治療</t>
+  </si>
+  <si>
+    <t>trị liệu</t>
+  </si>
+  <si>
     <t>通</t>
   </si>
   <si>
@@ -7653,6 +7779,24 @@
     <t>thường</t>
   </si>
   <si>
+    <t>つうこう</t>
+  </si>
+  <si>
+    <t>通行</t>
+  </si>
+  <si>
+    <t>việc đi lại</t>
+  </si>
+  <si>
+    <t>つうがく</t>
+  </si>
+  <si>
+    <t>通学</t>
+  </si>
+  <si>
+    <t>việc đi học</t>
+  </si>
+  <si>
     <t>知</t>
   </si>
   <si>
@@ -7684,6 +7828,222 @@
   </si>
   <si>
     <t>tri thức</t>
+  </si>
+  <si>
+    <t>ちじん</t>
+  </si>
+  <si>
+    <t>知人</t>
+  </si>
+  <si>
+    <t>người quen biết</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>văn</t>
+  </si>
+  <si>
+    <t>ぶんがく</t>
+  </si>
+  <si>
+    <t>文学</t>
+  </si>
+  <si>
+    <t>văn học</t>
+  </si>
+  <si>
+    <t>ごちゅうもん</t>
+  </si>
+  <si>
+    <t>ご注文</t>
+  </si>
+  <si>
+    <t>gọi món</t>
+  </si>
+  <si>
+    <t>ぶんぽう</t>
+  </si>
+  <si>
+    <t>文法</t>
+  </si>
+  <si>
+    <t>ngữ pháp</t>
+  </si>
+  <si>
+    <t>ろんぶん</t>
+  </si>
+  <si>
+    <t>論文</t>
+  </si>
+  <si>
+    <t>luận văn</t>
+  </si>
+  <si>
+    <t>化</t>
+  </si>
+  <si>
+    <t>hóa</t>
+  </si>
+  <si>
+    <t>ぶんか</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>văn hóa</t>
+  </si>
+  <si>
+    <t>tây dương hóa</t>
+  </si>
+  <si>
+    <t>けしょう</t>
+  </si>
+  <si>
+    <t>化粧</t>
+  </si>
+  <si>
+    <t>trang điểm</t>
+  </si>
+  <si>
+    <t>ばける</t>
+  </si>
+  <si>
+    <t>化ける</t>
+  </si>
+  <si>
+    <t>biến hóa</t>
+  </si>
+  <si>
+    <t>経</t>
+  </si>
+  <si>
+    <t>kinh</t>
+  </si>
+  <si>
+    <t>けいけん</t>
+  </si>
+  <si>
+    <t>経験</t>
+  </si>
+  <si>
+    <t>kinh nghiệm</t>
+  </si>
+  <si>
+    <t>たつ</t>
+  </si>
+  <si>
+    <t>経つ</t>
+  </si>
+  <si>
+    <t>(thời gian )trôi qua</t>
+  </si>
+  <si>
+    <t>へる</t>
+  </si>
+  <si>
+    <t>経る</t>
+  </si>
+  <si>
+    <t>trải qua</t>
+  </si>
+  <si>
+    <t>済</t>
+  </si>
+  <si>
+    <t>けいざい</t>
+  </si>
+  <si>
+    <t>経済</t>
+  </si>
+  <si>
+    <t>kinh tế</t>
+  </si>
+  <si>
+    <t>すむ</t>
+  </si>
+  <si>
+    <t>済む</t>
+  </si>
+  <si>
+    <t>hoàn thành</t>
+  </si>
+  <si>
+    <t>すまない</t>
+  </si>
+  <si>
+    <t>済まない</t>
+  </si>
+  <si>
+    <t>xin lỗi</t>
+  </si>
+  <si>
+    <t>政</t>
+  </si>
+  <si>
+    <t>歴</t>
+  </si>
+  <si>
+    <t>lịch</t>
+  </si>
+  <si>
+    <t>けいれき</t>
+  </si>
+  <si>
+    <t>経歴</t>
+  </si>
+  <si>
+    <t>lí lịch</t>
+  </si>
+  <si>
+    <t>史</t>
+  </si>
+  <si>
+    <t>sử</t>
+  </si>
+  <si>
+    <t>れきし</t>
+  </si>
+  <si>
+    <t>歴史</t>
+  </si>
+  <si>
+    <t>lịch sử</t>
+  </si>
+  <si>
+    <t>育</t>
+  </si>
+  <si>
+    <t>dục</t>
+  </si>
+  <si>
+    <t>そだてる</t>
+  </si>
+  <si>
+    <t>育てる</t>
+  </si>
+  <si>
+    <t>nuôi dưỡng</t>
+  </si>
+  <si>
+    <t>そだつ</t>
+  </si>
+  <si>
+    <t>育つ</t>
+  </si>
+  <si>
+    <t>lớn lên, không lớn</t>
+  </si>
+  <si>
+    <t>たいいくかん</t>
+  </si>
+  <si>
+    <t>体育館</t>
+  </si>
+  <si>
+    <t>phòng tập thể dục</t>
   </si>
   <si>
     <t>công thức</t>
@@ -8134,10 +8494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H768"/>
+  <dimension ref="A1:H807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A722" workbookViewId="0">
-      <selection activeCell="E735" sqref="E735"/>
+    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
+      <selection activeCell="A786" sqref="A786:XFD786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -8202,12 +8562,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100119)</f>
-        <v>258</v>
+        <f>COUNTA(A2:A100134)</f>
+        <v>266</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10119)</f>
-        <v>767</v>
+        <f>COUNTA(C2:C10134)</f>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13213,57 +13573,54 @@
       </c>
     </row>
     <row r="359" spans="1:6">
-      <c r="A359" s="1" t="s">
+      <c r="C359" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="E359" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="D359" s="1" t="s">
+    </row>
+    <row r="360" spans="1:6">
+      <c r="C360" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="E359" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="F359" s="1">
+      <c r="E360" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F361" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
-      <c r="A360" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F360" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
-      <c r="C361" s="1" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D361" s="1" t="s">
+    <row r="362" spans="1:6">
+      <c r="A362" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="E361" s="1" t="s">
+      <c r="B362" s="1" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="362" spans="1:6">
       <c r="C362" s="1" t="s">
         <v>1225</v>
       </c>
@@ -13273,92 +13630,92 @@
       <c r="E362" s="1" t="s">
         <v>1227</v>
       </c>
+      <c r="F362" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="363" spans="1:6">
-      <c r="A363" s="1" t="s">
+      <c r="C363" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="E363" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F363" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="C364" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E364" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="D364" s="1" t="s">
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="E364" s="1" t="s">
+      <c r="B365" s="1" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="365" spans="1:6">
       <c r="C365" s="1" t="s">
-        <v>166</v>
+        <v>1236</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>167</v>
+        <v>1237</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>168</v>
+        <v>1238</v>
+      </c>
+      <c r="F365" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="C366" s="1" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="367" spans="1:6">
-      <c r="A367" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>1240</v>
-      </c>
       <c r="C367" s="1" t="s">
-        <v>1241</v>
+        <v>166</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1242</v>
+        <v>167</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F367" s="1">
-        <v>12</v>
+        <v>168</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="C368" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E368" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="D368" s="1" t="s">
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="E368" s="1" t="s">
+      <c r="B369" s="1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="369" spans="1:6">
       <c r="C369" s="1" t="s">
         <v>1247</v>
       </c>
@@ -13367,6 +13724,9 @@
       </c>
       <c r="E369" s="1" t="s">
         <v>1249</v>
+      </c>
+      <c r="F369" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -13381,68 +13741,65 @@
       </c>
     </row>
     <row r="371" spans="1:6">
-      <c r="A371" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="E371" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F371" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:6">
       <c r="C372" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E372" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="D373" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="E373" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>1265</v>
-      </c>
       <c r="F373" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="C374" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E374" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="D374" s="1" t="s">
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="E374" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="375" spans="1:6">
       <c r="C375" s="1" t="s">
         <v>1269</v>
       </c>
@@ -13451,6 +13808,9 @@
       </c>
       <c r="E375" s="1" t="s">
         <v>1271</v>
+      </c>
+      <c r="F375" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -13472,29 +13832,29 @@
         <v>1276</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>960</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="378" spans="1:6">
       <c r="C378" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="C379" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1282</v>
+        <v>960</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -13505,41 +13865,38 @@
         <v>1284</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="381" spans="1:6">
-      <c r="A381" s="1" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B381" s="1" t="s">
+      <c r="C381" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="E381" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F381" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="C382" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D382" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="E382" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="E382" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="383" spans="1:6">
       <c r="C383" s="1" t="s">
         <v>1293</v>
       </c>
@@ -13548,6 +13905,9 @@
       </c>
       <c r="E383" s="1" t="s">
         <v>1295</v>
+      </c>
+      <c r="F383" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -13573,37 +13933,34 @@
       </c>
     </row>
     <row r="386" spans="1:6">
-      <c r="A386" s="1" t="s">
+      <c r="C386" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="D386" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="C386" s="1" t="s">
+      <c r="E386" s="1" t="s">
         <v>1304</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F386" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="C387" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E387" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="D387" s="1" t="s">
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="E387" s="1" t="s">
+      <c r="B388" s="1" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="388" spans="1:6">
       <c r="C388" s="1" t="s">
         <v>1310</v>
       </c>
@@ -13612,6 +13969,9 @@
       </c>
       <c r="E388" s="1" t="s">
         <v>1312</v>
+      </c>
+      <c r="F388" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -13637,68 +13997,65 @@
       </c>
     </row>
     <row r="391" spans="1:6">
-      <c r="A391" s="1" t="s">
+      <c r="C391" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="E391" s="1" t="s">
         <v>1321</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E391" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F391" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:6">
       <c r="C392" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E392" s="1" t="s">
         <v>1324</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="D393" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="E393" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="D393" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>1331</v>
-      </c>
       <c r="F393" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="C394" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E394" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="D394" s="1" t="s">
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="E394" s="1" t="s">
+      <c r="B395" s="1" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="395" spans="1:6">
       <c r="C395" s="1" t="s">
         <v>1335</v>
       </c>
@@ -13707,6 +14064,9 @@
       </c>
       <c r="E395" s="1" t="s">
         <v>1337</v>
+      </c>
+      <c r="F395" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -13721,107 +14081,98 @@
       </c>
     </row>
     <row r="397" spans="1:6">
-      <c r="A397" s="1" t="s">
+      <c r="C397" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="E397" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="D397" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E397" s="1" t="s">
+    </row>
+    <row r="398" spans="1:6">
+      <c r="C398" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="F397" s="1">
+      <c r="D398" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F399" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
-      <c r="A398" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E398" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="F398" s="1">
+    <row r="400" spans="1:6">
+      <c r="A400" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F400" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
-      <c r="C399" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E399" s="1" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6">
-      <c r="C400" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="C401" s="1" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="C402" s="1" t="s">
-        <v>1356</v>
+        <v>471</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1357</v>
+        <v>472</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1358</v>
+        <v>473</v>
       </c>
     </row>
     <row r="403" spans="1:6">
-      <c r="A403" s="1" t="s">
+      <c r="C403" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="D403" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>956</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="F403" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -13829,29 +14180,38 @@
         <v>1362</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="405" spans="1:6">
+      <c r="A405" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1366</v>
+      </c>
       <c r="C405" s="1" t="s">
-        <v>1364</v>
+        <v>955</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1365</v>
+        <v>956</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
+      </c>
+      <c r="F405" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="C406" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>1369</v>
@@ -13869,51 +14229,42 @@
       </c>
     </row>
     <row r="408" spans="1:6">
-      <c r="A408" s="1" t="s">
+      <c r="C408" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C408" s="1" t="s">
+      <c r="D408" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="D408" s="1" t="s">
+      <c r="E408" s="1" t="s">
         <v>1375</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F408" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="C409" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D409" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="D409" s="1" t="s">
+      <c r="E409" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="D410" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="C410" s="1" t="s">
+      <c r="E410" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>1384</v>
       </c>
       <c r="F410" s="1">
         <v>6</v>
@@ -13921,30 +14272,30 @@
     </row>
     <row r="411" spans="1:6">
       <c r="C411" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E411" s="1" t="s">
         <v>1385</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E411" s="1" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C412" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="D412" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="C412" s="1" t="s">
+      <c r="E412" s="1" t="s">
         <v>1390</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>1392</v>
       </c>
       <c r="F412" s="1">
         <v>6</v>
@@ -13952,16 +14303,22 @@
     </row>
     <row r="413" spans="1:6">
       <c r="C413" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E413" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="D413" s="1" t="s">
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="E413" s="1" t="s">
+      <c r="B414" s="1" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="414" spans="1:6">
       <c r="C414" s="1" t="s">
         <v>1396</v>
       </c>
@@ -13971,25 +14328,19 @@
       <c r="E414" s="1" t="s">
         <v>1398</v>
       </c>
+      <c r="F414" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="415" spans="1:6">
-      <c r="A415" s="1" t="s">
+      <c r="C415" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="B415" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="C415" s="1" t="s">
+      <c r="D415" s="1" t="s">
         <v>1400</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>1399</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>1401</v>
-      </c>
-      <c r="F415" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -14008,92 +14359,92 @@
         <v>1405</v>
       </c>
       <c r="B417" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C417" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="C417" s="1" t="s">
+      <c r="D417" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E417" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="D417" s="1" t="s">
+      <c r="F417" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="C418" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="E417" s="1" t="s">
+      <c r="D418" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="F417" s="1">
+      <c r="E418" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F419" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
-      <c r="A418" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D418" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E418" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F418" s="1">
+    <row r="420" spans="1:6">
+      <c r="A420" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F420" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
-      <c r="C419" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E419" s="1" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6">
-      <c r="C420" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E420" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
     <row r="421" spans="1:6">
-      <c r="A421" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B421" s="1" t="s">
+      <c r="C421" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="C421" s="1" t="s">
+      <c r="D421" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="D421" s="1" t="s">
-        <v>1419</v>
-      </c>
       <c r="E421" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F421" s="1">
-        <v>8</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="C422" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>1424</v>
+        <v>718</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -14110,52 +14461,52 @@
         <v>1425</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="F423" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="C424" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D424" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="D424" s="1" t="s">
+      <c r="E424" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="E424" s="1" t="s">
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="1" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="B425" s="1" t="s">
+        <v>1432</v>
+      </c>
       <c r="C425" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>1434</v>
       </c>
+      <c r="F425" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="426" spans="1:6">
-      <c r="A426" s="1" t="s">
+      <c r="C426" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="C426" s="1" t="s">
+      <c r="D426" s="1" t="s">
         <v>1436</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>1435</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>1437</v>
-      </c>
-      <c r="F426" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -14170,104 +14521,104 @@
       </c>
     </row>
     <row r="428" spans="1:6">
+      <c r="A428" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>777</v>
+      </c>
       <c r="C428" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D428" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>1442</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>1443</v>
       </c>
+      <c r="F428" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="429" spans="1:6">
-      <c r="A429" s="1" t="s">
+      <c r="C429" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="D429" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="C429" s="1" t="s">
+      <c r="E429" s="1" t="s">
         <v>1446</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E429" s="1" t="s">
-        <v>1447</v>
-      </c>
-      <c r="F429" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="C430" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D430" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="D430" s="1" t="s">
+      <c r="E430" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="E430" s="1" t="s">
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="1" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="431" spans="1:6">
+      <c r="B431" s="1" t="s">
+        <v>1451</v>
+      </c>
       <c r="C431" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>1453</v>
       </c>
+      <c r="F431" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="432" spans="1:6">
-      <c r="A432" s="1" t="s">
+      <c r="C432" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="D432" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="C432" s="1" t="s">
+      <c r="E432" s="1" t="s">
         <v>1456</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F432" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="C433" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E433" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="D434" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="C434" s="1" t="s">
+      <c r="E434" s="1" t="s">
         <v>1464</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="F434" s="1">
         <v>8</v>
@@ -14285,68 +14636,74 @@
       </c>
     </row>
     <row r="436" spans="1:6">
+      <c r="A436" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1469</v>
+      </c>
       <c r="C436" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D436" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="D436" s="1" t="s">
-        <v>1469</v>
-      </c>
       <c r="E436" s="1" t="s">
-        <v>1470</v>
+        <v>300</v>
+      </c>
+      <c r="F436" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="437" spans="1:6">
-      <c r="A437" s="1" t="s">
+      <c r="C437" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="D437" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="E437" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="D437" s="1" t="s">
+    </row>
+    <row r="438" spans="1:6">
+      <c r="C438" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="E437" s="1" t="s">
+      <c r="D438" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="F437" s="1">
+      <c r="E438" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F439" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
-      <c r="A438" s="1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D438" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E438" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="F438" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6">
-      <c r="C439" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D439" s="1" t="s">
+    <row r="440" spans="1:6">
+      <c r="A440" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="E439" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="440" spans="1:6">
       <c r="C440" s="1" t="s">
         <v>1484</v>
       </c>
@@ -14356,174 +14713,174 @@
       <c r="E440" s="1" t="s">
         <v>1486</v>
       </c>
+      <c r="F440" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="441" spans="1:6">
-      <c r="A441" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="D441" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="E441" s="1" t="s">
         <v>1489</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F441" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="C442" s="1" t="s">
-        <v>254</v>
+        <v>1490</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>255</v>
+        <v>1491</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="443" spans="1:6">
+      <c r="A443" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1494</v>
+      </c>
       <c r="C443" s="1" t="s">
-        <v>1127</v>
+        <v>1495</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>1128</v>
+        <v>1493</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>1129</v>
+        <v>1496</v>
+      </c>
+      <c r="F443" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="C444" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="C445" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="C446" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="D444" s="1" t="s">
+      <c r="D446" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="E444" s="1" t="s">
+      <c r="E446" s="1" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
-      <c r="A445" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E445" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="F445" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="A446" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C446" s="1" t="s">
+    <row r="447" spans="1:6">
+      <c r="A447" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="D446" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E446" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="F446" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6">
       <c r="C447" s="1" t="s">
         <v>1500</v>
       </c>
       <c r="D447" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E447" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="E447" s="1" t="s">
+      <c r="F447" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F448" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="C449" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E449" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
-      <c r="C448" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6">
-      <c r="A449" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D449" s="1" t="s">
+    <row r="450" spans="1:6">
+      <c r="C450" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="E449" s="1" t="s">
+      <c r="D450" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="F449" s="1">
+      <c r="E450" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F451" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
-      <c r="A450" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F450" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6">
-      <c r="C451" s="1" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D451" s="1" t="s">
+    <row r="452" spans="1:6">
+      <c r="A452" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="E451" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="452" spans="1:6">
       <c r="C452" s="1" t="s">
         <v>1518</v>
       </c>
@@ -14533,155 +14890,155 @@
       <c r="E452" s="1" t="s">
         <v>1520</v>
       </c>
+      <c r="F452" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="453" spans="1:6">
-      <c r="A453" s="1" t="s">
+      <c r="C453" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="D453" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="C453" s="1" t="s">
+      <c r="E453" s="1" t="s">
         <v>1523</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E453" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F453" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="C454" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D454" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="D454" s="1" t="s">
+      <c r="E454" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="E454" s="1" t="s">
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" s="1" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="455" spans="1:6">
+      <c r="B455" s="1" t="s">
+        <v>1528</v>
+      </c>
       <c r="C455" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>1530</v>
       </c>
+      <c r="F455" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="456" spans="1:6">
-      <c r="A456" s="1" t="s">
+      <c r="C456" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="D456" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="C456" s="1" t="s">
+      <c r="E456" s="1" t="s">
         <v>1533</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F456" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="C457" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E457" s="1" t="s">
         <v>1536</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C458" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C458" s="1" t="s">
+      <c r="D458" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="D458" s="1" t="s">
+      <c r="E458" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="E458" s="1" t="s">
-        <v>1542</v>
-      </c>
       <c r="F458" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459" spans="1:6">
       <c r="C459" s="1" t="s">
-        <v>1356</v>
+        <v>1542</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>1357</v>
+        <v>1543</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="460" spans="1:6">
+      <c r="A460" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1364</v>
+      </c>
       <c r="C460" s="1" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1546</v>
+        <v>1548</v>
+      </c>
+      <c r="F460" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="461" spans="1:6">
-      <c r="A461" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C461" s="3" t="s">
+      <c r="C461" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E461" s="1" t="s">
         <v>1549</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E461" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F461" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="C462" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E462" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="D462" s="1" t="s">
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="E462" s="1" t="s">
+      <c r="B463" s="1" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="463" spans="1:6">
-      <c r="C463" s="1" t="s">
+      <c r="C463" s="3" t="s">
         <v>1555</v>
       </c>
       <c r="D463" s="1" t="s">
@@ -14689,6 +15046,9 @@
       </c>
       <c r="E463" s="1" t="s">
         <v>1557</v>
+      </c>
+      <c r="F463" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -14703,88 +15063,80 @@
       </c>
     </row>
     <row r="465" spans="1:6">
-      <c r="A465" s="1" t="s">
+      <c r="C465" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="D465" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="C465" s="1" t="s">
+      <c r="E465" s="1" t="s">
         <v>1563</v>
-      </c>
-      <c r="D465" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="E465" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="F465">
-        <v>5</v>
       </c>
     </row>
     <row r="466" spans="1:6">
       <c r="C466" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F467">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="C468" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D466" s="1" t="s">
-        <v>1566</v>
-      </c>
-      <c r="E466" s="1" t="s">
+      <c r="D468" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E468" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F466"/>
-    </row>
-    <row r="467" spans="1:6">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
-      <c r="C467" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E467" s="2" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F467" s="2"/>
-    </row>
-    <row r="468" spans="1:6">
-      <c r="A468" s="2" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E468" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F468" s="2">
-        <v>9</v>
-      </c>
+      <c r="F468"/>
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E469" s="2" t="s">
         <v>1575</v>
       </c>
-      <c r="D469" s="2" t="s">
+      <c r="F469" s="2"/>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="E469" s="2" t="s">
+      <c r="B470" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="F469" s="2"/>
-    </row>
-    <row r="470" spans="1:6">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
       <c r="C470" s="2" t="s">
         <v>1578</v>
       </c>
@@ -14794,99 +15146,99 @@
       <c r="E470" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="F470" s="2"/>
+      <c r="F470" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="471" spans="1:6">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="2"/>
+      <c r="B471" s="2"/>
+      <c r="C471" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="D471" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="C471" s="2" t="s">
+      <c r="E471" s="2" t="s">
         <v>1583</v>
       </c>
-      <c r="D471" s="2" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E471" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="F471" s="2">
-        <v>9</v>
-      </c>
+      <c r="F471" s="2"/>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E472" s="2" t="s">
         <v>1586</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E472" s="2" t="s">
-        <v>1588</v>
       </c>
       <c r="F472" s="2"/>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>1589</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="D473" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="C473" s="2" t="s">
+      <c r="E473" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="D473" s="2" t="s">
+      <c r="F473" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" s="2"/>
+      <c r="B474" s="2"/>
+      <c r="C474" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="E473" s="2" t="s">
+      <c r="D474" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="F473" s="2">
+      <c r="E474" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F474" s="2"/>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F475" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
-      <c r="A474" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E474" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F474" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
-      <c r="C475" s="2" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D475" s="2" t="s">
+    <row r="476" spans="1:6">
+      <c r="A476" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="E475" s="2" t="s">
+      <c r="B476" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="F475" s="2"/>
-    </row>
-    <row r="476" spans="1:6">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
       <c r="C476" s="2" t="s">
         <v>1602</v>
       </c>
@@ -14896,79 +15248,79 @@
       <c r="E476" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="F476" s="2"/>
+      <c r="F476" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="477" spans="1:6">
-      <c r="A477" s="2" t="s">
+      <c r="A477" s="2"/>
+      <c r="B477" s="2"/>
+      <c r="C477" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="D477" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="C477" s="2" t="s">
+      <c r="E477" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="D477" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E477" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="F477" s="2">
-        <v>8</v>
-      </c>
+      <c r="F477" s="2"/>
     </row>
     <row r="478" spans="1:6">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E478" s="2" t="s">
         <v>1610</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E478" s="2" t="s">
-        <v>1612</v>
       </c>
       <c r="F478" s="2"/>
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C479" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="D479" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="C479" s="2" t="s">
+      <c r="E479" s="2" t="s">
         <v>1615</v>
       </c>
-      <c r="D479" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E479" s="2" t="s">
-        <v>1617</v>
-      </c>
       <c r="F479" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E480" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="D480" s="2" t="s">
+      <c r="F480" s="2"/>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="E480" s="2" t="s">
+      <c r="B481" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="F480" s="2"/>
-    </row>
-    <row r="481" spans="1:6">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
       <c r="C481" s="2" t="s">
         <v>1621</v>
       </c>
@@ -14978,19 +15330,21 @@
       <c r="E481" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="F481" s="2"/>
+      <c r="F481" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2" t="s">
-        <v>200</v>
+        <v>1624</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>201</v>
+        <v>1625</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="F482" s="2"/>
     </row>
@@ -14998,111 +15352,111 @@
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="F483" s="2"/>
     </row>
     <row r="484" spans="1:6">
-      <c r="A484" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>1629</v>
-      </c>
+      <c r="A484" s="2"/>
+      <c r="B484" s="2"/>
       <c r="C484" s="2" t="s">
-        <v>1618</v>
+        <v>200</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1619</v>
+        <v>201</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="F484" s="2">
-        <v>9</v>
-      </c>
+        <v>1630</v>
+      </c>
+      <c r="F484" s="2"/>
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="F485" s="2"/>
     </row>
     <row r="486" spans="1:6">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
+      <c r="A486" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1635</v>
+      </c>
       <c r="C486" s="2" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F486" s="2"/>
+        <v>1626</v>
+      </c>
+      <c r="F486" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="487" spans="1:6">
-      <c r="A487" s="2" t="s">
+      <c r="A487" s="2"/>
+      <c r="B487" s="2"/>
+      <c r="C487" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="D487" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="C487" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="D487" s="2" t="s">
-        <v>999</v>
-      </c>
       <c r="E487" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F487" s="2">
-        <v>9</v>
-      </c>
+        <v>1638</v>
+      </c>
+      <c r="F487" s="2"/>
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="F488" s="2"/>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
+      <c r="A489" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>1643</v>
+      </c>
       <c r="C489" s="2" t="s">
-        <v>1641</v>
+        <v>998</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1642</v>
+        <v>999</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F489" s="2"/>
+        <v>1000</v>
+      </c>
+      <c r="F489" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="2"/>
@@ -15133,52 +15487,52 @@
       <c r="F491" s="2"/>
     </row>
     <row r="492" spans="1:6">
-      <c r="A492" s="2" t="s">
+      <c r="A492" s="2"/>
+      <c r="B492" s="2"/>
+      <c r="C492" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="D492" s="2" t="s">
         <v>1651</v>
       </c>
-      <c r="C492" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D492" s="2" t="s">
-        <v>1153</v>
-      </c>
       <c r="E492" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F492" s="2">
-        <v>12</v>
-      </c>
+        <v>1652</v>
+      </c>
+      <c r="F492" s="2"/>
     </row>
     <row r="493" spans="1:6">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="F493" s="2"/>
     </row>
     <row r="494" spans="1:6">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
+      <c r="A494" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>1657</v>
+      </c>
       <c r="C494" s="2" t="s">
-        <v>1655</v>
+        <v>1152</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1656</v>
+        <v>1153</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F494" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="F494" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="2"/>
@@ -15251,52 +15605,52 @@
       <c r="F499" s="2"/>
     </row>
     <row r="500" spans="1:6">
-      <c r="A500" s="2" t="s">
+      <c r="A500" s="2"/>
+      <c r="B500" s="2"/>
+      <c r="C500" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="D500" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="C500" s="2" t="s">
+      <c r="E500" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="D500" s="2" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E500" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F500" s="2">
-        <v>8</v>
-      </c>
+      <c r="F500" s="2"/>
     </row>
     <row r="501" spans="1:6">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D501" s="2" t="s">
         <v>1677</v>
       </c>
-      <c r="D501" s="2" t="s">
+      <c r="E501" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="E501" s="2" t="s">
+      <c r="F501" s="2"/>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" s="2" t="s">
         <v>1679</v>
       </c>
-      <c r="F501" s="2"/>
-    </row>
-    <row r="502" spans="1:6">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
+      <c r="B502" s="2" t="s">
+        <v>1680</v>
+      </c>
       <c r="C502" s="2" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="F502" s="2"/>
+      <c r="F502" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="503" spans="1:6">
       <c r="A503" s="2"/>
@@ -15327,134 +15681,134 @@
       <c r="F504" s="2"/>
     </row>
     <row r="505" spans="1:6">
-      <c r="A505" s="2" t="s">
+      <c r="A505" s="2"/>
+      <c r="B505" s="2"/>
+      <c r="C505" s="2" t="s">
         <v>1689</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="D505" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="C505" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D505" s="2" t="s">
-        <v>1394</v>
-      </c>
       <c r="E505" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F505" s="2">
+        <v>1691</v>
+      </c>
+      <c r="F505" s="2"/>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" s="2"/>
+      <c r="B506" s="2"/>
+      <c r="C506" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F506" s="2"/>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F507" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
-      <c r="A506" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C506" s="2" t="s">
+    <row r="508" spans="1:6">
+      <c r="A508" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C508" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="D506" s="2" t="s">
+      <c r="D508" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="E506" s="2" t="s">
+      <c r="E508" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="F506" s="2">
+      <c r="F508" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
-      <c r="C507" s="2" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F507" s="2"/>
-    </row>
-    <row r="508" spans="1:6">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
-      <c r="C508" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="E508" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F508" s="2"/>
-    </row>
-    <row r="509" spans="1:6" ht="18.75">
+    <row r="509" spans="1:6">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
-      <c r="C509" s="4" t="s">
-        <v>1697</v>
+      <c r="C509" s="2" t="s">
+        <v>1699</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="F509" s="2"/>
     </row>
     <row r="510" spans="1:6">
-      <c r="A510" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B510" s="2" t="s">
-        <v>1701</v>
-      </c>
+      <c r="A510" s="2"/>
+      <c r="B510" s="2"/>
       <c r="C510" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E510" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="D510" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="E510" s="2" t="s">
-        <v>1703</v>
-      </c>
-      <c r="F510" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6">
+      <c r="F510" s="2"/>
+    </row>
+    <row r="511" spans="1:6" ht="18.75">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
-      <c r="C511" s="2" t="s">
+      <c r="C511" s="4" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D511" s="2" t="s">
         <v>1704</v>
       </c>
-      <c r="D511" s="2" t="s">
+      <c r="E511" s="2" t="s">
         <v>1705</v>
       </c>
-      <c r="E511" s="2" t="s">
+      <c r="F511" s="2"/>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="F511" s="2"/>
-    </row>
-    <row r="512" spans="1:6">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
+      <c r="B512" s="2" t="s">
+        <v>1707</v>
+      </c>
       <c r="C512" s="2" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="F512" s="2"/>
+      <c r="F512" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="513" spans="1:6">
       <c r="A513" s="2"/>
@@ -15499,62 +15853,60 @@
       <c r="F515" s="2"/>
     </row>
     <row r="516" spans="1:6">
-      <c r="A516" s="2" t="s">
+      <c r="A516" s="2"/>
+      <c r="B516" s="2"/>
+      <c r="C516" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="D516" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="C516" s="2" t="s">
+      <c r="E516" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="D516" s="2" t="s">
+      <c r="F516" s="2"/>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" s="2"/>
+      <c r="B517" s="2"/>
+      <c r="C517" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="E516" s="2" t="s">
+      <c r="D517" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="F516" s="2">
+      <c r="E517" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F517" s="2"/>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F518" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
-      <c r="A517" s="2" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B517" s="2" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C517" s="2" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>1727</v>
-      </c>
-      <c r="E517" s="2" t="s">
-        <v>1728</v>
-      </c>
-      <c r="F517" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="518" spans="1:6">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
-      <c r="C518" s="2" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D518" s="2" t="s">
+    <row r="519" spans="1:6">
+      <c r="A519" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="E518" s="2" t="s">
+      <c r="B519" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="F518" s="2"/>
-    </row>
-    <row r="519" spans="1:6" ht="18.75">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
       <c r="C519" s="2" t="s">
         <v>1732</v>
       </c>
@@ -15564,45 +15916,45 @@
       <c r="E519" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="F519" s="2"/>
+      <c r="F519" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="520" spans="1:6">
-      <c r="A520" s="2" t="s">
+      <c r="A520" s="2"/>
+      <c r="B520" s="2"/>
+      <c r="C520" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="D520" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="C520" s="2" t="s">
+      <c r="E520" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="D520" s="2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E520" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F520" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6">
+      <c r="F520" s="2"/>
+    </row>
+    <row r="521" spans="1:6" ht="18.75">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E521" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="D521" s="2" t="s">
+      <c r="F521" s="2"/>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="E521" s="2" t="s">
+      <c r="B522" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="F521" s="2"/>
-    </row>
-    <row r="522" spans="1:6" ht="18.75">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
       <c r="C522" s="2" t="s">
         <v>1743</v>
       </c>
@@ -15612,65 +15964,65 @@
       <c r="E522" s="2" t="s">
         <v>1745</v>
       </c>
-      <c r="F522" s="2"/>
+      <c r="F522" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="523" spans="1:6">
-      <c r="A523" s="2" t="s">
+      <c r="A523" s="2"/>
+      <c r="B523" s="2"/>
+      <c r="C523" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="B523" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C523" s="2" t="s">
+      <c r="D523" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="D523" s="2" t="s">
+      <c r="E523" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="E523" s="2" t="s">
+      <c r="F523" s="2"/>
+    </row>
+    <row r="524" spans="1:6" ht="18.75">
+      <c r="A524" s="2"/>
+      <c r="B524" s="2"/>
+      <c r="C524" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="F523" s="2">
+      <c r="D524" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F524" s="2"/>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F525" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
-      <c r="A524" s="2" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B524" s="2" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C524" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E524" s="2" t="s">
-        <v>1754</v>
-      </c>
-      <c r="F524" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
-      <c r="C525" s="2" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D525" s="2" t="s">
+    <row r="526" spans="1:6">
+      <c r="A526" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="E525" s="2" t="s">
+      <c r="B526" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="F525" s="2"/>
-    </row>
-    <row r="526" spans="1:6" ht="18.75">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
       <c r="C526" s="2" t="s">
         <v>1758</v>
       </c>
@@ -15680,99 +16032,107 @@
       <c r="E526" s="2" t="s">
         <v>1760</v>
       </c>
-      <c r="F526" s="2"/>
+      <c r="F526" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="527" spans="1:6">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="2"/>
+      <c r="B527" s="2"/>
+      <c r="C527" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="D527" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="C527" s="1" t="s">
+      <c r="E527" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="D527" s="1" t="s">
+      <c r="F527" s="2"/>
+    </row>
+    <row r="528" spans="1:6" ht="18.75">
+      <c r="A528" s="2"/>
+      <c r="B528" s="2"/>
+      <c r="C528" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="E527" s="1" t="s">
+      <c r="D528" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="F527" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="528" spans="1:6">
-      <c r="C528" s="1" t="s">
+      <c r="E528" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="D528" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="E528" s="1" t="s">
-        <v>1768</v>
-      </c>
+      <c r="F528" s="2"/>
     </row>
     <row r="529" spans="1:6">
       <c r="A529" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C529" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="D529" s="1" t="s">
         <v>1770</v>
       </c>
-      <c r="C529" s="1" t="s">
+      <c r="E529" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="D529" s="1" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E529" s="1" t="s">
+      <c r="F529" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="C530" s="1" t="s">
         <v>1772</v>
-      </c>
-      <c r="F529" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6">
-      <c r="A530" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>1775</v>
       </c>
       <c r="D530" s="1" t="s">
         <v>1773</v>
       </c>
       <c r="E530" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B531" s="1" t="s">
         <v>1776</v>
       </c>
-      <c r="F530" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6">
       <c r="C531" s="1" t="s">
         <v>1777</v>
       </c>
       <c r="D531" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E531" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="E531" s="1" t="s">
+      <c r="F531" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" s="1" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="532" spans="1:6">
+      <c r="B532" s="1" t="s">
+        <v>1780</v>
+      </c>
       <c r="C532" s="1" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>1782</v>
+      </c>
+      <c r="F532" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -15787,97 +16147,85 @@
       </c>
     </row>
     <row r="534" spans="1:6">
-      <c r="A534" s="1" t="s">
+      <c r="C534" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="D534" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="C534" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D534" s="1" t="s">
-        <v>1030</v>
-      </c>
       <c r="E534" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F534" s="1">
-        <v>6</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="535" spans="1:6">
       <c r="C535" s="1" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="536" spans="1:6">
       <c r="A536" s="1" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1793</v>
+        <v>1029</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1791</v>
+        <v>1030</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>1794</v>
+        <v>1031</v>
       </c>
       <c r="F536" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="537" spans="1:6">
-      <c r="A537" s="1" t="s">
+      <c r="C537" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D537" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="E537" s="1" t="s">
         <v>1796</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D537" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E537" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F537" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:6">
       <c r="A538" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>1799</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="D538" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E538" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="C538" s="1" t="s">
+      <c r="F538" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="A539" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="D538" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E538" s="1" t="s">
+      <c r="B539" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="F538" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6">
       <c r="C539" s="1" t="s">
         <v>1803</v>
       </c>
@@ -15885,99 +16233,105 @@
         <v>1804</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>1805</v>
+        <v>343</v>
+      </c>
+      <c r="F539" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="540" spans="1:6">
       <c r="A540" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B540" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="C540" s="1" t="s">
         <v>1807</v>
       </c>
-      <c r="C540" s="1" t="s">
+      <c r="D540" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E540" s="1" t="s">
         <v>1808</v>
       </c>
-      <c r="D540" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="E540" s="1" t="s">
+      <c r="F540" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="C541" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="F540" s="1">
+      <c r="D541" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
+      <c r="A542" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F542" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
-      <c r="A541" s="2" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B541" s="2" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E541" s="2" t="s">
-        <v>1814</v>
-      </c>
-      <c r="F541" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
-      <c r="C542" s="2" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D542" s="2" t="s">
+    <row r="543" spans="1:6">
+      <c r="A543" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="E542" s="2" t="s">
+      <c r="B543" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="F542" s="2"/>
-    </row>
-    <row r="543" spans="1:6">
-      <c r="A543" s="2"/>
-      <c r="B543" s="2"/>
       <c r="C543" s="2" t="s">
         <v>1818</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="F543" s="2"/>
+        <v>1820</v>
+      </c>
+      <c r="F543" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="544" spans="1:6">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="F544" s="2"/>
     </row>
-    <row r="545" spans="1:6" ht="18.75">
+    <row r="545" spans="1:6">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>1825</v>
@@ -15985,42 +16339,40 @@
       <c r="F545" s="2"/>
     </row>
     <row r="546" spans="1:6">
-      <c r="A546" s="2" t="s">
+      <c r="A546" s="2"/>
+      <c r="B546" s="2"/>
+      <c r="C546" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="D546" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="C546" s="2" t="s">
+      <c r="E546" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="D546" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E546" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="F546" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6">
+      <c r="F546" s="2"/>
+    </row>
+    <row r="547" spans="1:6" ht="18.75">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E547" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="D547" s="2" t="s">
+      <c r="F547" s="2"/>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" s="2" t="s">
         <v>1832</v>
       </c>
-      <c r="E547" s="2" t="s">
+      <c r="B548" s="2" t="s">
         <v>1833</v>
       </c>
-      <c r="F547" s="2"/>
-    </row>
-    <row r="548" spans="1:6">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
       <c r="C548" s="2" t="s">
         <v>1834</v>
       </c>
@@ -16030,9 +16382,11 @@
       <c r="E548" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="F548" s="2"/>
-    </row>
-    <row r="549" spans="1:6" ht="18.75">
+      <c r="F548" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2" t="s">
@@ -16047,42 +16401,40 @@
       <c r="F549" s="2"/>
     </row>
     <row r="550" spans="1:6">
-      <c r="A550" s="2" t="s">
+      <c r="A550" s="2"/>
+      <c r="B550" s="2"/>
+      <c r="C550" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="B550" s="2" t="s">
+      <c r="D550" s="2" t="s">
         <v>1841</v>
       </c>
-      <c r="C550" s="2" t="s">
+      <c r="E550" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="D550" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E550" s="2" t="s">
-        <v>1844</v>
-      </c>
-      <c r="F550" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6">
+      <c r="F550" s="2"/>
+    </row>
+    <row r="551" spans="1:6" ht="18.75">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E551" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="D551" s="2" t="s">
+      <c r="F551" s="2"/>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="E551" s="2" t="s">
+      <c r="B552" s="2" t="s">
         <v>1847</v>
       </c>
-      <c r="F551" s="2"/>
-    </row>
-    <row r="552" spans="1:6">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
       <c r="C552" s="2" t="s">
         <v>1848</v>
       </c>
@@ -16092,7 +16444,9 @@
       <c r="E552" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="F552" s="2"/>
+      <c r="F552" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="553" spans="1:6">
       <c r="A553" s="2"/>
@@ -16108,7 +16462,7 @@
       </c>
       <c r="F553" s="2"/>
     </row>
-    <row r="554" spans="1:6" ht="18.75">
+    <row r="554" spans="1:6">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2" t="s">
@@ -16123,74 +16477,68 @@
       <c r="F554" s="2"/>
     </row>
     <row r="555" spans="1:6">
-      <c r="A555" s="2" t="s">
+      <c r="A555" s="2"/>
+      <c r="B555" s="2"/>
+      <c r="C555" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="D555" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="C555" s="2" t="s">
+      <c r="E555" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="D555" s="2" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E555" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F555" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6">
+      <c r="F555" s="2"/>
+    </row>
+    <row r="556" spans="1:6" ht="18.75">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2" t="s">
-        <v>1680</v>
+        <v>1860</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>1681</v>
+        <v>1861</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>1682</v>
+        <v>1862</v>
       </c>
       <c r="F556" s="2"/>
     </row>
-    <row r="557" spans="1:6" ht="18.75">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
+    <row r="557" spans="1:6">
+      <c r="A557" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>1864</v>
+      </c>
       <c r="C557" s="2" t="s">
-        <v>1861</v>
+        <v>1865</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>1863</v>
-      </c>
-      <c r="F557" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F557" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="558" spans="1:6">
-      <c r="A558" s="2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B558" s="2" t="s">
-        <v>1865</v>
-      </c>
+      <c r="A558" s="2"/>
+      <c r="B558" s="2"/>
       <c r="C558" s="2" t="s">
-        <v>1652</v>
+        <v>1686</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>1653</v>
+        <v>1687</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1866</v>
-      </c>
-      <c r="F558" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6">
+        <v>1688</v>
+      </c>
+      <c r="F558" s="2"/>
+    </row>
+    <row r="559" spans="1:6" ht="18.75">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2" t="s">
@@ -16205,20 +16553,26 @@
       <c r="F559" s="2"/>
     </row>
     <row r="560" spans="1:6">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
+      <c r="A560" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1871</v>
+      </c>
       <c r="C560" s="2" t="s">
-        <v>1870</v>
+        <v>1658</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1871</v>
+        <v>1659</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="F560" s="2"/>
-    </row>
-    <row r="561" spans="1:6" ht="18.75">
+      <c r="F560" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2" t="s">
@@ -16233,146 +16587,152 @@
       <c r="F561" s="2"/>
     </row>
     <row r="562" spans="1:6">
-      <c r="A562" s="2" t="s">
+      <c r="A562" s="2"/>
+      <c r="B562" s="2"/>
+      <c r="C562" s="2" t="s">
         <v>1876</v>
       </c>
-      <c r="B562" s="2" t="s">
+      <c r="D562" s="2" t="s">
         <v>1877</v>
       </c>
-      <c r="C562" s="2" t="s">
+      <c r="E562" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="D562" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="E562" s="2" t="s">
-        <v>1880</v>
-      </c>
-      <c r="F562" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6">
+      <c r="F562" s="2"/>
+    </row>
+    <row r="563" spans="1:6" ht="18.75">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E563" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="D563" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="E563" s="2" t="s">
+      <c r="F563" s="2"/>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="F563" s="2"/>
-    </row>
-    <row r="564" spans="1:6">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
+      <c r="B564" s="2" t="s">
+        <v>1883</v>
+      </c>
       <c r="C564" s="2" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E564" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F564" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565" s="2"/>
+      <c r="B565" s="2"/>
+      <c r="C565" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D565" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="F564" s="2"/>
-    </row>
-    <row r="565" spans="1:6">
-      <c r="A565" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C565" s="1" t="s">
+      <c r="E565" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="D565" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E565" s="1" t="s">
+      <c r="F565" s="2"/>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566" s="2"/>
+      <c r="B566" s="2"/>
+      <c r="C566" s="2" t="s">
         <v>1889</v>
       </c>
-      <c r="F565" s="1">
+      <c r="D566" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F566" s="2"/>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F567" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6">
-      <c r="C566" s="1" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D566" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E566" s="1" t="s">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6">
-      <c r="C567" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D567" s="1" t="s">
-        <v>1893</v>
-      </c>
-      <c r="E567" s="1" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="568" spans="1:6">
       <c r="C568" s="1" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="E568" s="1" t="s">
         <v>1897</v>
       </c>
     </row>
     <row r="569" spans="1:6">
-      <c r="A569" s="1" t="s">
+      <c r="C569" s="1" t="s">
         <v>1898</v>
       </c>
-      <c r="B569" s="1" t="s">
+      <c r="D569" s="1" t="s">
         <v>1899</v>
       </c>
-      <c r="C569" s="1" t="s">
+      <c r="E569" s="1" t="s">
         <v>1900</v>
-      </c>
-      <c r="D569" s="1" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E569" s="1" t="s">
-        <v>1901</v>
-      </c>
-      <c r="F569" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="570" spans="1:6">
       <c r="C570" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D570" s="1" t="s">
         <v>1902</v>
       </c>
-      <c r="D570" s="1" t="s">
+      <c r="E570" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="E570" s="1" t="s">
+    </row>
+    <row r="571" spans="1:6">
+      <c r="A571" s="1" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="571" spans="1:6">
+      <c r="B571" s="1" t="s">
+        <v>1905</v>
+      </c>
       <c r="C571" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="E571" s="1" t="s">
         <v>1907</v>
+      </c>
+      <c r="F571" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -16387,264 +16747,255 @@
       </c>
     </row>
     <row r="573" spans="1:6">
-      <c r="A573" s="1" t="s">
+      <c r="C573" s="1" t="s">
         <v>1911</v>
       </c>
-      <c r="B573" s="1" t="s">
+      <c r="D573" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="C573" s="1" t="s">
+      <c r="E573" s="1" t="s">
         <v>1913</v>
-      </c>
-      <c r="D573" s="1" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E573" s="1" t="s">
-        <v>1915</v>
-      </c>
-      <c r="F573" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="574" spans="1:6">
       <c r="C574" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E574" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="D574" s="1" t="s">
-        <v>1911</v>
-      </c>
-      <c r="E574" s="1" t="s">
+    </row>
+    <row r="575" spans="1:6">
+      <c r="A575" s="1" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="575" spans="1:6">
+      <c r="B575" s="1" t="s">
+        <v>1918</v>
+      </c>
       <c r="C575" s="1" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
+      </c>
+      <c r="F575" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="576" spans="1:6">
       <c r="C576" s="1" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="E576" s="1" t="s">
         <v>1923</v>
       </c>
     </row>
     <row r="577" spans="1:6">
-      <c r="A577" s="1" t="s">
+      <c r="C577" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="B577" s="1" t="s">
+      <c r="D577" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="C577" s="1" t="s">
+      <c r="E577" s="1" t="s">
         <v>1926</v>
-      </c>
-      <c r="D577" s="1" t="s">
-        <v>1924</v>
-      </c>
-      <c r="E577" s="1" t="s">
-        <v>1927</v>
-      </c>
-      <c r="F577" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="578" spans="1:6">
       <c r="C578" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D578" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="D578" s="1" t="s">
+      <c r="E578" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="E578" s="1" t="s">
-        <v>1910</v>
-      </c>
     </row>
     <row r="579" spans="1:6">
+      <c r="A579" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1931</v>
+      </c>
       <c r="C579" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D579" s="1" t="s">
         <v>1930</v>
       </c>
-      <c r="D579" s="1" t="s">
-        <v>1931</v>
-      </c>
       <c r="E579" s="1" t="s">
-        <v>1932</v>
+        <v>1933</v>
+      </c>
+      <c r="F579" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="580" spans="1:6">
-      <c r="A580" s="1" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B580" s="1" t="s">
+      <c r="C580" s="1" t="s">
         <v>1934</v>
       </c>
-      <c r="C580" s="1" t="s">
+      <c r="D580" s="1" t="s">
         <v>1935</v>
       </c>
-      <c r="D580" s="1" t="s">
-        <v>1933</v>
-      </c>
       <c r="E580" s="1" t="s">
-        <v>1936</v>
-      </c>
-      <c r="F580" s="1">
-        <v>5</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="581" spans="1:6">
       <c r="C581" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D581" s="1" t="s">
         <v>1937</v>
       </c>
-      <c r="D581" s="1" t="s">
+      <c r="E581" s="1" t="s">
         <v>1938</v>
       </c>
-      <c r="E581" s="1" t="s">
+    </row>
+    <row r="582" spans="1:6">
+      <c r="A582" s="1" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="582" spans="1:6">
+      <c r="B582" s="1" t="s">
+        <v>1940</v>
+      </c>
       <c r="C582" s="1" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="E582" s="1" t="s">
         <v>1942</v>
       </c>
+      <c r="F582" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="583" spans="1:6">
-      <c r="A583" s="1" t="s">
+      <c r="C583" s="1" t="s">
         <v>1943</v>
       </c>
-      <c r="B583" s="1" t="s">
+      <c r="D583" s="1" t="s">
         <v>1944</v>
       </c>
-      <c r="C583" s="1" t="s">
+      <c r="E583" s="1" t="s">
         <v>1945</v>
-      </c>
-      <c r="D583" s="1" t="s">
-        <v>1943</v>
-      </c>
-      <c r="E583" s="1" t="s">
-        <v>1946</v>
-      </c>
-      <c r="F583" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="584" spans="1:6">
       <c r="C584" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D584" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="D584" s="1" t="s">
+      <c r="E584" s="1" t="s">
         <v>1948</v>
-      </c>
-      <c r="E584" s="1" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="585" spans="1:6">
       <c r="A585" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B585" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="B585" s="1" t="s">
+      <c r="C585" s="1" t="s">
         <v>1951</v>
       </c>
-      <c r="C585" s="1" t="s">
+      <c r="D585" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E585" s="1" t="s">
         <v>1952</v>
       </c>
-      <c r="D585" s="1" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E585" s="1" t="s">
-        <v>1953</v>
-      </c>
       <c r="F585" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="586" spans="1:6">
       <c r="C586" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D586" s="1" t="s">
         <v>1954</v>
       </c>
-      <c r="D586" s="1" t="s">
+      <c r="E586" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="E586" s="1" t="s">
+    </row>
+    <row r="587" spans="1:6">
+      <c r="A587" s="1" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="587" spans="1:6">
+      <c r="B587" s="1" t="s">
+        <v>1957</v>
+      </c>
       <c r="C587" s="1" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="E587" s="1" t="s">
         <v>1959</v>
       </c>
+      <c r="F587" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="588" spans="1:6">
-      <c r="A588" s="1" t="s">
+      <c r="C588" s="1" t="s">
         <v>1960</v>
       </c>
-      <c r="B588" s="1" t="s">
+      <c r="D588" s="1" t="s">
         <v>1961</v>
       </c>
-      <c r="C588" s="1" t="s">
+      <c r="E588" s="1" t="s">
         <v>1962</v>
-      </c>
-      <c r="D588" s="1" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E588" s="1" t="s">
-        <v>1963</v>
-      </c>
-      <c r="F588" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="589" spans="1:6">
       <c r="C589" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D589" s="1" t="s">
         <v>1964</v>
       </c>
-      <c r="D589" s="1" t="s">
+      <c r="E589" s="1" t="s">
         <v>1965</v>
-      </c>
-      <c r="E589" s="1" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="590" spans="1:6">
       <c r="A590" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B590" s="1" t="s">
         <v>1967</v>
       </c>
-      <c r="B590" s="1" t="s">
+      <c r="C590" s="1" t="s">
         <v>1968</v>
       </c>
-      <c r="C590" s="1" t="s">
+      <c r="D590" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E590" s="1" t="s">
         <v>1969</v>
       </c>
-      <c r="D590" s="1" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E590" s="1" t="s">
-        <v>1968</v>
-      </c>
       <c r="F590" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -16659,34 +17010,34 @@
       </c>
     </row>
     <row r="592" spans="1:6">
+      <c r="A592" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1974</v>
+      </c>
       <c r="C592" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D592" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="D592" s="1" t="s">
+      <c r="E592" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="E592" s="1" t="s">
-        <v>1975</v>
+      <c r="F592" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="593" spans="1:6">
-      <c r="A593" s="1" t="s">
+      <c r="C593" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="B593" s="1" t="s">
+      <c r="D593" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="C593" s="1" t="s">
+      <c r="E593" s="1" t="s">
         <v>1978</v>
-      </c>
-      <c r="D593" s="1" t="s">
-        <v>1976</v>
-      </c>
-      <c r="E593" s="1" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F593" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -16714,41 +17065,41 @@
         <v>1982</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="F595" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="596" spans="1:6">
       <c r="C596" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D596" s="1" t="s">
         <v>1986</v>
       </c>
-      <c r="D596" s="1" t="s">
+      <c r="E596" s="1" t="s">
         <v>1987</v>
-      </c>
-      <c r="E596" s="1" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="597" spans="1:6">
       <c r="A597" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B597" s="1" t="s">
         <v>1989</v>
       </c>
-      <c r="B597" s="1" t="s">
+      <c r="C597" s="1" t="s">
         <v>1990</v>
       </c>
-      <c r="C597" s="1" t="s">
+      <c r="D597" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E597" s="1" t="s">
         <v>1991</v>
       </c>
-      <c r="D597" s="1" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E597" s="1" t="s">
-        <v>1990</v>
-      </c>
       <c r="F597" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -16763,34 +17114,34 @@
       </c>
     </row>
     <row r="599" spans="1:6">
+      <c r="A599" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1996</v>
+      </c>
       <c r="C599" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D599" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="D599" s="1" t="s">
+      <c r="E599" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="E599" s="1" t="s">
-        <v>1997</v>
+      <c r="F599" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="600" spans="1:6">
-      <c r="A600" s="1" t="s">
+      <c r="C600" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="B600" s="1" t="s">
+      <c r="D600" s="1" t="s">
         <v>1999</v>
       </c>
-      <c r="C600" s="1" t="s">
+      <c r="E600" s="1" t="s">
         <v>2000</v>
-      </c>
-      <c r="D600" s="1" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E600" s="1" t="s">
-        <v>1999</v>
-      </c>
-      <c r="F600" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -16805,34 +17156,34 @@
       </c>
     </row>
     <row r="602" spans="1:6">
+      <c r="A602" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>2005</v>
+      </c>
       <c r="C602" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D602" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="D602" s="1" t="s">
+      <c r="E602" s="1" t="s">
         <v>2005</v>
       </c>
-      <c r="E602" s="1" t="s">
-        <v>2006</v>
+      <c r="F602" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="603" spans="1:6">
-      <c r="A603" s="1" t="s">
+      <c r="C603" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="B603" s="1" t="s">
+      <c r="D603" s="1" t="s">
         <v>2008</v>
       </c>
-      <c r="C603" s="1" t="s">
+      <c r="E603" s="1" t="s">
         <v>2009</v>
-      </c>
-      <c r="D603" s="1" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E603" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="F603" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -16847,56 +17198,65 @@
       </c>
     </row>
     <row r="605" spans="1:6">
+      <c r="A605" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>2014</v>
+      </c>
       <c r="C605" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D605" s="1" t="s">
         <v>2013</v>
       </c>
-      <c r="D605" s="1" t="s">
+      <c r="E605" s="1" t="s">
         <v>2014</v>
       </c>
-      <c r="E605" s="1" t="s">
-        <v>2015</v>
+      <c r="F605" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="606" spans="1:6">
-      <c r="A606" s="1" t="s">
+      <c r="C606" s="1" t="s">
         <v>2016</v>
       </c>
-      <c r="B606" s="1" t="s">
+      <c r="D606" s="1" t="s">
         <v>2017</v>
       </c>
-      <c r="C606" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D606" s="1" t="s">
-        <v>1354</v>
-      </c>
       <c r="E606" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F606" s="1">
-        <v>4</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="607" spans="1:6">
       <c r="C607" s="1" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="608" spans="1:6">
+      <c r="A608" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>2023</v>
+      </c>
       <c r="C608" s="1" t="s">
-        <v>2021</v>
+        <v>1359</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>2022</v>
+        <v>1360</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>2023</v>
+        <v>1361</v>
+      </c>
+      <c r="F608" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -16911,45 +17271,45 @@
       </c>
     </row>
     <row r="610" spans="1:6">
-      <c r="A610" s="1" t="s">
+      <c r="C610" s="1" t="s">
         <v>2027</v>
       </c>
-      <c r="B610" s="1" t="s">
+      <c r="D610" s="1" t="s">
         <v>2028</v>
       </c>
-      <c r="C610" s="1" t="s">
+      <c r="E610" s="1" t="s">
         <v>2029</v>
-      </c>
-      <c r="D610" s="1" t="s">
-        <v>2027</v>
-      </c>
-      <c r="E610" s="1" t="s">
-        <v>2030</v>
-      </c>
-      <c r="F610" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="611" spans="1:6">
       <c r="C611" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D611" s="1" t="s">
         <v>2031</v>
       </c>
-      <c r="D611" s="1" t="s">
+      <c r="E611" s="1" t="s">
         <v>2032</v>
       </c>
-      <c r="E611" s="1" t="s">
+    </row>
+    <row r="612" spans="1:6">
+      <c r="A612" s="1" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="612" spans="1:6">
+      <c r="B612" s="1" t="s">
+        <v>2034</v>
+      </c>
       <c r="C612" s="1" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="E612" s="1" t="s">
         <v>2036</v>
+      </c>
+      <c r="F612" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -16975,90 +17335,87 @@
       </c>
     </row>
     <row r="615" spans="1:6">
-      <c r="A615" s="1" t="s">
+      <c r="C615" s="1" t="s">
         <v>2043</v>
       </c>
-      <c r="B615" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C615" s="1" t="s">
+      <c r="D615" s="1" t="s">
         <v>2044</v>
       </c>
-      <c r="D615" s="1" t="s">
+      <c r="E615" s="1" t="s">
         <v>2045</v>
-      </c>
-      <c r="E615" s="1" t="s">
-        <v>2046</v>
-      </c>
-      <c r="F615" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="616" spans="1:6">
       <c r="C616" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D616" s="1" t="s">
         <v>2047</v>
       </c>
-      <c r="D616" s="1" t="s">
+      <c r="E616" s="1" t="s">
         <v>2048</v>
-      </c>
-      <c r="E616" s="1" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="617" spans="1:6">
       <c r="A617" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C617" s="1" t="s">
         <v>2050</v>
       </c>
-      <c r="B617" s="1" t="s">
+      <c r="D617" s="1" t="s">
         <v>2051</v>
       </c>
-      <c r="C617" s="1" t="s">
+      <c r="E617" s="1" t="s">
         <v>2052</v>
-      </c>
-      <c r="D617" s="1" t="s">
-        <v>2053</v>
-      </c>
-      <c r="E617" s="1" t="s">
-        <v>2054</v>
       </c>
       <c r="F617" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="618" spans="1:6">
-      <c r="A618" s="1" t="s">
+      <c r="C618" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E618" s="1" t="s">
         <v>2055</v>
       </c>
-      <c r="B618" s="1" t="s">
+    </row>
+    <row r="619" spans="1:6">
+      <c r="A619" s="1" t="s">
         <v>2056</v>
       </c>
-      <c r="C618" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D618" s="1" t="s">
+      <c r="B619" s="1" t="s">
         <v>2057</v>
       </c>
-      <c r="E618" s="1" t="s">
+      <c r="C619" s="1" t="s">
         <v>2058</v>
       </c>
-      <c r="F618" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="619" spans="1:6">
-      <c r="C619" s="1" t="s">
+      <c r="D619" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="D619" s="1" t="s">
+      <c r="E619" s="1" t="s">
         <v>2060</v>
       </c>
-      <c r="E619" s="1" t="s">
+      <c r="F619" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6">
+      <c r="A620" s="1" t="s">
         <v>2061</v>
       </c>
-    </row>
-    <row r="620" spans="1:6">
+      <c r="B620" s="1" t="s">
+        <v>2062</v>
+      </c>
       <c r="C620" s="1" t="s">
-        <v>2062</v>
+        <v>1310</v>
       </c>
       <c r="D620" s="1" t="s">
         <v>2063</v>
@@ -17066,39 +17423,39 @@
       <c r="E620" s="1" t="s">
         <v>2064</v>
       </c>
+      <c r="F620" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="621" spans="1:6">
-      <c r="A621" s="1" t="s">
+      <c r="C621" s="1" t="s">
         <v>2065</v>
       </c>
-      <c r="B621" s="1" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C621" s="1" t="s">
+      <c r="D621" s="1" t="s">
         <v>2066</v>
       </c>
-      <c r="D621" s="1" t="s">
+      <c r="E621" s="1" t="s">
         <v>2067</v>
-      </c>
-      <c r="E621" s="1" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F621" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="622" spans="1:6">
       <c r="C622" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D622" s="1" t="s">
         <v>2069</v>
       </c>
-      <c r="D622" s="1" t="s">
+      <c r="E622" s="1" t="s">
         <v>2070</v>
       </c>
-      <c r="E622" s="1" t="s">
+    </row>
+    <row r="623" spans="1:6">
+      <c r="A623" s="1" t="s">
         <v>2071</v>
       </c>
-    </row>
-    <row r="623" spans="1:6">
+      <c r="B623" s="1" t="s">
+        <v>1847</v>
+      </c>
       <c r="C623" s="1" t="s">
         <v>2072</v>
       </c>
@@ -17108,199 +17465,199 @@
       <c r="E623" s="1" t="s">
         <v>2074</v>
       </c>
-    </row>
-    <row r="624" spans="1:6" ht="18.75">
-      <c r="A624" s="2" t="s">
+      <c r="F623" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6">
+      <c r="C624" s="1" t="s">
         <v>2075</v>
       </c>
-      <c r="B624" s="2" t="s">
+      <c r="D624" s="1" t="s">
         <v>2076</v>
       </c>
-      <c r="C624" s="2" t="s">
+      <c r="E624" s="1" t="s">
         <v>2077</v>
       </c>
-      <c r="D624" s="2" t="s">
+    </row>
+    <row r="625" spans="1:6">
+      <c r="C625" s="1" t="s">
         <v>2078</v>
       </c>
-      <c r="E624" s="2" t="s">
+      <c r="D625" s="1" t="s">
         <v>2079</v>
       </c>
-      <c r="F624" s="2">
+      <c r="E625" s="1" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" ht="18.75">
+      <c r="A626" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F626" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="18.75">
-      <c r="A625" s="2"/>
-      <c r="B625" s="2"/>
-      <c r="C625" s="2" t="s">
-        <v>2080</v>
-      </c>
-      <c r="D625" s="2" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E625" s="2" t="s">
-        <v>2082</v>
-      </c>
-      <c r="F625" s="2"/>
-    </row>
-    <row r="626" spans="1:6">
-      <c r="A626" s="1" t="s">
-        <v>2083</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>2084</v>
-      </c>
-      <c r="C626" s="1" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D626" s="1" t="s">
+    <row r="627" spans="1:6" ht="18.75">
+      <c r="A627" s="2"/>
+      <c r="B627" s="2"/>
+      <c r="C627" s="2" t="s">
         <v>2086</v>
       </c>
-      <c r="E626" s="1" t="s">
+      <c r="D627" s="2" t="s">
         <v>2087</v>
       </c>
-      <c r="F626" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6">
-      <c r="C627" s="1" t="s">
+      <c r="E627" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="D627" s="1" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E627" s="1" t="s">
-        <v>2090</v>
-      </c>
+      <c r="F627" s="2"/>
     </row>
     <row r="628" spans="1:6">
       <c r="A628" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C628" s="1" t="s">
         <v>2091</v>
       </c>
-      <c r="B628" s="1" t="s">
+      <c r="D628" s="1" t="s">
         <v>2092</v>
-      </c>
-      <c r="C628" s="1" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D628" s="1" t="s">
-        <v>1753</v>
       </c>
       <c r="E628" s="1" t="s">
         <v>2093</v>
       </c>
       <c r="F628" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="629" spans="1:6">
       <c r="C629" s="1" t="s">
-        <v>2085</v>
+        <v>2094</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>2086</v>
+        <v>2095</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>2087</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="630" spans="1:6">
+      <c r="A630" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>2098</v>
+      </c>
       <c r="C630" s="1" t="s">
-        <v>2094</v>
+        <v>1758</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>2095</v>
+        <v>1759</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>2096</v>
+        <v>2099</v>
+      </c>
+      <c r="F630" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="631" spans="1:6">
-      <c r="A631" s="1" t="s">
-        <v>2097</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>2098</v>
-      </c>
       <c r="C631" s="1" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>2101</v>
-      </c>
-      <c r="F631" s="1">
-        <v>12</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="632" spans="1:6">
       <c r="C632" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E632" s="1" t="s">
         <v>2102</v>
       </c>
-      <c r="D632" s="1" t="s">
+    </row>
+    <row r="633" spans="1:6">
+      <c r="A633" s="1" t="s">
         <v>2103</v>
       </c>
-      <c r="E632" s="1" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6">
+      <c r="B633" s="1" t="s">
+        <v>2104</v>
+      </c>
       <c r="C633" s="1" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>2106</v>
+        <v>2107</v>
+      </c>
+      <c r="F633" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="634" spans="1:6">
       <c r="C634" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E634" s="1" t="s">
         <v>2107</v>
       </c>
-      <c r="D634" s="1" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E634" s="1" t="s">
-        <v>2109</v>
-      </c>
     </row>
     <row r="635" spans="1:6">
-      <c r="A635" s="1" t="s">
+      <c r="C635" s="1" t="s">
         <v>2110</v>
       </c>
-      <c r="B635" s="1" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C635" s="1" t="s">
+      <c r="D635" s="1" t="s">
         <v>2111</v>
       </c>
-      <c r="D635" s="1" t="s">
+      <c r="E635" s="1" t="s">
         <v>2112</v>
-      </c>
-      <c r="E635" s="1" t="s">
-        <v>2113</v>
-      </c>
-      <c r="F635" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="636" spans="1:6">
       <c r="C636" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D636" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="D636" s="1" t="s">
+      <c r="E636" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="E636" s="1" t="s">
+    </row>
+    <row r="637" spans="1:6">
+      <c r="A637" s="1" t="s">
         <v>2116</v>
       </c>
-    </row>
-    <row r="637" spans="1:6">
+      <c r="B637" s="1" t="s">
+        <v>1893</v>
+      </c>
       <c r="C637" s="1" t="s">
         <v>2117</v>
       </c>
@@ -17310,50 +17667,50 @@
       <c r="E637" s="1" t="s">
         <v>2119</v>
       </c>
+      <c r="F637" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="638" spans="1:6">
       <c r="C638" s="1" t="s">
-        <v>1801</v>
+        <v>2120</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="639" spans="1:6">
-      <c r="A639" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="B639" s="1" t="s">
+      <c r="C639" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="C639" s="1" t="s">
+      <c r="D639" s="1" t="s">
         <v>2124</v>
       </c>
-      <c r="D639" s="1" t="s">
+      <c r="E639" s="1" t="s">
         <v>2125</v>
-      </c>
-      <c r="E639" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="F639" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="640" spans="1:6">
       <c r="C640" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E640" s="1" t="s">
         <v>2127</v>
       </c>
-      <c r="D640" s="1" t="s">
+    </row>
+    <row r="641" spans="1:6">
+      <c r="A641" s="1" t="s">
         <v>2128</v>
       </c>
-      <c r="E640" s="1" t="s">
+      <c r="B641" s="1" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="641" spans="1:6">
       <c r="C641" s="1" t="s">
         <v>2130</v>
       </c>
@@ -17362,6 +17719,9 @@
       </c>
       <c r="E641" s="1" t="s">
         <v>2132</v>
+      </c>
+      <c r="F641" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -17376,37 +17736,34 @@
       </c>
     </row>
     <row r="643" spans="1:6">
-      <c r="A643" s="1" t="s">
+      <c r="C643" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="B643" s="1" t="s">
+      <c r="D643" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="C643" s="1" t="s">
+      <c r="E643" s="1" t="s">
         <v>2138</v>
-      </c>
-      <c r="D643" s="1" t="s">
-        <v>2139</v>
-      </c>
-      <c r="E643" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="F643" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="644" spans="1:6">
       <c r="C644" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E644" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="D644" s="1" t="s">
+    </row>
+    <row r="645" spans="1:6">
+      <c r="A645" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="E644" s="1" t="s">
+      <c r="B645" s="1" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="645" spans="1:6">
       <c r="C645" s="1" t="s">
         <v>2144</v>
       </c>
@@ -17415,6 +17772,9 @@
       </c>
       <c r="E645" s="1" t="s">
         <v>2146</v>
+      </c>
+      <c r="F645" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -17436,63 +17796,60 @@
         <v>2151</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>414</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="648" spans="1:6">
       <c r="C648" s="1" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="649" spans="1:6">
       <c r="C649" s="1" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>2157</v>
+        <v>414</v>
       </c>
     </row>
     <row r="650" spans="1:6">
-      <c r="A650" s="1" t="s">
+      <c r="C650" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="B650" s="1" t="s">
+      <c r="D650" s="1" t="s">
         <v>2159</v>
       </c>
-      <c r="C650" s="1" t="s">
+      <c r="E650" s="1" t="s">
         <v>2160</v>
-      </c>
-      <c r="D650" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="E650" s="1" t="s">
-        <v>2162</v>
-      </c>
-      <c r="F650" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="651" spans="1:6">
       <c r="C651" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E651" s="1" t="s">
         <v>2163</v>
       </c>
-      <c r="D651" s="1" t="s">
+    </row>
+    <row r="652" spans="1:6">
+      <c r="A652" s="1" t="s">
         <v>2164</v>
       </c>
-      <c r="E651" s="1" t="s">
+      <c r="B652" s="1" t="s">
         <v>2165</v>
       </c>
-    </row>
-    <row r="652" spans="1:6">
       <c r="C652" s="1" t="s">
         <v>2166</v>
       </c>
@@ -17501,6 +17858,9 @@
       </c>
       <c r="E652" s="1" t="s">
         <v>2168</v>
+      </c>
+      <c r="F652" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -17515,88 +17875,85 @@
       </c>
     </row>
     <row r="654" spans="1:6">
-      <c r="A654" s="1" t="s">
+      <c r="C654" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="B654" s="1" t="s">
+      <c r="D654" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="C654" s="1" t="s">
+      <c r="E654" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6">
+      <c r="C655" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6">
+      <c r="A656" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C656" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D654" s="1" t="s">
+      <c r="D656" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="E654" s="1" t="s">
+      <c r="E656" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="F654" s="1">
+      <c r="F656" s="1">
         <v>14</v>
-      </c>
-    </row>
-    <row r="655" spans="1:6">
-      <c r="A655" s="1" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>2175</v>
-      </c>
-      <c r="C655" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D655" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E655" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F655" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="656" spans="1:6">
-      <c r="C656" s="1" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D656" s="1" t="s">
-        <v>2177</v>
-      </c>
-      <c r="E656" s="1" t="s">
-        <v>2178</v>
       </c>
     </row>
     <row r="657" spans="1:6">
       <c r="A657" s="1" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>2181</v>
+        <v>401</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>2182</v>
+        <v>402</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>2183</v>
+        <v>403</v>
       </c>
       <c r="F657" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="658" spans="1:6">
       <c r="C658" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E658" s="1" t="s">
         <v>2184</v>
       </c>
-      <c r="D658" s="1" t="s">
+    </row>
+    <row r="659" spans="1:6">
+      <c r="A659" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="E658" s="1" t="s">
+      <c r="B659" s="1" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="659" spans="1:6">
       <c r="C659" s="1" t="s">
         <v>2187</v>
       </c>
@@ -17606,47 +17963,50 @@
       <c r="E659" s="1" t="s">
         <v>2189</v>
       </c>
+      <c r="F659" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="660" spans="1:6">
-      <c r="A660" s="1" t="s">
+      <c r="C660" s="1" t="s">
         <v>2190</v>
       </c>
-      <c r="B660" s="1" t="s">
+      <c r="D660" s="1" t="s">
         <v>2191</v>
       </c>
-      <c r="C660" s="1" t="s">
+      <c r="E660" s="1" t="s">
         <v>2192</v>
-      </c>
-      <c r="D660" s="1" t="s">
-        <v>2190</v>
-      </c>
-      <c r="E660" s="1" t="s">
-        <v>2193</v>
-      </c>
-      <c r="F660" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="661" spans="1:6">
       <c r="C661" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D661" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="D661" s="1" t="s">
+      <c r="E661" s="1" t="s">
         <v>2195</v>
       </c>
-      <c r="E661" s="1" t="s">
+    </row>
+    <row r="662" spans="1:6">
+      <c r="A662" s="1" t="s">
         <v>2196</v>
       </c>
-    </row>
-    <row r="662" spans="1:6">
+      <c r="B662" s="1" t="s">
+        <v>2197</v>
+      </c>
       <c r="C662" s="1" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="E662" s="1" t="s">
         <v>2199</v>
+      </c>
+      <c r="F662" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -17661,141 +18021,138 @@
       </c>
     </row>
     <row r="664" spans="1:6">
-      <c r="A664" s="1" t="s">
+      <c r="C664" s="1" t="s">
         <v>2203</v>
       </c>
-      <c r="B664" s="1" t="s">
+      <c r="D664" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="C664" s="1" t="s">
+      <c r="E664" s="1" t="s">
         <v>2205</v>
-      </c>
-      <c r="D664" s="1" t="s">
-        <v>2203</v>
-      </c>
-      <c r="E664" s="1" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F664" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="665" spans="1:6">
       <c r="C665" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D665" s="1" t="s">
         <v>2207</v>
       </c>
-      <c r="D665" s="1" t="s">
+      <c r="E665" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="E665" s="1" t="s">
+    </row>
+    <row r="666" spans="1:6">
+      <c r="A666" s="1" t="s">
         <v>2209</v>
       </c>
-    </row>
-    <row r="666" spans="1:6">
+      <c r="B666" s="1" t="s">
+        <v>2210</v>
+      </c>
       <c r="C666" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="E666" s="1" t="s">
         <v>2212</v>
       </c>
+      <c r="F666" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="667" spans="1:6">
-      <c r="A667" s="1" t="s">
+      <c r="C667" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="B667" s="1" t="s">
+      <c r="D667" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="C667" s="1" t="s">
+      <c r="E667" s="1" t="s">
         <v>2215</v>
-      </c>
-      <c r="D667" s="1" t="s">
-        <v>2216</v>
-      </c>
-      <c r="E667" s="1" t="s">
-        <v>2217</v>
-      </c>
-      <c r="F667" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="668" spans="1:6">
       <c r="C668" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E668" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="D668" s="1" t="s">
-        <v>2219</v>
-      </c>
-      <c r="E668" s="1" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="669" spans="1:6">
       <c r="A669" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C669" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="B669" s="1" t="s">
+      <c r="D669" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="C669" s="1" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D669" s="1" t="s">
-        <v>1804</v>
-      </c>
       <c r="E669" s="1" t="s">
-        <v>1805</v>
+        <v>2223</v>
       </c>
       <c r="F669" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="670" spans="1:6">
       <c r="C670" s="1" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="671" spans="1:6">
       <c r="A671" s="1" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>2227</v>
+        <v>1809</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>2228</v>
+        <v>1810</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>2229</v>
+        <v>1811</v>
       </c>
       <c r="F671" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="672" spans="1:6">
       <c r="C672" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E672" s="1" t="s">
         <v>2230</v>
       </c>
-      <c r="D672" s="1" t="s">
+    </row>
+    <row r="673" spans="1:6">
+      <c r="A673" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="E672" s="1" t="s">
+      <c r="B673" s="1" t="s">
         <v>2232</v>
       </c>
-    </row>
-    <row r="673" spans="1:6">
       <c r="C673" s="1" t="s">
         <v>2233</v>
       </c>
@@ -17805,59 +18162,59 @@
       <c r="E673" s="1" t="s">
         <v>2235</v>
       </c>
+      <c r="F673" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="674" spans="1:6">
-      <c r="A674" s="1" t="s">
+      <c r="C674" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="B674" s="1" t="s">
+      <c r="D674" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="C674" s="1" t="s">
+      <c r="E674" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D674" s="1" t="s">
+    </row>
+    <row r="675" spans="1:6">
+      <c r="C675" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="E674" s="1" t="s">
+      <c r="D675" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="F674" s="1">
+      <c r="E675" s="1" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6">
+      <c r="A676" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F676" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
-      <c r="A675" s="1" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B675" s="1" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C675" s="1" t="s">
-        <v>2243</v>
-      </c>
-      <c r="D675" s="1" t="s">
-        <v>2244</v>
-      </c>
-      <c r="E675" s="1" t="s">
-        <v>2245</v>
-      </c>
-      <c r="F675" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="676" spans="1:6">
-      <c r="C676" s="1" t="s">
-        <v>2246</v>
-      </c>
-      <c r="D676" s="1" t="s">
+    <row r="677" spans="1:6">
+      <c r="A677" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E676" s="1" t="s">
+      <c r="B677" s="1" t="s">
         <v>2248</v>
       </c>
-    </row>
-    <row r="677" spans="1:6">
       <c r="C677" s="1" t="s">
         <v>2249</v>
       </c>
@@ -17866,6 +18223,9 @@
       </c>
       <c r="E677" s="1" t="s">
         <v>2251</v>
+      </c>
+      <c r="F677" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -17876,123 +18236,120 @@
         <v>2253</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>1822</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="679" spans="1:6">
-      <c r="A679" s="1" t="s">
-        <v>2254</v>
-      </c>
-      <c r="B679" s="1" t="s">
+      <c r="C679" s="1" t="s">
         <v>2255</v>
       </c>
-      <c r="C679" s="1" t="s">
-        <v>1321</v>
-      </c>
       <c r="D679" s="1" t="s">
-        <v>1322</v>
+        <v>2256</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F679" s="1">
-        <v>4</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="680" spans="1:6">
       <c r="C680" s="1" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>2258</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="681" spans="1:6">
       <c r="A681" s="1" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>2261</v>
+        <v>1327</v>
       </c>
       <c r="D681" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F681" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6">
+      <c r="C682" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="E681" s="1" t="s">
+      <c r="D682" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="F681" s="1">
+      <c r="E682" s="1" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6">
+      <c r="A683" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F683" s="1">
         <v>14</v>
-      </c>
-    </row>
-    <row r="682" spans="1:6">
-      <c r="A682" s="1" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B682" s="1" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C682" s="1" t="s">
-        <v>2266</v>
-      </c>
-      <c r="D682" s="1" t="s">
-        <v>2267</v>
-      </c>
-      <c r="E682" s="1" t="s">
-        <v>2268</v>
-      </c>
-      <c r="F682" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6">
-      <c r="C683" s="1" t="s">
-        <v>2269</v>
-      </c>
-      <c r="D683" s="1" t="s">
-        <v>2270</v>
-      </c>
-      <c r="E683" s="1" t="s">
-        <v>2271</v>
       </c>
     </row>
     <row r="684" spans="1:6">
       <c r="A684" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C684" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="B684" s="1" t="s">
+      <c r="D684" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="C684" s="1" t="s">
+      <c r="E684" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="D684" s="1" t="s">
-        <v>2275</v>
-      </c>
-      <c r="E684" s="1" t="s">
-        <v>2276</v>
-      </c>
       <c r="F684" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="685" spans="1:6">
       <c r="C685" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E685" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="D685" s="1" t="s">
+    </row>
+    <row r="686" spans="1:6">
+      <c r="A686" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="E685" s="1" t="s">
+      <c r="B686" s="1" t="s">
         <v>2279</v>
       </c>
-    </row>
-    <row r="686" spans="1:6">
       <c r="C686" s="1" t="s">
         <v>2280</v>
       </c>
@@ -18002,25 +18359,19 @@
       <c r="E686" s="1" t="s">
         <v>2282</v>
       </c>
+      <c r="F686" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="687" spans="1:6">
-      <c r="A687" s="1" t="s">
+      <c r="C687" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="B687" s="1" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C687" s="1" t="s">
+      <c r="D687" s="1" t="s">
         <v>2284</v>
-      </c>
-      <c r="D687" s="1" t="s">
-        <v>2283</v>
       </c>
       <c r="E687" s="1" t="s">
         <v>2285</v>
-      </c>
-      <c r="F687" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="688" spans="1:6">
@@ -18039,97 +18390,103 @@
         <v>2289</v>
       </c>
       <c r="B689" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C689" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="C689" s="1" t="s">
+      <c r="D689" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E689" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="D689" s="1" t="s">
-        <v>2292</v>
-      </c>
-      <c r="E689" s="1" t="s">
-        <v>2293</v>
-      </c>
       <c r="F689" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="690" spans="1:6">
       <c r="C690" s="1" t="s">
-        <v>688</v>
+        <v>2292</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>689</v>
+        <v>2293</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>690</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="691" spans="1:6">
+      <c r="A691" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>2296</v>
+      </c>
       <c r="C691" s="1" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>2289</v>
+        <v>2298</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>2295</v>
+        <v>2299</v>
+      </c>
+      <c r="F691" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="692" spans="1:6">
       <c r="C692" s="1" t="s">
-        <v>2296</v>
+        <v>688</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>2297</v>
+        <v>689</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>2298</v>
+        <v>690</v>
       </c>
     </row>
     <row r="693" spans="1:6">
       <c r="C693" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="E693" s="1" t="s">
         <v>2301</v>
       </c>
     </row>
     <row r="694" spans="1:6">
-      <c r="A694" s="1" t="s">
+      <c r="C694" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="B694" s="1" t="s">
+      <c r="D694" s="1" t="s">
         <v>2303</v>
       </c>
-      <c r="C694" s="1" t="s">
+      <c r="E694" s="1" t="s">
         <v>2304</v>
-      </c>
-      <c r="D694" s="1" t="s">
-        <v>2305</v>
-      </c>
-      <c r="E694" s="1" t="s">
-        <v>2306</v>
-      </c>
-      <c r="F694" s="1">
-        <v>13</v>
       </c>
     </row>
     <row r="695" spans="1:6">
       <c r="C695" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E695" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="D695" s="1" t="s">
+    </row>
+    <row r="696" spans="1:6">
+      <c r="A696" s="1" t="s">
         <v>2308</v>
       </c>
-      <c r="E695" s="1" t="s">
+      <c r="B696" s="1" t="s">
         <v>2309</v>
       </c>
-    </row>
-    <row r="696" spans="1:6">
       <c r="C696" s="1" t="s">
         <v>2310</v>
       </c>
@@ -18139,39 +18496,39 @@
       <c r="E696" s="1" t="s">
         <v>2312</v>
       </c>
+      <c r="F696" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="697" spans="1:6">
-      <c r="A697" s="1" t="s">
+      <c r="C697" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="B697" s="1" t="s">
+      <c r="D697" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="C697" s="1" t="s">
+      <c r="E697" s="1" t="s">
         <v>2315</v>
-      </c>
-      <c r="D697" s="1" t="s">
-        <v>2316</v>
-      </c>
-      <c r="E697" s="1" t="s">
-        <v>2317</v>
-      </c>
-      <c r="F697" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="698" spans="1:6">
       <c r="C698" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E698" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="D698" s="1" t="s">
+    </row>
+    <row r="699" spans="1:6">
+      <c r="A699" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="E698" s="1" t="s">
+      <c r="B699" s="1" t="s">
         <v>2320</v>
       </c>
-    </row>
-    <row r="699" spans="1:6">
       <c r="C699" s="1" t="s">
         <v>2321</v>
       </c>
@@ -18180,6 +18537,9 @@
       </c>
       <c r="E699" s="1" t="s">
         <v>2323</v>
+      </c>
+      <c r="F699" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -18194,37 +18554,34 @@
       </c>
     </row>
     <row r="701" spans="1:6">
-      <c r="A701" s="1" t="s">
+      <c r="C701" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="B701" s="1" t="s">
+      <c r="D701" s="1" t="s">
         <v>2328</v>
       </c>
-      <c r="C701" s="1" t="s">
+      <c r="E701" s="1" t="s">
         <v>2329</v>
-      </c>
-      <c r="D701" s="1" t="s">
-        <v>2330</v>
-      </c>
-      <c r="E701" s="1" t="s">
-        <v>2331</v>
-      </c>
-      <c r="F701" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="702" spans="1:6">
       <c r="C702" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E702" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="D702" s="1" t="s">
+    </row>
+    <row r="703" spans="1:6">
+      <c r="A703" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="E702" s="1" t="s">
+      <c r="B703" s="1" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="703" spans="1:6">
       <c r="C703" s="1" t="s">
         <v>2335</v>
       </c>
@@ -18232,41 +18589,41 @@
         <v>2336</v>
       </c>
       <c r="E703" s="1" t="s">
-        <v>2015</v>
+        <v>2337</v>
+      </c>
+      <c r="F703" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="704" spans="1:6">
-      <c r="A704" s="1" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B704" s="1" t="s">
+      <c r="C704" s="1" t="s">
         <v>2338</v>
       </c>
-      <c r="C704" s="1" t="s">
+      <c r="D704" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="D704" s="1" t="s">
+      <c r="E704" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="E704" s="1" t="s">
-        <v>2341</v>
-      </c>
-      <c r="F704" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="705" spans="1:6">
       <c r="C705" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D705" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="D705" s="1" t="s">
+      <c r="E705" s="1" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6">
+      <c r="A706" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="E705" s="1" t="s">
+      <c r="B706" s="1" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="706" spans="1:6">
       <c r="C706" s="1" t="s">
         <v>2345</v>
       </c>
@@ -18275,6 +18632,9 @@
       </c>
       <c r="E706" s="1" t="s">
         <v>2347</v>
+      </c>
+      <c r="F706" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -18289,309 +18649,306 @@
       </c>
     </row>
     <row r="708" spans="1:6">
-      <c r="A708" s="1" t="s">
+      <c r="C708" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="B708" s="1" t="s">
+      <c r="D708" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="C708" s="1" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D708" s="1" t="s">
-        <v>1789</v>
-      </c>
       <c r="E708" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F708" s="1">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6">
+      <c r="C709" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6">
+      <c r="A710" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F710" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="709" spans="1:6">
-      <c r="A709" s="1" t="s">
-        <v>2353</v>
-      </c>
-      <c r="B709" s="1" t="s">
-        <v>2354</v>
-      </c>
-      <c r="C709" s="1" t="s">
-        <v>2355</v>
-      </c>
-      <c r="D709" s="1" t="s">
-        <v>2356</v>
-      </c>
-      <c r="E709" s="1" t="s">
-        <v>2357</v>
-      </c>
-      <c r="F709" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="710" spans="1:6">
-      <c r="C710" s="1" t="s">
-        <v>2358</v>
-      </c>
-      <c r="D710" s="1" t="s">
+    <row r="711" spans="1:6">
+      <c r="A711" s="1" t="s">
         <v>2359</v>
       </c>
-      <c r="E710" s="1" t="s">
+      <c r="B711" s="1" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="711" spans="1:6">
       <c r="C711" s="1" t="s">
         <v>2361</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>2353</v>
+        <v>2362</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>2362</v>
+        <v>2363</v>
+      </c>
+      <c r="F711" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="712" spans="1:6">
       <c r="C712" s="1" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="713" spans="1:6">
       <c r="C713" s="1" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="E713" s="1" t="s">
         <v>2368</v>
       </c>
     </row>
     <row r="714" spans="1:6">
-      <c r="A714" s="1" t="s">
+      <c r="C714" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="B714" s="1" t="s">
+      <c r="D714" s="1" t="s">
         <v>2370</v>
       </c>
-      <c r="C714" s="1" t="s">
+      <c r="E714" s="1" t="s">
         <v>2371</v>
-      </c>
-      <c r="D714" s="1" t="s">
-        <v>2369</v>
-      </c>
-      <c r="E714" s="1" t="s">
-        <v>2372</v>
-      </c>
-      <c r="F714" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="715" spans="1:6">
       <c r="C715" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D715" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="D715" s="1" t="s">
+      <c r="E715" s="1" t="s">
         <v>2374</v>
       </c>
-      <c r="E715" s="1" t="s">
+    </row>
+    <row r="716" spans="1:6">
+      <c r="A716" s="1" t="s">
         <v>2375</v>
       </c>
-    </row>
-    <row r="716" spans="1:6">
+      <c r="B716" s="1" t="s">
+        <v>2376</v>
+      </c>
       <c r="C716" s="1" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="E716" s="1" t="s">
         <v>2378</v>
       </c>
+      <c r="F716" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="717" spans="1:6">
-      <c r="A717" s="1" t="s">
+      <c r="C717" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="B717" s="1" t="s">
+      <c r="D717" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="C717" s="1" t="s">
+      <c r="E717" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="D717" s="1" t="s">
-        <v>2379</v>
-      </c>
-      <c r="E717" s="1" t="s">
-        <v>2382</v>
-      </c>
-      <c r="F717" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="718" spans="1:6">
       <c r="C718" s="1" t="s">
-        <v>1686</v>
+        <v>2382</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>1687</v>
+        <v>2383</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>1688</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="719" spans="1:6">
+      <c r="A719" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>2386</v>
+      </c>
       <c r="C719" s="1" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>2385</v>
+        <v>2388</v>
+      </c>
+      <c r="F719" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="720" spans="1:6">
-      <c r="A720" s="1" t="s">
-        <v>2386</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>2387</v>
-      </c>
       <c r="C720" s="1" t="s">
-        <v>2388</v>
+        <v>1692</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>2389</v>
+        <v>1693</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>2390</v>
-      </c>
-      <c r="F720" s="1">
-        <v>7</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="721" spans="1:6">
       <c r="C721" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E721" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="D721" s="1" t="s">
-        <v>2392</v>
-      </c>
-      <c r="E721" s="1" t="s">
-        <v>2393</v>
       </c>
     </row>
     <row r="722" spans="1:6">
       <c r="A722" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C722" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="B722" s="1" t="s">
+      <c r="D722" s="1" t="s">
         <v>2395</v>
       </c>
-      <c r="C722" s="1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D722" s="1" t="s">
-        <v>2019</v>
-      </c>
       <c r="E722" s="1" t="s">
-        <v>2020</v>
+        <v>2396</v>
       </c>
       <c r="F722" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="723" spans="1:6">
       <c r="C723" s="1" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="724" spans="1:6">
       <c r="A724" s="1" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>2401</v>
+        <v>2024</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>2402</v>
+        <v>2025</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>2403</v>
+        <v>2026</v>
       </c>
       <c r="F724" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="725" spans="1:6">
       <c r="C725" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6">
+      <c r="A726" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F726" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6">
+      <c r="C727" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D725" s="1" t="s">
+      <c r="D727" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E725" s="1" t="s">
+      <c r="E727" s="1" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="726" spans="1:6">
-      <c r="C726" s="1" t="s">
-        <v>2404</v>
-      </c>
-      <c r="D726" s="1" t="s">
-        <v>2405</v>
-      </c>
-      <c r="E726" s="1" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="727" spans="1:6">
-      <c r="A727" s="1" t="s">
-        <v>2407</v>
-      </c>
-      <c r="B727" s="1" t="s">
-        <v>2400</v>
-      </c>
-      <c r="C727" s="1" t="s">
-        <v>2408</v>
-      </c>
-      <c r="D727" s="1" t="s">
-        <v>2409</v>
-      </c>
-      <c r="E727" s="1" t="s">
-        <v>2410</v>
-      </c>
-      <c r="F727" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="728" spans="1:6">
       <c r="C728" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D728" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="D728" s="1" t="s">
+      <c r="E728" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="E728" s="1" t="s">
+    </row>
+    <row r="729" spans="1:6">
+      <c r="A729" s="1" t="s">
         <v>2413</v>
       </c>
-    </row>
-    <row r="729" spans="1:6">
+      <c r="B729" s="1" t="s">
+        <v>2406</v>
+      </c>
       <c r="C729" s="1" t="s">
         <v>2414</v>
       </c>
@@ -18601,39 +18958,39 @@
       <c r="E729" s="1" t="s">
         <v>2416</v>
       </c>
+      <c r="F729" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="730" spans="1:6">
-      <c r="A730" s="1" t="s">
+      <c r="C730" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="B730" s="1" t="s">
+      <c r="D730" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="C730" s="1" t="s">
+      <c r="E730" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="D730" s="1" t="s">
-        <v>2420</v>
-      </c>
-      <c r="E730" s="1" t="s">
-        <v>2421</v>
-      </c>
-      <c r="F730" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="731" spans="1:6">
       <c r="C731" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E731" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="D731" s="1" t="s">
+    </row>
+    <row r="732" spans="1:6">
+      <c r="A732" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="E731" s="1" t="s">
+      <c r="B732" s="1" t="s">
         <v>2424</v>
       </c>
-    </row>
-    <row r="732" spans="1:6">
       <c r="C732" s="1" t="s">
         <v>2425</v>
       </c>
@@ -18642,6 +18999,9 @@
       </c>
       <c r="E732" s="1" t="s">
         <v>2427</v>
+      </c>
+      <c r="F732" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -18652,209 +19012,197 @@
         <v>2429</v>
       </c>
       <c r="E733" s="1" t="s">
-        <v>2421</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="734" spans="1:6">
       <c r="C734" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="735" spans="1:6">
-      <c r="A735" s="1" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B735" s="1" t="s">
+      <c r="C735" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="C735" s="1" t="s">
+      <c r="D735" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="D735" s="1" t="s">
-        <v>2436</v>
-      </c>
       <c r="E735" s="1" t="s">
-        <v>2437</v>
-      </c>
-      <c r="F735" s="1">
-        <v>7</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="736" spans="1:6">
       <c r="C736" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E736" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="D736" s="1" t="s">
-        <v>2439</v>
-      </c>
-      <c r="E736" s="1" t="s">
-        <v>2440</v>
       </c>
     </row>
     <row r="737" spans="1:6">
       <c r="A737" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C737" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="B737" s="1" t="s">
+      <c r="D737" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="C737" s="1" t="s">
+      <c r="E737" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="D737" s="1" t="s">
-        <v>2444</v>
-      </c>
-      <c r="E737" s="1" t="s">
-        <v>2445</v>
-      </c>
       <c r="F737" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="738" spans="1:6">
       <c r="C738" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E738" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="D738" s="1" t="s">
-        <v>2447</v>
-      </c>
-      <c r="E738" s="1" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="739" spans="1:6">
       <c r="C739" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E739" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="D739" s="1" t="s">
-        <v>2450</v>
-      </c>
-      <c r="E739" s="1" t="s">
-        <v>2451</v>
       </c>
     </row>
     <row r="740" spans="1:6">
       <c r="A740" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C740" s="1" t="s">
         <v>2452</v>
       </c>
-      <c r="B740" s="1" t="s">
+      <c r="D740" s="1" t="s">
         <v>2453</v>
       </c>
-      <c r="C740" s="1" t="s">
+      <c r="E740" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="D740" s="1" t="s">
-        <v>2455</v>
-      </c>
-      <c r="E740" s="1" t="s">
-        <v>2456</v>
-      </c>
       <c r="F740" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="741" spans="1:6">
       <c r="C741" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E741" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="D741" s="1" t="s">
-        <v>2458</v>
-      </c>
-      <c r="E741" s="1" t="s">
-        <v>2459</v>
       </c>
     </row>
     <row r="742" spans="1:6">
       <c r="C742" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E742" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="D742" s="1" t="s">
+    </row>
+    <row r="743" spans="1:6">
+      <c r="C743" s="1" t="s">
         <v>2461</v>
       </c>
-      <c r="E742" s="1" t="s">
+      <c r="D743" s="1" t="s">
         <v>2462</v>
       </c>
-    </row>
-    <row r="743" spans="1:6">
-      <c r="A743" s="1" t="s">
+      <c r="E743" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="B743" s="1" t="s">
+    </row>
+    <row r="744" spans="1:6">
+      <c r="A744" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="C743" s="1" t="s">
+      <c r="B744" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="D743" s="1" t="s">
+      <c r="C744" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="E743" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="F743" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="744" spans="1:6">
-      <c r="C744" s="1" t="s">
+      <c r="D744" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="D744" s="1" t="s">
+      <c r="E744" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="E744" s="1" t="s">
-        <v>2469</v>
+      <c r="F744" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="745" spans="1:6">
       <c r="C745" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D745" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="D745" s="1" t="s">
+      <c r="E745" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="E745" s="1" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="746" spans="1:6">
       <c r="C746" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D746" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="D746" s="1" t="s">
+      <c r="E746" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="E746" s="1" t="s">
-        <v>2469</v>
-      </c>
     </row>
     <row r="747" spans="1:6">
-      <c r="A747" s="1" t="s">
+      <c r="C747" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="B747" s="1" t="s">
+      <c r="D747" s="1" t="s">
         <v>2476</v>
       </c>
-      <c r="C747" s="1" t="s">
+      <c r="E747" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="D747" s="1" t="s">
+    </row>
+    <row r="748" spans="1:6">
+      <c r="A748" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="E747" s="1" t="s">
+      <c r="B748" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="F747" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="748" spans="1:6">
       <c r="C748" s="1" t="s">
         <v>2480</v>
       </c>
@@ -18862,79 +19210,82 @@
         <v>2481</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>2482</v>
+        <v>946</v>
+      </c>
+      <c r="F748" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="749" spans="1:6">
       <c r="C749" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D749" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="D749" s="1" t="s">
+      <c r="E749" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="E749" s="1" t="s">
-        <v>2485</v>
       </c>
     </row>
     <row r="750" spans="1:6">
       <c r="C750" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D750" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="D750" s="1" t="s">
+      <c r="E750" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="E750" s="1" t="s">
-        <v>2488</v>
       </c>
     </row>
     <row r="751" spans="1:6">
       <c r="C751" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D751" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="D751" s="1" t="s">
-        <v>2490</v>
-      </c>
       <c r="E751" s="1" t="s">
-        <v>2491</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="752" spans="1:6">
       <c r="C752" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E752" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="D752" s="1" t="s">
-        <v>2493</v>
-      </c>
-      <c r="E752" s="1" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="753" spans="1:6">
       <c r="C753" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E753" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="D753" s="1" t="s">
-        <v>2496</v>
-      </c>
-      <c r="E753" s="1" t="s">
-        <v>2497</v>
       </c>
     </row>
     <row r="754" spans="1:6">
       <c r="A754" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C754" s="1" t="s">
         <v>2498</v>
       </c>
-      <c r="B754" s="1" t="s">
+      <c r="D754" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="C754" s="1" t="s">
+      <c r="E754" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="D754" s="1" t="s">
-        <v>2501</v>
-      </c>
-      <c r="E754" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="F754" s="1">
         <v>6</v>
@@ -18942,205 +19293,715 @@
     </row>
     <row r="755" spans="1:6">
       <c r="C755" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E755" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="D755" s="1" t="s">
+    </row>
+    <row r="756" spans="1:6">
+      <c r="C756" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="E755" s="1" t="s">
+      <c r="D756" s="1" t="s">
         <v>2505</v>
       </c>
-    </row>
-    <row r="756" spans="1:6">
-      <c r="A756" s="1" t="s">
+      <c r="E756" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="B756" s="1" t="s">
+    </row>
+    <row r="757" spans="1:6">
+      <c r="C757" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="C756" s="1" t="s">
+      <c r="D757" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="D756" s="1" t="s">
+      <c r="E757" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="E756" s="1" t="s">
+    </row>
+    <row r="758" spans="1:6">
+      <c r="C758" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="F756" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="757" spans="1:6">
-      <c r="A757" s="1" t="s">
+      <c r="D758" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="B757" s="1" t="s">
+      <c r="E758" s="1" t="s">
         <v>2512</v>
-      </c>
-      <c r="C757" s="1" t="s">
-        <v>2513</v>
-      </c>
-      <c r="D757" s="1" t="s">
-        <v>2514</v>
-      </c>
-      <c r="E757" s="1" t="s">
-        <v>2515</v>
-      </c>
-      <c r="F757" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="758" spans="1:6">
-      <c r="A758" s="1" t="s">
-        <v>2516</v>
-      </c>
-      <c r="B758" s="1" t="s">
-        <v>2517</v>
-      </c>
-      <c r="C758" s="1" t="s">
-        <v>2518</v>
-      </c>
-      <c r="D758" s="1" t="s">
-        <v>2519</v>
-      </c>
-      <c r="E758" s="1" t="s">
-        <v>2520</v>
-      </c>
-      <c r="F758" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="759" spans="1:6">
       <c r="C759" s="1" t="s">
-        <v>2521</v>
+        <v>2513</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>2522</v>
+        <v>2514</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="760" spans="1:6">
       <c r="C760" s="1" t="s">
-        <v>2524</v>
+        <v>2516</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>2525</v>
+        <v>2517</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>2526</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="761" spans="1:6">
       <c r="C761" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6">
+      <c r="C762" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6">
+      <c r="A763" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C763" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="D761" s="1" t="s">
+      <c r="D763" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="E761" s="1" t="s">
+      <c r="E763" s="1" t="s">
         <v>2529</v>
       </c>
-    </row>
-    <row r="762" spans="1:6">
-      <c r="A762" s="1" t="s">
-        <v>2530</v>
-      </c>
-      <c r="B762" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="C762" s="1" t="s">
-        <v>2532</v>
-      </c>
-      <c r="D762" s="1" t="s">
-        <v>2533</v>
-      </c>
-      <c r="E762" s="1" t="s">
-        <v>2534</v>
-      </c>
-      <c r="F762" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6">
-      <c r="C763" s="1" t="s">
-        <v>2535</v>
-      </c>
-      <c r="D763" s="1" t="s">
-        <v>2536</v>
-      </c>
-      <c r="E763" s="1" t="s">
-        <v>2537</v>
+      <c r="F763" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="764" spans="1:6">
       <c r="C764" s="1" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>2539</v>
+        <v>2531</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>2540</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="765" spans="1:6">
       <c r="C765" s="1" t="s">
-        <v>2339</v>
+        <v>2533</v>
       </c>
       <c r="D765" s="1" t="s">
-        <v>2340</v>
+        <v>2534</v>
       </c>
       <c r="E765" s="1" t="s">
-        <v>2341</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="766" spans="1:6">
       <c r="A766" s="1" t="s">
-        <v>2541</v>
+        <v>2536</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>2542</v>
+        <v>2537</v>
       </c>
       <c r="C766" s="1" t="s">
-        <v>2543</v>
+        <v>2538</v>
       </c>
       <c r="D766" s="1" t="s">
-        <v>2544</v>
+        <v>2539</v>
       </c>
       <c r="E766" s="1" t="s">
-        <v>2545</v>
+        <v>2540</v>
       </c>
       <c r="F766" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="767" spans="1:6">
       <c r="C767" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6">
+      <c r="A768" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C768" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="D767" s="1" t="s">
+      <c r="D768" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="E767" s="1" t="s">
+      <c r="E768" s="1" t="s">
         <v>2548</v>
       </c>
-    </row>
-    <row r="768" spans="1:6">
-      <c r="C768" s="1" t="s">
+      <c r="F768" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6">
+      <c r="C769" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="D768" s="1" t="s">
+      <c r="D769" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="E768" s="1" t="s">
+      <c r="E769" s="1" t="s">
         <v>2551</v>
       </c>
     </row>
+    <row r="770" spans="1:6">
+      <c r="C770" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6">
+      <c r="A771" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F771" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6">
+      <c r="C772" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6">
+      <c r="C773" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6">
+      <c r="C774" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6">
+      <c r="C775" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6">
+      <c r="A776" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F776" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6">
+      <c r="C777" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6">
+      <c r="C778" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6">
+      <c r="C779" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6">
+      <c r="C780" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6">
+      <c r="C781" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6">
+      <c r="A782" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F782" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6">
+      <c r="C783" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6">
+      <c r="C784" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6">
+      <c r="C785" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6">
+      <c r="A786" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F786" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6">
+      <c r="C787" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6">
+      <c r="C788" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6">
+      <c r="C789" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6">
+      <c r="C790" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6">
+      <c r="A791" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F791" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6">
+      <c r="C792" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6">
+      <c r="C793" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6">
+      <c r="C794" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6">
+      <c r="A795" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F795" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6">
+      <c r="C796" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6">
+      <c r="C797" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6">
+      <c r="A798" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F798" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6">
+      <c r="C799" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6">
+      <c r="C800" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6">
+      <c r="A801" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F801" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6">
+      <c r="A802" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F802" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6">
+      <c r="A803" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F803" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6">
+      <c r="A804" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F804" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6">
+      <c r="C805" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6">
+      <c r="C806" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6">
+      <c r="C807" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E656" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E658" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19170,50 +20031,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>2552</v>
+        <v>2672</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2553</v>
+        <v>2673</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2554</v>
+        <v>2674</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2555</v>
+        <v>2675</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2556</v>
+        <v>2676</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2557</v>
+        <v>2677</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2558</v>
+        <v>2678</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="36">
       <c r="A2" s="5" t="s">
-        <v>2559</v>
+        <v>2679</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2560</v>
+        <v>2680</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2561</v>
+        <v>2681</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2562</v>
+        <v>2682</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2563</v>
+        <v>2683</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2564</v>
+        <v>2684</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -19231,10 +20092,10 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>2565</v>
+        <v>2685</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2566</v>
+        <v>2686</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -19252,10 +20113,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>2567</v>
+        <v>2687</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2568</v>
+        <v>2688</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22005"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EA31FD-2619-478C-88C6-D91294BF21BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66BC884-01D8-4299-9DD5-C9E913E31DF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="2689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="2756">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -4476,6 +4476,51 @@
     <t>món ăn(việc nấu ăn)</t>
   </si>
   <si>
+    <t>しりょう</t>
+  </si>
+  <si>
+    <t>資料</t>
+  </si>
+  <si>
+    <t>tài liệu</t>
+  </si>
+  <si>
+    <t>むりょう</t>
+  </si>
+  <si>
+    <t>無料</t>
+  </si>
+  <si>
+    <t>miễn phí</t>
+  </si>
+  <si>
+    <t>きゅうりょう</t>
+  </si>
+  <si>
+    <t>給料</t>
+  </si>
+  <si>
+    <t>lương</t>
+  </si>
+  <si>
+    <t>げんりょう</t>
+  </si>
+  <si>
+    <t>原料</t>
+  </si>
+  <si>
+    <t>nguyên liệu</t>
+  </si>
+  <si>
+    <t>ざいりょう</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>vật liệu</t>
+  </si>
+  <si>
     <t>理</t>
   </si>
   <si>
@@ -4509,6 +4554,33 @@
     <t>vật lý</t>
   </si>
   <si>
+    <t>むり</t>
+  </si>
+  <si>
+    <t>無理</t>
+  </si>
+  <si>
+    <t>quá sức</t>
+  </si>
+  <si>
+    <t>しゅうり</t>
+  </si>
+  <si>
+    <t>修理</t>
+  </si>
+  <si>
+    <t>sửa chữa</t>
+  </si>
+  <si>
+    <t>せいり</t>
+  </si>
+  <si>
+    <t>整理</t>
+  </si>
+  <si>
+    <t>chỉnh sửa</t>
+  </si>
+  <si>
     <t>口</t>
   </si>
   <si>
@@ -6729,15 +6801,6 @@
     <t>nguyên</t>
   </si>
   <si>
-    <t>げんりょう</t>
-  </si>
-  <si>
-    <t>原料</t>
-  </si>
-  <si>
-    <t>nguyên liệu</t>
-  </si>
-  <si>
     <t>げんいん</t>
   </si>
   <si>
@@ -7881,6 +7944,15 @@
     <t>luận văn</t>
   </si>
   <si>
+    <t>もじ</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>văn tự</t>
+  </si>
+  <si>
     <t>化</t>
   </si>
   <si>
@@ -7917,6 +7989,21 @@
     <t>biến hóa</t>
   </si>
   <si>
+    <t>ふける</t>
+  </si>
+  <si>
+    <t>già đi</t>
+  </si>
+  <si>
+    <t>おばけ</t>
+  </si>
+  <si>
+    <t>お化け</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
     <t>経</t>
   </si>
   <si>
@@ -8044,6 +8131,120 @@
   </si>
   <si>
     <t>phòng tập thể dục</t>
+  </si>
+  <si>
+    <t>味</t>
+  </si>
+  <si>
+    <t>vị</t>
+  </si>
+  <si>
+    <t>あじ</t>
+  </si>
+  <si>
+    <t>しゅみ</t>
+  </si>
+  <si>
+    <t>趣味</t>
+  </si>
+  <si>
+    <t>sở thích</t>
+  </si>
+  <si>
+    <t>いみ</t>
+  </si>
+  <si>
+    <t>意味</t>
+  </si>
+  <si>
+    <t>í nghĩa</t>
+  </si>
+  <si>
+    <t>きょうみ</t>
+  </si>
+  <si>
+    <t>興味</t>
+  </si>
+  <si>
+    <t>hứng thú</t>
+  </si>
+  <si>
+    <t>飯</t>
+  </si>
+  <si>
+    <t>phạn</t>
+  </si>
+  <si>
+    <t>ごはん</t>
+  </si>
+  <si>
+    <t>ご飯</t>
+  </si>
+  <si>
+    <t>cơm</t>
+  </si>
+  <si>
+    <t>めし</t>
+  </si>
+  <si>
+    <t>野</t>
+  </si>
+  <si>
+    <t>dã</t>
+  </si>
+  <si>
+    <t>やさい</t>
+  </si>
+  <si>
+    <t>野菜</t>
+  </si>
+  <si>
+    <t>rau</t>
+  </si>
+  <si>
+    <t>やきゅう</t>
+  </si>
+  <si>
+    <t>野球</t>
+  </si>
+  <si>
+    <t>bóng chày</t>
+  </si>
+  <si>
+    <t>品</t>
+  </si>
+  <si>
+    <t>phẩm</t>
+  </si>
+  <si>
+    <t>しなもの</t>
+  </si>
+  <si>
+    <t>品物</t>
+  </si>
+  <si>
+    <t>hàng hóa</t>
+  </si>
+  <si>
+    <t>せいひん</t>
+  </si>
+  <si>
+    <t>製品</t>
+  </si>
+  <si>
+    <t>sản phẩm</t>
+  </si>
+  <si>
+    <t>麦</t>
+  </si>
+  <si>
+    <t>mạch</t>
+  </si>
+  <si>
+    <t>むぎ</t>
+  </si>
+  <si>
+    <t>lúa mạch</t>
   </si>
   <si>
     <t>công thức</t>
@@ -8494,10 +8695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H807"/>
+  <dimension ref="A1:H829"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
-      <selection activeCell="A786" sqref="A786:XFD786"/>
+    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
+      <selection activeCell="E806" sqref="E806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -8562,12 +8763,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100134)</f>
-        <v>266</v>
+        <f>COUNTA(A2:A100145)</f>
+        <v>271</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10134)</f>
-        <v>806</v>
+        <f>COUNTA(C2:C10145)</f>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14698,777 +14899,741 @@
       </c>
     </row>
     <row r="440" spans="1:6">
-      <c r="A440" s="1" t="s">
+      <c r="C440" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="D440" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="E440" s="1" t="s">
         <v>1484</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F440" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="441" spans="1:6">
       <c r="C441" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E441" s="1" t="s">
         <v>1487</v>
-      </c>
-      <c r="D441" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="C442" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E442" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="D442" s="1" t="s">
+    </row>
+    <row r="443" spans="1:6">
+      <c r="C443" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="E442" s="1" t="s">
+      <c r="D443" s="1" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="443" spans="1:6">
-      <c r="A443" s="1" t="s">
+      <c r="E443" s="1" t="s">
         <v>1493</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E443" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F443" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:6">
       <c r="C444" s="1" t="s">
-        <v>254</v>
+        <v>1494</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>255</v>
+        <v>1495</v>
       </c>
       <c r="E444" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="1" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="445" spans="1:6">
+      <c r="B445" s="1" t="s">
+        <v>1498</v>
+      </c>
       <c r="C445" s="1" t="s">
-        <v>1127</v>
+        <v>1499</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1128</v>
+        <v>1500</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>1129</v>
+        <v>1501</v>
+      </c>
+      <c r="F445" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="C446" s="1" t="s">
-        <v>1144</v>
+        <v>1502</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>1145</v>
+        <v>1503</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1146</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="447" spans="1:6">
-      <c r="A447" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>1499</v>
-      </c>
       <c r="C447" s="1" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>1498</v>
+        <v>1506</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F447" s="1">
-        <v>5</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="448" spans="1:6">
-      <c r="A448" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>1503</v>
-      </c>
       <c r="C448" s="1" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>1502</v>
+        <v>1509</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F448" s="1">
-        <v>7</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="C449" s="1" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>324</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="C450" s="1" t="s">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="1" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="F451" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:6">
-      <c r="A452" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>1517</v>
-      </c>
       <c r="C452" s="1" t="s">
-        <v>1518</v>
+        <v>254</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>1519</v>
+        <v>255</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F452" s="1">
-        <v>9</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="C453" s="1" t="s">
-        <v>1521</v>
+        <v>1127</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>1522</v>
+        <v>1128</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1523</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="C454" s="1" t="s">
-        <v>1524</v>
+        <v>1144</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1525</v>
+        <v>1145</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1526</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F455" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="C456" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="C455" s="1" t="s">
+      <c r="D456" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E456" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="D455" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E455" s="1" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F455" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6">
-      <c r="C456" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>1533</v>
+      <c r="F456" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="C457" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="C458" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E458" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="D457" s="1" t="s">
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="E457" s="1" t="s">
+      <c r="B459" s="1" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="458" spans="1:6">
-      <c r="A458" s="1" t="s">
+      <c r="C459" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="D459" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="C458" s="1" t="s">
+      <c r="E459" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D458" s="1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E458" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F458" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6">
-      <c r="C459" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E459" s="1" t="s">
-        <v>1544</v>
+      <c r="F459" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="1" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>1364</v>
+        <v>1541</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="F460" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="C461" s="1" t="s">
-        <v>1362</v>
+        <v>1545</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>1363</v>
+        <v>1546</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="C462" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E462" s="1" t="s">
         <v>1550</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E462" s="1" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="D463" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E463" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="C463" s="3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D463" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E463" s="1" t="s">
-        <v>1557</v>
-      </c>
       <c r="F463" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="464" spans="1:6">
       <c r="C464" s="1" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="465" spans="1:6">
       <c r="C465" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="D465" s="1" t="s">
+      <c r="B466" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="E465" s="1" t="s">
+      <c r="C466" s="1" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="466" spans="1:6">
-      <c r="C466" s="1" t="s">
+      <c r="D466" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="D466" s="1" t="s">
+      <c r="E466" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="E466" s="1" t="s">
+      <c r="F466" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="C467" s="1" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="467" spans="1:6">
-      <c r="A467" s="1" t="s">
+      <c r="D467" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="E467" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="C467" s="1" t="s">
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="D467" s="1" t="s">
+      <c r="B468" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="E467" s="1" t="s">
+      <c r="D468" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="F467">
+      <c r="E468" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F468" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="C469" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="C470" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F471" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="C472" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="C473" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="C474" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F475">
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
-      <c r="C468" s="1" t="s">
+    <row r="476" spans="1:6">
+      <c r="C476" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D468" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E468" s="1" t="s">
+      <c r="D476" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E476" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F468"/>
-    </row>
-    <row r="469" spans="1:6">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
-      <c r="C469" s="2" t="s">
-        <v>1573</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E469" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="F469" s="2"/>
-    </row>
-    <row r="470" spans="1:6">
-      <c r="A470" s="2" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E470" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F470" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
-      <c r="C471" s="2" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E471" s="2" t="s">
-        <v>1583</v>
-      </c>
-      <c r="F471" s="2"/>
-    </row>
-    <row r="472" spans="1:6">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
-      <c r="C472" s="2" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E472" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="F472" s="2"/>
-    </row>
-    <row r="473" spans="1:6">
-      <c r="A473" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E473" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F473" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
-      <c r="C474" s="2" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E474" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F474" s="2"/>
-    </row>
-    <row r="475" spans="1:6">
-      <c r="A475" s="2" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>1597</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E475" s="2" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F475" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6">
-      <c r="A476" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E476" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F476" s="2">
-        <v>13</v>
-      </c>
+      <c r="F476"/>
     </row>
     <row r="477" spans="1:6">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F477" s="2"/>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F478" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" s="2"/>
+      <c r="B479" s="2"/>
+      <c r="C479" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="D477" s="2" t="s">
+      <c r="D479" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="E477" s="2" t="s">
+      <c r="E479" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="F477" s="2"/>
-    </row>
-    <row r="478" spans="1:6">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
-      <c r="C478" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E478" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F478" s="2"/>
-    </row>
-    <row r="479" spans="1:6">
-      <c r="A479" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E479" s="2" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F479" s="2">
-        <v>8</v>
-      </c>
+      <c r="F479" s="2"/>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F480" s="2"/>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="2" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="F481" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F482" s="2"/>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F483" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="D482" s="2" t="s">
+      <c r="B484" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="E482" s="2" t="s">
+      <c r="C484" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="F482" s="2"/>
-    </row>
-    <row r="483" spans="1:6">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
-      <c r="C483" s="2" t="s">
+      <c r="D484" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="D483" s="2" t="s">
+      <c r="E484" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="E483" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F483" s="2"/>
-    </row>
-    <row r="484" spans="1:6">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
-      <c r="C484" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D484" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E484" s="2" t="s">
-        <v>1630</v>
-      </c>
-      <c r="F484" s="2"/>
+      <c r="F484" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="485" spans="1:6">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E485" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="D485" s="2" t="s">
+      <c r="F485" s="2"/>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" s="2"/>
+      <c r="B486" s="2"/>
+      <c r="C486" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="E485" s="2" t="s">
+      <c r="D486" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="F485" s="2"/>
-    </row>
-    <row r="486" spans="1:6">
-      <c r="A486" s="2" t="s">
+      <c r="E486" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="F486" s="2"/>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="C486" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D486" s="2" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E486" s="2" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F486" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
+      <c r="B487" s="2" t="s">
+        <v>1636</v>
+      </c>
       <c r="C487" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F487" s="2"/>
+        <v>1639</v>
+      </c>
+      <c r="F487" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="F488" s="2"/>
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="2" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>998</v>
+        <v>1645</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>999</v>
+        <v>1646</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1000</v>
+        <v>1647</v>
       </c>
       <c r="F489" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="F490" s="2"/>
     </row>
@@ -15476,13 +15641,13 @@
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="F491" s="2"/>
     </row>
@@ -15490,13 +15655,13 @@
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2" t="s">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>1651</v>
+        <v>201</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="F492" s="2"/>
     </row>
@@ -15504,47 +15669,47 @@
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="F493" s="2"/>
     </row>
     <row r="494" spans="1:6">
       <c r="A494" s="2" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1152</v>
+        <v>1648</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>1153</v>
+        <v>1649</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1154</v>
+        <v>1650</v>
       </c>
       <c r="F494" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="F495" s="2"/>
     </row>
@@ -15552,41 +15717,47 @@
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="F496" s="2"/>
     </row>
     <row r="497" spans="1:6">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
+      <c r="A497" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>1667</v>
+      </c>
       <c r="C497" s="2" t="s">
-        <v>1664</v>
+        <v>998</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1665</v>
+        <v>999</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="F497" s="2"/>
+        <v>1000</v>
+      </c>
+      <c r="F497" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="498" spans="1:6">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="F498" s="2"/>
     </row>
@@ -15594,13 +15765,13 @@
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F499" s="2"/>
     </row>
@@ -15608,13 +15779,13 @@
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="F500" s="2"/>
     </row>
@@ -15622,47 +15793,47 @@
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="F501" s="2"/>
     </row>
     <row r="502" spans="1:6">
       <c r="A502" s="2" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1681</v>
+        <v>1152</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>1679</v>
+        <v>1153</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>1682</v>
+        <v>1154</v>
       </c>
       <c r="F502" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="503" spans="1:6">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D503" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="D503" s="2" t="s">
+      <c r="E503" s="2" t="s">
         <v>1684</v>
-      </c>
-      <c r="E503" s="2" t="s">
-        <v>1685</v>
       </c>
       <c r="F503" s="2"/>
     </row>
@@ -15670,13 +15841,13 @@
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D504" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="D504" s="2" t="s">
+      <c r="E504" s="2" t="s">
         <v>1687</v>
-      </c>
-      <c r="E504" s="2" t="s">
-        <v>1688</v>
       </c>
       <c r="F504" s="2"/>
     </row>
@@ -15684,13 +15855,13 @@
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D505" s="2" t="s">
         <v>1689</v>
       </c>
-      <c r="D505" s="2" t="s">
+      <c r="E505" s="2" t="s">
         <v>1690</v>
-      </c>
-      <c r="E505" s="2" t="s">
-        <v>1691</v>
       </c>
       <c r="F505" s="2"/>
     </row>
@@ -15698,129 +15869,117 @@
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D506" s="2" t="s">
         <v>1692</v>
       </c>
-      <c r="D506" s="2" t="s">
+      <c r="E506" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="E506" s="2" t="s">
+      <c r="F506" s="2"/>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" s="2"/>
+      <c r="B507" s="2"/>
+      <c r="C507" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="F506" s="2"/>
-    </row>
-    <row r="507" spans="1:6">
-      <c r="A507" s="2" t="s">
+      <c r="D507" s="2" t="s">
         <v>1695</v>
       </c>
-      <c r="B507" s="2" t="s">
+      <c r="E507" s="2" t="s">
         <v>1696</v>
       </c>
-      <c r="C507" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D507" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E507" s="2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F507" s="2">
-        <v>7</v>
-      </c>
+      <c r="F507" s="2"/>
     </row>
     <row r="508" spans="1:6">
-      <c r="A508" s="2" t="s">
+      <c r="A508" s="2"/>
+      <c r="B508" s="2"/>
+      <c r="C508" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="D508" s="2" t="s">
         <v>1698</v>
       </c>
-      <c r="C508" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="D508" s="2" t="s">
-        <v>806</v>
-      </c>
       <c r="E508" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="F508" s="2">
-        <v>16</v>
-      </c>
+        <v>1699</v>
+      </c>
+      <c r="F508" s="2"/>
     </row>
     <row r="509" spans="1:6">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="F509" s="2"/>
     </row>
     <row r="510" spans="1:6">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
+      <c r="A510" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>1704</v>
+      </c>
       <c r="C510" s="2" t="s">
-        <v>990</v>
+        <v>1705</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>991</v>
+        <v>1703</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F510" s="2"/>
-    </row>
-    <row r="511" spans="1:6" ht="18.75">
+        <v>1706</v>
+      </c>
+      <c r="F510" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
-      <c r="C511" s="4" t="s">
-        <v>1703</v>
+      <c r="C511" s="2" t="s">
+        <v>1707</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="F511" s="2"/>
     </row>
     <row r="512" spans="1:6">
-      <c r="A512" s="2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>1707</v>
-      </c>
+      <c r="A512" s="2"/>
+      <c r="B512" s="2"/>
       <c r="C512" s="2" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F512" s="2">
-        <v>10</v>
-      </c>
+        <v>1712</v>
+      </c>
+      <c r="F512" s="2"/>
     </row>
     <row r="513" spans="1:6">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="F513" s="2"/>
     </row>
@@ -15828,637 +15987,643 @@
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="F514" s="2"/>
     </row>
     <row r="515" spans="1:6">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
+      <c r="A515" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>1720</v>
+      </c>
       <c r="C515" s="2" t="s">
-        <v>1716</v>
+        <v>1399</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>1717</v>
+        <v>1400</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F515" s="2"/>
+        <v>1401</v>
+      </c>
+      <c r="F515" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="516" spans="1:6">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
+      <c r="A516" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1722</v>
+      </c>
       <c r="C516" s="2" t="s">
-        <v>1719</v>
+        <v>805</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>1720</v>
+        <v>806</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>1721</v>
-      </c>
-      <c r="F516" s="2"/>
+        <v>807</v>
+      </c>
+      <c r="F516" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="517" spans="1:6">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="F517" s="2"/>
     </row>
     <row r="518" spans="1:6">
-      <c r="A518" s="2" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B518" s="2" t="s">
+      <c r="A518" s="2"/>
+      <c r="B518" s="2"/>
+      <c r="C518" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="E518" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="C518" s="2" t="s">
+      <c r="F518" s="2"/>
+    </row>
+    <row r="519" spans="1:6" ht="18.75">
+      <c r="A519" s="2"/>
+      <c r="B519" s="2"/>
+      <c r="C519" s="4" t="s">
         <v>1727</v>
       </c>
-      <c r="D518" s="2" t="s">
+      <c r="D519" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="E518" s="2" t="s">
+      <c r="E519" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="F518" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6">
-      <c r="A519" s="2" t="s">
+      <c r="F519" s="2"/>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B520" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="C519" s="2" t="s">
+      <c r="C520" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="D519" s="2" t="s">
+      <c r="D520" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E520" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="E519" s="2" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F519" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
-      <c r="C520" s="2" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D520" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E520" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F520" s="2"/>
-    </row>
-    <row r="521" spans="1:6" ht="18.75">
+      <c r="F520" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F521" s="2"/>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" s="2"/>
+      <c r="B522" s="2"/>
+      <c r="C522" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D522" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="D521" s="2" t="s">
+      <c r="E522" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="E521" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="F521" s="2"/>
-    </row>
-    <row r="522" spans="1:6">
-      <c r="A522" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B522" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C522" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D522" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="E522" s="2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F522" s="2">
-        <v>18</v>
-      </c>
+      <c r="F522" s="2"/>
     </row>
     <row r="523" spans="1:6">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="F523" s="2"/>
     </row>
-    <row r="524" spans="1:6" ht="18.75">
+    <row r="524" spans="1:6">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="F524" s="2"/>
     </row>
     <row r="525" spans="1:6">
-      <c r="A525" s="2" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B525" s="2" t="s">
-        <v>1503</v>
-      </c>
+      <c r="A525" s="2"/>
+      <c r="B525" s="2"/>
       <c r="C525" s="2" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F525" s="2">
-        <v>11</v>
-      </c>
+        <v>1748</v>
+      </c>
+      <c r="F525" s="2"/>
     </row>
     <row r="526" spans="1:6">
       <c r="A526" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F526" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C527" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="D527" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="E527" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="D526" s="2" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E526" s="2" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F526" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="527" spans="1:6">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
-      <c r="C527" s="2" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D527" s="2" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E527" s="2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F527" s="2"/>
-    </row>
-    <row r="528" spans="1:6" ht="18.75">
+      <c r="F527" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F528" s="2"/>
+    </row>
+    <row r="529" spans="1:6" ht="18.75">
+      <c r="A529" s="2"/>
+      <c r="B529" s="2"/>
+      <c r="C529" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E529" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="D528" s="2" t="s">
+      <c r="F529" s="2"/>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="E528" s="2" t="s">
+      <c r="B530" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="F528" s="2"/>
-    </row>
-    <row r="529" spans="1:6">
-      <c r="A529" s="1" t="s">
+      <c r="C530" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="D530" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="C529" s="1" t="s">
+      <c r="E530" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="D529" s="1" t="s">
+      <c r="F530" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" s="2"/>
+      <c r="B531" s="2"/>
+      <c r="C531" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="E529" s="1" t="s">
+      <c r="D531" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="F529" s="1">
+      <c r="E531" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F531" s="2"/>
+    </row>
+    <row r="532" spans="1:6" ht="18.75">
+      <c r="A532" s="2"/>
+      <c r="B532" s="2"/>
+      <c r="C532" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F532" s="2"/>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F533" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F534" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" s="2"/>
+      <c r="B535" s="2"/>
+      <c r="C535" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F535" s="2"/>
+    </row>
+    <row r="536" spans="1:6" ht="18.75">
+      <c r="A536" s="2"/>
+      <c r="B536" s="2"/>
+      <c r="C536" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F536" s="2"/>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="A537" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F537" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
-      <c r="C530" s="1" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D530" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E530" s="1" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6">
-      <c r="A531" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D531" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E531" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="F531" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6">
-      <c r="A532" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D532" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="E532" s="1" t="s">
-        <v>1782</v>
-      </c>
-      <c r="F532" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6">
-      <c r="C533" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D533" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="E533" s="1" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6">
-      <c r="C534" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D534" s="1" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E534" s="1" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6">
-      <c r="C535" s="1" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D535" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E535" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6">
-      <c r="A536" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D536" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E536" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F536" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6">
-      <c r="C537" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D537" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="E537" s="1" t="s">
+    <row r="538" spans="1:6">
+      <c r="C538" s="1" t="s">
         <v>1796</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6">
-      <c r="A538" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>1799</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>1797</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F538" s="1">
-        <v>6</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="539" spans="1:6">
       <c r="A539" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C539" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="B539" s="1" t="s">
+      <c r="D539" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E539" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="C539" s="1" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D539" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="E539" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="F539" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="540" spans="1:6">
       <c r="A540" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C540" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="D540" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E540" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="C540" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D540" s="1" t="s">
-        <v>1805</v>
-      </c>
-      <c r="E540" s="1" t="s">
-        <v>1808</v>
-      </c>
       <c r="F540" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="541" spans="1:6">
       <c r="C541" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E541" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="D541" s="1" t="s">
+    </row>
+    <row r="542" spans="1:6">
+      <c r="C542" s="1" t="s">
         <v>1810</v>
       </c>
-      <c r="E541" s="1" t="s">
+      <c r="D542" s="1" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="542" spans="1:6">
-      <c r="A542" s="1" t="s">
+      <c r="E542" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="B542" s="1" t="s">
+    </row>
+    <row r="543" spans="1:6">
+      <c r="C543" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="C542" s="1" t="s">
+      <c r="D543" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="D542" s="1" t="s">
-        <v>1812</v>
-      </c>
-      <c r="E542" s="1" t="s">
+      <c r="E543" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="F542" s="1">
+    </row>
+    <row r="544" spans="1:6">
+      <c r="A544" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F544" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6">
+      <c r="C545" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6">
+      <c r="A546" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F546" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6">
+      <c r="A547" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F547" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
+      <c r="A548" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F548" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="C549" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6">
+      <c r="A550" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F550" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
-      <c r="A543" s="2" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B543" s="2" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C543" s="2" t="s">
-        <v>1818</v>
-      </c>
-      <c r="D543" s="2" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E543" s="2" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F543" s="2">
+    <row r="551" spans="1:6">
+      <c r="A551" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F551" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
-      <c r="A544" s="2"/>
-      <c r="B544" s="2"/>
-      <c r="C544" s="2" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D544" s="2" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E544" s="2" t="s">
-        <v>1823</v>
-      </c>
-      <c r="F544" s="2"/>
-    </row>
-    <row r="545" spans="1:6">
-      <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
-      <c r="C545" s="2" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D545" s="2" t="s">
-        <v>1822</v>
-      </c>
-      <c r="E545" s="2" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F545" s="2"/>
-    </row>
-    <row r="546" spans="1:6">
-      <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
-      <c r="C546" s="2" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D546" s="2" t="s">
-        <v>1827</v>
-      </c>
-      <c r="E546" s="2" t="s">
-        <v>1828</v>
-      </c>
-      <c r="F546" s="2"/>
-    </row>
-    <row r="547" spans="1:6" ht="18.75">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
-      <c r="C547" s="2" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D547" s="2" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E547" s="2" t="s">
-        <v>1831</v>
-      </c>
-      <c r="F547" s="2"/>
-    </row>
-    <row r="548" spans="1:6">
-      <c r="A548" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B548" s="2" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C548" s="2" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D548" s="2" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E548" s="2" t="s">
-        <v>1836</v>
-      </c>
-      <c r="F548" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6">
-      <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
-      <c r="C549" s="2" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D549" s="2" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E549" s="2" t="s">
-        <v>1839</v>
-      </c>
-      <c r="F549" s="2"/>
-    </row>
-    <row r="550" spans="1:6">
-      <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
-      <c r="C550" s="2" t="s">
-        <v>1840</v>
-      </c>
-      <c r="D550" s="2" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E550" s="2" t="s">
-        <v>1842</v>
-      </c>
-      <c r="F550" s="2"/>
-    </row>
-    <row r="551" spans="1:6" ht="18.75">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
-      <c r="C551" s="2" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D551" s="2" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E551" s="2" t="s">
+    <row r="552" spans="1:6">
+      <c r="A552" s="2"/>
+      <c r="B552" s="2"/>
+      <c r="C552" s="2" t="s">
         <v>1845</v>
       </c>
-      <c r="F551" s="2"/>
-    </row>
-    <row r="552" spans="1:6">
-      <c r="A552" s="2" t="s">
+      <c r="D552" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="E552" s="2" t="s">
         <v>1847</v>
       </c>
-      <c r="C552" s="2" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D552" s="2" t="s">
-        <v>1849</v>
-      </c>
-      <c r="E552" s="2" t="s">
-        <v>1850</v>
-      </c>
-      <c r="F552" s="2">
-        <v>9</v>
-      </c>
+      <c r="F552" s="2"/>
     </row>
     <row r="553" spans="1:6">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="F553" s="2"/>
     </row>
@@ -16466,75 +16631,75 @@
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="F554" s="2"/>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" ht="18.75">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F555" s="2"/>
+    </row>
+    <row r="556" spans="1:6">
+      <c r="A556" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B556" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="D555" s="2" t="s">
+      <c r="C556" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="E555" s="2" t="s">
+      <c r="D556" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="F555" s="2"/>
-    </row>
-    <row r="556" spans="1:6" ht="18.75">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
-      <c r="C556" s="2" t="s">
+      <c r="E556" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="D556" s="2" t="s">
+      <c r="F556" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="A557" s="2"/>
+      <c r="B557" s="2"/>
+      <c r="C557" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="E556" s="2" t="s">
+      <c r="D557" s="2" t="s">
         <v>1862</v>
       </c>
-      <c r="F556" s="2"/>
-    </row>
-    <row r="557" spans="1:6">
-      <c r="A557" s="2" t="s">
+      <c r="E557" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="B557" s="2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>1865</v>
-      </c>
-      <c r="D557" s="2" t="s">
-        <v>1866</v>
-      </c>
-      <c r="E557" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F557" s="2">
-        <v>7</v>
-      </c>
+      <c r="F557" s="2"/>
     </row>
     <row r="558" spans="1:6">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2" t="s">
-        <v>1686</v>
+        <v>1864</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>1687</v>
+        <v>1865</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1688</v>
+        <v>1866</v>
       </c>
       <c r="F558" s="2"/>
     </row>
@@ -16560,13 +16725,13 @@
         <v>1871</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>1658</v>
+        <v>1872</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>1659</v>
+        <v>1873</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="F560" s="2">
         <v>9</v>
@@ -16576,13 +16741,13 @@
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="F561" s="2"/>
     </row>
@@ -16590,37 +16755,33 @@
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="F562" s="2"/>
     </row>
-    <row r="563" spans="1:6" ht="18.75">
+    <row r="563" spans="1:6">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="F563" s="2"/>
     </row>
-    <row r="564" spans="1:6">
-      <c r="A564" s="2" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B564" s="2" t="s">
-        <v>1883</v>
-      </c>
+    <row r="564" spans="1:6" ht="18.75">
+      <c r="A564" s="2"/>
+      <c r="B564" s="2"/>
       <c r="C564" s="2" t="s">
         <v>1884</v>
       </c>
@@ -16630,260 +16791,279 @@
       <c r="E564" s="2" t="s">
         <v>1886</v>
       </c>
-      <c r="F564" s="2">
-        <v>10</v>
-      </c>
+      <c r="F564" s="2"/>
     </row>
     <row r="565" spans="1:6">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
+      <c r="A565" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>1888</v>
+      </c>
       <c r="C565" s="2" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>1885</v>
+        <v>1890</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>1888</v>
-      </c>
-      <c r="F565" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F565" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="566" spans="1:6">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2" t="s">
-        <v>1889</v>
+        <v>1710</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>1890</v>
+        <v>1711</v>
       </c>
       <c r="E566" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F566" s="2"/>
+    </row>
+    <row r="567" spans="1:6" ht="18.75">
+      <c r="A567" s="2"/>
+      <c r="B567" s="2"/>
+      <c r="C567" s="2" t="s">
         <v>1891</v>
       </c>
-      <c r="F566" s="2"/>
-    </row>
-    <row r="567" spans="1:6">
-      <c r="A567" s="1" t="s">
+      <c r="D567" s="2" t="s">
         <v>1892</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="E567" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="C567" s="1" t="s">
+      <c r="F567" s="2"/>
+    </row>
+    <row r="568" spans="1:6">
+      <c r="A568" s="2" t="s">
         <v>1894</v>
       </c>
-      <c r="D567" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E567" s="1" t="s">
+      <c r="B568" s="2" t="s">
         <v>1895</v>
       </c>
-      <c r="F567" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6">
-      <c r="C568" s="1" t="s">
+      <c r="C568" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E568" s="2" t="s">
         <v>1896</v>
       </c>
-      <c r="D568" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E568" s="1" t="s">
+      <c r="F568" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569" s="2"/>
+      <c r="B569" s="2"/>
+      <c r="C569" s="2" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="569" spans="1:6">
-      <c r="C569" s="1" t="s">
+      <c r="D569" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="D569" s="1" t="s">
+      <c r="E569" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="E569" s="1" t="s">
+      <c r="F569" s="2"/>
+    </row>
+    <row r="570" spans="1:6">
+      <c r="A570" s="2"/>
+      <c r="B570" s="2"/>
+      <c r="C570" s="2" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="570" spans="1:6">
-      <c r="C570" s="1" t="s">
+      <c r="D570" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="D570" s="1" t="s">
+      <c r="E570" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="E570" s="1" t="s">
+      <c r="F570" s="2"/>
+    </row>
+    <row r="571" spans="1:6" ht="18.75">
+      <c r="A571" s="2"/>
+      <c r="B571" s="2"/>
+      <c r="C571" s="2" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="571" spans="1:6">
-      <c r="A571" s="1" t="s">
+      <c r="D571" s="2" t="s">
         <v>1904</v>
       </c>
-      <c r="B571" s="1" t="s">
+      <c r="E571" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="C571" s="1" t="s">
+      <c r="F571" s="2"/>
+    </row>
+    <row r="572" spans="1:6">
+      <c r="A572" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="D571" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E571" s="1" t="s">
+      <c r="B572" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="F571" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6">
-      <c r="C572" s="1" t="s">
+      <c r="C572" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="D572" s="1" t="s">
+      <c r="D572" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="E572" s="1" t="s">
+      <c r="E572" s="2" t="s">
         <v>1910</v>
       </c>
+      <c r="F572" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="573" spans="1:6">
-      <c r="C573" s="1" t="s">
+      <c r="A573" s="2"/>
+      <c r="B573" s="2"/>
+      <c r="C573" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="D573" s="1" t="s">
+      <c r="D573" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E573" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="E573" s="1" t="s">
+      <c r="F573" s="2"/>
+    </row>
+    <row r="574" spans="1:6">
+      <c r="A574" s="2"/>
+      <c r="B574" s="2"/>
+      <c r="C574" s="2" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="574" spans="1:6">
-      <c r="C574" s="1" t="s">
+      <c r="D574" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="D574" s="1" t="s">
+      <c r="E574" s="2" t="s">
         <v>1915</v>
       </c>
-      <c r="E574" s="1" t="s">
-        <v>1916</v>
-      </c>
+      <c r="F574" s="2"/>
     </row>
     <row r="575" spans="1:6">
       <c r="A575" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B575" s="1" t="s">
         <v>1917</v>
       </c>
-      <c r="B575" s="1" t="s">
+      <c r="C575" s="1" t="s">
         <v>1918</v>
       </c>
-      <c r="C575" s="1" t="s">
+      <c r="D575" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E575" s="1" t="s">
         <v>1919</v>
       </c>
-      <c r="D575" s="1" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E575" s="1" t="s">
-        <v>1921</v>
-      </c>
       <c r="F575" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="576" spans="1:6">
       <c r="C576" s="1" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="577" spans="1:6">
       <c r="C577" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E577" s="1" t="s">
         <v>1924</v>
-      </c>
-      <c r="D577" s="1" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E577" s="1" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="578" spans="1:6">
       <c r="C578" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E578" s="1" t="s">
         <v>1927</v>
-      </c>
-      <c r="D578" s="1" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E578" s="1" t="s">
-        <v>1929</v>
       </c>
     </row>
     <row r="579" spans="1:6">
       <c r="A579" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C579" s="1" t="s">
         <v>1930</v>
       </c>
-      <c r="B579" s="1" t="s">
+      <c r="D579" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E579" s="1" t="s">
         <v>1931</v>
       </c>
-      <c r="C579" s="1" t="s">
-        <v>1932</v>
-      </c>
-      <c r="D579" s="1" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E579" s="1" t="s">
-        <v>1933</v>
-      </c>
       <c r="F579" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:6">
       <c r="C580" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E580" s="1" t="s">
         <v>1934</v>
-      </c>
-      <c r="D580" s="1" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E580" s="1" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="581" spans="1:6">
       <c r="C581" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D581" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="D581" s="1" t="s">
+      <c r="E581" s="1" t="s">
         <v>1937</v>
       </c>
-      <c r="E581" s="1" t="s">
+    </row>
+    <row r="582" spans="1:6">
+      <c r="C582" s="1" t="s">
         <v>1938</v>
-      </c>
-    </row>
-    <row r="582" spans="1:6">
-      <c r="A582" s="1" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>1941</v>
       </c>
       <c r="D582" s="1" t="s">
         <v>1939</v>
       </c>
       <c r="E582" s="1" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
+      <c r="A583" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B583" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="F582" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="583" spans="1:6">
       <c r="C583" s="1" t="s">
         <v>1943</v>
       </c>
@@ -16892,6 +17072,9 @@
       </c>
       <c r="E583" s="1" t="s">
         <v>1945</v>
+      </c>
+      <c r="F583" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -16899,58 +17082,49 @@
         <v>1946</v>
       </c>
       <c r="D584" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E584" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="E584" s="1" t="s">
+    </row>
+    <row r="585" spans="1:6">
+      <c r="C585" s="1" t="s">
         <v>1948</v>
-      </c>
-    </row>
-    <row r="585" spans="1:6">
-      <c r="A585" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>1950</v>
-      </c>
-      <c r="C585" s="1" t="s">
-        <v>1951</v>
       </c>
       <c r="D585" s="1" t="s">
         <v>1949</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>1952</v>
-      </c>
-      <c r="F585" s="1">
-        <v>7</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="586" spans="1:6">
       <c r="C586" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E586" s="1" t="s">
         <v>1953</v>
-      </c>
-      <c r="D586" s="1" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E586" s="1" t="s">
-        <v>1955</v>
       </c>
     </row>
     <row r="587" spans="1:6">
       <c r="A587" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C587" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="B587" s="1" t="s">
+      <c r="D587" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E587" s="1" t="s">
         <v>1957</v>
-      </c>
-      <c r="C587" s="1" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D587" s="1" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E587" s="1" t="s">
-        <v>1959</v>
       </c>
       <c r="F587" s="1">
         <v>8</v>
@@ -16958,170 +17132,164 @@
     </row>
     <row r="588" spans="1:6">
       <c r="C588" s="1" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>1962</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="589" spans="1:6">
       <c r="C589" s="1" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="590" spans="1:6">
       <c r="A590" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E590" s="1" t="s">
         <v>1966</v>
       </c>
-      <c r="B590" s="1" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C590" s="1" t="s">
-        <v>1968</v>
-      </c>
-      <c r="D590" s="1" t="s">
-        <v>1966</v>
-      </c>
-      <c r="E590" s="1" t="s">
-        <v>1969</v>
-      </c>
       <c r="F590" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:6">
       <c r="C591" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
+      <c r="C592" s="1" t="s">
         <v>1970</v>
       </c>
-      <c r="D591" s="1" t="s">
+      <c r="D592" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="E591" s="1" t="s">
+      <c r="E592" s="1" t="s">
         <v>1972</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
-      <c r="A592" s="1" t="s">
+    <row r="593" spans="1:6">
+      <c r="A593" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="B592" s="1" t="s">
+      <c r="B593" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="C592" s="1" t="s">
+      <c r="C593" s="1" t="s">
         <v>1975</v>
       </c>
-      <c r="D592" s="1" t="s">
+      <c r="D593" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="E592" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="F592" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="593" spans="1:6">
-      <c r="C593" s="1" t="s">
+      <c r="E593" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="D593" s="1" t="s">
-        <v>1977</v>
-      </c>
-      <c r="E593" s="1" t="s">
-        <v>1978</v>
+      <c r="F593" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:6">
       <c r="C594" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E594" s="1" t="s">
         <v>1979</v>
-      </c>
-      <c r="D594" s="1" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E594" s="1" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="595" spans="1:6">
       <c r="A595" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C595" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="B595" s="1" t="s">
-        <v>1983</v>
-      </c>
-      <c r="C595" s="1" t="s">
-        <v>1984</v>
-      </c>
       <c r="D595" s="1" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E595" s="1" t="s">
         <v>1983</v>
       </c>
       <c r="F595" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="596" spans="1:6">
       <c r="C596" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D596" s="1" t="s">
         <v>1985</v>
       </c>
-      <c r="D596" s="1" t="s">
+      <c r="E596" s="1" t="s">
         <v>1986</v>
       </c>
-      <c r="E596" s="1" t="s">
+    </row>
+    <row r="597" spans="1:6">
+      <c r="C597" s="1" t="s">
         <v>1987</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6">
-      <c r="A597" s="1" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>1989</v>
-      </c>
-      <c r="C597" s="1" t="s">
-        <v>1990</v>
       </c>
       <c r="D597" s="1" t="s">
         <v>1988</v>
       </c>
       <c r="E597" s="1" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6">
+      <c r="A598" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B598" s="1" t="s">
         <v>1991</v>
       </c>
-      <c r="F597" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="598" spans="1:6">
       <c r="C598" s="1" t="s">
         <v>1992</v>
       </c>
       <c r="D598" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E598" s="1" t="s">
         <v>1993</v>
       </c>
-      <c r="E598" s="1" t="s">
+      <c r="F598" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6">
+      <c r="C599" s="1" t="s">
         <v>1994</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6">
-      <c r="A599" s="1" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C599" s="1" t="s">
-        <v>1997</v>
       </c>
       <c r="D599" s="1" t="s">
         <v>1995</v>
@@ -17129,41 +17297,41 @@
       <c r="E599" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="F599" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="600" spans="1:6">
+      <c r="A600" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1998</v>
+      </c>
       <c r="C600" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E600" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="D600" s="1" t="s">
-        <v>1999</v>
-      </c>
-      <c r="E600" s="1" t="s">
-        <v>2000</v>
+      <c r="F600" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="601" spans="1:6">
       <c r="C601" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D601" s="1" t="s">
         <v>2001</v>
       </c>
-      <c r="D601" s="1" t="s">
+      <c r="E601" s="1" t="s">
         <v>2002</v>
       </c>
-      <c r="E601" s="1" t="s">
+    </row>
+    <row r="602" spans="1:6">
+      <c r="C602" s="1" t="s">
         <v>2003</v>
-      </c>
-    </row>
-    <row r="602" spans="1:6">
-      <c r="A602" s="1" t="s">
-        <v>2004</v>
-      </c>
-      <c r="B602" s="1" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C602" s="1" t="s">
-        <v>2006</v>
       </c>
       <c r="D602" s="1" t="s">
         <v>2004</v>
@@ -17171,47 +17339,53 @@
       <c r="E602" s="1" t="s">
         <v>2005</v>
       </c>
-      <c r="F602" s="1">
-        <v>11</v>
-      </c>
     </row>
     <row r="603" spans="1:6">
+      <c r="A603" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>2007</v>
+      </c>
       <c r="C603" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E603" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="D603" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="E603" s="1" t="s">
-        <v>2009</v>
+      <c r="F603" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="604" spans="1:6">
       <c r="C604" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D604" s="1" t="s">
         <v>2010</v>
       </c>
-      <c r="D604" s="1" t="s">
+      <c r="E604" s="1" t="s">
         <v>2011</v>
-      </c>
-      <c r="E604" s="1" t="s">
-        <v>2012</v>
       </c>
     </row>
     <row r="605" spans="1:6">
       <c r="A605" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B605" s="1" t="s">
         <v>2013</v>
       </c>
-      <c r="B605" s="1" t="s">
+      <c r="C605" s="1" t="s">
         <v>2014</v>
       </c>
-      <c r="C605" s="1" t="s">
+      <c r="D605" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E605" s="1" t="s">
         <v>2015</v>
-      </c>
-      <c r="D605" s="1" t="s">
-        <v>2013</v>
-      </c>
-      <c r="E605" s="1" t="s">
-        <v>2014</v>
       </c>
       <c r="F605" s="1">
         <v>9</v>
@@ -17229,50 +17403,56 @@
       </c>
     </row>
     <row r="607" spans="1:6">
+      <c r="A607" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>2020</v>
+      </c>
       <c r="C607" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D607" s="1" t="s">
         <v>2019</v>
       </c>
-      <c r="D607" s="1" t="s">
+      <c r="E607" s="1" t="s">
         <v>2020</v>
       </c>
-      <c r="E607" s="1" t="s">
-        <v>2021</v>
+      <c r="F607" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="608" spans="1:6">
-      <c r="A608" s="1" t="s">
+      <c r="C608" s="1" t="s">
         <v>2022</v>
       </c>
-      <c r="B608" s="1" t="s">
+      <c r="D608" s="1" t="s">
         <v>2023</v>
       </c>
-      <c r="C608" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D608" s="1" t="s">
-        <v>1360</v>
-      </c>
       <c r="E608" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="F608" s="1">
-        <v>4</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="609" spans="1:6">
       <c r="C609" s="1" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="610" spans="1:6">
+      <c r="A610" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>2029</v>
+      </c>
       <c r="C610" s="1" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>2028</v>
@@ -17280,47 +17460,50 @@
       <c r="E610" s="1" t="s">
         <v>2029</v>
       </c>
+      <c r="F610" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="611" spans="1:6">
       <c r="C611" s="1" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="612" spans="1:6">
-      <c r="A612" s="1" t="s">
-        <v>2033</v>
-      </c>
-      <c r="B612" s="1" t="s">
+      <c r="C612" s="1" t="s">
         <v>2034</v>
       </c>
-      <c r="C612" s="1" t="s">
+      <c r="D612" s="1" t="s">
         <v>2035</v>
-      </c>
-      <c r="D612" s="1" t="s">
-        <v>2033</v>
       </c>
       <c r="E612" s="1" t="s">
         <v>2036</v>
       </c>
-      <c r="F612" s="1">
-        <v>8</v>
-      </c>
     </row>
     <row r="613" spans="1:6">
+      <c r="A613" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>2038</v>
+      </c>
       <c r="C613" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D613" s="1" t="s">
         <v>2037</v>
       </c>
-      <c r="D613" s="1" t="s">
+      <c r="E613" s="1" t="s">
         <v>2038</v>
       </c>
-      <c r="E613" s="1" t="s">
-        <v>2039</v>
+      <c r="F613" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -17346,594 +17529,585 @@
       </c>
     </row>
     <row r="616" spans="1:6">
+      <c r="A616" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>2047</v>
+      </c>
       <c r="C616" s="1" t="s">
-        <v>2046</v>
+        <v>1359</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>2047</v>
+        <v>1360</v>
       </c>
       <c r="E616" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F616" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6">
+      <c r="C617" s="1" t="s">
         <v>2048</v>
       </c>
-    </row>
-    <row r="617" spans="1:6">
-      <c r="A617" s="1" t="s">
+      <c r="D617" s="1" t="s">
         <v>2049</v>
       </c>
-      <c r="B617" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C617" s="1" t="s">
+      <c r="E617" s="1" t="s">
         <v>2050</v>
-      </c>
-      <c r="D617" s="1" t="s">
-        <v>2051</v>
-      </c>
-      <c r="E617" s="1" t="s">
-        <v>2052</v>
-      </c>
-      <c r="F617" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="618" spans="1:6">
       <c r="C618" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E618" s="1" t="s">
         <v>2053</v>
       </c>
-      <c r="D618" s="1" t="s">
+    </row>
+    <row r="619" spans="1:6">
+      <c r="C619" s="1" t="s">
         <v>2054</v>
       </c>
-      <c r="E618" s="1" t="s">
+      <c r="D619" s="1" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="619" spans="1:6">
-      <c r="A619" s="1" t="s">
+      <c r="E619" s="1" t="s">
         <v>2056</v>
-      </c>
-      <c r="B619" s="1" t="s">
-        <v>2057</v>
-      </c>
-      <c r="C619" s="1" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D619" s="1" t="s">
-        <v>2059</v>
-      </c>
-      <c r="E619" s="1" t="s">
-        <v>2060</v>
-      </c>
-      <c r="F619" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="620" spans="1:6">
       <c r="A620" s="1" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1310</v>
+        <v>2059</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="F620" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="621" spans="1:6">
       <c r="C621" s="1" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="622" spans="1:6">
       <c r="C622" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6">
+      <c r="C623" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D623" s="1" t="s">
         <v>2068</v>
       </c>
-      <c r="D622" s="1" t="s">
+      <c r="E623" s="1" t="s">
         <v>2069</v>
-      </c>
-      <c r="E622" s="1" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="623" spans="1:6">
-      <c r="A623" s="1" t="s">
-        <v>2071</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C623" s="1" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D623" s="1" t="s">
-        <v>2073</v>
-      </c>
-      <c r="E623" s="1" t="s">
-        <v>2074</v>
-      </c>
-      <c r="F623" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="624" spans="1:6">
       <c r="C624" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6">
+      <c r="A625" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D625" s="1" t="s">
         <v>2075</v>
       </c>
-      <c r="D624" s="1" t="s">
+      <c r="E625" s="1" t="s">
         <v>2076</v>
       </c>
-      <c r="E624" s="1" t="s">
+      <c r="F625" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6">
+      <c r="C626" s="1" t="s">
         <v>2077</v>
       </c>
-    </row>
-    <row r="625" spans="1:6">
-      <c r="C625" s="1" t="s">
+      <c r="D626" s="1" t="s">
         <v>2078</v>
       </c>
-      <c r="D625" s="1" t="s">
+      <c r="E626" s="1" t="s">
         <v>2079</v>
       </c>
-      <c r="E625" s="1" t="s">
+    </row>
+    <row r="627" spans="1:6">
+      <c r="A627" s="1" t="s">
         <v>2080</v>
       </c>
-    </row>
-    <row r="626" spans="1:6" ht="18.75">
-      <c r="A626" s="2" t="s">
+      <c r="B627" s="1" t="s">
         <v>2081</v>
       </c>
-      <c r="B626" s="2" t="s">
+      <c r="C627" s="1" t="s">
         <v>2082</v>
       </c>
-      <c r="C626" s="2" t="s">
+      <c r="D627" s="1" t="s">
         <v>2083</v>
       </c>
-      <c r="D626" s="2" t="s">
+      <c r="E627" s="1" t="s">
         <v>2084</v>
       </c>
-      <c r="E626" s="2" t="s">
-        <v>2085</v>
-      </c>
-      <c r="F626" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6" ht="18.75">
-      <c r="A627" s="2"/>
-      <c r="B627" s="2"/>
-      <c r="C627" s="2" t="s">
-        <v>2086</v>
-      </c>
-      <c r="D627" s="2" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E627" s="2" t="s">
-        <v>2088</v>
-      </c>
-      <c r="F627" s="2"/>
+      <c r="F627" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="628" spans="1:6">
       <c r="A628" s="1" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>2091</v>
+        <v>1310</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="F628" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="629" spans="1:6">
       <c r="C629" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6">
+      <c r="C630" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E630" s="1" t="s">
         <v>2094</v>
       </c>
-      <c r="D629" s="1" t="s">
+    </row>
+    <row r="631" spans="1:6">
+      <c r="A631" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="E629" s="1" t="s">
+      <c r="B631" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C631" s="1" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="630" spans="1:6">
-      <c r="A630" s="1" t="s">
+      <c r="D631" s="1" t="s">
         <v>2097</v>
       </c>
-      <c r="B630" s="1" t="s">
+      <c r="E631" s="1" t="s">
         <v>2098</v>
       </c>
-      <c r="C630" s="1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D630" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E630" s="1" t="s">
-        <v>2099</v>
-      </c>
-      <c r="F630" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="631" spans="1:6">
-      <c r="C631" s="1" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D631" s="1" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E631" s="1" t="s">
-        <v>2093</v>
+      <c r="F631" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="632" spans="1:6">
       <c r="C632" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D632" s="1" t="s">
         <v>2100</v>
       </c>
-      <c r="D632" s="1" t="s">
+      <c r="E632" s="1" t="s">
         <v>2101</v>
       </c>
-      <c r="E632" s="1" t="s">
+    </row>
+    <row r="633" spans="1:6">
+      <c r="C633" s="1" t="s">
         <v>2102</v>
       </c>
-    </row>
-    <row r="633" spans="1:6">
-      <c r="A633" s="1" t="s">
+      <c r="D633" s="1" t="s">
         <v>2103</v>
       </c>
-      <c r="B633" s="1" t="s">
+      <c r="E633" s="1" t="s">
         <v>2104</v>
       </c>
-      <c r="C633" s="1" t="s">
+    </row>
+    <row r="634" spans="1:6" ht="18.75">
+      <c r="A634" s="2" t="s">
         <v>2105</v>
       </c>
-      <c r="D633" s="1" t="s">
+      <c r="B634" s="2" t="s">
         <v>2106</v>
       </c>
-      <c r="E633" s="1" t="s">
+      <c r="C634" s="2" t="s">
         <v>2107</v>
       </c>
-      <c r="F633" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6">
-      <c r="C634" s="1" t="s">
+      <c r="D634" s="2" t="s">
         <v>2108</v>
       </c>
-      <c r="D634" s="1" t="s">
+      <c r="E634" s="2" t="s">
         <v>2109</v>
       </c>
-      <c r="E634" s="1" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="635" spans="1:6">
-      <c r="C635" s="1" t="s">
+      <c r="F634" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" ht="18.75">
+      <c r="A635" s="2"/>
+      <c r="B635" s="2"/>
+      <c r="C635" s="2" t="s">
         <v>2110</v>
       </c>
-      <c r="D635" s="1" t="s">
+      <c r="D635" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="E635" s="1" t="s">
+      <c r="E635" s="2" t="s">
         <v>2112</v>
       </c>
+      <c r="F635" s="2"/>
     </row>
     <row r="636" spans="1:6">
+      <c r="A636" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>2114</v>
+      </c>
       <c r="C636" s="1" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>2115</v>
+        <v>2117</v>
+      </c>
+      <c r="F636" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="637" spans="1:6">
-      <c r="A637" s="1" t="s">
-        <v>2116</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>1893</v>
-      </c>
       <c r="C637" s="1" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>2119</v>
-      </c>
-      <c r="F637" s="1">
-        <v>9</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="638" spans="1:6">
+      <c r="A638" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>2122</v>
+      </c>
       <c r="C638" s="1" t="s">
-        <v>2120</v>
+        <v>1782</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>2121</v>
+        <v>1783</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>2122</v>
+        <v>2123</v>
+      </c>
+      <c r="F638" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="639" spans="1:6">
       <c r="C639" s="1" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>2124</v>
+        <v>2116</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>2125</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="640" spans="1:6">
       <c r="C640" s="1" t="s">
-        <v>1807</v>
+        <v>2124</v>
       </c>
       <c r="D640" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E640" s="1" t="s">
         <v>2126</v>
-      </c>
-      <c r="E640" s="1" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="641" spans="1:6">
       <c r="A641" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B641" s="1" t="s">
         <v>2128</v>
       </c>
-      <c r="B641" s="1" t="s">
+      <c r="C641" s="1" t="s">
         <v>2129</v>
       </c>
-      <c r="C641" s="1" t="s">
+      <c r="D641" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="D641" s="1" t="s">
+      <c r="E641" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="E641" s="1" t="s">
-        <v>2132</v>
-      </c>
       <c r="F641" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="642" spans="1:6">
       <c r="C642" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D642" s="1" t="s">
         <v>2133</v>
       </c>
-      <c r="D642" s="1" t="s">
-        <v>2134</v>
-      </c>
       <c r="E642" s="1" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="643" spans="1:6">
       <c r="C643" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E643" s="1" t="s">
         <v>2136</v>
-      </c>
-      <c r="D643" s="1" t="s">
-        <v>2137</v>
-      </c>
-      <c r="E643" s="1" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="644" spans="1:6">
       <c r="C644" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E644" s="1" t="s">
         <v>2139</v>
-      </c>
-      <c r="D644" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="E644" s="1" t="s">
-        <v>2141</v>
       </c>
     </row>
     <row r="645" spans="1:6">
       <c r="A645" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D645" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="B645" s="1" t="s">
+      <c r="E645" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="C645" s="1" t="s">
-        <v>2144</v>
-      </c>
-      <c r="D645" s="1" t="s">
-        <v>2145</v>
-      </c>
-      <c r="E645" s="1" t="s">
-        <v>2146</v>
-      </c>
       <c r="F645" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="646" spans="1:6">
       <c r="C646" s="1" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="647" spans="1:6">
       <c r="C647" s="1" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="648" spans="1:6">
       <c r="C648" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6">
+      <c r="A649" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B649" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="D648" s="1" t="s">
+      <c r="C649" s="1" t="s">
         <v>2154</v>
       </c>
-      <c r="E648" s="1" t="s">
+      <c r="D649" s="1" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="649" spans="1:6">
-      <c r="C649" s="1" t="s">
+      <c r="E649" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="D649" s="1" t="s">
-        <v>2157</v>
-      </c>
-      <c r="E649" s="1" t="s">
-        <v>414</v>
+      <c r="F649" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="650" spans="1:6">
       <c r="C650" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D650" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="D650" s="1" t="s">
+      <c r="E650" s="1" t="s">
         <v>2159</v>
-      </c>
-      <c r="E650" s="1" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="651" spans="1:6">
       <c r="C651" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D651" s="1" t="s">
         <v>2161</v>
       </c>
-      <c r="D651" s="1" t="s">
+      <c r="E651" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="E651" s="1" t="s">
+    </row>
+    <row r="652" spans="1:6">
+      <c r="C652" s="1" t="s">
         <v>2163</v>
       </c>
-    </row>
-    <row r="652" spans="1:6">
-      <c r="A652" s="1" t="s">
+      <c r="D652" s="1" t="s">
         <v>2164</v>
       </c>
-      <c r="B652" s="1" t="s">
+      <c r="E652" s="1" t="s">
         <v>2165</v>
       </c>
-      <c r="C652" s="1" t="s">
+    </row>
+    <row r="653" spans="1:6">
+      <c r="A653" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="D652" s="1" t="s">
+      <c r="B653" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="E652" s="1" t="s">
+      <c r="C653" s="1" t="s">
         <v>2168</v>
       </c>
-      <c r="F652" s="1">
+      <c r="D653" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F653" s="1">
         <v>12</v>
-      </c>
-    </row>
-    <row r="653" spans="1:6">
-      <c r="C653" s="1" t="s">
-        <v>2169</v>
-      </c>
-      <c r="D653" s="1" t="s">
-        <v>2170</v>
-      </c>
-      <c r="E653" s="1" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="654" spans="1:6">
       <c r="C654" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D654" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="D654" s="1" t="s">
+      <c r="E654" s="1" t="s">
         <v>2173</v>
-      </c>
-      <c r="E654" s="1" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="655" spans="1:6">
       <c r="C655" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D655" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="D655" s="1" t="s">
+      <c r="E655" s="1" t="s">
         <v>2176</v>
       </c>
-      <c r="E655" s="1" t="s">
+    </row>
+    <row r="656" spans="1:6">
+      <c r="C656" s="1" t="s">
         <v>2177</v>
       </c>
-    </row>
-    <row r="656" spans="1:6">
-      <c r="A656" s="1" t="s">
+      <c r="D656" s="1" t="s">
         <v>2178</v>
       </c>
-      <c r="B656" s="1" t="s">
+      <c r="E656" s="1" t="s">
         <v>2179</v>
       </c>
-      <c r="C656" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D656" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E656" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F656" s="1">
-        <v>14</v>
-      </c>
     </row>
     <row r="657" spans="1:6">
-      <c r="A657" s="1" t="s">
+      <c r="C657" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="B657" s="1" t="s">
+      <c r="D657" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="C657" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D657" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="E657" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F657" s="1">
-        <v>14</v>
+        <v>414</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -17948,26 +18122,23 @@
       </c>
     </row>
     <row r="659" spans="1:6">
-      <c r="A659" s="1" t="s">
+      <c r="C659" s="1" t="s">
         <v>2185</v>
       </c>
-      <c r="B659" s="1" t="s">
+      <c r="D659" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="C659" s="1" t="s">
+      <c r="E659" s="1" t="s">
         <v>2187</v>
       </c>
-      <c r="D659" s="1" t="s">
+    </row>
+    <row r="660" spans="1:6">
+      <c r="A660" s="1" t="s">
         <v>2188</v>
       </c>
-      <c r="E659" s="1" t="s">
+      <c r="B660" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="F659" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="660" spans="1:6">
       <c r="C660" s="1" t="s">
         <v>2190</v>
       </c>
@@ -17976,6 +18147,9 @@
       </c>
       <c r="E660" s="1" t="s">
         <v>2192</v>
+      </c>
+      <c r="F660" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -17990,1809 +18164,1824 @@
       </c>
     </row>
     <row r="662" spans="1:6">
-      <c r="A662" s="1" t="s">
+      <c r="C662" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="B662" s="1" t="s">
+      <c r="D662" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="C662" s="1" t="s">
+      <c r="E662" s="1" t="s">
         <v>2198</v>
-      </c>
-      <c r="D662" s="1" t="s">
-        <v>2196</v>
-      </c>
-      <c r="E662" s="1" t="s">
-        <v>2199</v>
-      </c>
-      <c r="F662" s="1">
-        <v>9</v>
       </c>
     </row>
     <row r="663" spans="1:6">
       <c r="C663" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D663" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="D663" s="1" t="s">
+      <c r="E663" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="E663" s="1" t="s">
+    </row>
+    <row r="664" spans="1:6">
+      <c r="A664" s="1" t="s">
         <v>2202</v>
       </c>
-    </row>
-    <row r="664" spans="1:6">
+      <c r="B664" s="1" t="s">
+        <v>2203</v>
+      </c>
       <c r="C664" s="1" t="s">
-        <v>2203</v>
+        <v>1017</v>
       </c>
       <c r="D664" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F664" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6">
+      <c r="A665" s="1" t="s">
         <v>2204</v>
       </c>
-      <c r="E664" s="1" t="s">
+      <c r="B665" s="1" t="s">
         <v>2205</v>
       </c>
-    </row>
-    <row r="665" spans="1:6">
       <c r="C665" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F665" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6">
+      <c r="C666" s="1" t="s">
         <v>2206</v>
       </c>
-      <c r="D665" s="1" t="s">
+      <c r="D666" s="1" t="s">
         <v>2207</v>
       </c>
-      <c r="E665" s="1" t="s">
+      <c r="E666" s="1" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
-      <c r="A666" s="1" t="s">
+    <row r="667" spans="1:6">
+      <c r="A667" s="1" t="s">
         <v>2209</v>
       </c>
-      <c r="B666" s="1" t="s">
+      <c r="B667" s="1" t="s">
         <v>2210</v>
       </c>
-      <c r="C666" s="1" t="s">
+      <c r="C667" s="1" t="s">
         <v>2211</v>
       </c>
-      <c r="D666" s="1" t="s">
-        <v>2209</v>
-      </c>
-      <c r="E666" s="1" t="s">
+      <c r="D667" s="1" t="s">
         <v>2212</v>
       </c>
-      <c r="F666" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="667" spans="1:6">
-      <c r="C667" s="1" t="s">
+      <c r="E667" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="D667" s="1" t="s">
-        <v>2214</v>
-      </c>
-      <c r="E667" s="1" t="s">
-        <v>2215</v>
+      <c r="F667" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="668" spans="1:6">
       <c r="C668" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E668" s="1" t="s">
         <v>2216</v>
       </c>
-      <c r="D668" s="1" t="s">
+    </row>
+    <row r="669" spans="1:6">
+      <c r="C669" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="E668" s="1" t="s">
+      <c r="D669" s="1" t="s">
         <v>2218</v>
       </c>
-    </row>
-    <row r="669" spans="1:6">
-      <c r="A669" s="1" t="s">
+      <c r="E669" s="1" t="s">
         <v>2219</v>
       </c>
-      <c r="B669" s="1" t="s">
+    </row>
+    <row r="670" spans="1:6">
+      <c r="A670" s="1" t="s">
         <v>2220</v>
       </c>
-      <c r="C669" s="1" t="s">
+      <c r="B670" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="D669" s="1" t="s">
+      <c r="C670" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="E669" s="1" t="s">
+      <c r="D670" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E670" s="1" t="s">
         <v>2223</v>
       </c>
-      <c r="F669" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="670" spans="1:6">
-      <c r="C670" s="1" t="s">
+      <c r="F670" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6">
+      <c r="C671" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="D670" s="1" t="s">
+      <c r="D671" s="1" t="s">
         <v>2225</v>
       </c>
-      <c r="E670" s="1" t="s">
+      <c r="E671" s="1" t="s">
         <v>2226</v>
-      </c>
-    </row>
-    <row r="671" spans="1:6">
-      <c r="A671" s="1" t="s">
-        <v>2227</v>
-      </c>
-      <c r="B671" s="1" t="s">
-        <v>2228</v>
-      </c>
-      <c r="C671" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="D671" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E671" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="F671" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="672" spans="1:6">
       <c r="C672" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E672" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D672" s="1" t="s">
-        <v>2227</v>
-      </c>
-      <c r="E672" s="1" t="s">
+    </row>
+    <row r="673" spans="1:6">
+      <c r="C673" s="1" t="s">
         <v>2230</v>
       </c>
-    </row>
-    <row r="673" spans="1:6">
-      <c r="A673" s="1" t="s">
+      <c r="D673" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="B673" s="1" t="s">
+      <c r="E673" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="C673" s="1" t="s">
+    </row>
+    <row r="674" spans="1:6">
+      <c r="A674" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D673" s="1" t="s">
+      <c r="B674" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="E673" s="1" t="s">
+      <c r="C674" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="F673" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="674" spans="1:6">
-      <c r="C674" s="1" t="s">
+      <c r="D674" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E674" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D674" s="1" t="s">
-        <v>2237</v>
-      </c>
-      <c r="E674" s="1" t="s">
-        <v>2238</v>
+      <c r="F674" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="675" spans="1:6">
       <c r="C675" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E675" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="D675" s="1" t="s">
+    </row>
+    <row r="676" spans="1:6">
+      <c r="C676" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="E675" s="1" t="s">
+      <c r="D676" s="1" t="s">
         <v>2241</v>
       </c>
-    </row>
-    <row r="676" spans="1:6">
-      <c r="A676" s="1" t="s">
+      <c r="E676" s="1" t="s">
         <v>2242</v>
-      </c>
-      <c r="B676" s="1" t="s">
-        <v>2243</v>
-      </c>
-      <c r="C676" s="1" t="s">
-        <v>2244</v>
-      </c>
-      <c r="D676" s="1" t="s">
-        <v>2245</v>
-      </c>
-      <c r="E676" s="1" t="s">
-        <v>2246</v>
-      </c>
-      <c r="F676" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="677" spans="1:6">
       <c r="A677" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E677" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="B677" s="1" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C677" s="1" t="s">
-        <v>2249</v>
-      </c>
-      <c r="D677" s="1" t="s">
-        <v>2250</v>
-      </c>
-      <c r="E677" s="1" t="s">
-        <v>2251</v>
-      </c>
       <c r="F677" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="678" spans="1:6">
       <c r="C678" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6">
+      <c r="A679" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B679" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="D678" s="1" t="s">
-        <v>2253</v>
-      </c>
-      <c r="E678" s="1" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="679" spans="1:6">
       <c r="C679" s="1" t="s">
-        <v>2255</v>
+        <v>1833</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>2256</v>
+        <v>1834</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>2257</v>
+        <v>1835</v>
+      </c>
+      <c r="F679" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="1:6">
       <c r="C680" s="1" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>2259</v>
+        <v>2251</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>1828</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="681" spans="1:6">
       <c r="A681" s="1" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>1327</v>
+        <v>1491</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>1328</v>
+        <v>1492</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>1329</v>
+        <v>1493</v>
       </c>
       <c r="F681" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="682" spans="1:6">
       <c r="C682" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6">
+      <c r="C683" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E683" s="1" t="s">
         <v>2262</v>
-      </c>
-      <c r="D682" s="1" t="s">
-        <v>2263</v>
-      </c>
-      <c r="E682" s="1" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6">
-      <c r="A683" s="1" t="s">
-        <v>2265</v>
-      </c>
-      <c r="B683" s="1" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C683" s="1" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D683" s="1" t="s">
-        <v>2268</v>
-      </c>
-      <c r="E683" s="1" t="s">
-        <v>2269</v>
-      </c>
-      <c r="F683" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="684" spans="1:6">
       <c r="A684" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F684" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6">
+      <c r="A685" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C685" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="B684" s="1" t="s">
+      <c r="D685" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="C684" s="1" t="s">
+      <c r="E685" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="D684" s="1" t="s">
+      <c r="F685" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6">
+      <c r="C686" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="E684" s="1" t="s">
+      <c r="D686" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="F684" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="685" spans="1:6">
-      <c r="C685" s="1" t="s">
+      <c r="E686" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="D685" s="1" t="s">
-        <v>2276</v>
-      </c>
-      <c r="E685" s="1" t="s">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="686" spans="1:6">
-      <c r="A686" s="1" t="s">
-        <v>2278</v>
-      </c>
-      <c r="B686" s="1" t="s">
-        <v>2279</v>
-      </c>
-      <c r="C686" s="1" t="s">
-        <v>2280</v>
-      </c>
-      <c r="D686" s="1" t="s">
-        <v>2281</v>
-      </c>
-      <c r="E686" s="1" t="s">
-        <v>2282</v>
-      </c>
-      <c r="F686" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="687" spans="1:6">
       <c r="C687" s="1" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="688" spans="1:6">
       <c r="C688" s="1" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>2288</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="689" spans="1:6">
       <c r="A689" s="1" t="s">
-        <v>2289</v>
+        <v>2281</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>1847</v>
+        <v>2282</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>2290</v>
+        <v>1327</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>2289</v>
+        <v>1328</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>2291</v>
+        <v>1329</v>
       </c>
       <c r="F689" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="690" spans="1:6">
       <c r="C690" s="1" t="s">
-        <v>2292</v>
+        <v>2283</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>2293</v>
+        <v>2284</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>2294</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="691" spans="1:6">
       <c r="A691" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F691" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6">
+      <c r="A692" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E692" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="B691" s="1" t="s">
-        <v>2296</v>
-      </c>
-      <c r="C691" s="1" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D691" s="1" t="s">
-        <v>2298</v>
-      </c>
-      <c r="E691" s="1" t="s">
-        <v>2299</v>
-      </c>
-      <c r="F691" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="692" spans="1:6">
-      <c r="C692" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D692" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E692" s="1" t="s">
-        <v>690</v>
+      <c r="F692" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="693" spans="1:6">
       <c r="C693" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6">
+      <c r="A694" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B694" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="D693" s="1" t="s">
-        <v>2295</v>
-      </c>
-      <c r="E693" s="1" t="s">
+      <c r="C694" s="1" t="s">
         <v>2301</v>
       </c>
-    </row>
-    <row r="694" spans="1:6">
-      <c r="C694" s="1" t="s">
+      <c r="D694" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="D694" s="1" t="s">
+      <c r="E694" s="1" t="s">
         <v>2303</v>
       </c>
-      <c r="E694" s="1" t="s">
-        <v>2304</v>
+      <c r="F694" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="695" spans="1:6">
       <c r="C695" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D695" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="D695" s="1" t="s">
+      <c r="E695" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="E695" s="1" t="s">
+    </row>
+    <row r="696" spans="1:6">
+      <c r="C696" s="1" t="s">
         <v>2307</v>
       </c>
-    </row>
-    <row r="696" spans="1:6">
-      <c r="A696" s="1" t="s">
+      <c r="D696" s="1" t="s">
         <v>2308</v>
       </c>
-      <c r="B696" s="1" t="s">
+      <c r="E696" s="1" t="s">
         <v>2309</v>
       </c>
-      <c r="C696" s="1" t="s">
+    </row>
+    <row r="697" spans="1:6">
+      <c r="A697" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="D696" s="1" t="s">
+      <c r="B697" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C697" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="E696" s="1" t="s">
+      <c r="D697" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E697" s="1" t="s">
         <v>2312</v>
       </c>
-      <c r="F696" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="697" spans="1:6">
-      <c r="C697" s="1" t="s">
-        <v>2313</v>
-      </c>
-      <c r="D697" s="1" t="s">
-        <v>2314</v>
-      </c>
-      <c r="E697" s="1" t="s">
-        <v>2315</v>
+      <c r="F697" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="698" spans="1:6">
       <c r="C698" s="1" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="699" spans="1:6">
       <c r="A699" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D699" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="B699" s="1" t="s">
+      <c r="E699" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="C699" s="1" t="s">
-        <v>2321</v>
-      </c>
-      <c r="D699" s="1" t="s">
-        <v>2322</v>
-      </c>
-      <c r="E699" s="1" t="s">
-        <v>2323</v>
-      </c>
       <c r="F699" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="700" spans="1:6">
       <c r="C700" s="1" t="s">
-        <v>2324</v>
+        <v>688</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>2325</v>
+        <v>689</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>2326</v>
+        <v>690</v>
       </c>
     </row>
     <row r="701" spans="1:6">
       <c r="C701" s="1" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>2328</v>
+        <v>2316</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>2329</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="702" spans="1:6">
       <c r="C702" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6">
+      <c r="C703" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6">
+      <c r="A704" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B704" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="D702" s="1" t="s">
+      <c r="C704" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="E702" s="1" t="s">
+      <c r="D704" s="1" t="s">
         <v>2332</v>
       </c>
-    </row>
-    <row r="703" spans="1:6">
-      <c r="A703" s="1" t="s">
+      <c r="E704" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="B703" s="1" t="s">
-        <v>2334</v>
-      </c>
-      <c r="C703" s="1" t="s">
-        <v>2335</v>
-      </c>
-      <c r="D703" s="1" t="s">
-        <v>2336</v>
-      </c>
-      <c r="E703" s="1" t="s">
-        <v>2337</v>
-      </c>
-      <c r="F703" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="704" spans="1:6">
-      <c r="C704" s="1" t="s">
-        <v>2338</v>
-      </c>
-      <c r="D704" s="1" t="s">
-        <v>2339</v>
-      </c>
-      <c r="E704" s="1" t="s">
-        <v>2340</v>
+      <c r="F704" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="705" spans="1:6">
       <c r="C705" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6">
+      <c r="C706" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6">
+      <c r="A707" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B707" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="D705" s="1" t="s">
+      <c r="C707" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="E705" s="1" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="706" spans="1:6">
-      <c r="A706" s="1" t="s">
+      <c r="D707" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="B706" s="1" t="s">
+      <c r="E707" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="C706" s="1" t="s">
-        <v>2345</v>
-      </c>
-      <c r="D706" s="1" t="s">
-        <v>2346</v>
-      </c>
-      <c r="E706" s="1" t="s">
-        <v>2347</v>
-      </c>
-      <c r="F706" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="707" spans="1:6">
-      <c r="C707" s="1" t="s">
-        <v>2348</v>
-      </c>
-      <c r="D707" s="1" t="s">
-        <v>2349</v>
-      </c>
-      <c r="E707" s="1" t="s">
-        <v>2350</v>
+      <c r="F707" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="708" spans="1:6">
       <c r="C708" s="1" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="709" spans="1:6">
       <c r="C709" s="1" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="710" spans="1:6">
-      <c r="A710" s="1" t="s">
-        <v>2357</v>
-      </c>
-      <c r="B710" s="1" t="s">
-        <v>2358</v>
-      </c>
       <c r="C710" s="1" t="s">
-        <v>1794</v>
+        <v>2351</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>1795</v>
+        <v>2352</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="F710" s="1">
-        <v>13</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="711" spans="1:6">
       <c r="A711" s="1" t="s">
-        <v>2359</v>
+        <v>2354</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>2360</v>
+        <v>2355</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>2361</v>
+        <v>2356</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>2362</v>
+        <v>2357</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>2363</v>
+        <v>2358</v>
       </c>
       <c r="F711" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="712" spans="1:6">
       <c r="C712" s="1" t="s">
-        <v>2364</v>
+        <v>2359</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>2365</v>
+        <v>2360</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>2366</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="713" spans="1:6">
       <c r="C713" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6">
+      <c r="A714" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D714" s="1" t="s">
         <v>2367</v>
       </c>
-      <c r="D713" s="1" t="s">
-        <v>2359</v>
-      </c>
-      <c r="E713" s="1" t="s">
+      <c r="E714" s="1" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="714" spans="1:6">
-      <c r="C714" s="1" t="s">
-        <v>2369</v>
-      </c>
-      <c r="D714" s="1" t="s">
-        <v>2370</v>
-      </c>
-      <c r="E714" s="1" t="s">
-        <v>2371</v>
+      <c r="F714" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="715" spans="1:6">
       <c r="C715" s="1" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6">
+      <c r="C716" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="D715" s="1" t="s">
+      <c r="D716" s="1" t="s">
         <v>2373</v>
       </c>
-      <c r="E715" s="1" t="s">
+      <c r="E716" s="1" t="s">
         <v>2374</v>
-      </c>
-    </row>
-    <row r="716" spans="1:6">
-      <c r="A716" s="1" t="s">
-        <v>2375</v>
-      </c>
-      <c r="B716" s="1" t="s">
-        <v>2376</v>
-      </c>
-      <c r="C716" s="1" t="s">
-        <v>2377</v>
-      </c>
-      <c r="D716" s="1" t="s">
-        <v>2375</v>
-      </c>
-      <c r="E716" s="1" t="s">
-        <v>2378</v>
-      </c>
-      <c r="F716" s="1">
-        <v>16</v>
       </c>
     </row>
     <row r="717" spans="1:6">
       <c r="C717" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6">
+      <c r="A718" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B718" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="D717" s="1" t="s">
-        <v>2380</v>
-      </c>
-      <c r="E717" s="1" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="718" spans="1:6">
       <c r="C718" s="1" t="s">
-        <v>2382</v>
+        <v>1818</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>2383</v>
+        <v>1819</v>
       </c>
       <c r="E718" s="1" t="s">
-        <v>2384</v>
+        <v>1820</v>
+      </c>
+      <c r="F718" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="719" spans="1:6">
       <c r="A719" s="1" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>2387</v>
+        <v>2382</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="F719" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="720" spans="1:6">
       <c r="C720" s="1" t="s">
-        <v>1692</v>
+        <v>2385</v>
       </c>
       <c r="D720" s="1" t="s">
-        <v>1693</v>
+        <v>2386</v>
       </c>
       <c r="E720" s="1" t="s">
-        <v>1694</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="721" spans="1:6">
       <c r="C721" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E721" s="1" t="s">
         <v>2389</v>
       </c>
-      <c r="D721" s="1" t="s">
+    </row>
+    <row r="722" spans="1:6">
+      <c r="C722" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="E721" s="1" t="s">
+      <c r="D722" s="1" t="s">
         <v>2391</v>
       </c>
-    </row>
-    <row r="722" spans="1:6">
-      <c r="A722" s="1" t="s">
+      <c r="E722" s="1" t="s">
         <v>2392</v>
-      </c>
-      <c r="B722" s="1" t="s">
-        <v>2393</v>
-      </c>
-      <c r="C722" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="D722" s="1" t="s">
-        <v>2395</v>
-      </c>
-      <c r="E722" s="1" t="s">
-        <v>2396</v>
-      </c>
-      <c r="F722" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="723" spans="1:6">
       <c r="C723" s="1" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="724" spans="1:6">
       <c r="A724" s="1" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>2024</v>
+        <v>2398</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>2025</v>
+        <v>2396</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>2026</v>
+        <v>2399</v>
       </c>
       <c r="F724" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="725" spans="1:6">
       <c r="C725" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E725" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="D725" s="1" t="s">
+    </row>
+    <row r="726" spans="1:6">
+      <c r="C726" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="E725" s="1" t="s">
+      <c r="D726" s="1" t="s">
         <v>2404</v>
       </c>
-    </row>
-    <row r="726" spans="1:6">
-      <c r="A726" s="1" t="s">
+      <c r="E726" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="B726" s="1" t="s">
+    </row>
+    <row r="727" spans="1:6">
+      <c r="A727" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="C726" s="1" t="s">
+      <c r="B727" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="D726" s="1" t="s">
+      <c r="C727" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="E726" s="1" t="s">
+      <c r="D727" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E727" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="F726" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="727" spans="1:6">
-      <c r="C727" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D727" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E727" s="1" t="s">
-        <v>207</v>
+      <c r="F727" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="728" spans="1:6">
       <c r="C728" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6">
+      <c r="C729" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="D728" s="1" t="s">
+      <c r="D729" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="E728" s="1" t="s">
+      <c r="E729" s="1" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
-      <c r="A729" s="1" t="s">
+    <row r="730" spans="1:6">
+      <c r="A730" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="B729" s="1" t="s">
-        <v>2406</v>
-      </c>
-      <c r="C729" s="1" t="s">
+      <c r="B730" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="D729" s="1" t="s">
+      <c r="C730" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="E729" s="1" t="s">
+      <c r="D730" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="F729" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6">
-      <c r="C730" s="1" t="s">
+      <c r="E730" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="D730" s="1" t="s">
-        <v>2418</v>
-      </c>
-      <c r="E730" s="1" t="s">
-        <v>2419</v>
+      <c r="F730" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="731" spans="1:6">
       <c r="C731" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D731" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E731" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="D731" s="1" t="s">
-        <v>2421</v>
-      </c>
-      <c r="E731" s="1" t="s">
-        <v>2422</v>
       </c>
     </row>
     <row r="732" spans="1:6">
       <c r="A732" s="1" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>2425</v>
+        <v>2048</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>2426</v>
+        <v>2049</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>2427</v>
+        <v>2050</v>
       </c>
       <c r="F732" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="733" spans="1:6">
       <c r="C733" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6">
+      <c r="A734" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C734" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="D733" s="1" t="s">
+      <c r="D734" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="E733" s="1" t="s">
+      <c r="E734" s="1" t="s">
         <v>2430</v>
       </c>
-    </row>
-    <row r="734" spans="1:6">
-      <c r="C734" s="1" t="s">
-        <v>2431</v>
-      </c>
-      <c r="D734" s="1" t="s">
-        <v>2432</v>
-      </c>
-      <c r="E734" s="1" t="s">
-        <v>2433</v>
+      <c r="F734" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="735" spans="1:6">
       <c r="C735" s="1" t="s">
-        <v>2434</v>
+        <v>205</v>
       </c>
       <c r="D735" s="1" t="s">
-        <v>2435</v>
+        <v>206</v>
       </c>
       <c r="E735" s="1" t="s">
-        <v>2427</v>
+        <v>207</v>
       </c>
     </row>
     <row r="736" spans="1:6">
       <c r="C736" s="1" t="s">
-        <v>2436</v>
+        <v>2431</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="E736" s="1" t="s">
-        <v>2438</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="737" spans="1:6">
       <c r="A737" s="1" t="s">
-        <v>2439</v>
+        <v>2434</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>2440</v>
+        <v>2427</v>
       </c>
       <c r="C737" s="1" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="E737" s="1" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="F737" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="738" spans="1:6">
       <c r="C738" s="1" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="D738" s="1" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="E738" s="1" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="739" spans="1:6">
       <c r="C739" s="1" t="s">
-        <v>2447</v>
+        <v>2441</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="E739" s="1" t="s">
-        <v>2449</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="740" spans="1:6">
       <c r="A740" s="1" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>2451</v>
+        <v>2445</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="D740" s="1" t="s">
-        <v>2453</v>
+        <v>2447</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="F740" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="741" spans="1:6">
       <c r="C741" s="1" t="s">
-        <v>2455</v>
+        <v>2449</v>
       </c>
       <c r="D741" s="1" t="s">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="E741" s="1" t="s">
-        <v>2457</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="742" spans="1:6">
       <c r="C742" s="1" t="s">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="D742" s="1" t="s">
-        <v>2459</v>
+        <v>2453</v>
       </c>
       <c r="E742" s="1" t="s">
-        <v>2460</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="743" spans="1:6">
       <c r="C743" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6">
+      <c r="C744" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6">
+      <c r="A745" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B745" s="1" t="s">
         <v>2461</v>
       </c>
-      <c r="D743" s="1" t="s">
+      <c r="C745" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="E743" s="1" t="s">
+      <c r="D745" s="1" t="s">
         <v>2463</v>
       </c>
-    </row>
-    <row r="744" spans="1:6">
-      <c r="A744" s="1" t="s">
+      <c r="E745" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="B744" s="1" t="s">
-        <v>2465</v>
-      </c>
-      <c r="C744" s="1" t="s">
-        <v>2466</v>
-      </c>
-      <c r="D744" s="1" t="s">
-        <v>2467</v>
-      </c>
-      <c r="E744" s="1" t="s">
-        <v>2468</v>
-      </c>
-      <c r="F744" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="745" spans="1:6">
-      <c r="C745" s="1" t="s">
-        <v>2469</v>
-      </c>
-      <c r="D745" s="1" t="s">
-        <v>2470</v>
-      </c>
-      <c r="E745" s="1" t="s">
-        <v>2471</v>
+      <c r="F745" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="746" spans="1:6">
       <c r="C746" s="1" t="s">
-        <v>2472</v>
+        <v>2465</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>2473</v>
+        <v>2466</v>
       </c>
       <c r="E746" s="1" t="s">
-        <v>2474</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="747" spans="1:6">
       <c r="C747" s="1" t="s">
-        <v>2475</v>
+        <v>2468</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>2476</v>
+        <v>2469</v>
       </c>
       <c r="E747" s="1" t="s">
-        <v>2477</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="748" spans="1:6">
       <c r="A748" s="1" t="s">
-        <v>2478</v>
+        <v>2471</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>2479</v>
+        <v>2472</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>2480</v>
+        <v>2473</v>
       </c>
       <c r="D748" s="1" t="s">
-        <v>2481</v>
+        <v>2474</v>
       </c>
       <c r="E748" s="1" t="s">
-        <v>946</v>
+        <v>2475</v>
       </c>
       <c r="F748" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="749" spans="1:6">
       <c r="C749" s="1" t="s">
-        <v>2482</v>
+        <v>2476</v>
       </c>
       <c r="D749" s="1" t="s">
-        <v>2483</v>
+        <v>2477</v>
       </c>
       <c r="E749" s="1" t="s">
-        <v>2484</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="750" spans="1:6">
       <c r="C750" s="1" t="s">
-        <v>2485</v>
+        <v>2479</v>
       </c>
       <c r="D750" s="1" t="s">
-        <v>2486</v>
+        <v>2480</v>
       </c>
       <c r="E750" s="1" t="s">
-        <v>2487</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="751" spans="1:6">
       <c r="C751" s="1" t="s">
-        <v>2488</v>
+        <v>2482</v>
       </c>
       <c r="D751" s="1" t="s">
-        <v>2489</v>
+        <v>2483</v>
       </c>
       <c r="E751" s="1" t="s">
         <v>2484</v>
       </c>
     </row>
     <row r="752" spans="1:6">
+      <c r="A752" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>2486</v>
+      </c>
       <c r="C752" s="1" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="D752" s="1" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="E752" s="1" t="s">
-        <v>2492</v>
+        <v>2489</v>
+      </c>
+      <c r="F752" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="753" spans="1:6">
       <c r="C753" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6">
+      <c r="C754" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="D753" s="1" t="s">
+      <c r="D754" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="E753" s="1" t="s">
+      <c r="E754" s="1" t="s">
         <v>2495</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6">
-      <c r="A754" s="1" t="s">
-        <v>2496</v>
-      </c>
-      <c r="B754" s="1" t="s">
-        <v>2497</v>
-      </c>
-      <c r="C754" s="1" t="s">
-        <v>2498</v>
-      </c>
-      <c r="D754" s="1" t="s">
-        <v>2499</v>
-      </c>
-      <c r="E754" s="1" t="s">
-        <v>2500</v>
-      </c>
-      <c r="F754" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="755" spans="1:6">
       <c r="C755" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6">
+      <c r="A756" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C756" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="D755" s="1" t="s">
+      <c r="D756" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="E755" s="1" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="756" spans="1:6">
-      <c r="C756" s="1" t="s">
-        <v>2504</v>
-      </c>
-      <c r="D756" s="1" t="s">
-        <v>2505</v>
-      </c>
       <c r="E756" s="1" t="s">
-        <v>2506</v>
+        <v>946</v>
+      </c>
+      <c r="F756" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="757" spans="1:6">
       <c r="C757" s="1" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="D757" s="1" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="E757" s="1" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="758" spans="1:6">
       <c r="C758" s="1" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="D758" s="1" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="759" spans="1:6">
       <c r="C759" s="1" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="D759" s="1" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="E759" s="1" t="s">
-        <v>2515</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="760" spans="1:6">
       <c r="C760" s="1" t="s">
-        <v>2516</v>
+        <v>2511</v>
       </c>
       <c r="D760" s="1" t="s">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="E760" s="1" t="s">
-        <v>2518</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="761" spans="1:6">
       <c r="C761" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6">
+      <c r="A762" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C762" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="D761" s="1" t="s">
+      <c r="D762" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="E761" s="1" t="s">
+      <c r="E762" s="1" t="s">
         <v>2521</v>
       </c>
-    </row>
-    <row r="762" spans="1:6">
-      <c r="C762" s="1" t="s">
+      <c r="F762" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6">
+      <c r="C763" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="D762" s="1" t="s">
+      <c r="D763" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="E762" s="1" t="s">
+      <c r="E763" s="1" t="s">
         <v>2524</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6">
-      <c r="A763" s="1" t="s">
-        <v>2525</v>
-      </c>
-      <c r="B763" s="1" t="s">
-        <v>2526</v>
-      </c>
-      <c r="C763" s="1" t="s">
-        <v>2527</v>
-      </c>
-      <c r="D763" s="1" t="s">
-        <v>2528</v>
-      </c>
-      <c r="E763" s="1" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F763" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="764" spans="1:6">
       <c r="C764" s="1" t="s">
-        <v>2530</v>
+        <v>2525</v>
       </c>
       <c r="D764" s="1" t="s">
-        <v>2531</v>
+        <v>2526</v>
       </c>
       <c r="E764" s="1" t="s">
-        <v>2532</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="765" spans="1:6">
       <c r="C765" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6">
+      <c r="C766" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E766" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="D765" s="1" t="s">
-        <v>2534</v>
-      </c>
-      <c r="E765" s="1" t="s">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="766" spans="1:6">
-      <c r="A766" s="1" t="s">
-        <v>2536</v>
-      </c>
-      <c r="B766" s="1" t="s">
-        <v>2537</v>
-      </c>
-      <c r="C766" s="1" t="s">
-        <v>2538</v>
-      </c>
-      <c r="D766" s="1" t="s">
-        <v>2539</v>
-      </c>
-      <c r="E766" s="1" t="s">
-        <v>2540</v>
-      </c>
-      <c r="F766" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="767" spans="1:6">
       <c r="C767" s="1" t="s">
-        <v>2541</v>
+        <v>2534</v>
       </c>
       <c r="D767" s="1" t="s">
-        <v>2542</v>
+        <v>2535</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>2543</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="768" spans="1:6">
-      <c r="A768" s="1" t="s">
-        <v>2544</v>
-      </c>
-      <c r="B768" s="1" t="s">
-        <v>2545</v>
-      </c>
       <c r="C768" s="1" t="s">
-        <v>2546</v>
+        <v>2537</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>2547</v>
+        <v>2538</v>
       </c>
       <c r="E768" s="1" t="s">
-        <v>2548</v>
-      </c>
-      <c r="F768" s="1">
-        <v>7</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="769" spans="1:6">
       <c r="C769" s="1" t="s">
-        <v>2549</v>
+        <v>2540</v>
       </c>
       <c r="D769" s="1" t="s">
-        <v>2550</v>
+        <v>2541</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="770" spans="1:6">
       <c r="C770" s="1" t="s">
-        <v>2552</v>
+        <v>2543</v>
       </c>
       <c r="D770" s="1" t="s">
-        <v>2553</v>
+        <v>2544</v>
       </c>
       <c r="E770" s="1" t="s">
-        <v>2554</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="771" spans="1:6">
       <c r="A771" s="1" t="s">
-        <v>2555</v>
+        <v>2546</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>2556</v>
+        <v>2547</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>2557</v>
+        <v>2548</v>
       </c>
       <c r="D771" s="1" t="s">
-        <v>2558</v>
+        <v>2549</v>
       </c>
       <c r="E771" s="1" t="s">
-        <v>2559</v>
+        <v>2550</v>
       </c>
       <c r="F771" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="772" spans="1:6">
       <c r="C772" s="1" t="s">
-        <v>2560</v>
+        <v>2551</v>
       </c>
       <c r="D772" s="1" t="s">
-        <v>2561</v>
+        <v>2552</v>
       </c>
       <c r="E772" s="1" t="s">
-        <v>2562</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="773" spans="1:6">
       <c r="C773" s="1" t="s">
-        <v>2563</v>
+        <v>2554</v>
       </c>
       <c r="D773" s="1" t="s">
-        <v>2564</v>
+        <v>2555</v>
       </c>
       <c r="E773" s="1" t="s">
-        <v>2565</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="774" spans="1:6">
+      <c r="A774" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>2558</v>
+      </c>
       <c r="C774" s="1" t="s">
-        <v>2566</v>
+        <v>2559</v>
       </c>
       <c r="D774" s="1" t="s">
-        <v>2567</v>
+        <v>2560</v>
       </c>
       <c r="E774" s="1" t="s">
-        <v>2568</v>
+        <v>2561</v>
+      </c>
+      <c r="F774" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="775" spans="1:6">
       <c r="C775" s="1" t="s">
-        <v>2569</v>
+        <v>2562</v>
       </c>
       <c r="D775" s="1" t="s">
-        <v>2570</v>
+        <v>2563</v>
       </c>
       <c r="E775" s="1" t="s">
-        <v>2571</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="776" spans="1:6">
       <c r="A776" s="1" t="s">
-        <v>2572</v>
+        <v>2565</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>2573</v>
+        <v>2566</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>2574</v>
+        <v>2567</v>
       </c>
       <c r="D776" s="1" t="s">
-        <v>2575</v>
+        <v>2568</v>
       </c>
       <c r="E776" s="1" t="s">
-        <v>2576</v>
+        <v>2569</v>
       </c>
       <c r="F776" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="777" spans="1:6">
       <c r="C777" s="1" t="s">
-        <v>2577</v>
+        <v>2570</v>
       </c>
       <c r="D777" s="1" t="s">
-        <v>2578</v>
+        <v>2571</v>
       </c>
       <c r="E777" s="1" t="s">
-        <v>2579</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="778" spans="1:6">
       <c r="C778" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6">
+      <c r="A779" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E779" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="D778" s="1" t="s">
-        <v>2581</v>
-      </c>
-      <c r="E778" s="1" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="779" spans="1:6">
-      <c r="C779" s="1" t="s">
-        <v>2345</v>
-      </c>
-      <c r="D779" s="1" t="s">
-        <v>2346</v>
-      </c>
-      <c r="E779" s="1" t="s">
-        <v>2347</v>
+      <c r="F779" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="780" spans="1:6">
       <c r="C780" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E780" s="1" t="s">
         <v>2583</v>
-      </c>
-      <c r="D780" s="1" t="s">
-        <v>2584</v>
-      </c>
-      <c r="E780" s="1" t="s">
-        <v>2585</v>
       </c>
     </row>
     <row r="781" spans="1:6">
       <c r="C781" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="E781" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="D781" s="1" t="s">
+    </row>
+    <row r="782" spans="1:6">
+      <c r="C782" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="E781" s="1" t="s">
+      <c r="D782" s="1" t="s">
         <v>2588</v>
       </c>
-    </row>
-    <row r="782" spans="1:6">
-      <c r="A782" s="1" t="s">
+      <c r="E782" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="B782" s="1" t="s">
-        <v>2590</v>
-      </c>
-      <c r="C782" s="1" t="s">
-        <v>2591</v>
-      </c>
-      <c r="D782" s="1" t="s">
-        <v>2592</v>
-      </c>
-      <c r="E782" s="1" t="s">
-        <v>2593</v>
-      </c>
-      <c r="F782" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="783" spans="1:6">
       <c r="C783" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6">
+      <c r="A784" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B784" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="D783" s="1" t="s">
+      <c r="C784" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="E783" s="1" t="s">
+      <c r="D784" s="1" t="s">
         <v>2596</v>
       </c>
-    </row>
-    <row r="784" spans="1:6">
-      <c r="C784" s="1" t="s">
+      <c r="E784" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="D784" s="1" t="s">
-        <v>2598</v>
-      </c>
-      <c r="E784" s="1" t="s">
-        <v>2599</v>
+      <c r="F784" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="785" spans="1:6">
       <c r="C785" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E785" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="D785" s="1" t="s">
+    </row>
+    <row r="786" spans="1:6">
+      <c r="C786" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="E785" s="1" t="s">
+      <c r="D786" s="1" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="786" spans="1:6">
-      <c r="A786" s="1" t="s">
+      <c r="E786" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="B786" s="1" t="s">
-        <v>2604</v>
-      </c>
-      <c r="C786" s="1" t="s">
-        <v>2605</v>
-      </c>
-      <c r="D786" s="1" t="s">
-        <v>2606</v>
-      </c>
-      <c r="E786" s="1" t="s">
-        <v>2607</v>
-      </c>
-      <c r="F786" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="787" spans="1:6">
       <c r="C787" s="1" t="s">
-        <v>2608</v>
+        <v>2366</v>
       </c>
       <c r="D787" s="1" t="s">
-        <v>2609</v>
+        <v>2367</v>
       </c>
       <c r="E787" s="1" t="s">
-        <v>2610</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="788" spans="1:6">
       <c r="C788" s="1" t="s">
-        <v>1181</v>
+        <v>2604</v>
       </c>
       <c r="D788" s="1" t="s">
-        <v>1182</v>
+        <v>2605</v>
       </c>
       <c r="E788" s="1" t="s">
-        <v>1183</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="789" spans="1:6">
       <c r="C789" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6">
+      <c r="A790" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B790" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="D789" s="1" t="s">
+      <c r="C790" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="E789" s="1" t="s">
+      <c r="D790" s="1" t="s">
         <v>2613</v>
       </c>
-    </row>
-    <row r="790" spans="1:6">
-      <c r="C790" s="1" t="s">
+      <c r="E790" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="D790" s="1" t="s">
+      <c r="F790" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6">
+      <c r="C791" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="E790" s="1" t="s">
+      <c r="D791" s="1" t="s">
         <v>2616</v>
       </c>
-    </row>
-    <row r="791" spans="1:6">
-      <c r="A791" s="1" t="s">
+      <c r="E791" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="B791" s="1" t="s">
-        <v>2618</v>
-      </c>
-      <c r="C791" s="1" t="s">
-        <v>2619</v>
-      </c>
-      <c r="D791" s="1" t="s">
-        <v>2620</v>
-      </c>
-      <c r="E791" s="1" t="s">
-        <v>2621</v>
-      </c>
-      <c r="F791" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="792" spans="1:6">
       <c r="C792" s="1" t="s">
-        <v>2324</v>
+        <v>2618</v>
       </c>
       <c r="D792" s="1" t="s">
-        <v>2325</v>
+        <v>2619</v>
       </c>
       <c r="E792" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="793" spans="1:6">
       <c r="C793" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E793" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="D793" s="1" t="s">
+    </row>
+    <row r="794" spans="1:6">
+      <c r="A794" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="E793" s="1" t="s">
+      <c r="B794" s="1" t="s">
         <v>2625</v>
       </c>
-    </row>
-    <row r="794" spans="1:6">
       <c r="C794" s="1" t="s">
         <v>2626</v>
       </c>
@@ -19802,206 +19991,505 @@
       <c r="E794" s="1" t="s">
         <v>2628</v>
       </c>
+      <c r="F794" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="795" spans="1:6">
-      <c r="A795" s="1" t="s">
+      <c r="C795" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="B795" s="1" t="s">
+      <c r="D795" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="C795" s="1" t="s">
+      <c r="E795" s="1" t="s">
         <v>2631</v>
-      </c>
-      <c r="D795" s="1" t="s">
-        <v>2632</v>
-      </c>
-      <c r="E795" s="1" t="s">
-        <v>2633</v>
-      </c>
-      <c r="F795" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="796" spans="1:6">
       <c r="C796" s="1" t="s">
-        <v>2634</v>
+        <v>1181</v>
       </c>
       <c r="D796" s="1" t="s">
-        <v>2635</v>
+        <v>1182</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>2636</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="797" spans="1:6">
       <c r="C797" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6">
+      <c r="C798" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E798" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="D797" s="1" t="s">
-        <v>2638</v>
-      </c>
-      <c r="E797" s="1" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="798" spans="1:6">
-      <c r="A798" s="1" t="s">
-        <v>2640</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>2279</v>
-      </c>
-      <c r="C798" s="1" t="s">
-        <v>2641</v>
-      </c>
-      <c r="D798" s="1" t="s">
-        <v>2642</v>
-      </c>
-      <c r="E798" s="1" t="s">
-        <v>2643</v>
-      </c>
-      <c r="F798" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="799" spans="1:6">
       <c r="C799" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6">
+      <c r="A800" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D800" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="D799" s="1" t="s">
+      <c r="E800" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="E799" s="1" t="s">
+      <c r="F800" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6">
+      <c r="C801" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="E801" s="1" t="s">
         <v>2646</v>
       </c>
     </row>
-    <row r="800" spans="1:6">
-      <c r="C800" s="1" t="s">
+    <row r="802" spans="1:6">
+      <c r="C802" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="D800" s="1" t="s">
+      <c r="D802" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="E800" s="1" t="s">
+      <c r="E802" s="1" t="s">
         <v>2649</v>
       </c>
     </row>
-    <row r="801" spans="1:6">
-      <c r="A801" s="1" t="s">
+    <row r="803" spans="1:6">
+      <c r="C803" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="B801" s="1" t="s">
-        <v>2424</v>
-      </c>
-      <c r="C801" s="1" t="s">
-        <v>2560</v>
-      </c>
-      <c r="D801" s="1" t="s">
-        <v>2561</v>
-      </c>
-      <c r="E801" s="1" t="s">
-        <v>2562</v>
-      </c>
-      <c r="F801" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="802" spans="1:6">
-      <c r="A802" s="1" t="s">
+      <c r="D803" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="B802" s="1" t="s">
+      <c r="E803" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="C802" s="1" t="s">
+    </row>
+    <row r="804" spans="1:6">
+      <c r="C804" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="D802" s="1" t="s">
+      <c r="D804" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E804" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="E802" s="1" t="s">
-        <v>2655</v>
-      </c>
-      <c r="F802" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="803" spans="1:6">
-      <c r="A803" s="1" t="s">
-        <v>2656</v>
-      </c>
-      <c r="B803" s="1" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C803" s="1" t="s">
-        <v>2658</v>
-      </c>
-      <c r="D803" s="1" t="s">
-        <v>2659</v>
-      </c>
-      <c r="E803" s="1" t="s">
-        <v>2660</v>
-      </c>
-      <c r="F803" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="804" spans="1:6">
-      <c r="A804" s="1" t="s">
-        <v>2661</v>
-      </c>
-      <c r="B804" s="1" t="s">
-        <v>2662</v>
-      </c>
-      <c r="C804" s="1" t="s">
-        <v>2663</v>
-      </c>
-      <c r="D804" s="1" t="s">
-        <v>2664</v>
-      </c>
-      <c r="E804" s="1" t="s">
-        <v>2665</v>
-      </c>
-      <c r="F804" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="805" spans="1:6">
       <c r="C805" s="1" t="s">
-        <v>2666</v>
+        <v>2655</v>
       </c>
       <c r="D805" s="1" t="s">
-        <v>2667</v>
+        <v>2656</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>2668</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="806" spans="1:6">
+      <c r="A806" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>2659</v>
+      </c>
       <c r="C806" s="1" t="s">
-        <v>2669</v>
+        <v>2660</v>
       </c>
       <c r="D806" s="1" t="s">
-        <v>2670</v>
+        <v>2661</v>
       </c>
       <c r="E806" s="1" t="s">
-        <v>2671</v>
+        <v>2662</v>
+      </c>
+      <c r="F806" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="807" spans="1:6">
       <c r="C807" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6">
+      <c r="C808" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6">
+      <c r="A809" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F809" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6">
+      <c r="C810" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6">
+      <c r="C811" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6">
+      <c r="A812" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F812" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6">
+      <c r="A813" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F813" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6">
+      <c r="A814" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F814" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6">
+      <c r="A815" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F815" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6">
+      <c r="C816" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6">
+      <c r="C817" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6">
+      <c r="C818" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="D807" s="1" t="s">
+      <c r="D818" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="E807" s="1" t="s">
+      <c r="E818" s="1" t="s">
         <v>1005</v>
       </c>
     </row>
+    <row r="819" spans="1:6">
+      <c r="A819" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F819" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6">
+      <c r="C820" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6">
+      <c r="C821" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6">
+      <c r="C822" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6">
+      <c r="A823" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F823" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6">
+      <c r="C824" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6">
+      <c r="A825" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F825" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6">
+      <c r="C826" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6">
+      <c r="A827" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F827" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6">
+      <c r="C828" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6">
+      <c r="A829" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="F829" s="1">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E658" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E666" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20031,50 +20519,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>2672</v>
+        <v>2739</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2673</v>
+        <v>2740</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2674</v>
+        <v>2741</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2675</v>
+        <v>2742</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2676</v>
+        <v>2743</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2677</v>
+        <v>2744</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2678</v>
+        <v>2745</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="36">
       <c r="A2" s="5" t="s">
-        <v>2679</v>
+        <v>2746</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2680</v>
+        <v>2747</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2681</v>
+        <v>2748</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2682</v>
+        <v>2749</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2683</v>
+        <v>2750</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2684</v>
+        <v>2751</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -20092,10 +20580,10 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>2685</v>
+        <v>2752</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>2686</v>
+        <v>2753</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -20113,10 +20601,10 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>2687</v>
+        <v>2754</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>2688</v>
+        <v>2755</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66BC884-01D8-4299-9DD5-C9E913E31DF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$391</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="2756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="2926">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -8296,17 +8295,766 @@
   </si>
   <si>
     <t>Anh vẽ bản đồ giúp tôi được không ạ</t>
+  </si>
+  <si>
+    <t>Vる/Vている/Vた + ところです</t>
+  </si>
+  <si>
+    <t>Chuẩn bị làm, đang làm, vừa làm(nhấn mạnh thời điểm xảy ra)</t>
+  </si>
+  <si>
+    <t>会議は　今から　始まる　ところです</t>
+  </si>
+  <si>
+    <t>Cuộc họp sẽ bắt đầu bây giờ.</t>
+  </si>
+  <si>
+    <t>今手紙を書いているところなので,後でお茶を飲みます</t>
+  </si>
+  <si>
+    <t>Bây giờ vì tôi đang viết thư nên tôi sẽ uống trà sau</t>
+  </si>
+  <si>
+    <t>たったいま, バスが出たところです</t>
+  </si>
+  <si>
+    <t>Xe bus vừa mới ra</t>
+  </si>
+  <si>
+    <t>Vたばかりです</t>
+  </si>
+  <si>
+    <t>Vừa mới làm gì(nghĩa rộng hơn bao hàm cả ý người nói cho rằng sự việc mới xảy ra)</t>
+  </si>
+  <si>
+    <t>Anh ấy mới tốt nghiệp đại học vào tháng 3</t>
+  </si>
+  <si>
+    <t>先月　会社に　入った　ばかりなので,まだ　よく　わかりません</t>
+  </si>
+  <si>
+    <t>Tôi mới vào công ty tháng trước nên vẫn chưa nắm được hết</t>
+  </si>
+  <si>
+    <t>Vる/Vた/Vない/Aい/Aな/Nの + 場合は</t>
+  </si>
+  <si>
+    <t>Trong trường hợp/khi~</t>
+  </si>
+  <si>
+    <t>カードを　なくした　場合は, すぐ　カード会社に　連絡してください</t>
+  </si>
+  <si>
+    <t>Trong trường hợp đánh mất thẻ thì hãy liên lạc với công ty thẻ ngay</t>
+  </si>
+  <si>
+    <t>地震で　電車が　止まった　場合は，無理に　帰らないで，会社に　泊まって　ください</t>
+  </si>
+  <si>
+    <t>Trong trường hợp tàu điện không hoạt động do động đất thì anh/chị đừng có cố gắng về nhà mà hãy ở lại công ty</t>
+  </si>
+  <si>
+    <t>Vtt/Aい/Aな/Nな＋のに</t>
+  </si>
+  <si>
+    <t>Thế mà, vậy mà</t>
+  </si>
+  <si>
+    <t>約束を　したのに、彼女は　来ませんでした。</t>
+  </si>
+  <si>
+    <t>Tôi đã hẹn với cô ấy, thế mà cô ấy không đến</t>
+  </si>
+  <si>
+    <t>一生懸命　練習して　覚えたのに、途中で　忘れて　しまいました</t>
+  </si>
+  <si>
+    <t>Tôi đã luyện tập kỹ và học thuộc, thế mà đến giữa chừng lại quên mất</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>/A</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>/A</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>+～すぎます</t>
+    </r>
+  </si>
+  <si>
+    <t>Quá nhiều</t>
+  </si>
+  <si>
+    <t>ゆうべ　お酒を　飲みすぎました</t>
+  </si>
+  <si>
+    <t>笑いすぎて、涙が　出るんです</t>
+  </si>
+  <si>
+    <t>Tối qua tôi uống rượu quá nhiều</t>
+  </si>
+  <si>
+    <t>Tôi cười quá, chảy cả nước mắt</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>＋やすいです/　にくいです</t>
+    </r>
+  </si>
+  <si>
+    <t>Dễ làm / Khó làm</t>
+  </si>
+  <si>
+    <t>田舎と　町は　どちらが　住みやすいですか</t>
+  </si>
+  <si>
+    <t>この　パソコンは　使いやすいです</t>
+  </si>
+  <si>
+    <t>Cái máy vi tính này dễ sử dụng</t>
+  </si>
+  <si>
+    <t>Nhà quê và thành phố, nơi nào dễ sống hơn</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>く/A</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>に/Nに＋Động từ</t>
+    </r>
+  </si>
+  <si>
+    <t>音を 大きくします</t>
+  </si>
+  <si>
+    <t>Tôi chỉnh âm thanh to hơn</t>
+  </si>
+  <si>
+    <t>もう　夜　遅いですから、静かに　して　いただけませんか</t>
+  </si>
+  <si>
+    <t>Vì đã khuya rồi, làm ơn giữ yên lặng</t>
+  </si>
+  <si>
+    <t>Biến đổi đối tượng(Có thể ko đi với します)</t>
+  </si>
+  <si>
+    <t>～Trông có vẻ</t>
+  </si>
+  <si>
+    <t>上着の　ボタンが　とれそうですよ</t>
+  </si>
+  <si>
+    <t>今にも　雨が　降りそうです</t>
+  </si>
+  <si>
+    <t>この　アルバイト、よさそうですね。給料も　いいし、仕事も　楽そうだし</t>
+  </si>
+  <si>
+    <t>このかばんは　丈夫そうです</t>
+  </si>
+  <si>
+    <t>Cái cúc áo khoác của anh có vẻ sắp tuột rồi đấy</t>
+  </si>
+  <si>
+    <t>Trời có vẻ sắp mưa đến nơi rồi</t>
+  </si>
+  <si>
+    <t>Việc làm thêm này có vẻ tốt nhỉ. Lương cao, công việc lại có vẻ nhàn</t>
+  </si>
+  <si>
+    <t>Chiếc túi xách này có vẻ chắc chắn</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>/A</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>/A</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>＋そうです
+いい -&gt; よさそう
+ない -&gt; なさそう</t>
+    </r>
+  </si>
+  <si>
+    <t>Vて来ます</t>
+  </si>
+  <si>
+    <t>Đi làm V rồi quay về</t>
+  </si>
+  <si>
+    <t>ちょっと　切符を　買って　来ます</t>
+  </si>
+  <si>
+    <t>ちょっと　出かけて　来ます</t>
+  </si>
+  <si>
+    <t>Tôi đi mua vé rồi về</t>
+  </si>
+  <si>
+    <t>Tôi đi ra ngoài rồi về</t>
+  </si>
+  <si>
+    <t>Vる/Nの＋ために</t>
+  </si>
+  <si>
+    <t>Vì ~, Để ~, Cho ~(dạng ý chí, có mục đích rõ ràng)</t>
+  </si>
+  <si>
+    <t>将来　自分の　店を　持つ　ために、貯金して　います。</t>
+  </si>
+  <si>
+    <t>健康の　ために、何か　して　いますか</t>
+  </si>
+  <si>
+    <t>Tôi để dành tiền để mở cửa hàng riêng của mình</t>
+  </si>
+  <si>
+    <t>Hiện giờ anh/chị có làm gì vì sức khỏe không?</t>
+  </si>
+  <si>
+    <t>Vるの/N＋に</t>
+  </si>
+  <si>
+    <t>この　靴は　山を　歩くのに　いいです</t>
+  </si>
+  <si>
+    <t>この　はさみは　花を　切るのに使います</t>
+  </si>
+  <si>
+    <t>この　かばんは　大きくて、旅行に　便利です</t>
+  </si>
+  <si>
+    <t>Đôi giày này thích hợp cho đi bộ trên núi</t>
+  </si>
+  <si>
+    <t>Cái kéo này dùng để cắt hoa</t>
+  </si>
+  <si>
+    <t>Cái túi này to nên rất tiện cho du lịch</t>
+  </si>
+  <si>
+    <t>dùng cho, dùng để ~(sử dụng cho mục đích nào đấy, hoặc dùng để đánh giá là dùng thế này thì tốt/ ko tốt)</t>
+  </si>
+  <si>
+    <t>～によって</t>
+  </si>
+  <si>
+    <t>Biểu đạt các sáng tạo, phát minh bởi ~</t>
+  </si>
+  <si>
+    <t>チキンラーメンは　1958年に　V に　よって　発明されました</t>
+  </si>
+  <si>
+    <t>Ramen vị gà được V sáng chế ra vào năm 1958</t>
+  </si>
+  <si>
+    <t>N1はひとになにかを＋さしあげます／あげます／やります</t>
+  </si>
+  <si>
+    <t>N1 cho, biếu ai cái gì (dùng người trên, cấp trên / người thân ngang hàng / ng ít tuổi, trẻ con, động thực vật)</t>
+  </si>
+  <si>
+    <t>友達に　誕生日のプレゼントを　あげました</t>
+  </si>
+  <si>
+    <t>女性の日に　先生に　花を　さしあげました</t>
+  </si>
+  <si>
+    <t>妹に　おもちゃを　やります</t>
+  </si>
+  <si>
+    <t>Tôi tặng bạn quà sinh nhật</t>
+  </si>
+  <si>
+    <t>Tôi biếu giáo viên hoa vào ngày phụ nữ</t>
+  </si>
+  <si>
+    <t>Tôi cho em gái đồ chơi</t>
+  </si>
+  <si>
+    <t>ひと(から) 　になにかを＋いただきます／もらいます</t>
+  </si>
+  <si>
+    <t>Nhận từ ai đó cái gì(bề trên / ngang hàng hoặc thấp hơn)</t>
+  </si>
+  <si>
+    <t>私は　先生に　漢字の　まちがいを　直して　いただきましたか</t>
+  </si>
+  <si>
+    <t>兄に　すてきなシャツを　もらいました</t>
+  </si>
+  <si>
+    <t>Tôi được thầy giáo sửa cho chỗ sai ở chữ Hán</t>
+  </si>
+  <si>
+    <t>Tôi được anh trai tặng cái áo sơ mi đẹp</t>
+  </si>
+  <si>
+    <t>ひとは（が）なにかを＋くださいます／くれます</t>
+  </si>
+  <si>
+    <t>Ai cho mình cái gì(bề trên / ngang hàng hoặc thấp hơn)</t>
+  </si>
+  <si>
+    <t>部長の　奥さんが　お茶を　教えて　くださいました</t>
+  </si>
+  <si>
+    <t>友達は　本をくれました</t>
+  </si>
+  <si>
+    <t>Vợ của trưởng phòng đã dạy trà đạo cho tôi</t>
+  </si>
+  <si>
+    <t>tôi đã nhận từ bạn quyển sách</t>
+  </si>
+  <si>
+    <t>N1に　N2をV</t>
+  </si>
+  <si>
+    <t>～Làm/để(quà, kỉ niệm)</t>
+  </si>
+  <si>
+    <t>私は　旅行のお土産に　人形を買いました</t>
+  </si>
+  <si>
+    <t>父は入学お祝いに　新しい自転車をくれました</t>
+  </si>
+  <si>
+    <t>Tôi mua con búp bê làm quà lưu niệm cho chuyến du lịch</t>
+  </si>
+  <si>
+    <t>bố tôi mua cho tôi cái xe đạp mới làm quà chúc mừng nhập học</t>
+  </si>
+  <si>
+    <t>Nghi vấn từ＋Vtt／Aい／Aな／N＋か＋V</t>
+  </si>
+  <si>
+    <t>~ Lồng câu nghi vấn vào câu văn(ai/cái gì/khi nào , có biết/hiểu/nhớ không)</t>
+  </si>
+  <si>
+    <t>JL 107 便は　何時に　到着するか、調べて　ください</t>
+  </si>
+  <si>
+    <t>Anh chị kiểm tra xem chuyến bay JL107 đến lúc mấy giờ</t>
+  </si>
+  <si>
+    <t>結婚の　お祝いは　何が　いいか、話しています</t>
+  </si>
+  <si>
+    <t>わたしたちが　初めて　会ったのは　いつか、覚えていますか</t>
+  </si>
+  <si>
+    <t>Chúng tôi đang bàn xem quà mừng đám cưới nên như thế nào</t>
+  </si>
+  <si>
+    <t>Anh/Chị còn nhớ chúng ta gặp nhau lần đầu tiền khi nào không?</t>
+  </si>
+  <si>
+    <t>。。。かどうか。。。</t>
+  </si>
+  <si>
+    <t>Có hay không</t>
+  </si>
+  <si>
+    <t>忘年会に　出席するかどうか、20日までに　返事を　ください</t>
+  </si>
+  <si>
+    <t>Anh/Chị trả lời tôi trước ngày 20 về việc có tham dự được bữa tiệc tất niên hay không</t>
+  </si>
+  <si>
+    <t>その　話は　ほんとうか　どうか、わかりません</t>
+  </si>
+  <si>
+    <t>Tôi không biết chuyện đó có thật hay không</t>
+  </si>
+  <si>
+    <t>まちがいが　ないか　どうか、調べて　ください</t>
+  </si>
+  <si>
+    <t>Anh chị hãy kiểm tra xem có sai sót gì không</t>
+  </si>
+  <si>
+    <t>Vてみます</t>
+  </si>
+  <si>
+    <t>Thử làm việc gì đó</t>
+  </si>
+  <si>
+    <t>もう　一同　考えて　みます</t>
+  </si>
+  <si>
+    <t>この　ズボンを　はいて　みても　いいですか</t>
+  </si>
+  <si>
+    <t>北海道へ　行って　みたいです</t>
+  </si>
+  <si>
+    <t>Tôi sẽ thử nghĩ lại một lần nữa xem</t>
+  </si>
+  <si>
+    <t>Tôi mặc thử cái quần này có được không</t>
+  </si>
+  <si>
+    <t>Tôi muốn đi thử đến hokkaido</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>－＞Aさ</t>
+    </r>
+  </si>
+  <si>
+    <t>Tính từ thành danh từ</t>
+  </si>
+  <si>
+    <t>たかさ</t>
+  </si>
+  <si>
+    <t>ながさ</t>
+  </si>
+  <si>
+    <t>Cân nặng</t>
+  </si>
+  <si>
+    <t>Chiều dài</t>
+  </si>
+  <si>
+    <t>chiều cao</t>
+  </si>
+  <si>
+    <t>Vて/Vない-&gt;Vなくて/Aい-&gt;Aくて/Aな-&gt;Aで/Nで＋～</t>
+  </si>
+  <si>
+    <t>ニュースを　聞いて、びっくりしました</t>
+  </si>
+  <si>
+    <t>家族に　会えなくて、寂しいです</t>
+  </si>
+  <si>
+    <t>土曜日は　都合が　悪くて、行けません</t>
+  </si>
+  <si>
+    <t>話が　複雑で、よく　わかりませんでした</t>
+  </si>
+  <si>
+    <t>Vì, nên ~(Phần kết quả không dùng động từ ý chí hoặc cách nói bao hàm chủ ý như Vたい、Vましょう、Vてください、。。。 Thay vào đó dùng から)
+N thường dùng cho biến cố, sự kiện</t>
+  </si>
+  <si>
+    <t>地震で　ビルが倒れました</t>
+  </si>
+  <si>
+    <t>Tôi ngạc nhiên khi nghe tin</t>
+  </si>
+  <si>
+    <t>Tôi buồn vì không được gặp gia đình</t>
+  </si>
+  <si>
+    <t>Thứ 7 tôi không tiện nên không thể đi được</t>
+  </si>
+  <si>
+    <t>Câu chuyện phức tạp nên tôi không hiểu lắm</t>
+  </si>
+  <si>
+    <t>Tòa nhà đổ do động đất</t>
+  </si>
+  <si>
+    <t>Vtt/Aい/Aな/Nな＋ので、～</t>
+  </si>
+  <si>
+    <t>Vì, nên ~(biểu thị nguyên nhân, lý do khách quan sử dụng khi ng nói muốn khẳng định tính thỏa đáng của lý do mà bản thân đưa ra. から thể hiện lý do chủ quan)</t>
+  </si>
+  <si>
+    <t>日本語が　わからないので。英語で話して　いただけませんか</t>
+  </si>
+  <si>
+    <t>用事が　あるので、お先に　失礼します</t>
+  </si>
+  <si>
+    <t>Vì tôi không hiểu tiếng nhật, nên anh/chị làm ơn nói tiếng anh có được không?</t>
+  </si>
+  <si>
+    <t>Vì có việc nên tôi xin phép về trước</t>
+  </si>
+  <si>
+    <t>Vる／Nの＋途中で</t>
+  </si>
+  <si>
+    <t>Trên đường đi đâu/ làm gì</t>
+  </si>
+  <si>
+    <t>実は　来る　途中で　事故が　あって、バスが遅れてしまったんです</t>
+  </si>
+  <si>
+    <t>マラソンの途中で　気分が悪くなりました</t>
+  </si>
+  <si>
+    <t>Tôi thấy khó chịu khi đang chạy marason</t>
+  </si>
+  <si>
+    <t>Thực ra là trên đường đến đây có một vụ tai nạn nên xe bus bị chậm</t>
+  </si>
+  <si>
+    <t>Vる/Vない/Vた/Vなかった/Aい/Aな＋のはAです／のがAです／のを忘れました／のを知っていますか／のはNです</t>
+  </si>
+  <si>
+    <t>Danh từ hóa động từ, tính từ(の ko sử đụng đc trong mẫu câu 
+Vたことがある／Vることができる／しゅみ(sở thích) còn こと thì được)</t>
+  </si>
+  <si>
+    <t>テニスを　するのは　おもしろいです</t>
+  </si>
+  <si>
+    <t>私は　花を育てるのが　好きです</t>
+  </si>
+  <si>
+    <t>牛乳を　買うのを　忘れました</t>
+  </si>
+  <si>
+    <t>すずきさんが　来月　結婚するのを　知っていますか</t>
+  </si>
+  <si>
+    <t>初めて　会ったのは　いつですか</t>
+  </si>
+  <si>
+    <t>Chơi quần vợt thú vị</t>
+  </si>
+  <si>
+    <t>Tôi thích trồng hoa</t>
+  </si>
+  <si>
+    <t>Tôi quên mua sữa</t>
+  </si>
+  <si>
+    <t>Anh/Chị có biết anh suzuki sẽ cưới vào tháng sau không?</t>
+  </si>
+  <si>
+    <t>Lần đầu tiên anh chị gặp nhau là khi nào</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -8314,7 +9062,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -8323,6 +9071,45 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8345,7 +9132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8357,9 +9144,13 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -8417,7 +9208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8449,27 +9240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8501,24 +9274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8694,26 +9449,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H829"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E806" sqref="E806"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -16065,7 +16820,7 @@
       </c>
       <c r="F518" s="2"/>
     </row>
-    <row r="519" spans="1:6" ht="18.75">
+    <row r="519" spans="1:6">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="4" t="s">
@@ -16223,7 +16978,7 @@
       </c>
       <c r="F528" s="2"/>
     </row>
-    <row r="529" spans="1:6" ht="18.75">
+    <row r="529" spans="1:6">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2" t="s">
@@ -16271,7 +17026,7 @@
       </c>
       <c r="F531" s="2"/>
     </row>
-    <row r="532" spans="1:6" ht="18.75">
+    <row r="532" spans="1:6">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2" t="s">
@@ -16339,7 +17094,7 @@
       </c>
       <c r="F535" s="2"/>
     </row>
-    <row r="536" spans="1:6" ht="18.75">
+    <row r="536" spans="1:6">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2" t="s">
@@ -16641,7 +17396,7 @@
       </c>
       <c r="F554" s="2"/>
     </row>
-    <row r="555" spans="1:6" ht="18.75">
+    <row r="555" spans="1:6">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2" t="s">
@@ -16703,7 +17458,7 @@
       </c>
       <c r="F558" s="2"/>
     </row>
-    <row r="559" spans="1:6" ht="18.75">
+    <row r="559" spans="1:6">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2" t="s">
@@ -16779,7 +17534,7 @@
       </c>
       <c r="F563" s="2"/>
     </row>
-    <row r="564" spans="1:6" ht="18.75">
+    <row r="564" spans="1:6">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2" t="s">
@@ -16827,7 +17582,7 @@
       </c>
       <c r="F566" s="2"/>
     </row>
-    <row r="567" spans="1:6" ht="18.75">
+    <row r="567" spans="1:6">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2" t="s">
@@ -16889,7 +17644,7 @@
       </c>
       <c r="F570" s="2"/>
     </row>
-    <row r="571" spans="1:6" ht="18.75">
+    <row r="571" spans="1:6">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2" t="s">
@@ -17780,7 +18535,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="18.75">
+    <row r="634" spans="1:6">
       <c r="A634" s="2" t="s">
         <v>2105</v>
       </c>
@@ -17800,7 +18555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="18.75">
+    <row r="635" spans="1:6">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2" t="s">
@@ -20489,32 +21244,32 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E666" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E666"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.875" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="47.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="81.125" customWidth="1"/>
+    <col min="7" max="7" width="55.375" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
@@ -20542,7 +21297,7 @@
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="36">
+    <row r="2" spans="1:22" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>2746</v>
       </c>
@@ -20576,7 +21331,9 @@
     <row r="3" spans="1:22" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -20597,7 +21354,9 @@
     <row r="4" spans="1:22" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
@@ -20616,13 +21375,27 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D5" s="1">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2759</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -20635,11 +21408,17 @@
     <row r="6" spans="1:22" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2761</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -20652,11 +21431,17 @@
     <row r="7" spans="1:22" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2763</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -20667,13 +21452,27 @@
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:22" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D8" s="1">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2766</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -20686,6 +21485,15 @@
     <row r="9" spans="1:22" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2768</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -20696,13 +21504,27 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:22" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2772</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -20711,15 +21533,28 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2774</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -20737,13 +21572,27 @@
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2778</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -20763,11 +21612,17 @@
     <row r="13" spans="1:22" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2780</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -20785,13 +21640,27 @@
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="7" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2785</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -20811,11 +21680,17 @@
     <row r="15" spans="1:22" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2786</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -20833,13 +21708,27 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2792</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -20859,11 +21748,17 @@
     <row r="17" spans="1:22" ht="18.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2791</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -20881,13 +21776,27 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" ht="18.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2795</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -20907,11 +21816,17 @@
     <row r="19" spans="1:22" ht="18.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2797</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -20928,14 +21843,28 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="18.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:22" ht="56.25">
+      <c r="A20" s="3" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2804</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -20955,11 +21884,17 @@
     <row r="21" spans="1:22" ht="18.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2805</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -20979,11 +21914,17 @@
     <row r="22" spans="1:22" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2806</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -21003,11 +21944,17 @@
     <row r="23" spans="1:22" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2807</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -21025,13 +21972,27 @@
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="18.75">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2813</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -21051,11 +22012,17 @@
     <row r="25" spans="1:22" ht="18.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2814</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -21073,245 +22040,726 @@
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:22" ht="18.75">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2819</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22" ht="18.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2820</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" ht="18">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+    </row>
+    <row r="28" spans="1:22" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2825</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="18">
+    <row r="29" spans="1:22" ht="18.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2826</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="18">
+    <row r="30" spans="1:22" ht="18.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2827</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="18">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+    <row r="31" spans="1:22" ht="18.75">
+      <c r="A31" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>2832</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="18">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+    <row r="32" spans="1:22" ht="18.75">
+      <c r="A32" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2838</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="18">
+    <row r="33" spans="1:10" ht="18.75">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2839</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="18">
+    <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>2840</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+    <row r="35" spans="1:10" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>2845</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="18">
+    <row r="36" spans="1:10" ht="18.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>2846</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="18">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+    <row r="37" spans="1:10" ht="18.75">
+      <c r="A37" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D37" s="1">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>2851</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="18">
+    <row r="38" spans="1:10" ht="18.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>2852</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="18">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+    <row r="39" spans="1:10" ht="18.75">
+      <c r="A39" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D39" s="1">
+        <v>41</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2857</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="18">
+    <row r="40" spans="1:10" ht="18.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>2748</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>2858</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="18">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="18">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+    <row r="41" spans="1:10" ht="18.75">
+      <c r="A41" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18.75">
+      <c r="C42" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="18.75">
+      <c r="C43" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="18.75">
+      <c r="A44" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D44" s="1">
+        <v>40</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.75">
+      <c r="C45" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18.75">
+      <c r="C46" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="18.75">
+      <c r="A47" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="18.75">
+      <c r="C48" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18.75">
+      <c r="C49" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75">
+      <c r="A50" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18.75">
+      <c r="C51" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.75">
+      <c r="C52" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="72.75">
+      <c r="A53" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18.75">
+      <c r="C54" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.75">
+      <c r="C55" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18.75">
+      <c r="C56" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.75">
+      <c r="C57" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75">
+      <c r="A58" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D58">
+        <v>39</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.75">
+      <c r="C59" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.75">
+      <c r="A60" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D60">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.75">
+      <c r="C61" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="58.5">
+      <c r="A62" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D62">
+        <v>38</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18.75">
+      <c r="C63" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18.75">
+      <c r="C64" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="18.75">
+      <c r="C65" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="18.75">
+      <c r="C66" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>2925</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="3070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="3128">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -9476,6 +9476,180 @@
   </si>
   <si>
     <t>môn lịch sử</t>
+  </si>
+  <si>
+    <t>～によると,Thể tt + そうです</t>
+  </si>
+  <si>
+    <t>Theo ~, Nghe nói là ~</t>
+  </si>
+  <si>
+    <t>天気予報に　よると、あしたは　寒く　なるそうです</t>
+  </si>
+  <si>
+    <t>A さんは恋人ができたそうです</t>
+  </si>
+  <si>
+    <t>Theo dự báo thời tiết thì ngày mai trời trở lạnh</t>
+  </si>
+  <si>
+    <t>Nghe nói A san có người yêu rồi</t>
+  </si>
+  <si>
+    <t>クララさんは　子どもの　とき、フランスに　住んで　いたそうです</t>
+  </si>
+  <si>
+    <t>Nghe nói thời nhỏ chị kurara sống ở pháp</t>
+  </si>
+  <si>
+    <t>隣の　部屋に　だれか　いるようです</t>
+  </si>
+  <si>
+    <t>Hình như ở phòng bên cạnh có ai đó</t>
+  </si>
+  <si>
+    <t>事故のようですね。パトかーと　救急車が　来て　いますよ</t>
+  </si>
+  <si>
+    <t>Hình như có tai nạn nhỉ. Có xe ô tô cảnh sát và xe cấp cứu ở đây đấy</t>
+  </si>
+  <si>
+    <t>thể tt/Aな/Nの＋ようです/みたいです</t>
+  </si>
+  <si>
+    <t>Hình như là ~( cảm nhận bằng cả 5 giác quan, khác そうです chỉ cảm nhận qua mắt、みたいですdùng cho văn nói)</t>
+  </si>
+  <si>
+    <t>先生に　来ないみたいですね</t>
+  </si>
+  <si>
+    <t>Thầy giáo hình như ko đến nhỉ</t>
+  </si>
+  <si>
+    <t>từ để hỏi＋Vたら　いいですか</t>
+  </si>
+  <si>
+    <t>Nên làm thế nào thì được</t>
+  </si>
+  <si>
+    <t>いつ　行ったら いいですか</t>
+  </si>
+  <si>
+    <t>だれに　申し込んだら　いいですか</t>
+  </si>
+  <si>
+    <t>どこに　聞いたら　いいですか</t>
+  </si>
+  <si>
+    <t>Khi nào đi thì được</t>
+  </si>
+  <si>
+    <t>Đăng kí với ai thì được</t>
+  </si>
+  <si>
+    <t>đi đâu hỏi thì được</t>
+  </si>
+  <si>
+    <t>N1 は（＋）が、N2　は（－）</t>
+  </si>
+  <si>
+    <t>Có thể làm N1 nhưng không thể làm N2</t>
+  </si>
+  <si>
+    <t>日本語は　話せますが、英語は　あまり　話せません</t>
+  </si>
+  <si>
+    <t>昨日は　見えましたが、今日は　見えません</t>
+  </si>
+  <si>
+    <t>Tôi có thể nói tiếng nhật, nhưng không nói được tiếng anh lắm</t>
+  </si>
+  <si>
+    <t>Hôm qua có thể nhìn thấy, nhưng hôm nay không nhìn thấy được</t>
+  </si>
+  <si>
+    <t>～ができます</t>
+  </si>
+  <si>
+    <t>Có thể /làm xong việc gì</t>
+  </si>
+  <si>
+    <t>駅の　前に　大きい　スーパーが　できました</t>
+  </si>
+  <si>
+    <t>trước nhà ga có cái siêu thị lớn đã được hoàn thành</t>
+  </si>
+  <si>
+    <t>新しい事務所が　できましたよ</t>
+  </si>
+  <si>
+    <t>Văn phòng mới đã hoàn thành</t>
+  </si>
+  <si>
+    <t>NしかVません＝NだけVます</t>
+  </si>
+  <si>
+    <t>chỉ ~</t>
+  </si>
+  <si>
+    <t>日本語だけ　話せます＝日本語しか　話せません</t>
+  </si>
+  <si>
+    <t>Tôi chỉ nói được tiếng nhật</t>
+  </si>
+  <si>
+    <t>今彼女のことしか　考えていない</t>
+  </si>
+  <si>
+    <t>Bây giờ tôi chỉ nghĩ đến việc cô ấy</t>
+  </si>
+  <si>
+    <t>Vながら、。。。</t>
+  </si>
+  <si>
+    <t>Vừa làm việc này, vừa làm việc kia</t>
+  </si>
+  <si>
+    <t>テレビを　見ながら、ご飯を　食べます</t>
+  </si>
+  <si>
+    <t>タバコを　吸いながら、運転します</t>
+  </si>
+  <si>
+    <t>Tôi vừa xem tivi vừa ăn cơm</t>
+  </si>
+  <si>
+    <t>Tôi vừa hút thuốc vừa lái xe</t>
+  </si>
+  <si>
+    <t>Sは～し、～し、（それに）～</t>
+  </si>
+  <si>
+    <t>彼は　背も高いし、体も　大きいし、それに　イケメンです</t>
+  </si>
+  <si>
+    <t>Vừa, vừa, hơn nữa(dùng liệt kê tính chất tương đồng)</t>
+  </si>
+  <si>
+    <t>Anh ấy vừa cao, cơ thể to, hơn nữa còn đẹp trai</t>
+  </si>
+  <si>
+    <t>地下鉄は　速いし、安いし、地下鉄で　行きましょう</t>
+  </si>
+  <si>
+    <t>Tàu điện ngầm vừa nhanh, vừa rẻ. Hãy đi tàu điện ngầm đi</t>
+  </si>
+  <si>
+    <t>Sは～し、～し、（それで）～</t>
+  </si>
+  <si>
+    <t>Vì, vì, nên là (trình bày lí do sau đó đưa ra kết luận)</t>
+  </si>
+  <si>
+    <t>ここは　コーヒーも　おいしいし。食事も　できるし。それで　人気が　あるんですね</t>
+  </si>
+  <si>
+    <t>Ở đây cà phê ngon, lại có bán cả đồ ăn, Vì thể mà được ưa chuộng nhỉ</t>
   </si>
 </sst>
 </file>
@@ -9884,7 +10058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A863" workbookViewId="0">
+    <sheetView topLeftCell="A863" workbookViewId="0">
       <selection activeCell="C873" sqref="C873"/>
     </sheetView>
   </sheetViews>
@@ -22265,10 +22439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23738,7 +23912,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="65" spans="3:7" ht="18.75">
+    <row r="65" spans="1:7" ht="18.75">
       <c r="C65" s="1" t="s">
         <v>2748</v>
       </c>
@@ -23749,7 +23923,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="66" spans="3:7" ht="18.75">
+    <row r="66" spans="1:7" ht="18.75">
       <c r="C66" s="1" t="s">
         <v>2748</v>
       </c>
@@ -23758,6 +23932,307 @@
       </c>
       <c r="G66" s="1" t="s">
         <v>2925</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.75">
+      <c r="A67" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D67">
+        <v>47</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18.75">
+      <c r="C68" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.75">
+      <c r="C69" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.75">
+      <c r="A70" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D70">
+        <v>47</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.75">
+      <c r="F71" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.75">
+      <c r="F72" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75">
+      <c r="A73" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D73">
+        <v>26</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.75">
+      <c r="F74" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75">
+      <c r="F75" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18.75">
+      <c r="A76" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D76">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75">
+      <c r="F77" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75">
+      <c r="A78" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D78">
+        <v>27</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75">
+      <c r="F79" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.75">
+      <c r="A80" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D80">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>3108</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75">
+      <c r="F81" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18.75">
+      <c r="A82" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D82">
+        <v>28</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18.75">
+      <c r="F83" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18.75">
+      <c r="A84" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D84">
+        <v>28</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75">
+      <c r="F85" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75">
+      <c r="A86" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D86">
+        <v>28</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>3127</v>
       </c>
     </row>
   </sheetData>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3823" uniqueCount="3364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="3391">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -10358,6 +10358,87 @@
   </si>
   <si>
     <t>chợ(cá)</t>
+  </si>
+  <si>
+    <t>こういしつ</t>
+  </si>
+  <si>
+    <t>更衣室</t>
+  </si>
+  <si>
+    <t>phòng thay đồ</t>
+  </si>
+  <si>
+    <t>にっこうよく</t>
+  </si>
+  <si>
+    <t>日光浴</t>
+  </si>
+  <si>
+    <t>tắm nắng</t>
+  </si>
+  <si>
+    <t>うんでいのさ</t>
+  </si>
+  <si>
+    <t>雲泥の差</t>
+  </si>
+  <si>
+    <t>khác nhau 1 trời 1 vực</t>
+  </si>
+  <si>
+    <t>おうさま</t>
+  </si>
+  <si>
+    <t>王様</t>
+  </si>
+  <si>
+    <t>vua(loài vật…)</t>
+  </si>
+  <si>
+    <t>そうしょくどうぶつ</t>
+  </si>
+  <si>
+    <t>草食動物</t>
+  </si>
+  <si>
+    <t>động vật ăn cỏ</t>
+  </si>
+  <si>
+    <t>けいこく</t>
+  </si>
+  <si>
+    <t>渓谷</t>
+  </si>
+  <si>
+    <t>thung lũng</t>
+  </si>
+  <si>
+    <t>たにま</t>
+  </si>
+  <si>
+    <t>谷間</t>
+  </si>
+  <si>
+    <t>khe giữa 2 ngọn núi(khe ngực)</t>
+  </si>
+  <si>
+    <t>こんちゅう</t>
+  </si>
+  <si>
+    <t>昆虫</t>
+  </si>
+  <si>
+    <t>côn trùng</t>
+  </si>
+  <si>
+    <t>うもう</t>
+  </si>
+  <si>
+    <t>羽毛</t>
+  </si>
+  <si>
+    <t>lông vũ</t>
   </si>
 </sst>
 </file>
@@ -10764,10 +10845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H938"/>
+  <dimension ref="A1:H948"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A898" workbookViewId="0">
-      <selection activeCell="C919" sqref="C919"/>
+    <sheetView tabSelected="1" topLeftCell="A910" workbookViewId="0">
+      <selection activeCell="D930" sqref="D930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -10832,12 +10913,12 @@
         <v>4</v>
       </c>
       <c r="G2" s="1">
-        <f>COUNTA(A2:A100181)</f>
+        <f>COUNTA(A2:A100190)</f>
         <v>310</v>
       </c>
       <c r="H2" s="1">
-        <f>COUNTA(C2:C10181)</f>
-        <v>937</v>
+        <f>COUNTA(C2:C10190)</f>
+        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -23906,40 +23987,31 @@
       </c>
     </row>
     <row r="928" spans="1:6">
-      <c r="A928" s="1" t="s">
-        <v>3276</v>
-      </c>
-      <c r="B928" s="1" t="s">
-        <v>3279</v>
-      </c>
       <c r="C928" s="1" t="s">
-        <v>3277</v>
+        <v>3052</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>3278</v>
+        <v>3053</v>
       </c>
       <c r="E928" s="1" t="s">
-        <v>3280</v>
-      </c>
-      <c r="F928" s="1">
-        <v>6</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="929" spans="1:6">
       <c r="A929" s="1" t="s">
-        <v>3282</v>
+        <v>3276</v>
       </c>
       <c r="B929" s="1" t="s">
-        <v>3287</v>
+        <v>3279</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>3283</v>
+        <v>3277</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>3282</v>
+        <v>3278</v>
       </c>
       <c r="E929" s="1" t="s">
-        <v>3288</v>
+        <v>3280</v>
       </c>
       <c r="F929" s="1">
         <v>6</v>
@@ -23947,164 +24019,283 @@
     </row>
     <row r="930" spans="1:6">
       <c r="C930" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D930" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6">
+      <c r="A931" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D931" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F931" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6">
+      <c r="C932" s="1" t="s">
         <v>3281</v>
       </c>
-      <c r="D930" s="1" t="s">
+      <c r="D932" s="1" t="s">
         <v>3284</v>
       </c>
-      <c r="E930" s="1" t="s">
+      <c r="E932" s="1" t="s">
         <v>3290</v>
       </c>
     </row>
-    <row r="931" spans="1:6">
-      <c r="C931" s="1" t="s">
+    <row r="933" spans="1:6">
+      <c r="C933" s="1" t="s">
         <v>3286</v>
       </c>
-      <c r="D931" s="1" t="s">
+      <c r="D933" s="1" t="s">
         <v>3285</v>
       </c>
-      <c r="E931" s="1" t="s">
+      <c r="E933" s="1" t="s">
         <v>3289</v>
       </c>
     </row>
-    <row r="932" spans="1:6">
-      <c r="A932" s="1" t="s">
-        <v>3291</v>
-      </c>
-      <c r="B932" s="1" t="s">
-        <v>3293</v>
-      </c>
-      <c r="C932" s="1" t="s">
-        <v>3292</v>
-      </c>
-      <c r="D932" s="1" t="s">
-        <v>3291</v>
-      </c>
-      <c r="E932" s="1" t="s">
-        <v>3294</v>
-      </c>
-      <c r="F932" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="933" spans="1:6">
-      <c r="A933" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="B933" s="1" t="s">
-        <v>3296</v>
-      </c>
-      <c r="C933" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D933" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E933" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F933" s="1">
-        <v>4</v>
-      </c>
-    </row>
     <row r="934" spans="1:6">
-      <c r="A934" s="1" t="s">
-        <v>3297</v>
-      </c>
-      <c r="B934" s="1" t="s">
-        <v>3300</v>
-      </c>
       <c r="C934" s="1" t="s">
-        <v>3298</v>
+        <v>3367</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>3297</v>
+        <v>3368</v>
       </c>
       <c r="E934" s="1" t="s">
-        <v>3299</v>
-      </c>
-      <c r="F934" s="1">
-        <v>9</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="935" spans="1:6">
       <c r="A935" s="1" t="s">
-        <v>3301</v>
+        <v>3291</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>3302</v>
+        <v>3293</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>3303</v>
+        <v>3292</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>3301</v>
+        <v>3291</v>
       </c>
       <c r="E935" s="1" t="s">
-        <v>3302</v>
+        <v>3294</v>
       </c>
       <c r="F935" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="936" spans="1:6">
-      <c r="A936" s="1" t="s">
-        <v>3304</v>
-      </c>
-      <c r="B936" s="1" t="s">
-        <v>3305</v>
-      </c>
       <c r="C936" s="1" t="s">
-        <v>3306</v>
+        <v>3370</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>3304</v>
+        <v>3371</v>
       </c>
       <c r="E936" s="1" t="s">
-        <v>3307</v>
-      </c>
-      <c r="F936" s="1">
-        <v>7</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="937" spans="1:6">
       <c r="A937" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D937" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F937" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6">
+      <c r="C938" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D938" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6">
+      <c r="A939" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D939" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F939" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6">
+      <c r="C940" s="1" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D940" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6">
+      <c r="A941" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D941" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F941" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6">
+      <c r="A942" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D942" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="F942" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6">
+      <c r="C943" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D943" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6">
+      <c r="C944" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D944" s="1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6">
+      <c r="A945" s="1" t="s">
         <v>3308</v>
       </c>
-      <c r="B937" s="1" t="s">
+      <c r="B945" s="1" t="s">
         <v>3310</v>
       </c>
-      <c r="C937" s="1" t="s">
+      <c r="C945" s="1" t="s">
         <v>3309</v>
       </c>
-      <c r="D937" s="1" t="s">
+      <c r="D945" s="1" t="s">
         <v>3308</v>
       </c>
-      <c r="E937" s="1" t="s">
+      <c r="E945" s="1" t="s">
         <v>3311</v>
       </c>
-      <c r="F937" s="1">
+      <c r="F945" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="938" spans="1:6">
-      <c r="A938" s="1" t="s">
+    <row r="946" spans="1:6">
+      <c r="C946" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6">
+      <c r="A947" s="1" t="s">
         <v>3312</v>
       </c>
-      <c r="B938" s="1" t="s">
+      <c r="B947" s="1" t="s">
         <v>3314</v>
       </c>
-      <c r="C938" s="1" t="s">
+      <c r="C947" s="1" t="s">
         <v>3313</v>
       </c>
-      <c r="D938" s="1" t="s">
+      <c r="D947" s="1" t="s">
         <v>3312</v>
       </c>
-      <c r="E938" s="1" t="s">
+      <c r="E947" s="1" t="s">
         <v>3315</v>
       </c>
-      <c r="F938" s="1">
+      <c r="F947" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6">
+      <c r="C948" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D948" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>3390</v>
       </c>
     </row>
   </sheetData>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22413"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA091D1-23E8-4759-B5F4-B41963116B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99196AD9-749E-409C-A62C-A4CFB12BCDB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="3730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="3805">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -10416,6 +10416,231 @@
   </si>
   <si>
     <t>ngoại lệ</t>
+  </si>
+  <si>
+    <t>chỉ người (人) mới có quy tắc(則) đo được mặt nước phía bên kia(側)</t>
+  </si>
+  <si>
+    <t>側</t>
+  </si>
+  <si>
+    <t>trắc</t>
+  </si>
+  <si>
+    <t>がわ</t>
+  </si>
+  <si>
+    <t>phía</t>
+  </si>
+  <si>
+    <t>そくめん</t>
+  </si>
+  <si>
+    <t>側面</t>
+  </si>
+  <si>
+    <t>gương chiếu hậu</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>kiện</t>
+  </si>
+  <si>
+    <t>じけん</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>vụ án</t>
+  </si>
+  <si>
+    <t>Vụ án (件) người (人)giết bò（牛)</t>
+  </si>
+  <si>
+    <t>じょうけん</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>điều kiện</t>
+  </si>
+  <si>
+    <t>ようけん</t>
+  </si>
+  <si>
+    <t>用件</t>
+  </si>
+  <si>
+    <t>ぶっけん</t>
+  </si>
+  <si>
+    <t>物件</t>
+  </si>
+  <si>
+    <t>nhà (căn) khi tìm nhà</t>
+  </si>
+  <si>
+    <t>けんすう</t>
+  </si>
+  <si>
+    <t>件数</t>
+  </si>
+  <si>
+    <t>vụ(tai nạn)</t>
+  </si>
+  <si>
+    <t>付</t>
+  </si>
+  <si>
+    <t>phó</t>
+  </si>
+  <si>
+    <t>かたずける</t>
+  </si>
+  <si>
+    <t>片付ける</t>
+  </si>
+  <si>
+    <t>dọn dẹp</t>
+  </si>
+  <si>
+    <t>Có người(人) luôn bám theo (付) để bảo vệ（守）</t>
+  </si>
+  <si>
+    <t>ついていた</t>
+  </si>
+  <si>
+    <t>付いていた</t>
+  </si>
+  <si>
+    <t>đính</t>
+  </si>
+  <si>
+    <t>みにつける</t>
+  </si>
+  <si>
+    <t>身に付ける</t>
+  </si>
+  <si>
+    <t>trang bị</t>
+  </si>
+  <si>
+    <t>候</t>
+  </si>
+  <si>
+    <t>hậu</t>
+  </si>
+  <si>
+    <t>きこう</t>
+  </si>
+  <si>
+    <t>気候</t>
+  </si>
+  <si>
+    <t>khí hậu</t>
+  </si>
+  <si>
+    <t>người(人) bắn mũi tên(矢) lên trời mong có tuyết(ユ)</t>
+  </si>
+  <si>
+    <t>てんこう</t>
+  </si>
+  <si>
+    <t>天候</t>
+  </si>
+  <si>
+    <t>こうほしゃ</t>
+  </si>
+  <si>
+    <t>候補者</t>
+  </si>
+  <si>
+    <t>ứng cử viên</t>
+  </si>
+  <si>
+    <t>仏</t>
+  </si>
+  <si>
+    <t>phật</t>
+  </si>
+  <si>
+    <t>ぶっきょう</t>
+  </si>
+  <si>
+    <t>仏教</t>
+  </si>
+  <si>
+    <t>phật giáo</t>
+  </si>
+  <si>
+    <t>tôi（私）là phật仏</t>
+  </si>
+  <si>
+    <t>ほとけさま</t>
+  </si>
+  <si>
+    <t>仏様</t>
+  </si>
+  <si>
+    <t>đức phật</t>
+  </si>
+  <si>
+    <t>だいぶつ</t>
+  </si>
+  <si>
+    <t>大仏</t>
+  </si>
+  <si>
+    <t>tượng phật lớn</t>
+  </si>
+  <si>
+    <t>ねんぶつ</t>
+  </si>
+  <si>
+    <t>念仏</t>
+  </si>
+  <si>
+    <t>niệm phật</t>
+  </si>
+  <si>
+    <t>倒</t>
+  </si>
+  <si>
+    <t>đảo</t>
+  </si>
+  <si>
+    <t>たおれた</t>
+  </si>
+  <si>
+    <t>倒れた</t>
+  </si>
+  <si>
+    <t>đổ</t>
+  </si>
+  <si>
+    <t>ngừoi(人) khi chưa đến (到)đích sẽ ko gục ngã(倒)</t>
+  </si>
+  <si>
+    <t>てんとう</t>
+  </si>
+  <si>
+    <t>転倒</t>
+  </si>
+  <si>
+    <t>bị ngã</t>
+  </si>
+  <si>
+    <t>とうさん</t>
+  </si>
+  <si>
+    <t>倒産</t>
+  </si>
+  <si>
+    <t>phá sản</t>
   </si>
   <si>
     <t>công thức</t>
@@ -11943,10 +12168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I957"/>
+  <dimension ref="A1:I977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
-      <selection activeCell="G954" sqref="G954"/>
+    <sheetView tabSelected="1" topLeftCell="A964" workbookViewId="0">
+      <selection activeCell="G976" sqref="G976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -12016,11 +12241,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTA(A2:A100176)</f>
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="I2" s="1">
         <f>COUNTA(C2:C10176)</f>
-        <v>956</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -26102,6 +26327,298 @@
       </c>
       <c r="E957" s="1" t="s">
         <v>3461</v>
+      </c>
+      <c r="F957" s="1">
+        <v>11</v>
+      </c>
+      <c r="G957" s="1" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7">
+      <c r="A958" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D958" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7">
+      <c r="C959" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D959" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7">
+      <c r="A960" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D960" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="F960" s="1">
+        <v>6</v>
+      </c>
+      <c r="G960" s="1" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7">
+      <c r="C961" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D961" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7">
+      <c r="C962" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D962" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E962" s="1" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7">
+      <c r="C963" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D963" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7">
+      <c r="C964" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D964" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E964" s="1" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7">
+      <c r="A965" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D965" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F965" s="1">
+        <v>5</v>
+      </c>
+      <c r="G965" s="1" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7">
+      <c r="C966" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D966" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E966" s="1" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7">
+      <c r="C967" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D967" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7">
+      <c r="A968" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D968" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="F968" s="1">
+        <v>10</v>
+      </c>
+      <c r="G968" s="1" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7">
+      <c r="C969" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D969" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7">
+      <c r="C970" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D970" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7">
+      <c r="A971" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D971" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E971" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F971" s="1">
+        <v>4</v>
+      </c>
+      <c r="G971" s="1" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7">
+      <c r="C972" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="D972" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7">
+      <c r="C973" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D973" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7">
+      <c r="C974" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7">
+      <c r="A975" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D975" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="F975" s="1">
+        <v>10</v>
+      </c>
+      <c r="G975" s="1" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7">
+      <c r="C976" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D976" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="977" spans="3:5">
+      <c r="C977" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D977" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>3536</v>
       </c>
     </row>
   </sheetData>
@@ -26136,50 +26653,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>3462</v>
+        <v>3537</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3463</v>
+        <v>3538</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3464</v>
+        <v>3539</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3465</v>
+        <v>3540</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3466</v>
+        <v>3541</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3467</v>
+        <v>3542</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3468</v>
+        <v>3543</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="18.75">
       <c r="A2" s="5" t="s">
-        <v>3469</v>
+        <v>3544</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3470</v>
+        <v>3545</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3473</v>
+        <v>3548</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3474</v>
+        <v>3549</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -26194,15 +26711,15 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>3475</v>
+        <v>3550</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3476</v>
+        <v>3551</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -26217,15 +26734,15 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>3477</v>
+        <v>3552</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3478</v>
+        <v>3553</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -26238,25 +26755,25 @@
     </row>
     <row r="5" spans="1:22" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>3479</v>
+        <v>3554</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3480</v>
+        <v>3555</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D5" s="1">
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3481</v>
+        <v>3556</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3482</v>
+        <v>3557</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -26271,15 +26788,15 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>3483</v>
+        <v>3558</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3484</v>
+        <v>3559</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -26294,15 +26811,15 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>3485</v>
+        <v>3560</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3486</v>
+        <v>3561</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -26315,25 +26832,25 @@
     </row>
     <row r="8" spans="1:22" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>3487</v>
+        <v>3562</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3488</v>
+        <v>3563</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D8" s="1">
         <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3473</v>
+        <v>3548</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>3489</v>
+        <v>3564</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -26348,13 +26865,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3490</v>
+        <v>3565</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3491</v>
+        <v>3566</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -26367,25 +26884,25 @@
     </row>
     <row r="10" spans="1:22" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>3492</v>
+        <v>3567</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3493</v>
+        <v>3568</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D10" s="1">
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3494</v>
+        <v>3569</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3495</v>
+        <v>3570</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -26407,15 +26924,15 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>3496</v>
+        <v>3571</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>3497</v>
+        <v>3572</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -26435,25 +26952,25 @@
     </row>
     <row r="12" spans="1:22" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>3498</v>
+        <v>3573</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3499</v>
+        <v>3574</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D12" s="1">
         <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3500</v>
+        <v>3575</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3501</v>
+        <v>3576</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -26475,15 +26992,15 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>3502</v>
+        <v>3577</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>3503</v>
+        <v>3578</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -26503,25 +27020,25 @@
     </row>
     <row r="14" spans="1:22" ht="18.75">
       <c r="A14" s="7" t="s">
-        <v>3504</v>
+        <v>3579</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3505</v>
+        <v>3580</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D14" s="1">
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3506</v>
+        <v>3581</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>3507</v>
+        <v>3582</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -26543,15 +27060,15 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>3508</v>
+        <v>3583</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3509</v>
+        <v>3584</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -26571,25 +27088,25 @@
     </row>
     <row r="16" spans="1:22" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>3510</v>
+        <v>3585</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3511</v>
+        <v>3586</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D16" s="1">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3512</v>
+        <v>3587</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>3513</v>
+        <v>3588</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -26611,15 +27128,15 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>3514</v>
+        <v>3589</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3515</v>
+        <v>3590</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -26639,25 +27156,25 @@
     </row>
     <row r="18" spans="1:22" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>3516</v>
+        <v>3591</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3517</v>
+        <v>3592</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D18" s="1">
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3518</v>
+        <v>3593</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>3519</v>
+        <v>3594</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -26679,15 +27196,15 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>3520</v>
+        <v>3595</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>3521</v>
+        <v>3596</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -26707,25 +27224,25 @@
     </row>
     <row r="20" spans="1:22" ht="56.25">
       <c r="A20" s="3" t="s">
-        <v>3522</v>
+        <v>3597</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3523</v>
+        <v>3598</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D20" s="1">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>3524</v>
+        <v>3599</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>3525</v>
+        <v>3600</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -26747,15 +27264,15 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>3526</v>
+        <v>3601</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3527</v>
+        <v>3602</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -26777,15 +27294,15 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>3528</v>
+        <v>3603</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>3529</v>
+        <v>3604</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -26807,15 +27324,15 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>3530</v>
+        <v>3605</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>3531</v>
+        <v>3606</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -26835,25 +27352,25 @@
     </row>
     <row r="24" spans="1:22" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>3532</v>
+        <v>3607</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3533</v>
+        <v>3608</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D24" s="1">
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3534</v>
+        <v>3609</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>3535</v>
+        <v>3610</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -26875,15 +27392,15 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>3536</v>
+        <v>3611</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3537</v>
+        <v>3612</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -26903,25 +27420,25 @@
     </row>
     <row r="26" spans="1:22" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>3538</v>
+        <v>3613</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3539</v>
+        <v>3614</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D26" s="1">
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3540</v>
+        <v>3615</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3541</v>
+        <v>3616</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -26931,15 +27448,15 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>3542</v>
+        <v>3617</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3543</v>
+        <v>3618</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -26947,25 +27464,25 @@
     </row>
     <row r="28" spans="1:22" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>3544</v>
+        <v>3619</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3545</v>
+        <v>3620</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D28" s="1">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3546</v>
+        <v>3621</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>3547</v>
+        <v>3622</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -26975,15 +27492,15 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>3548</v>
+        <v>3623</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3549</v>
+        <v>3624</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -26993,15 +27510,15 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>3550</v>
+        <v>3625</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>3551</v>
+        <v>3626</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -27009,25 +27526,25 @@
     </row>
     <row r="31" spans="1:22" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>3552</v>
+        <v>3627</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3553</v>
+        <v>3628</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D31" s="1">
         <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3554</v>
+        <v>3629</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3555</v>
+        <v>3630</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -27035,25 +27552,25 @@
     </row>
     <row r="32" spans="1:22" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>3556</v>
+        <v>3631</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3557</v>
+        <v>3632</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D32" s="1">
         <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3558</v>
+        <v>3633</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>3559</v>
+        <v>3634</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -27063,15 +27580,15 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>3560</v>
+        <v>3635</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3561</v>
+        <v>3636</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -27081,15 +27598,15 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>3562</v>
+        <v>3637</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3563</v>
+        <v>3638</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -27097,25 +27614,25 @@
     </row>
     <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>3564</v>
+        <v>3639</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3565</v>
+        <v>3640</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D35" s="1">
         <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3566</v>
+        <v>3641</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>3567</v>
+        <v>3642</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -27125,15 +27642,15 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>3568</v>
+        <v>3643</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3569</v>
+        <v>3644</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -27141,25 +27658,25 @@
     </row>
     <row r="37" spans="1:10" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>3570</v>
+        <v>3645</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3571</v>
+        <v>3646</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D37" s="1">
         <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3572</v>
+        <v>3647</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>3573</v>
+        <v>3648</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -27169,15 +27686,15 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>3574</v>
+        <v>3649</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3575</v>
+        <v>3650</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -27185,25 +27702,25 @@
     </row>
     <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>3576</v>
+        <v>3651</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3577</v>
+        <v>3652</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D39" s="1">
         <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3578</v>
+        <v>3653</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>3579</v>
+        <v>3654</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -27213,15 +27730,15 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>3580</v>
+        <v>3655</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3581</v>
+        <v>3656</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -27229,801 +27746,801 @@
     </row>
     <row r="41" spans="1:10" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>3582</v>
+        <v>3657</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3583</v>
+        <v>3658</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3584</v>
+        <v>3659</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>3585</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75">
       <c r="C42" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3586</v>
+        <v>3661</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3587</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75">
       <c r="C43" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3588</v>
+        <v>3663</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3589</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18.75">
       <c r="A44" t="s">
-        <v>3590</v>
+        <v>3665</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3591</v>
+        <v>3666</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D44" s="1">
         <v>40</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3592</v>
+        <v>3667</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3593</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75">
       <c r="C45" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3594</v>
+        <v>3669</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>3595</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75">
       <c r="C46" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3596</v>
+        <v>3671</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>3597</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75">
       <c r="A47" t="s">
-        <v>3598</v>
+        <v>3673</v>
       </c>
       <c r="B47" t="s">
-        <v>3599</v>
+        <v>3674</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D47">
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3600</v>
+        <v>3675</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>3601</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75">
       <c r="C48" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3602</v>
+        <v>3677</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3603</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18.75">
       <c r="C49" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3604</v>
+        <v>3679</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>3605</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75">
       <c r="A50" t="s">
-        <v>3606</v>
+        <v>3681</v>
       </c>
       <c r="B50" t="s">
-        <v>3607</v>
+        <v>3682</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D50">
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3608</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75">
       <c r="C51" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3609</v>
+        <v>3684</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>3610</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.75">
       <c r="C52" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3611</v>
+        <v>3686</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3612</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="72.75">
       <c r="A53" t="s">
-        <v>3613</v>
+        <v>3688</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>3614</v>
+        <v>3689</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D53">
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3615</v>
+        <v>3690</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3616</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75">
       <c r="C54" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3617</v>
+        <v>3692</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3618</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75">
       <c r="C55" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3619</v>
+        <v>3694</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>3620</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18.75">
       <c r="C56" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3621</v>
+        <v>3696</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>3622</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18.75">
       <c r="C57" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3623</v>
+        <v>3698</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>3624</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.75">
       <c r="A58" t="s">
-        <v>3625</v>
+        <v>3700</v>
       </c>
       <c r="B58" t="s">
-        <v>3626</v>
+        <v>3701</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D58">
         <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3627</v>
+        <v>3702</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>3628</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75">
       <c r="C59" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3629</v>
+        <v>3704</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>3630</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75">
       <c r="A60" t="s">
-        <v>3631</v>
+        <v>3706</v>
       </c>
       <c r="B60" t="s">
-        <v>3632</v>
+        <v>3707</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D60">
         <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3633</v>
+        <v>3708</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>3634</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75">
       <c r="C61" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3635</v>
+        <v>3710</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>3636</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="58.5">
       <c r="A62" t="s">
-        <v>3637</v>
+        <v>3712</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>3638</v>
+        <v>3713</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D62">
         <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3639</v>
+        <v>3714</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>3640</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75">
       <c r="C63" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3641</v>
+        <v>3716</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>3642</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75">
       <c r="C64" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3643</v>
+        <v>3718</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>3644</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75">
       <c r="C65" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3645</v>
+        <v>3720</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>3646</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75">
       <c r="C66" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3647</v>
+        <v>3722</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>3648</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75">
       <c r="A67" t="s">
-        <v>3649</v>
+        <v>3724</v>
       </c>
       <c r="B67" t="s">
-        <v>3650</v>
+        <v>3725</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D67">
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3651</v>
+        <v>3726</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>3652</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75">
       <c r="C68" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3653</v>
+        <v>3728</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>3654</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75">
       <c r="C69" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3655</v>
+        <v>3730</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>3656</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75">
       <c r="A70" t="s">
-        <v>3657</v>
+        <v>3732</v>
       </c>
       <c r="B70" t="s">
-        <v>3658</v>
+        <v>3733</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D70">
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3659</v>
+        <v>3734</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>3660</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75">
       <c r="F71" s="1" t="s">
-        <v>3661</v>
+        <v>3736</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3662</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75">
       <c r="F72" s="1" t="s">
-        <v>3663</v>
+        <v>3738</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3664</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75">
       <c r="A73" t="s">
-        <v>3665</v>
+        <v>3740</v>
       </c>
       <c r="B73" t="s">
-        <v>3666</v>
+        <v>3741</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D73">
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3667</v>
+        <v>3742</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>3668</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
       <c r="F74" s="1" t="s">
-        <v>3669</v>
+        <v>3744</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>3670</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
       <c r="F75" s="1" t="s">
-        <v>3671</v>
+        <v>3746</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>3672</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75">
       <c r="A76" t="s">
-        <v>3673</v>
+        <v>3748</v>
       </c>
       <c r="B76" t="s">
-        <v>3674</v>
+        <v>3749</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D76">
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3675</v>
+        <v>3750</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>3676</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75">
       <c r="F77" s="1" t="s">
-        <v>3677</v>
+        <v>3752</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>3678</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75">
       <c r="A78" t="s">
-        <v>3679</v>
+        <v>3754</v>
       </c>
       <c r="B78" t="s">
-        <v>3680</v>
+        <v>3755</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D78">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3681</v>
+        <v>3756</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>3682</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75">
       <c r="F79" s="1" t="s">
-        <v>3683</v>
+        <v>3758</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>3684</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75">
       <c r="A80" t="s">
-        <v>3685</v>
+        <v>3760</v>
       </c>
       <c r="B80" t="s">
-        <v>3686</v>
+        <v>3761</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D80">
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>3687</v>
+        <v>3762</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>3688</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75">
       <c r="F81" s="1" t="s">
-        <v>3689</v>
+        <v>3764</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>3690</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75">
       <c r="A82" t="s">
-        <v>3691</v>
+        <v>3766</v>
       </c>
       <c r="B82" t="s">
-        <v>3692</v>
+        <v>3767</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D82">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>3693</v>
+        <v>3768</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>3694</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75">
       <c r="F83" s="1" t="s">
-        <v>3695</v>
+        <v>3770</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>3696</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75">
       <c r="A84" t="s">
-        <v>3697</v>
+        <v>3772</v>
       </c>
       <c r="B84" t="s">
-        <v>3698</v>
+        <v>3773</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D84">
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3699</v>
+        <v>3774</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3700</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75">
       <c r="F85" s="1" t="s">
-        <v>3701</v>
+        <v>3776</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3702</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75">
       <c r="A86" t="s">
-        <v>3703</v>
+        <v>3778</v>
       </c>
       <c r="B86" t="s">
-        <v>3704</v>
+        <v>3779</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D86">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>3705</v>
+        <v>3780</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>3706</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75">
       <c r="A87" t="s">
-        <v>3707</v>
+        <v>3782</v>
       </c>
       <c r="B87" t="s">
-        <v>3708</v>
+        <v>3783</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D87">
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3709</v>
+        <v>3784</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>3710</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75">
       <c r="F88" s="1" t="s">
-        <v>3711</v>
+        <v>3786</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>3712</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75">
       <c r="F89" s="1" t="s">
-        <v>3713</v>
+        <v>3788</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>3714</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18.75">
       <c r="A90" t="s">
-        <v>3715</v>
+        <v>3790</v>
       </c>
       <c r="B90" t="s">
-        <v>3716</v>
+        <v>3791</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D90">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3717</v>
+        <v>3792</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>3718</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75">
       <c r="F91" s="1" t="s">
-        <v>3719</v>
+        <v>3794</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>3720</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75">
       <c r="F92" s="1" t="s">
-        <v>3721</v>
+        <v>3796</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>3722</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75">
       <c r="F93" s="1" t="s">
-        <v>3723</v>
+        <v>3798</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>3724</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18.75">
       <c r="A94" t="s">
-        <v>3725</v>
+        <v>3800</v>
       </c>
       <c r="B94" t="s">
-        <v>3726</v>
+        <v>3801</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>3471</v>
+        <v>3546</v>
       </c>
       <c r="D94">
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>3472</v>
+        <v>3547</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3727</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18.75">
       <c r="F95" s="1" t="s">
-        <v>3728</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75">
       <c r="F96" s="1" t="s">
-        <v>3729</v>
+        <v>3804</v>
       </c>
     </row>
   </sheetData>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22413"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99196AD9-749E-409C-A62C-A4CFB12BCDB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A8ACBA-2BF2-43F7-96E2-EF95C33C64F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10418,19 +10418,19 @@
     <t>ngoại lệ</t>
   </si>
   <si>
+    <t>側</t>
+  </si>
+  <si>
+    <t>trắc</t>
+  </si>
+  <si>
+    <t>がわ</t>
+  </si>
+  <si>
+    <t>phía</t>
+  </si>
+  <si>
     <t>chỉ người (人) mới có quy tắc(則) đo được mặt nước phía bên kia(側)</t>
-  </si>
-  <si>
-    <t>側</t>
-  </si>
-  <si>
-    <t>trắc</t>
-  </si>
-  <si>
-    <t>がわ</t>
-  </si>
-  <si>
-    <t>phía</t>
   </si>
   <si>
     <t>そくめん</t>
@@ -12170,8 +12170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A964" workbookViewId="0">
-      <selection activeCell="G976" sqref="G976"/>
+    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
+      <selection activeCell="G958" sqref="G958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -26328,27 +26328,27 @@
       <c r="E957" s="1" t="s">
         <v>3461</v>
       </c>
-      <c r="F957" s="1">
-        <v>11</v>
-      </c>
-      <c r="G957" s="1" t="s">
-        <v>3462</v>
-      </c>
     </row>
     <row r="958" spans="1:7">
       <c r="A958" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B958" s="1" t="s">
         <v>3463</v>
       </c>
-      <c r="B958" s="1" t="s">
+      <c r="C958" s="1" t="s">
         <v>3464</v>
       </c>
-      <c r="C958" s="1" t="s">
+      <c r="D958" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E958" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="D958" s="1" t="s">
-        <v>3463</v>
-      </c>
-      <c r="E958" s="1" t="s">
+      <c r="F958" s="1">
+        <v>11</v>
+      </c>
+      <c r="G958" s="1" t="s">
         <v>3466</v>
       </c>
     </row>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22429"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A8ACBA-2BF2-43F7-96E2-EF95C33C64F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD73EBD-BA93-4A65-B31D-9EFD96228751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="3805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="4008">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -10349,7 +10349,7 @@
     <t>保護</t>
   </si>
   <si>
-    <t>Muốn bảo vệ 保 thiên nhiên phải nhường chỗ ko cho đứng 倍 để trồng cây 保</t>
+    <t>con người dùng miệng để BẢO vệ cái cây</t>
   </si>
   <si>
     <t>たもつ</t>
@@ -10430,7 +10430,7 @@
     <t>phía</t>
   </si>
   <si>
-    <t>chỉ người (人) mới có quy tắc(則) đo được mặt nước phía bên kia(側)</t>
+    <t>Đao (刂) là bảo Bối (貝)mang bên Người (亻) để đề phòng bất Trắc (側)</t>
   </si>
   <si>
     <t>そくめん</t>
@@ -10641,6 +10641,615 @@
   </si>
   <si>
     <t>phá sản</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>hình</t>
+  </si>
+  <si>
+    <t>かたち</t>
+  </si>
+  <si>
+    <t>hình dạng</t>
+  </si>
+  <si>
+    <t>Đứng HÌNH（形） 3 giây</t>
+  </si>
+  <si>
+    <t>にんぎょう</t>
+  </si>
+  <si>
+    <t>人形</t>
+  </si>
+  <si>
+    <t>búp bê</t>
+  </si>
+  <si>
+    <t>けいしきてき</t>
+  </si>
+  <si>
+    <t>形式的</t>
+  </si>
+  <si>
+    <t>tính hình thức</t>
+  </si>
+  <si>
+    <t>さんかくけい</t>
+  </si>
+  <si>
+    <t>三角形</t>
+  </si>
+  <si>
+    <t>hình tam giác</t>
+  </si>
+  <si>
+    <t>職</t>
+  </si>
+  <si>
+    <t>chức</t>
+  </si>
+  <si>
+    <t>てんしょく</t>
+  </si>
+  <si>
+    <t>転職</t>
+  </si>
+  <si>
+    <t>chuyển việc</t>
+  </si>
+  <si>
+    <t>hàng NGÀY (日) hết ĐỨNG(立) rồi đi QUA(戈) đi lại, dùng NHĨ (耳) lắng nghe động tĩnh là CHỨC vụ của người lính canh</t>
+  </si>
+  <si>
+    <t>しょくぎょう</t>
+  </si>
+  <si>
+    <t>職業</t>
+  </si>
+  <si>
+    <t>かいちょうのしょく</t>
+  </si>
+  <si>
+    <t>会長の職</t>
+  </si>
+  <si>
+    <t>chức vụ</t>
+  </si>
+  <si>
+    <t>しゅうしょく</t>
+  </si>
+  <si>
+    <t>就職</t>
+  </si>
+  <si>
+    <t>tìm việc mới</t>
+  </si>
+  <si>
+    <t>首</t>
+  </si>
+  <si>
+    <t>thủ</t>
+  </si>
+  <si>
+    <t>くび</t>
+  </si>
+  <si>
+    <t>cổ</t>
+  </si>
+  <si>
+    <t>hình ảnh cái cổ</t>
+  </si>
+  <si>
+    <t>くびになる</t>
+  </si>
+  <si>
+    <t>首になる</t>
+  </si>
+  <si>
+    <t>bị đuổi việc</t>
+  </si>
+  <si>
+    <t>末</t>
+  </si>
+  <si>
+    <t>mạt</t>
+  </si>
+  <si>
+    <t>きまつ</t>
+  </si>
+  <si>
+    <t>期末</t>
+  </si>
+  <si>
+    <t>cuối kì</t>
+  </si>
+  <si>
+    <t>lấy mạt ở cuối ngọn cây</t>
+  </si>
+  <si>
+    <t>こんげつのすえ</t>
+  </si>
+  <si>
+    <t>今月の末</t>
+  </si>
+  <si>
+    <t>cuối tuần này</t>
+  </si>
+  <si>
+    <t>ねんまつねんし</t>
+  </si>
+  <si>
+    <t>年末年始</t>
+  </si>
+  <si>
+    <t>cuối năm đầu năm</t>
+  </si>
+  <si>
+    <t>すえっこ</t>
+  </si>
+  <si>
+    <t>末っ子</t>
+  </si>
+  <si>
+    <t>con út</t>
+  </si>
+  <si>
+    <t>果</t>
+  </si>
+  <si>
+    <t>quả</t>
+  </si>
+  <si>
+    <t>はたす</t>
+  </si>
+  <si>
+    <t>果たす</t>
+  </si>
+  <si>
+    <t>cánh đồng trồng cây ăn quả</t>
+  </si>
+  <si>
+    <t>せいか</t>
+  </si>
+  <si>
+    <t>成果</t>
+  </si>
+  <si>
+    <t>thành quả</t>
+  </si>
+  <si>
+    <t>かじつしゅ</t>
+  </si>
+  <si>
+    <t>果実酒</t>
+  </si>
+  <si>
+    <t>rượu hoa quả</t>
+  </si>
+  <si>
+    <t>はてる</t>
+  </si>
+  <si>
+    <t>果てる</t>
+  </si>
+  <si>
+    <t>đến tận cùng</t>
+  </si>
+  <si>
+    <t>机</t>
+  </si>
+  <si>
+    <t>cơ</t>
+  </si>
+  <si>
+    <t>つくえ</t>
+  </si>
+  <si>
+    <t>cái bàn</t>
+  </si>
+  <si>
+    <t>Cái bàn làm từ gỗ</t>
+  </si>
+  <si>
+    <t>がくしゅうずくえ</t>
+  </si>
+  <si>
+    <t>学習机</t>
+  </si>
+  <si>
+    <t>bàn học</t>
+  </si>
+  <si>
+    <t>植</t>
+  </si>
+  <si>
+    <t>thực</t>
+  </si>
+  <si>
+    <t>うえる</t>
+  </si>
+  <si>
+    <t>植える</t>
+  </si>
+  <si>
+    <t>trồng</t>
+  </si>
+  <si>
+    <t>Cây L là cây rất là quý . Khi trồng cần 10 mắt để quan sát k là sẽ bị mất .</t>
+  </si>
+  <si>
+    <t>しょくぶつ</t>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>thực vật</t>
+  </si>
+  <si>
+    <t>いしょく</t>
+  </si>
+  <si>
+    <t>移植</t>
+  </si>
+  <si>
+    <t>nhân giống</t>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
+    <t>căn</t>
+  </si>
+  <si>
+    <t>ねもと</t>
+  </si>
+  <si>
+    <t>根元</t>
+  </si>
+  <si>
+    <t>gốc rễ</t>
+  </si>
+  <si>
+    <t>cây本 phát triển tốt良 nhờ vào rễ根</t>
+  </si>
+  <si>
+    <t>ね</t>
+  </si>
+  <si>
+    <t>rễ</t>
+  </si>
+  <si>
+    <t>やね</t>
+  </si>
+  <si>
+    <t>屋根</t>
+  </si>
+  <si>
+    <t>mái nhà</t>
+  </si>
+  <si>
+    <t>こんぽんてき</t>
+  </si>
+  <si>
+    <t>根本的</t>
+  </si>
+  <si>
+    <t>mang tính căn bản</t>
+  </si>
+  <si>
+    <t>構</t>
+  </si>
+  <si>
+    <t>cấu</t>
+  </si>
+  <si>
+    <t>かまえる</t>
+  </si>
+  <si>
+    <t>構える</t>
+  </si>
+  <si>
+    <t>xây dựng, thành lập</t>
+  </si>
+  <si>
+    <t>Cây hợp thành kết cấu ngôi nhà</t>
+  </si>
+  <si>
+    <t>こうぞう</t>
+  </si>
+  <si>
+    <t>構造</t>
+  </si>
+  <si>
+    <t>cấu tạo</t>
+  </si>
+  <si>
+    <t>こうせい</t>
+  </si>
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>cấu thành</t>
+  </si>
+  <si>
+    <t>柱</t>
+  </si>
+  <si>
+    <t>trụ</t>
+  </si>
+  <si>
+    <t>でんちゅう</t>
+  </si>
+  <si>
+    <t>電柱</t>
+  </si>
+  <si>
+    <t>cột điện</t>
+  </si>
+  <si>
+    <t>Cái cột trụ柱 chủ yếu主 làm từ thân cây本</t>
+  </si>
+  <si>
+    <t>はしら</t>
+  </si>
+  <si>
+    <t>cột trụ</t>
+  </si>
+  <si>
+    <t>だいこくばしら</t>
+  </si>
+  <si>
+    <t>大黒柱</t>
+  </si>
+  <si>
+    <t>trụ cột chính</t>
+  </si>
+  <si>
+    <t>材</t>
+  </si>
+  <si>
+    <t>Cây本 là tài才 sản của quốc gia</t>
+  </si>
+  <si>
+    <t>もくざい</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>chất liệu gỗ</t>
+  </si>
+  <si>
+    <t>そざい</t>
+  </si>
+  <si>
+    <t>素材</t>
+  </si>
+  <si>
+    <t>chất liệu(quần áo)</t>
+  </si>
+  <si>
+    <t>じんざい</t>
+  </si>
+  <si>
+    <t>人材</t>
+  </si>
+  <si>
+    <t>nhân tài(nhân lực)</t>
+  </si>
+  <si>
+    <t>杯</t>
+  </si>
+  <si>
+    <t>bôi</t>
+  </si>
+  <si>
+    <t>さかずき</t>
+  </si>
+  <si>
+    <t>cái ly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cái ly杯 uống rượu không được 不bằng gỗ 本 </t>
+  </si>
+  <si>
+    <t>せいいっぱい</t>
+  </si>
+  <si>
+    <t>精一杯</t>
+  </si>
+  <si>
+    <t>cố gắng hết mình</t>
+  </si>
+  <si>
+    <t>かんぱい</t>
+  </si>
+  <si>
+    <t>乾杯</t>
+  </si>
+  <si>
+    <t>cạn ly</t>
+  </si>
+  <si>
+    <t>_x0008_枚</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>まいすう</t>
+  </si>
+  <si>
+    <t>枚数</t>
+  </si>
+  <si>
+    <t>số lượng tờ</t>
+  </si>
+  <si>
+    <t>dùng tay đánh gãy cây 本 mai枚</t>
+  </si>
+  <si>
+    <t>さんまいめ</t>
+  </si>
+  <si>
+    <t>三枚目</t>
+  </si>
+  <si>
+    <t>tờ thứ 3(đẹp trai)</t>
+  </si>
+  <si>
+    <t>検</t>
+  </si>
+  <si>
+    <t>kiểm</t>
+  </si>
+  <si>
+    <t>てんけんちゅう</t>
+  </si>
+  <si>
+    <t>点検中</t>
+  </si>
+  <si>
+    <t>đang kiểm tra</t>
+  </si>
+  <si>
+    <t>1 người 人đi kiểm tra検 cây本</t>
+  </si>
+  <si>
+    <t>たんけん</t>
+  </si>
+  <si>
+    <t>探検</t>
+  </si>
+  <si>
+    <t>thám hiểm</t>
+  </si>
+  <si>
+    <t>けんさ</t>
+  </si>
+  <si>
+    <t>検査</t>
+  </si>
+  <si>
+    <t>kiểm tra</t>
+  </si>
+  <si>
+    <t>けんしょう</t>
+  </si>
+  <si>
+    <t>検証</t>
+  </si>
+  <si>
+    <t>khám nghiệm(hiện trường)</t>
+  </si>
+  <si>
+    <t>けんとう</t>
+  </si>
+  <si>
+    <t>検討</t>
+  </si>
+  <si>
+    <t>ktra thêm(xem xét thêm)</t>
+  </si>
+  <si>
+    <t>束</t>
+  </si>
+  <si>
+    <t>thúc</t>
+  </si>
+  <si>
+    <t>はなたば</t>
+  </si>
+  <si>
+    <t>花束</t>
+  </si>
+  <si>
+    <t>bó hoa</t>
+  </si>
+  <si>
+    <t>hình ảnh bó hoa(束）</t>
+  </si>
+  <si>
+    <t>やくそく</t>
+  </si>
+  <si>
+    <t>約束</t>
+  </si>
+  <si>
+    <t>lời hứa</t>
+  </si>
+  <si>
+    <t>査</t>
+  </si>
+  <si>
+    <t>tra</t>
+  </si>
+  <si>
+    <t>ちょうさ</t>
+  </si>
+  <si>
+    <t>調査</t>
+  </si>
+  <si>
+    <t>điều tra</t>
+  </si>
+  <si>
+    <t>đi xung quanh hàng rào bằng gỗ để điều tra</t>
+  </si>
+  <si>
+    <t>さしょう</t>
+  </si>
+  <si>
+    <t>査証</t>
+  </si>
+  <si>
+    <t>chứng thực</t>
+  </si>
+  <si>
+    <t>性</t>
+  </si>
+  <si>
+    <t>cách</t>
+  </si>
+  <si>
+    <t>せいかく</t>
+  </si>
+  <si>
+    <t>性格</t>
+  </si>
+  <si>
+    <t>tính cách</t>
+  </si>
+  <si>
+    <t>cây có cách sinh trưởng ở môi trường khác nhau</t>
+  </si>
+  <si>
+    <t>しっかく</t>
+  </si>
+  <si>
+    <t>失格</t>
+  </si>
+  <si>
+    <t>tư cách</t>
+  </si>
+  <si>
+    <t>ごうかく</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>たいかく</t>
+  </si>
+  <si>
+    <t>体格</t>
+  </si>
+  <si>
+    <t>thể trạng(vóc dáng)</t>
   </si>
   <si>
     <t>công thức</t>
@@ -11690,7 +12299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11783,6 +12392,11 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Batang"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -11804,7 +12418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11830,6 +12444,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -12168,10 +12784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I977"/>
+  <dimension ref="A1:I1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
-      <selection activeCell="G958" sqref="G958"/>
+    <sheetView tabSelected="1" topLeftCell="A1017" workbookViewId="0">
+      <selection activeCell="G1030" sqref="G1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -12241,11 +12857,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTA(A2:A100176)</f>
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="I2" s="1">
         <f>COUNTA(C2:C10176)</f>
-        <v>976</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -26235,7 +26851,7 @@
       <c r="F950" s="1">
         <v>9</v>
       </c>
-      <c r="G950" s="1" t="s">
+      <c r="G950" s="14" t="s">
         <v>3439</v>
       </c>
     </row>
@@ -26249,6 +26865,7 @@
       <c r="E951" s="1" t="s">
         <v>3442</v>
       </c>
+      <c r="G951"/>
     </row>
     <row r="952" spans="1:7">
       <c r="C952" s="1" t="s">
@@ -26329,7 +26946,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="958" spans="1:7">
+    <row r="958" spans="1:7" ht="28.5">
       <c r="A958" s="1" t="s">
         <v>3462</v>
       </c>
@@ -26348,7 +26965,7 @@
       <c r="F958" s="1">
         <v>11</v>
       </c>
-      <c r="G958" s="1" t="s">
+      <c r="G958" s="14" t="s">
         <v>3466</v>
       </c>
     </row>
@@ -26362,6 +26979,7 @@
       <c r="E959" s="1" t="s">
         <v>3469</v>
       </c>
+      <c r="G959"/>
     </row>
     <row r="960" spans="1:7">
       <c r="A960" s="1" t="s">
@@ -26610,7 +27228,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="977" spans="3:5">
+    <row r="977" spans="1:7">
       <c r="C977" s="1" t="s">
         <v>3534</v>
       </c>
@@ -26621,8 +27239,822 @@
         <v>3536</v>
       </c>
     </row>
+    <row r="978" spans="1:7">
+      <c r="A978" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D978" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="E978" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F978" s="1">
+        <v>7</v>
+      </c>
+      <c r="G978" s="15" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7">
+      <c r="C979" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="D979" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7">
+      <c r="C980" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D980" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7">
+      <c r="C981" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D981" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7">
+      <c r="A982" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="F982" s="1">
+        <v>18</v>
+      </c>
+      <c r="G982" s="15" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7">
+      <c r="C983" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="D983" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7">
+      <c r="C984" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D984" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7">
+      <c r="C985" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7">
+      <c r="A986" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D986" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="F986" s="1">
+        <v>9</v>
+      </c>
+      <c r="G986" s="1" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7">
+      <c r="C987" s="1" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D987" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7">
+      <c r="A988" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D988" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="F988" s="1">
+        <v>5</v>
+      </c>
+      <c r="G988" s="1" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7">
+      <c r="C989" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D989" s="1" t="s">
+        <v>3580</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7">
+      <c r="C990" s="1" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7">
+      <c r="C991" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="D991" s="1" t="s">
+        <v>3586</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7">
+      <c r="A992" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F992" s="1">
+        <v>8</v>
+      </c>
+      <c r="G992" s="14" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7">
+      <c r="C993" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D993" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="E993" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="G993"/>
+    </row>
+    <row r="994" spans="1:7">
+      <c r="C994" s="1" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D994" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="E994" s="1" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7">
+      <c r="C995" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D995" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7">
+      <c r="A996" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>3605</v>
+      </c>
+      <c r="F996" s="1">
+        <v>6</v>
+      </c>
+      <c r="G996" s="1" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7">
+      <c r="C997" s="1" t="s">
+        <v>3607</v>
+      </c>
+      <c r="D997" s="1" t="s">
+        <v>3608</v>
+      </c>
+      <c r="E997" s="1" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" ht="28.5">
+      <c r="A998" s="16" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B998" s="16" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C998" s="16" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D998" s="16" t="s">
+        <v>3613</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>3614</v>
+      </c>
+      <c r="F998" s="1">
+        <v>12</v>
+      </c>
+      <c r="G998" s="14" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7">
+      <c r="A999" s="16"/>
+      <c r="B999" s="16"/>
+      <c r="C999" s="16" t="s">
+        <v>3616</v>
+      </c>
+      <c r="D999" s="16" t="s">
+        <v>3617</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="G999"/>
+    </row>
+    <row r="1000" spans="1:7">
+      <c r="A1000" s="16"/>
+      <c r="B1000" s="16"/>
+      <c r="C1000" s="16" t="s">
+        <v>3619</v>
+      </c>
+      <c r="D1000" s="16" t="s">
+        <v>3620</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7">
+      <c r="A1001" s="1" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>3624</v>
+      </c>
+      <c r="D1001" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="F1001" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1001" s="1" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7">
+      <c r="C1002" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D1002" s="1" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E1002" s="1" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7">
+      <c r="C1003" s="1" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D1003" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="E1003" s="1" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7">
+      <c r="C1004" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="D1004" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E1004" s="1" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7">
+      <c r="A1005" s="1" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>3638</v>
+      </c>
+      <c r="D1005" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>3640</v>
+      </c>
+      <c r="F1005" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1005" s="1" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7">
+      <c r="C1006" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D1006" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="E1006" s="1" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7">
+      <c r="C1007" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="D1007" s="1" t="s">
+        <v>3646</v>
+      </c>
+      <c r="E1007" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7">
+      <c r="A1008" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="D1008" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="E1008" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="F1008" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1008" s="1" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7">
+      <c r="C1009" s="1" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D1009" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E1009" s="1" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7">
+      <c r="C1010" s="13" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D1010" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E1010" s="1" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7">
+      <c r="A1011" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D1011" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1011" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F1011" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1011" s="1" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7">
+      <c r="C1012" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="D1012" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="E1012" s="1" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7">
+      <c r="C1013" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D1013" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="E1013" s="1" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7">
+      <c r="C1014" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="D1014" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7">
+      <c r="A1015" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D1015" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="E1015" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="F1015" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1015" s="1" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7">
+      <c r="C1016" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D1016" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="E1016" s="1" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7">
+      <c r="C1017" s="2" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D1017" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="E1017" s="1" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7">
+      <c r="A1018" s="1" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D1018" s="1" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E1018" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="F1018" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1018" s="1" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7">
+      <c r="C1019" s="1" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D1019" s="1" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E1019" s="1" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7">
+      <c r="A1020" s="1" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D1020" s="1" t="s">
+        <v>3693</v>
+      </c>
+      <c r="E1020" s="1" t="s">
+        <v>3694</v>
+      </c>
+      <c r="F1020" s="1">
+        <v>12</v>
+      </c>
+      <c r="G1020" s="1" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7">
+      <c r="C1021" s="1" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D1021" s="1" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E1021" s="1" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7">
+      <c r="C1022" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D1022" s="1" t="s">
+        <v>3700</v>
+      </c>
+      <c r="E1022" s="1" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7">
+      <c r="C1023" s="1" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D1023" s="1" t="s">
+        <v>3703</v>
+      </c>
+      <c r="E1023" s="1" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7">
+      <c r="C1024" s="1" t="s">
+        <v>3705</v>
+      </c>
+      <c r="D1024" s="1" t="s">
+        <v>3706</v>
+      </c>
+      <c r="E1024" s="1" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7">
+      <c r="A1025" s="1" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D1025" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="E1025" s="1" t="s">
+        <v>3712</v>
+      </c>
+      <c r="F1025" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1025" s="1" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7">
+      <c r="C1026" s="1" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1026" s="1" t="s">
+        <v>3715</v>
+      </c>
+      <c r="E1026" s="1" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7">
+      <c r="A1027" s="1" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>3719</v>
+      </c>
+      <c r="D1027" s="1" t="s">
+        <v>3720</v>
+      </c>
+      <c r="E1027" s="1" t="s">
+        <v>3721</v>
+      </c>
+      <c r="F1027" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1027" s="1" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7">
+      <c r="C1028" s="1" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D1028" s="1" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E1028" s="1" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7">
+      <c r="A1029" s="1" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D1029" s="1" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E1029" s="1" t="s">
+        <v>3730</v>
+      </c>
+      <c r="F1029" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1029" s="1" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7">
+      <c r="C1030" s="1" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D1030" s="1" t="s">
+        <v>3733</v>
+      </c>
+      <c r="E1030" s="1" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7">
+      <c r="C1031" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="D1031" s="1" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E1031" s="1" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7">
+      <c r="C1032" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="D1032" s="1" t="s">
+        <v>3738</v>
+      </c>
+      <c r="E1032" s="1" t="s">
+        <v>3739</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I893" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26653,50 +28085,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>3537</v>
+        <v>3740</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3538</v>
+        <v>3741</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3539</v>
+        <v>3742</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3540</v>
+        <v>3743</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3541</v>
+        <v>3744</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3542</v>
+        <v>3745</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3543</v>
+        <v>3746</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="18.75">
       <c r="A2" s="5" t="s">
-        <v>3544</v>
+        <v>3747</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3545</v>
+        <v>3748</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3548</v>
+        <v>3751</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3549</v>
+        <v>3752</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -26711,15 +28143,15 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>3550</v>
+        <v>3753</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3551</v>
+        <v>3754</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -26734,15 +28166,15 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>3552</v>
+        <v>3755</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3553</v>
+        <v>3756</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -26755,25 +28187,25 @@
     </row>
     <row r="5" spans="1:22" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>3554</v>
+        <v>3757</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3555</v>
+        <v>3758</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D5" s="1">
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3556</v>
+        <v>3759</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3557</v>
+        <v>3760</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -26788,15 +28220,15 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>3558</v>
+        <v>3761</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3559</v>
+        <v>3762</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -26811,15 +28243,15 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>3560</v>
+        <v>3763</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3561</v>
+        <v>3764</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -26832,25 +28264,25 @@
     </row>
     <row r="8" spans="1:22" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>3562</v>
+        <v>3765</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3563</v>
+        <v>3766</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D8" s="1">
         <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3548</v>
+        <v>3751</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>3564</v>
+        <v>3767</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -26865,13 +28297,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3565</v>
+        <v>3768</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3566</v>
+        <v>3769</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -26884,25 +28316,25 @@
     </row>
     <row r="10" spans="1:22" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>3567</v>
+        <v>3770</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3568</v>
+        <v>3771</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D10" s="1">
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3569</v>
+        <v>3772</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3570</v>
+        <v>3773</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -26924,15 +28356,15 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>3571</v>
+        <v>3774</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>3572</v>
+        <v>3775</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -26952,25 +28384,25 @@
     </row>
     <row r="12" spans="1:22" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>3573</v>
+        <v>3776</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3574</v>
+        <v>3777</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D12" s="1">
         <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3575</v>
+        <v>3778</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3576</v>
+        <v>3779</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -26992,15 +28424,15 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>3577</v>
+        <v>3780</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>3578</v>
+        <v>3781</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -27020,25 +28452,25 @@
     </row>
     <row r="14" spans="1:22" ht="18.75">
       <c r="A14" s="7" t="s">
-        <v>3579</v>
+        <v>3782</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3580</v>
+        <v>3783</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D14" s="1">
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3581</v>
+        <v>3784</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>3582</v>
+        <v>3785</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -27060,15 +28492,15 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>3583</v>
+        <v>3786</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3584</v>
+        <v>3787</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -27088,25 +28520,25 @@
     </row>
     <row r="16" spans="1:22" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>3585</v>
+        <v>3788</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3586</v>
+        <v>3789</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D16" s="1">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3587</v>
+        <v>3790</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>3588</v>
+        <v>3791</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -27128,15 +28560,15 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>3589</v>
+        <v>3792</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3590</v>
+        <v>3793</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -27156,25 +28588,25 @@
     </row>
     <row r="18" spans="1:22" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>3591</v>
+        <v>3794</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3592</v>
+        <v>3795</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D18" s="1">
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3593</v>
+        <v>3796</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>3594</v>
+        <v>3797</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -27196,15 +28628,15 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>3595</v>
+        <v>3798</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>3596</v>
+        <v>3799</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -27224,25 +28656,25 @@
     </row>
     <row r="20" spans="1:22" ht="56.25">
       <c r="A20" s="3" t="s">
-        <v>3597</v>
+        <v>3800</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3598</v>
+        <v>3801</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D20" s="1">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>3599</v>
+        <v>3802</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>3600</v>
+        <v>3803</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -27264,15 +28696,15 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>3601</v>
+        <v>3804</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3602</v>
+        <v>3805</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -27294,15 +28726,15 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>3603</v>
+        <v>3806</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>3604</v>
+        <v>3807</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -27324,15 +28756,15 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>3605</v>
+        <v>3808</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>3606</v>
+        <v>3809</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -27352,25 +28784,25 @@
     </row>
     <row r="24" spans="1:22" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>3607</v>
+        <v>3810</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3608</v>
+        <v>3811</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D24" s="1">
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3609</v>
+        <v>3812</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>3610</v>
+        <v>3813</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -27392,15 +28824,15 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>3611</v>
+        <v>3814</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3612</v>
+        <v>3815</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -27420,25 +28852,25 @@
     </row>
     <row r="26" spans="1:22" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>3613</v>
+        <v>3816</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3614</v>
+        <v>3817</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D26" s="1">
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3615</v>
+        <v>3818</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3616</v>
+        <v>3819</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -27448,15 +28880,15 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>3617</v>
+        <v>3820</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3618</v>
+        <v>3821</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -27464,25 +28896,25 @@
     </row>
     <row r="28" spans="1:22" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>3619</v>
+        <v>3822</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3620</v>
+        <v>3823</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D28" s="1">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3621</v>
+        <v>3824</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>3622</v>
+        <v>3825</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -27492,15 +28924,15 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>3623</v>
+        <v>3826</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3624</v>
+        <v>3827</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -27510,15 +28942,15 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>3625</v>
+        <v>3828</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>3626</v>
+        <v>3829</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -27526,25 +28958,25 @@
     </row>
     <row r="31" spans="1:22" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>3627</v>
+        <v>3830</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3628</v>
+        <v>3831</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D31" s="1">
         <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3629</v>
+        <v>3832</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3630</v>
+        <v>3833</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -27552,25 +28984,25 @@
     </row>
     <row r="32" spans="1:22" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>3631</v>
+        <v>3834</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3632</v>
+        <v>3835</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D32" s="1">
         <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3633</v>
+        <v>3836</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>3634</v>
+        <v>3837</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -27580,15 +29012,15 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>3635</v>
+        <v>3838</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3636</v>
+        <v>3839</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -27598,15 +29030,15 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>3637</v>
+        <v>3840</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3638</v>
+        <v>3841</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -27614,25 +29046,25 @@
     </row>
     <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>3639</v>
+        <v>3842</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3640</v>
+        <v>3843</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D35" s="1">
         <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3641</v>
+        <v>3844</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>3642</v>
+        <v>3845</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -27642,15 +29074,15 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>3643</v>
+        <v>3846</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3644</v>
+        <v>3847</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -27658,25 +29090,25 @@
     </row>
     <row r="37" spans="1:10" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>3645</v>
+        <v>3848</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3646</v>
+        <v>3849</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D37" s="1">
         <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3647</v>
+        <v>3850</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>3648</v>
+        <v>3851</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -27686,15 +29118,15 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>3649</v>
+        <v>3852</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3650</v>
+        <v>3853</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -27702,25 +29134,25 @@
     </row>
     <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>3651</v>
+        <v>3854</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3652</v>
+        <v>3855</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D39" s="1">
         <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3653</v>
+        <v>3856</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>3654</v>
+        <v>3857</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -27730,15 +29162,15 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>3655</v>
+        <v>3858</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3656</v>
+        <v>3859</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -27746,801 +29178,801 @@
     </row>
     <row r="41" spans="1:10" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>3657</v>
+        <v>3860</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3658</v>
+        <v>3861</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3659</v>
+        <v>3862</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>3660</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75">
       <c r="C42" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3661</v>
+        <v>3864</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3662</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75">
       <c r="C43" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3663</v>
+        <v>3866</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3664</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18.75">
       <c r="A44" t="s">
-        <v>3665</v>
+        <v>3868</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3666</v>
+        <v>3869</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D44" s="1">
         <v>40</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3667</v>
+        <v>3870</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3668</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75">
       <c r="C45" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3669</v>
+        <v>3872</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>3670</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75">
       <c r="C46" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3671</v>
+        <v>3874</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>3672</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75">
       <c r="A47" t="s">
-        <v>3673</v>
+        <v>3876</v>
       </c>
       <c r="B47" t="s">
-        <v>3674</v>
+        <v>3877</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D47">
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3675</v>
+        <v>3878</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>3676</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75">
       <c r="C48" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3677</v>
+        <v>3880</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3678</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18.75">
       <c r="C49" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3679</v>
+        <v>3882</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>3680</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75">
       <c r="A50" t="s">
-        <v>3681</v>
+        <v>3884</v>
       </c>
       <c r="B50" t="s">
-        <v>3682</v>
+        <v>3885</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D50">
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3683</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75">
       <c r="C51" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3684</v>
+        <v>3887</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>3685</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.75">
       <c r="C52" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3686</v>
+        <v>3889</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3687</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="72.75">
       <c r="A53" t="s">
-        <v>3688</v>
+        <v>3891</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>3689</v>
+        <v>3892</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D53">
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3690</v>
+        <v>3893</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3691</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75">
       <c r="C54" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3692</v>
+        <v>3895</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3693</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75">
       <c r="C55" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3694</v>
+        <v>3897</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>3695</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18.75">
       <c r="C56" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3696</v>
+        <v>3899</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>3697</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18.75">
       <c r="C57" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3698</v>
+        <v>3901</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>3699</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.75">
       <c r="A58" t="s">
-        <v>3700</v>
+        <v>3903</v>
       </c>
       <c r="B58" t="s">
-        <v>3701</v>
+        <v>3904</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D58">
         <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3702</v>
+        <v>3905</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>3703</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75">
       <c r="C59" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3704</v>
+        <v>3907</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>3705</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75">
       <c r="A60" t="s">
-        <v>3706</v>
+        <v>3909</v>
       </c>
       <c r="B60" t="s">
-        <v>3707</v>
+        <v>3910</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D60">
         <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3708</v>
+        <v>3911</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>3709</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75">
       <c r="C61" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3710</v>
+        <v>3913</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>3711</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="58.5">
       <c r="A62" t="s">
-        <v>3712</v>
+        <v>3915</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>3713</v>
+        <v>3916</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D62">
         <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3714</v>
+        <v>3917</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>3715</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75">
       <c r="C63" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3716</v>
+        <v>3919</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>3717</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75">
       <c r="C64" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3718</v>
+        <v>3921</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>3719</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75">
       <c r="C65" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3720</v>
+        <v>3923</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>3721</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75">
       <c r="C66" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3722</v>
+        <v>3925</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>3723</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75">
       <c r="A67" t="s">
-        <v>3724</v>
+        <v>3927</v>
       </c>
       <c r="B67" t="s">
-        <v>3725</v>
+        <v>3928</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D67">
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3726</v>
+        <v>3929</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>3727</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75">
       <c r="C68" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3728</v>
+        <v>3931</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>3729</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75">
       <c r="C69" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3730</v>
+        <v>3933</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>3731</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75">
       <c r="A70" t="s">
-        <v>3732</v>
+        <v>3935</v>
       </c>
       <c r="B70" t="s">
-        <v>3733</v>
+        <v>3936</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D70">
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3734</v>
+        <v>3937</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>3735</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75">
       <c r="F71" s="1" t="s">
-        <v>3736</v>
+        <v>3939</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3737</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75">
       <c r="F72" s="1" t="s">
-        <v>3738</v>
+        <v>3941</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3739</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75">
       <c r="A73" t="s">
-        <v>3740</v>
+        <v>3943</v>
       </c>
       <c r="B73" t="s">
-        <v>3741</v>
+        <v>3944</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D73">
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3742</v>
+        <v>3945</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>3743</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
       <c r="F74" s="1" t="s">
-        <v>3744</v>
+        <v>3947</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>3745</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
       <c r="F75" s="1" t="s">
-        <v>3746</v>
+        <v>3949</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>3747</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75">
       <c r="A76" t="s">
-        <v>3748</v>
+        <v>3951</v>
       </c>
       <c r="B76" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>3749</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>3546</v>
       </c>
       <c r="D76">
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3750</v>
+        <v>3953</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>3751</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75">
       <c r="F77" s="1" t="s">
-        <v>3752</v>
+        <v>3955</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>3753</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75">
       <c r="A78" t="s">
-        <v>3754</v>
+        <v>3957</v>
       </c>
       <c r="B78" t="s">
-        <v>3755</v>
+        <v>3958</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D78">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3756</v>
+        <v>3959</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>3757</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75">
       <c r="F79" s="1" t="s">
-        <v>3758</v>
+        <v>3961</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>3759</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75">
       <c r="A80" t="s">
-        <v>3760</v>
+        <v>3963</v>
       </c>
       <c r="B80" t="s">
-        <v>3761</v>
+        <v>3964</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D80">
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>3762</v>
+        <v>3965</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>3763</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75">
       <c r="F81" s="1" t="s">
-        <v>3764</v>
+        <v>3967</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>3765</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75">
       <c r="A82" t="s">
-        <v>3766</v>
+        <v>3969</v>
       </c>
       <c r="B82" t="s">
-        <v>3767</v>
+        <v>3970</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D82">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>3768</v>
+        <v>3971</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>3769</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75">
       <c r="F83" s="1" t="s">
-        <v>3770</v>
+        <v>3973</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>3771</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75">
       <c r="A84" t="s">
-        <v>3772</v>
+        <v>3975</v>
       </c>
       <c r="B84" t="s">
-        <v>3773</v>
+        <v>3976</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D84">
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3774</v>
+        <v>3977</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3775</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75">
       <c r="F85" s="1" t="s">
-        <v>3776</v>
+        <v>3979</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3777</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75">
       <c r="A86" t="s">
-        <v>3778</v>
+        <v>3981</v>
       </c>
       <c r="B86" t="s">
-        <v>3779</v>
+        <v>3982</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D86">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>3780</v>
+        <v>3983</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>3781</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75">
       <c r="A87" t="s">
-        <v>3782</v>
+        <v>3985</v>
       </c>
       <c r="B87" t="s">
-        <v>3783</v>
+        <v>3986</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D87">
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3784</v>
+        <v>3987</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>3785</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75">
       <c r="F88" s="1" t="s">
-        <v>3786</v>
+        <v>3989</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>3787</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75">
       <c r="F89" s="1" t="s">
-        <v>3788</v>
+        <v>3991</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>3789</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18.75">
       <c r="A90" t="s">
-        <v>3790</v>
+        <v>3993</v>
       </c>
       <c r="B90" t="s">
-        <v>3791</v>
+        <v>3994</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D90">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3792</v>
+        <v>3995</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>3793</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75">
       <c r="F91" s="1" t="s">
-        <v>3794</v>
+        <v>3997</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>3795</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75">
       <c r="F92" s="1" t="s">
-        <v>3796</v>
+        <v>3999</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>3797</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75">
       <c r="F93" s="1" t="s">
-        <v>3798</v>
+        <v>4001</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>3799</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18.75">
       <c r="A94" t="s">
-        <v>3800</v>
+        <v>4003</v>
       </c>
       <c r="B94" t="s">
-        <v>3801</v>
+        <v>4004</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>3546</v>
+        <v>3749</v>
       </c>
       <c r="D94">
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>3547</v>
+        <v>3750</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3802</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18.75">
       <c r="F95" s="1" t="s">
-        <v>3803</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75">
       <c r="F96" s="1" t="s">
-        <v>3804</v>
+        <v>4007</v>
       </c>
     </row>
   </sheetData>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22601"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE17392-DD84-4A9A-BF82-15DABCBE18EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D259AF0-0BCD-4C4C-AABF-0DBDEE92181D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="4061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="4123">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -11409,6 +11409,192 @@
   </si>
   <si>
     <t>bồn tắm</t>
+  </si>
+  <si>
+    <t>忘</t>
+  </si>
+  <si>
+    <t>vong</t>
+  </si>
+  <si>
+    <t>わすれる</t>
+  </si>
+  <si>
+    <t>忘れる</t>
+  </si>
+  <si>
+    <t>quên</t>
+  </si>
+  <si>
+    <t>Con người chết đi(亡)thì trong trái tim sẽ quên đi(心)</t>
+  </si>
+  <si>
+    <t>感</t>
+  </si>
+  <si>
+    <t>cảm</t>
+  </si>
+  <si>
+    <t>かんじょうてき</t>
+  </si>
+  <si>
+    <t>感情的</t>
+  </si>
+  <si>
+    <t>tính cảm tính</t>
+  </si>
+  <si>
+    <t>trong tim mình (心)CẢM giác sẽ thành công (成功)</t>
+  </si>
+  <si>
+    <t>あんしんかん</t>
+  </si>
+  <si>
+    <t>安心感</t>
+  </si>
+  <si>
+    <t>cảm giác an tâm</t>
+  </si>
+  <si>
+    <t>かんどう</t>
+  </si>
+  <si>
+    <t>感動</t>
+  </si>
+  <si>
+    <t>cảm động</t>
+  </si>
+  <si>
+    <t>かんじる</t>
+  </si>
+  <si>
+    <t>感じる</t>
+  </si>
+  <si>
+    <t>cảm nhận</t>
+  </si>
+  <si>
+    <t>かんそうぶん</t>
+  </si>
+  <si>
+    <t>感想文</t>
+  </si>
+  <si>
+    <t>bài văn cảm tưởng</t>
+  </si>
+  <si>
+    <t>恋</t>
+  </si>
+  <si>
+    <t>luyến</t>
+  </si>
+  <si>
+    <t>れんあい</t>
+  </si>
+  <si>
+    <t>恋愛</t>
+  </si>
+  <si>
+    <t>tình ái</t>
+  </si>
+  <si>
+    <t>khi yêu 恋 trái tim 心 trở nên đỏ 赤</t>
+  </si>
+  <si>
+    <t>こいびと</t>
+  </si>
+  <si>
+    <t>恋人</t>
+  </si>
+  <si>
+    <t>ng iu</t>
+  </si>
+  <si>
+    <t>こいしい</t>
+  </si>
+  <si>
+    <t>恋しい</t>
+  </si>
+  <si>
+    <t>想</t>
+  </si>
+  <si>
+    <t>tưởng</t>
+  </si>
+  <si>
+    <t>あいそ</t>
+  </si>
+  <si>
+    <t>愛想</t>
+  </si>
+  <si>
+    <t>thiện cảm</t>
+  </si>
+  <si>
+    <t>Người mà MẮT và TIM hay treo ngược cành CÂY là người hay TƯỞNG tượng</t>
+  </si>
+  <si>
+    <t>よそう</t>
+  </si>
+  <si>
+    <t>予想</t>
+  </si>
+  <si>
+    <t>dự đoán</t>
+  </si>
+  <si>
+    <t>りそう</t>
+  </si>
+  <si>
+    <t>理想</t>
+  </si>
+  <si>
+    <t>lý tưởng</t>
+  </si>
+  <si>
+    <t>くうそう</t>
+  </si>
+  <si>
+    <t>空想</t>
+  </si>
+  <si>
+    <t>_x000D_mộng tưởng</t>
+  </si>
+  <si>
+    <t>怒</t>
+  </si>
+  <si>
+    <t>nộ</t>
+  </si>
+  <si>
+    <t>いかり</t>
+  </si>
+  <si>
+    <t>怒り</t>
+  </si>
+  <si>
+    <t>cơn thịnh nộ</t>
+  </si>
+  <si>
+    <t>người con gái chân vắt chéo lên là biết con tim đang giận giữ</t>
+  </si>
+  <si>
+    <t>げきど</t>
+  </si>
+  <si>
+    <t>激怒</t>
+  </si>
+  <si>
+    <t>nổi điên</t>
+  </si>
+  <si>
+    <t>おこっている</t>
+  </si>
+  <si>
+    <t>怒っている</t>
+  </si>
+  <si>
+    <t>cáu</t>
   </si>
   <si>
     <t>công thức</t>
@@ -12943,10 +13129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1048"/>
+  <dimension ref="A1:I1064"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
-      <selection activeCell="G1046" sqref="G1046"/>
+    <sheetView tabSelected="1" topLeftCell="A1049" workbookViewId="0">
+      <selection activeCell="F1063" sqref="F1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13016,11 +13202,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTA(A2:A100179)</f>
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I2" s="1">
         <f>COUNTA(C2:C10179)</f>
-        <v>1047</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -28429,6 +28615,245 @@
       </c>
       <c r="E1048" s="1" t="s">
         <v>3792</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7">
+      <c r="A1049" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="D1049" s="1" t="s">
+        <v>3796</v>
+      </c>
+      <c r="E1049" s="1" t="s">
+        <v>3797</v>
+      </c>
+      <c r="F1049" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1049" s="1" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7">
+      <c r="A1050" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D1050" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="E1050" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="F1050" s="1">
+        <v>13</v>
+      </c>
+      <c r="G1050" s="14" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7">
+      <c r="C1051" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>3806</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="G1051"/>
+    </row>
+    <row r="1052" spans="1:7">
+      <c r="C1052" s="1" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D1052" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E1052" s="1" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7">
+      <c r="C1053" s="1" t="s">
+        <v>3811</v>
+      </c>
+      <c r="D1053" s="1" t="s">
+        <v>3812</v>
+      </c>
+      <c r="E1053" s="1" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7">
+      <c r="C1054" s="1" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D1054" s="1" t="s">
+        <v>3815</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7">
+      <c r="A1055" s="1" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>3818</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D1055" s="1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="F1055" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1055" s="1" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7">
+      <c r="C1056" s="1" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D1056" s="1" t="s">
+        <v>3824</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7">
+      <c r="C1057" s="1" t="s">
+        <v>3826</v>
+      </c>
+      <c r="D1057" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" ht="28.5">
+      <c r="A1058" s="1" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>3829</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D1058" s="1" t="s">
+        <v>3831</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>3832</v>
+      </c>
+      <c r="F1058" s="1">
+        <v>13</v>
+      </c>
+      <c r="G1058" s="14" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7">
+      <c r="C1059" s="1" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D1059" s="1" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>3836</v>
+      </c>
+      <c r="G1059"/>
+    </row>
+    <row r="1060" spans="1:7">
+      <c r="C1060" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D1060" s="1" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E1060" s="1" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7">
+      <c r="C1061" s="1" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1061" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E1061" s="1" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7">
+      <c r="A1062" s="1" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>3844</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>3845</v>
+      </c>
+      <c r="D1062" s="1" t="s">
+        <v>3846</v>
+      </c>
+      <c r="E1062" s="1" t="s">
+        <v>3847</v>
+      </c>
+      <c r="F1062" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1062" s="14" t="s">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7">
+      <c r="C1063" s="1" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D1063" s="1" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E1063" s="1" t="s">
+        <v>3851</v>
+      </c>
+      <c r="G1063"/>
+    </row>
+    <row r="1064" spans="1:7">
+      <c r="C1064" s="1" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D1064" s="1" t="s">
+        <v>3853</v>
+      </c>
+      <c r="E1064" s="1" t="s">
+        <v>3854</v>
       </c>
     </row>
   </sheetData>
@@ -28462,50 +28887,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>3793</v>
+        <v>3855</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3794</v>
+        <v>3856</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3795</v>
+        <v>3857</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3796</v>
+        <v>3858</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3797</v>
+        <v>3859</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3798</v>
+        <v>3860</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3799</v>
+        <v>3861</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="18.75">
       <c r="A2" s="5" t="s">
-        <v>3800</v>
+        <v>3862</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3801</v>
+        <v>3863</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3804</v>
+        <v>3866</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3805</v>
+        <v>3867</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -28520,15 +28945,15 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>3806</v>
+        <v>3868</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3807</v>
+        <v>3869</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -28543,15 +28968,15 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>3808</v>
+        <v>3870</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3809</v>
+        <v>3871</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -28564,25 +28989,25 @@
     </row>
     <row r="5" spans="1:22" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>3810</v>
+        <v>3872</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3811</v>
+        <v>3873</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D5" s="1">
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3812</v>
+        <v>3874</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3813</v>
+        <v>3875</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -28597,15 +29022,15 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>3814</v>
+        <v>3876</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3815</v>
+        <v>3877</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -28620,15 +29045,15 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>3816</v>
+        <v>3878</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3817</v>
+        <v>3879</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -28641,25 +29066,25 @@
     </row>
     <row r="8" spans="1:22" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>3818</v>
+        <v>3880</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3819</v>
+        <v>3881</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D8" s="1">
         <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3804</v>
+        <v>3866</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>3820</v>
+        <v>3882</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -28674,13 +29099,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3821</v>
+        <v>3883</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3822</v>
+        <v>3884</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -28693,25 +29118,25 @@
     </row>
     <row r="10" spans="1:22" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>3823</v>
+        <v>3885</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3824</v>
+        <v>3886</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D10" s="1">
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3825</v>
+        <v>3887</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3826</v>
+        <v>3888</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -28733,15 +29158,15 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>3827</v>
+        <v>3889</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>3828</v>
+        <v>3890</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -28761,25 +29186,25 @@
     </row>
     <row r="12" spans="1:22" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>3829</v>
+        <v>3891</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3830</v>
+        <v>3892</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D12" s="1">
         <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3831</v>
+        <v>3893</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3832</v>
+        <v>3894</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -28801,15 +29226,15 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>3833</v>
+        <v>3895</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>3834</v>
+        <v>3896</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -28829,25 +29254,25 @@
     </row>
     <row r="14" spans="1:22" ht="18.75">
       <c r="A14" s="7" t="s">
-        <v>3835</v>
+        <v>3897</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3836</v>
+        <v>3898</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D14" s="1">
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3837</v>
+        <v>3899</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>3838</v>
+        <v>3900</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -28869,15 +29294,15 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>3839</v>
+        <v>3901</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3840</v>
+        <v>3902</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -28897,25 +29322,25 @@
     </row>
     <row r="16" spans="1:22" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>3841</v>
+        <v>3903</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3842</v>
+        <v>3904</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D16" s="1">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3843</v>
+        <v>3905</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>3844</v>
+        <v>3906</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -28937,15 +29362,15 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>3845</v>
+        <v>3907</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3846</v>
+        <v>3908</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -28965,25 +29390,25 @@
     </row>
     <row r="18" spans="1:22" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>3847</v>
+        <v>3909</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3848</v>
+        <v>3910</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D18" s="1">
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3849</v>
+        <v>3911</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>3850</v>
+        <v>3912</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -29005,15 +29430,15 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>3851</v>
+        <v>3913</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>3852</v>
+        <v>3914</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -29033,25 +29458,25 @@
     </row>
     <row r="20" spans="1:22" ht="56.25">
       <c r="A20" s="3" t="s">
-        <v>3853</v>
+        <v>3915</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3854</v>
+        <v>3916</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D20" s="1">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>3855</v>
+        <v>3917</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>3856</v>
+        <v>3918</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -29073,15 +29498,15 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>3857</v>
+        <v>3919</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3858</v>
+        <v>3920</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -29103,15 +29528,15 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>3859</v>
+        <v>3921</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>3860</v>
+        <v>3922</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -29133,15 +29558,15 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>3861</v>
+        <v>3923</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>3862</v>
+        <v>3924</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -29161,25 +29586,25 @@
     </row>
     <row r="24" spans="1:22" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>3863</v>
+        <v>3925</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>3864</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3802</v>
       </c>
       <c r="D24" s="1">
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3865</v>
+        <v>3927</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>3866</v>
+        <v>3928</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -29201,15 +29626,15 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>3867</v>
+        <v>3929</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3868</v>
+        <v>3930</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -29229,25 +29654,25 @@
     </row>
     <row r="26" spans="1:22" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>3869</v>
+        <v>3931</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3870</v>
+        <v>3932</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D26" s="1">
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3871</v>
+        <v>3933</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3872</v>
+        <v>3934</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -29257,15 +29682,15 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>3873</v>
+        <v>3935</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3874</v>
+        <v>3936</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -29273,25 +29698,25 @@
     </row>
     <row r="28" spans="1:22" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>3875</v>
+        <v>3937</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3876</v>
+        <v>3938</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D28" s="1">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>3877</v>
+        <v>3939</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>3878</v>
+        <v>3940</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -29301,15 +29726,15 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>3879</v>
+        <v>3941</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3880</v>
+        <v>3942</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -29319,15 +29744,15 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>3881</v>
+        <v>3943</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>3882</v>
+        <v>3944</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -29335,25 +29760,25 @@
     </row>
     <row r="31" spans="1:22" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>3883</v>
+        <v>3945</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3884</v>
+        <v>3946</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D31" s="1">
         <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3885</v>
+        <v>3947</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3886</v>
+        <v>3948</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -29361,25 +29786,25 @@
     </row>
     <row r="32" spans="1:22" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>3887</v>
+        <v>3949</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3888</v>
+        <v>3950</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D32" s="1">
         <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3889</v>
+        <v>3951</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>3890</v>
+        <v>3952</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -29389,15 +29814,15 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>3891</v>
+        <v>3953</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3892</v>
+        <v>3954</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -29407,15 +29832,15 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>3893</v>
+        <v>3955</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3894</v>
+        <v>3956</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -29423,25 +29848,25 @@
     </row>
     <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>3895</v>
+        <v>3957</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3896</v>
+        <v>3958</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D35" s="1">
         <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3897</v>
+        <v>3959</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>3898</v>
+        <v>3960</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -29451,15 +29876,15 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>3899</v>
+        <v>3961</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3900</v>
+        <v>3962</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -29467,25 +29892,25 @@
     </row>
     <row r="37" spans="1:10" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>3901</v>
+        <v>3963</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3902</v>
+        <v>3964</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D37" s="1">
         <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3903</v>
+        <v>3965</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>3904</v>
+        <v>3966</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -29495,15 +29920,15 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>3905</v>
+        <v>3967</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3906</v>
+        <v>3968</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -29511,25 +29936,25 @@
     </row>
     <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>3907</v>
+        <v>3969</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3908</v>
+        <v>3970</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D39" s="1">
         <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3909</v>
+        <v>3971</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>3910</v>
+        <v>3972</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -29539,15 +29964,15 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>3911</v>
+        <v>3973</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3912</v>
+        <v>3974</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -29555,801 +29980,801 @@
     </row>
     <row r="41" spans="1:10" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>3913</v>
+        <v>3975</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3914</v>
+        <v>3976</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3915</v>
+        <v>3977</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>3916</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75">
       <c r="C42" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3917</v>
+        <v>3979</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3918</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75">
       <c r="C43" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3919</v>
+        <v>3981</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3920</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18.75">
       <c r="A44" t="s">
-        <v>3921</v>
+        <v>3983</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3922</v>
+        <v>3984</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D44" s="1">
         <v>40</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3923</v>
+        <v>3985</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3924</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75">
       <c r="C45" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3925</v>
+        <v>3987</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>3926</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75">
       <c r="C46" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3927</v>
+        <v>3989</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>3928</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75">
       <c r="A47" t="s">
-        <v>3929</v>
+        <v>3991</v>
       </c>
       <c r="B47" t="s">
-        <v>3930</v>
+        <v>3992</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D47">
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3931</v>
+        <v>3993</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>3932</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75">
       <c r="C48" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3933</v>
+        <v>3995</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3934</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18.75">
       <c r="C49" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3935</v>
+        <v>3997</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>3936</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75">
       <c r="A50" t="s">
-        <v>3937</v>
+        <v>3999</v>
       </c>
       <c r="B50" t="s">
-        <v>3938</v>
+        <v>4000</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D50">
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3939</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75">
       <c r="C51" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>3940</v>
+        <v>4002</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>3941</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.75">
       <c r="C52" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3942</v>
+        <v>4004</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3943</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="72.75">
       <c r="A53" t="s">
-        <v>3944</v>
+        <v>4006</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>3945</v>
+        <v>4007</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D53">
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3946</v>
+        <v>4008</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3947</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75">
       <c r="C54" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3948</v>
+        <v>4010</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3949</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75">
       <c r="C55" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3950</v>
+        <v>4012</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>3951</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18.75">
       <c r="C56" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3952</v>
+        <v>4014</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>3953</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18.75">
       <c r="C57" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3954</v>
+        <v>4016</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>3955</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.75">
       <c r="A58" t="s">
-        <v>3956</v>
+        <v>4018</v>
       </c>
       <c r="B58" t="s">
-        <v>3957</v>
+        <v>4019</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D58">
         <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3958</v>
+        <v>4020</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>3959</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75">
       <c r="C59" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3960</v>
+        <v>4022</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>3961</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75">
       <c r="A60" t="s">
-        <v>3962</v>
+        <v>4024</v>
       </c>
       <c r="B60" t="s">
-        <v>3963</v>
+        <v>4025</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D60">
         <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3964</v>
+        <v>4026</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>3965</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75">
       <c r="C61" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3966</v>
+        <v>4028</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>3967</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="58.5">
       <c r="A62" t="s">
-        <v>3968</v>
+        <v>4030</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>3969</v>
+        <v>4031</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D62">
         <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3970</v>
+        <v>4032</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>3971</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75">
       <c r="C63" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3972</v>
+        <v>4034</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>3973</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75">
       <c r="C64" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3974</v>
+        <v>4036</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>3975</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75">
       <c r="C65" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3976</v>
+        <v>4038</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>3977</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75">
       <c r="C66" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3978</v>
+        <v>4040</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>3979</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75">
       <c r="A67" t="s">
-        <v>3980</v>
+        <v>4042</v>
       </c>
       <c r="B67" t="s">
-        <v>3981</v>
+        <v>4043</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D67">
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3982</v>
+        <v>4044</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>3983</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75">
       <c r="C68" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3984</v>
+        <v>4046</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>3985</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75">
       <c r="C69" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3986</v>
+        <v>4048</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>3987</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75">
       <c r="A70" t="s">
-        <v>3988</v>
+        <v>4050</v>
       </c>
       <c r="B70" t="s">
-        <v>3989</v>
+        <v>4051</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D70">
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3990</v>
+        <v>4052</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>3991</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75">
       <c r="F71" s="1" t="s">
-        <v>3992</v>
+        <v>4054</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3993</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75">
       <c r="F72" s="1" t="s">
-        <v>3994</v>
+        <v>4056</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3995</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75">
       <c r="A73" t="s">
-        <v>3996</v>
+        <v>4058</v>
       </c>
       <c r="B73" t="s">
-        <v>3997</v>
+        <v>4059</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D73">
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3998</v>
+        <v>4060</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>3999</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
       <c r="F74" s="1" t="s">
-        <v>4000</v>
+        <v>4062</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>4001</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
       <c r="F75" s="1" t="s">
-        <v>4002</v>
+        <v>4064</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>4003</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75">
       <c r="A76" t="s">
-        <v>4004</v>
+        <v>4066</v>
       </c>
       <c r="B76" t="s">
-        <v>4005</v>
+        <v>4067</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D76">
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>4006</v>
+        <v>4068</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>4007</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75">
       <c r="F77" s="1" t="s">
-        <v>4008</v>
+        <v>4070</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>4009</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75">
       <c r="A78" t="s">
-        <v>4010</v>
+        <v>4072</v>
       </c>
       <c r="B78" t="s">
-        <v>4011</v>
+        <v>4073</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D78">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>4012</v>
+        <v>4074</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>4013</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75">
       <c r="F79" s="1" t="s">
-        <v>4014</v>
+        <v>4076</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>4015</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75">
       <c r="A80" t="s">
-        <v>4016</v>
+        <v>4078</v>
       </c>
       <c r="B80" t="s">
-        <v>4017</v>
+        <v>4079</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D80">
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>4018</v>
+        <v>4080</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>4019</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75">
       <c r="F81" s="1" t="s">
-        <v>4020</v>
+        <v>4082</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>4021</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75">
       <c r="A82" t="s">
-        <v>4022</v>
+        <v>4084</v>
       </c>
       <c r="B82" t="s">
-        <v>4023</v>
+        <v>4085</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D82">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>4024</v>
+        <v>4086</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>4025</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75">
       <c r="F83" s="1" t="s">
-        <v>4026</v>
+        <v>4088</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>4027</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75">
       <c r="A84" t="s">
-        <v>4028</v>
+        <v>4090</v>
       </c>
       <c r="B84" t="s">
-        <v>4029</v>
+        <v>4091</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D84">
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>4030</v>
+        <v>4092</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>4031</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75">
       <c r="F85" s="1" t="s">
-        <v>4032</v>
+        <v>4094</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>4033</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75">
       <c r="A86" t="s">
-        <v>4034</v>
+        <v>4096</v>
       </c>
       <c r="B86" t="s">
-        <v>4035</v>
+        <v>4097</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D86">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>4036</v>
+        <v>4098</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>4037</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75">
       <c r="A87" t="s">
-        <v>4038</v>
+        <v>4100</v>
       </c>
       <c r="B87" t="s">
-        <v>4039</v>
+        <v>4101</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D87">
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>4040</v>
+        <v>4102</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>4041</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75">
       <c r="F88" s="1" t="s">
-        <v>4042</v>
+        <v>4104</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>4043</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75">
       <c r="F89" s="1" t="s">
-        <v>4044</v>
+        <v>4106</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>4045</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18.75">
       <c r="A90" t="s">
-        <v>4046</v>
+        <v>4108</v>
       </c>
       <c r="B90" t="s">
-        <v>4047</v>
+        <v>4109</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D90">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>4048</v>
+        <v>4110</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>4049</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75">
       <c r="F91" s="1" t="s">
-        <v>4050</v>
+        <v>4112</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>4051</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75">
       <c r="F92" s="1" t="s">
-        <v>4052</v>
+        <v>4114</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>4053</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75">
       <c r="F93" s="1" t="s">
-        <v>4054</v>
+        <v>4116</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>4055</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18.75">
       <c r="A94" t="s">
-        <v>4056</v>
+        <v>4118</v>
       </c>
       <c r="B94" t="s">
-        <v>4057</v>
+        <v>4119</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>3802</v>
+        <v>3864</v>
       </c>
       <c r="D94">
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>4058</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18.75">
       <c r="F95" s="1" t="s">
-        <v>4059</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75">
       <c r="F96" s="1" t="s">
-        <v>4060</v>
+        <v>4122</v>
       </c>
     </row>
   </sheetData>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5FD84B-CFE0-4ED8-A8B4-5814B49FE2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BAAFB4-F731-4DEA-9ACE-74B077962D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4547" uniqueCount="4207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="4290">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -11847,6 +11847,255 @@
   </si>
   <si>
     <t>hơi thở</t>
+  </si>
+  <si>
+    <t>結</t>
+  </si>
+  <si>
+    <t>kết</t>
+  </si>
+  <si>
+    <t>むすぶ</t>
+  </si>
+  <si>
+    <t>結ぶ</t>
+  </si>
+  <si>
+    <t>kết lại(buộc, nối)</t>
+  </si>
+  <si>
+    <t>Dùng dây buộc miệng của dũng sĩ lại để ép hôn xong kết hôn</t>
+  </si>
+  <si>
+    <t>けっこん</t>
+  </si>
+  <si>
+    <t>結婚</t>
+  </si>
+  <si>
+    <t>kết hôn</t>
+  </si>
+  <si>
+    <t>けつまつ</t>
+  </si>
+  <si>
+    <t>結末</t>
+  </si>
+  <si>
+    <t>約</t>
+  </si>
+  <si>
+    <t>ước</t>
+  </si>
+  <si>
+    <t>やくいちじかん</t>
+  </si>
+  <si>
+    <t>約一時間</t>
+  </si>
+  <si>
+    <t>mất khoảng 1 tiếng</t>
+  </si>
+  <si>
+    <t>Sợi chỉ buộc chặt Bao hẹn ƯỚC</t>
+  </si>
+  <si>
+    <t>よやく</t>
+  </si>
+  <si>
+    <t>予約</t>
+  </si>
+  <si>
+    <t>đặt trước</t>
+  </si>
+  <si>
+    <t>かいやく</t>
+  </si>
+  <si>
+    <t>解約</t>
+  </si>
+  <si>
+    <t>huỷ hợp đồng</t>
+  </si>
+  <si>
+    <t>こんやく</t>
+  </si>
+  <si>
+    <t>婚約</t>
+  </si>
+  <si>
+    <t>đính hôn</t>
+  </si>
+  <si>
+    <t>給</t>
+  </si>
+  <si>
+    <t>cấp</t>
+  </si>
+  <si>
+    <t>Tập hợp các Sợi Tơ lại để Cung Cấp cho xí nghiệp dệt vải</t>
+  </si>
+  <si>
+    <t>じきゅう</t>
+  </si>
+  <si>
+    <t>時給</t>
+  </si>
+  <si>
+    <t>lương theo giờ</t>
+  </si>
+  <si>
+    <t>じきゅうじそく</t>
+  </si>
+  <si>
+    <t>自給自足</t>
+  </si>
+  <si>
+    <t>tự cung tự cấp</t>
+  </si>
+  <si>
+    <t>絵</t>
+  </si>
+  <si>
+    <t>hội</t>
+  </si>
+  <si>
+    <t>えほん</t>
+  </si>
+  <si>
+    <t>絵本</t>
+  </si>
+  <si>
+    <t>sách tranh</t>
+  </si>
+  <si>
+    <t>Ngày xưa tranh thêu từ sợi tơ =&gt; sợi tơ tụ hội tạo thành tranh</t>
+  </si>
+  <si>
+    <t>あぶらえ</t>
+  </si>
+  <si>
+    <t>油絵</t>
+  </si>
+  <si>
+    <t>tranh sơn dầu</t>
+  </si>
+  <si>
+    <t>かいがてん</t>
+  </si>
+  <si>
+    <t>絵画展</t>
+  </si>
+  <si>
+    <t>triển lãm tranh</t>
+  </si>
+  <si>
+    <t>続</t>
+  </si>
+  <si>
+    <t>tục</t>
+  </si>
+  <si>
+    <t>れんぞく</t>
+  </si>
+  <si>
+    <t>連続</t>
+  </si>
+  <si>
+    <t>liên tục</t>
+  </si>
+  <si>
+    <t>Tiếp TỤC bán DÂY</t>
+  </si>
+  <si>
+    <t>けいぞく</t>
+  </si>
+  <si>
+    <t>継続</t>
+  </si>
+  <si>
+    <t>duy trì</t>
+  </si>
+  <si>
+    <t>ふりつづく</t>
+  </si>
+  <si>
+    <t>降り続く</t>
+  </si>
+  <si>
+    <t>rơi liên tục</t>
+  </si>
+  <si>
+    <t>つづける</t>
+  </si>
+  <si>
+    <t>続ける</t>
+  </si>
+  <si>
+    <t>tiếp tục</t>
+  </si>
+  <si>
+    <t>紹</t>
+  </si>
+  <si>
+    <t>thiệu</t>
+  </si>
+  <si>
+    <t>Vừa cắt sợi dây vừa dùng miệng giới Thiệu</t>
+  </si>
+  <si>
+    <t>じこしょうかい</t>
+  </si>
+  <si>
+    <t>自己紹介</t>
+  </si>
+  <si>
+    <t>giới thiệu bản thân</t>
+  </si>
+  <si>
+    <t>しょうかいじょう</t>
+  </si>
+  <si>
+    <t>紹介状</t>
+  </si>
+  <si>
+    <t>giấy giới thiệu</t>
+  </si>
+  <si>
+    <t>組</t>
+  </si>
+  <si>
+    <t>tổ</t>
+  </si>
+  <si>
+    <t>THẢ sợi TƠ vào TỔ kiến :D</t>
+  </si>
+  <si>
+    <t>おなじくみ</t>
+  </si>
+  <si>
+    <t>同じ組</t>
+  </si>
+  <si>
+    <t>cùng đội</t>
+  </si>
+  <si>
+    <t>くみたてる</t>
+  </si>
+  <si>
+    <t>組み立てる</t>
+  </si>
+  <si>
+    <t>lắp ghép</t>
+  </si>
+  <si>
+    <t>くんで</t>
+  </si>
+  <si>
+    <t>組んで</t>
+  </si>
+  <si>
+    <t>khoanh tay</t>
   </si>
   <si>
     <t>công thức</t>
@@ -12896,7 +13145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13000,13 +13249,24 @@
       <name val="Times New Roman"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -13021,7 +13281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13050,6 +13310,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -13388,10 +13655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1088"/>
+  <dimension ref="A1:I1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
-      <selection activeCell="F1087" sqref="F1087"/>
+    <sheetView tabSelected="1" topLeftCell="A1099" workbookViewId="0">
+      <selection activeCell="E1113" sqref="E1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13461,11 +13728,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTA(A2:A100181)</f>
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="I2" s="1">
         <f>COUNTA(C2:C10181)</f>
-        <v>1087</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -29427,26 +29694,26 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="1086" spans="1:7">
-      <c r="A1086" s="1" t="s">
+    <row r="1086" spans="1:7" s="19" customFormat="1">
+      <c r="A1086" s="19" t="s">
         <v>3929</v>
       </c>
-      <c r="B1086" s="1" t="s">
+      <c r="B1086" s="19" t="s">
         <v>3930</v>
       </c>
-      <c r="C1086" s="1" t="s">
+      <c r="C1086" s="19" t="s">
         <v>3931</v>
       </c>
-      <c r="D1086" s="1" t="s">
+      <c r="D1086" s="19" t="s">
         <v>3932</v>
       </c>
-      <c r="E1086" s="1" t="s">
+      <c r="E1086" s="19" t="s">
         <v>3933</v>
       </c>
-      <c r="F1086" s="1">
+      <c r="F1086" s="19">
         <v>10</v>
       </c>
-      <c r="G1086" s="14" t="s">
+      <c r="G1086" s="20" t="s">
         <v>3934</v>
       </c>
     </row>
@@ -29471,6 +29738,355 @@
       </c>
       <c r="E1088" s="1" t="s">
         <v>3938</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" ht="37.5">
+      <c r="A1089" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>3941</v>
+      </c>
+      <c r="D1089" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="E1089" s="1" t="s">
+        <v>3943</v>
+      </c>
+      <c r="F1089" s="1">
+        <v>12</v>
+      </c>
+      <c r="G1089" s="18" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7">
+      <c r="C1090" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D1090" s="1" t="s">
+        <v>3946</v>
+      </c>
+      <c r="E1090" s="1" t="s">
+        <v>3947</v>
+      </c>
+      <c r="G1090"/>
+    </row>
+    <row r="1091" spans="1:7">
+      <c r="C1091" s="1" t="s">
+        <v>3948</v>
+      </c>
+      <c r="D1091" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E1091" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7">
+      <c r="A1092" s="1" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D1092" s="1" t="s">
+        <v>3953</v>
+      </c>
+      <c r="E1092" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F1092" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1092" s="1" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7">
+      <c r="C1093" s="1" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D1093" s="1" t="s">
+        <v>3957</v>
+      </c>
+      <c r="E1093" s="1" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7">
+      <c r="C1094" s="1" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="E1094" s="1" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7">
+      <c r="C1095" s="1" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E1095" s="1" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7">
+      <c r="A1096" s="1" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D1096" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E1096" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F1096" s="1">
+        <v>12</v>
+      </c>
+      <c r="G1096" s="1" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7">
+      <c r="C1097" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="D1097" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E1097" s="1" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7">
+      <c r="C1098" s="1" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D1098" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E1098" s="1" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7">
+      <c r="A1099" s="1" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="D1099" s="1" t="s">
+        <v>3977</v>
+      </c>
+      <c r="E1099" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="F1099" s="1">
+        <v>12</v>
+      </c>
+      <c r="G1099" s="1" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7">
+      <c r="C1100" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="D1100" s="1" t="s">
+        <v>3981</v>
+      </c>
+      <c r="E1100" s="1" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7">
+      <c r="C1101" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="D1101" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E1101" s="1" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7">
+      <c r="A1102" s="1" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>3988</v>
+      </c>
+      <c r="D1102" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="E1102" s="1" t="s">
+        <v>3990</v>
+      </c>
+      <c r="F1102" s="1">
+        <v>13</v>
+      </c>
+      <c r="G1102" s="1" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7">
+      <c r="C1103" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="D1103" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="E1103" s="1" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7">
+      <c r="C1104" s="1" t="s">
+        <v>3995</v>
+      </c>
+      <c r="D1104" s="1" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E1104" s="1" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7">
+      <c r="C1105" s="1" t="s">
+        <v>3998</v>
+      </c>
+      <c r="D1105" s="1" t="s">
+        <v>3999</v>
+      </c>
+      <c r="E1105" s="1" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7">
+      <c r="A1106" s="1" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D1106" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E1106" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="F1106" s="1">
+        <v>11</v>
+      </c>
+      <c r="G1106" s="1" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7">
+      <c r="C1107" s="1" t="s">
+        <v>4004</v>
+      </c>
+      <c r="D1107" s="1" t="s">
+        <v>4005</v>
+      </c>
+      <c r="E1107" s="1" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7">
+      <c r="C1108" s="1" t="s">
+        <v>4007</v>
+      </c>
+      <c r="D1108" s="1" t="s">
+        <v>4008</v>
+      </c>
+      <c r="E1108" s="1" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7">
+      <c r="A1109" s="1" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D1109" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="E1109" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="F1109" s="1">
+        <v>11</v>
+      </c>
+      <c r="G1109" s="1" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7">
+      <c r="C1110" s="1" t="s">
+        <v>4013</v>
+      </c>
+      <c r="D1110" s="1" t="s">
+        <v>4014</v>
+      </c>
+      <c r="E1110" s="1" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7">
+      <c r="C1111" s="1" t="s">
+        <v>4016</v>
+      </c>
+      <c r="D1111" s="1" t="s">
+        <v>4017</v>
+      </c>
+      <c r="E1111" s="1" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7">
+      <c r="C1112" s="1" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>4020</v>
+      </c>
+      <c r="E1112" s="1" t="s">
+        <v>4021</v>
       </c>
     </row>
   </sheetData>
@@ -29484,7 +30100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V96"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A86" workbookViewId="0">
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
@@ -29504,50 +30120,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>3939</v>
+        <v>4022</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3940</v>
+        <v>4023</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3941</v>
+        <v>4024</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3942</v>
+        <v>4025</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3943</v>
+        <v>4026</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3944</v>
+        <v>4027</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3945</v>
+        <v>4028</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="18.75">
       <c r="A2" s="5" t="s">
-        <v>3946</v>
+        <v>4029</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3947</v>
+        <v>4030</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3950</v>
+        <v>4033</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3951</v>
+        <v>4034</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -29562,15 +30178,15 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>3952</v>
+        <v>4035</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3953</v>
+        <v>4036</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -29585,15 +30201,15 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>3954</v>
+        <v>4037</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3955</v>
+        <v>4038</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -29606,25 +30222,25 @@
     </row>
     <row r="5" spans="1:22" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>3956</v>
+        <v>4039</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3957</v>
+        <v>4040</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D5" s="1">
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3958</v>
+        <v>4041</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3959</v>
+        <v>4042</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -29639,15 +30255,15 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>3960</v>
+        <v>4043</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3961</v>
+        <v>4044</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -29662,15 +30278,15 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>3962</v>
+        <v>4045</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3963</v>
+        <v>4046</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -29683,25 +30299,25 @@
     </row>
     <row r="8" spans="1:22" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>3964</v>
+        <v>4047</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3965</v>
+        <v>4048</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D8" s="1">
         <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3950</v>
+        <v>4033</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>3966</v>
+        <v>4049</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -29716,13 +30332,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3967</v>
+        <v>4050</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3968</v>
+        <v>4051</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -29735,25 +30351,25 @@
     </row>
     <row r="10" spans="1:22" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>3969</v>
+        <v>4052</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3970</v>
+        <v>4053</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D10" s="1">
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3971</v>
+        <v>4054</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3972</v>
+        <v>4055</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -29775,15 +30391,15 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>3973</v>
+        <v>4056</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>3974</v>
+        <v>4057</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -29803,25 +30419,25 @@
     </row>
     <row r="12" spans="1:22" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>3975</v>
+        <v>4058</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3976</v>
+        <v>4059</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D12" s="1">
         <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3977</v>
+        <v>4060</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3978</v>
+        <v>4061</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -29843,15 +30459,15 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>3979</v>
+        <v>4062</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>3980</v>
+        <v>4063</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -29871,25 +30487,25 @@
     </row>
     <row r="14" spans="1:22" ht="18.75">
       <c r="A14" s="7" t="s">
-        <v>3981</v>
+        <v>4064</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3982</v>
+        <v>4065</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D14" s="1">
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3983</v>
+        <v>4066</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>3984</v>
+        <v>4067</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -29911,15 +30527,15 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>3985</v>
+        <v>4068</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3986</v>
+        <v>4069</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -29939,25 +30555,25 @@
     </row>
     <row r="16" spans="1:22" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>3987</v>
+        <v>4070</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3988</v>
+        <v>4071</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D16" s="1">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3989</v>
+        <v>4072</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>3990</v>
+        <v>4073</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -29979,15 +30595,15 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>3991</v>
+        <v>4074</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3992</v>
+        <v>4075</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -30007,25 +30623,25 @@
     </row>
     <row r="18" spans="1:22" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>3993</v>
+        <v>4076</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3994</v>
+        <v>4077</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D18" s="1">
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3995</v>
+        <v>4078</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>3996</v>
+        <v>4079</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -30047,15 +30663,15 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>3997</v>
+        <v>4080</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>3998</v>
+        <v>4081</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -30075,25 +30691,25 @@
     </row>
     <row r="20" spans="1:22" ht="56.25">
       <c r="A20" s="3" t="s">
-        <v>3999</v>
+        <v>4082</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4000</v>
+        <v>4083</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D20" s="1">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>4001</v>
+        <v>4084</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>4002</v>
+        <v>4085</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -30115,15 +30731,15 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>4003</v>
+        <v>4086</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>4004</v>
+        <v>4087</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -30145,15 +30761,15 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>4005</v>
+        <v>4088</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>4006</v>
+        <v>4089</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -30175,15 +30791,15 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>4007</v>
+        <v>4090</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>4008</v>
+        <v>4091</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -30203,25 +30819,25 @@
     </row>
     <row r="24" spans="1:22" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>4009</v>
+        <v>4092</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4010</v>
+        <v>4093</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D24" s="1">
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>4011</v>
+        <v>4094</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>4012</v>
+        <v>4095</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -30243,15 +30859,15 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>4013</v>
+        <v>4096</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>4014</v>
+        <v>4097</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -30271,25 +30887,25 @@
     </row>
     <row r="26" spans="1:22" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>4015</v>
+        <v>4098</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4016</v>
+        <v>4099</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D26" s="1">
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>4017</v>
+        <v>4100</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>4018</v>
+        <v>4101</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -30299,15 +30915,15 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>4019</v>
+        <v>4102</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>4020</v>
+        <v>4103</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -30315,25 +30931,25 @@
     </row>
     <row r="28" spans="1:22" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>4021</v>
+        <v>4104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4022</v>
+        <v>4105</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D28" s="1">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>4023</v>
+        <v>4106</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>4024</v>
+        <v>4107</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -30343,15 +30959,15 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>4025</v>
+        <v>4108</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>4026</v>
+        <v>4109</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -30361,15 +30977,15 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>4027</v>
+        <v>4110</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>4028</v>
+        <v>4111</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -30377,25 +30993,25 @@
     </row>
     <row r="31" spans="1:22" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>4029</v>
+        <v>4112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4030</v>
+        <v>4113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D31" s="1">
         <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>4031</v>
+        <v>4114</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>4032</v>
+        <v>4115</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -30403,25 +31019,25 @@
     </row>
     <row r="32" spans="1:22" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>4033</v>
+        <v>4116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4034</v>
+        <v>4117</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D32" s="1">
         <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>4035</v>
+        <v>4118</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>4036</v>
+        <v>4119</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -30431,15 +31047,15 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>4037</v>
+        <v>4120</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>4038</v>
+        <v>4121</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -30449,15 +31065,15 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>4039</v>
+        <v>4122</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>4040</v>
+        <v>4123</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -30465,25 +31081,25 @@
     </row>
     <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>4041</v>
+        <v>4124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4042</v>
+        <v>4125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D35" s="1">
         <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>4043</v>
+        <v>4126</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>4044</v>
+        <v>4127</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -30493,15 +31109,15 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>4045</v>
+        <v>4128</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>4046</v>
+        <v>4129</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -30509,25 +31125,25 @@
     </row>
     <row r="37" spans="1:10" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>4047</v>
+        <v>4130</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4048</v>
+        <v>4131</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D37" s="1">
         <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>4049</v>
+        <v>4132</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>4050</v>
+        <v>4133</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -30537,15 +31153,15 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>4051</v>
+        <v>4134</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>4052</v>
+        <v>4135</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -30553,25 +31169,25 @@
     </row>
     <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>4053</v>
+        <v>4136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>4054</v>
+        <v>4137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D39" s="1">
         <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>4055</v>
+        <v>4138</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>4056</v>
+        <v>4139</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -30581,15 +31197,15 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>4057</v>
+        <v>4140</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>4058</v>
+        <v>4141</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -30597,801 +31213,801 @@
     </row>
     <row r="41" spans="1:10" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>4059</v>
+        <v>4142</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4060</v>
+        <v>4143</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>4061</v>
+        <v>4144</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>4062</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75">
       <c r="C42" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>4063</v>
+        <v>4146</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>4064</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75">
       <c r="C43" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>4065</v>
+        <v>4148</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>4066</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18.75">
       <c r="A44" t="s">
-        <v>4067</v>
+        <v>4150</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4068</v>
+        <v>4151</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D44" s="1">
         <v>40</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>4069</v>
+        <v>4152</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>4070</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75">
       <c r="C45" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>4071</v>
+        <v>4154</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>4072</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75">
       <c r="C46" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>4073</v>
+        <v>4156</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>4074</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75">
       <c r="A47" t="s">
-        <v>4075</v>
+        <v>4158</v>
       </c>
       <c r="B47" t="s">
-        <v>4076</v>
+        <v>4159</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D47">
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>4077</v>
+        <v>4160</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>4078</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75">
       <c r="C48" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>4079</v>
+        <v>4162</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>4080</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18.75">
       <c r="C49" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>4081</v>
+        <v>4164</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>4082</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75">
       <c r="A50" t="s">
-        <v>4083</v>
+        <v>4166</v>
       </c>
       <c r="B50" t="s">
-        <v>4084</v>
+        <v>4167</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D50">
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1313</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>4085</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75">
       <c r="C51" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>4086</v>
+        <v>4169</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>4087</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.75">
       <c r="C52" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>4088</v>
+        <v>4171</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>4089</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="72.75">
       <c r="A53" t="s">
-        <v>4090</v>
+        <v>4173</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>4091</v>
+        <v>4174</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D53">
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>4092</v>
+        <v>4175</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>4093</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75">
       <c r="C54" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>4094</v>
+        <v>4177</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>4095</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75">
       <c r="C55" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>4096</v>
+        <v>4179</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>4097</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18.75">
       <c r="C56" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>4098</v>
+        <v>4181</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>4099</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18.75">
       <c r="C57" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>4100</v>
+        <v>4183</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>4101</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.75">
       <c r="A58" t="s">
-        <v>4102</v>
+        <v>4185</v>
       </c>
       <c r="B58" t="s">
-        <v>4103</v>
+        <v>4186</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D58">
         <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>4104</v>
+        <v>4187</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>4105</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75">
       <c r="C59" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>4106</v>
+        <v>4189</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>4107</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75">
       <c r="A60" t="s">
-        <v>4108</v>
+        <v>4191</v>
       </c>
       <c r="B60" t="s">
-        <v>4109</v>
+        <v>4192</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D60">
         <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>4110</v>
+        <v>4193</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>4111</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75">
       <c r="C61" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>4112</v>
+        <v>4195</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>4113</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="58.5">
       <c r="A62" t="s">
-        <v>4114</v>
+        <v>4197</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>4115</v>
+        <v>4198</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D62">
         <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>4116</v>
+        <v>4199</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>4117</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75">
       <c r="C63" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>4118</v>
+        <v>4201</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>4119</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75">
       <c r="C64" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>4120</v>
+        <v>4203</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>4121</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75">
       <c r="C65" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>4122</v>
+        <v>4205</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>4123</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75">
       <c r="C66" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>4124</v>
+        <v>4207</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>4125</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75">
       <c r="A67" t="s">
-        <v>4126</v>
+        <v>4209</v>
       </c>
       <c r="B67" t="s">
-        <v>4127</v>
+        <v>4210</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D67">
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>4128</v>
+        <v>4211</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>4129</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75">
       <c r="C68" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>4130</v>
+        <v>4213</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>4131</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75">
       <c r="C69" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>4132</v>
+        <v>4215</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>4133</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75">
       <c r="A70" t="s">
-        <v>4134</v>
+        <v>4217</v>
       </c>
       <c r="B70" t="s">
-        <v>4135</v>
+        <v>4218</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D70">
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>4136</v>
+        <v>4219</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>4137</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75">
       <c r="F71" s="1" t="s">
-        <v>4138</v>
+        <v>4221</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>4139</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75">
       <c r="F72" s="1" t="s">
-        <v>4140</v>
+        <v>4223</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>4141</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75">
       <c r="A73" t="s">
-        <v>4142</v>
+        <v>4225</v>
       </c>
       <c r="B73" t="s">
-        <v>4143</v>
+        <v>4226</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D73">
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>4144</v>
+        <v>4227</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>4145</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
       <c r="F74" s="1" t="s">
-        <v>4146</v>
+        <v>4229</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>4147</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
       <c r="F75" s="1" t="s">
-        <v>4148</v>
+        <v>4231</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>4149</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75">
       <c r="A76" t="s">
-        <v>4150</v>
+        <v>4233</v>
       </c>
       <c r="B76" t="s">
-        <v>4151</v>
+        <v>4234</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D76">
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>4152</v>
+        <v>4235</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>4153</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75">
       <c r="F77" s="1" t="s">
-        <v>4154</v>
+        <v>4237</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>4155</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75">
       <c r="A78" t="s">
-        <v>4156</v>
+        <v>4239</v>
       </c>
       <c r="B78" t="s">
-        <v>4157</v>
+        <v>4240</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D78">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>4158</v>
+        <v>4241</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>4159</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75">
       <c r="F79" s="1" t="s">
-        <v>4160</v>
+        <v>4243</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>4161</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75">
       <c r="A80" t="s">
-        <v>4162</v>
+        <v>4245</v>
       </c>
       <c r="B80" t="s">
-        <v>4163</v>
+        <v>4246</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D80">
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>4164</v>
+        <v>4247</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>4165</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75">
       <c r="F81" s="1" t="s">
-        <v>4166</v>
+        <v>4249</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>4167</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75">
       <c r="A82" t="s">
-        <v>4168</v>
+        <v>4251</v>
       </c>
       <c r="B82" t="s">
-        <v>4169</v>
+        <v>4252</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D82">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>4170</v>
+        <v>4253</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>4171</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75">
       <c r="F83" s="1" t="s">
-        <v>4172</v>
+        <v>4255</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>4173</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75">
       <c r="A84" t="s">
-        <v>4174</v>
+        <v>4257</v>
       </c>
       <c r="B84" t="s">
-        <v>4175</v>
+        <v>4258</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D84">
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>4176</v>
+        <v>4259</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>4177</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75">
       <c r="F85" s="1" t="s">
-        <v>4178</v>
+        <v>4261</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>4179</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75">
       <c r="A86" t="s">
-        <v>4180</v>
+        <v>4263</v>
       </c>
       <c r="B86" t="s">
-        <v>4181</v>
+        <v>4264</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D86">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>4182</v>
+        <v>4265</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>4183</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75">
       <c r="A87" t="s">
-        <v>4184</v>
+        <v>4267</v>
       </c>
       <c r="B87" t="s">
-        <v>4185</v>
+        <v>4268</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D87">
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>4186</v>
+        <v>4269</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>4187</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75">
       <c r="F88" s="1" t="s">
-        <v>4188</v>
+        <v>4271</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>4189</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75">
       <c r="F89" s="1" t="s">
-        <v>4190</v>
+        <v>4273</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>4191</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18.75">
       <c r="A90" t="s">
-        <v>4192</v>
+        <v>4275</v>
       </c>
       <c r="B90" t="s">
-        <v>4193</v>
+        <v>4276</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D90">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>4194</v>
+        <v>4277</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>4195</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75">
       <c r="F91" s="1" t="s">
-        <v>4196</v>
+        <v>4279</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>4197</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75">
       <c r="F92" s="1" t="s">
-        <v>4198</v>
+        <v>4281</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>4199</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75">
       <c r="F93" s="1" t="s">
-        <v>4200</v>
+        <v>4283</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>4201</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18.75">
       <c r="A94" t="s">
-        <v>4202</v>
+        <v>4285</v>
       </c>
       <c r="B94" t="s">
-        <v>4203</v>
+        <v>4286</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>3948</v>
+        <v>4031</v>
       </c>
       <c r="D94">
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>3949</v>
+        <v>4032</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>4204</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18.75">
       <c r="F95" s="1" t="s">
-        <v>4205</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75">
       <c r="F96" s="1" t="s">
-        <v>4206</v>
+        <v>4289</v>
       </c>
     </row>
   </sheetData>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22626"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BAAFB4-F731-4DEA-9ACE-74B077962D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5EF5EBE-F260-4753-9BA5-FC955938CB60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4640" uniqueCount="4290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="4361">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -12096,6 +12096,219 @@
   </si>
   <si>
     <t>khoanh tay</t>
+  </si>
+  <si>
+    <t>績</t>
+  </si>
+  <si>
+    <t>tích</t>
+  </si>
+  <si>
+    <t>せいせき</t>
+  </si>
+  <si>
+    <t>成績</t>
+  </si>
+  <si>
+    <t>thành tích(học tập)</t>
+  </si>
+  <si>
+    <t>Thành tích của ông chủ là kiếm tiền từ buôn tơ lụa</t>
+  </si>
+  <si>
+    <t>ぎょうせき</t>
+  </si>
+  <si>
+    <t>業績</t>
+  </si>
+  <si>
+    <t>thành tích(làm việc)</t>
+  </si>
+  <si>
+    <t>じっせき</t>
+  </si>
+  <si>
+    <t>実績</t>
+  </si>
+  <si>
+    <t>Thành tích thực tế</t>
+  </si>
+  <si>
+    <t>級</t>
+  </si>
+  <si>
+    <t>しょきゅう</t>
+  </si>
+  <si>
+    <t>初級</t>
+  </si>
+  <si>
+    <t>sơ cấp</t>
+  </si>
+  <si>
+    <t>người cũng chỉ có 3 cấp độ</t>
+  </si>
+  <si>
+    <t>こうきゅうしゃ</t>
+  </si>
+  <si>
+    <t>高級車</t>
+  </si>
+  <si>
+    <t>xe cao cấp</t>
+  </si>
+  <si>
+    <t>ちゅうきゅう</t>
+  </si>
+  <si>
+    <t>中級</t>
+  </si>
+  <si>
+    <t>trung cấp</t>
+  </si>
+  <si>
+    <t>どうきゅうせい</t>
+  </si>
+  <si>
+    <t>同級生</t>
+  </si>
+  <si>
+    <t>học cùng cấp</t>
+  </si>
+  <si>
+    <t>線</t>
+  </si>
+  <si>
+    <t>tuyến</t>
+  </si>
+  <si>
+    <t>せん</t>
+  </si>
+  <si>
+    <t>line(tuyến)</t>
+  </si>
+  <si>
+    <t>Tuyến Đường bán SỢi chỉ màu trắng bị ngập trong Nước</t>
+  </si>
+  <si>
+    <t>ちょくせん</t>
+  </si>
+  <si>
+    <t>直線</t>
+  </si>
+  <si>
+    <t>đường thẳng</t>
+  </si>
+  <si>
+    <t>せんろ</t>
+  </si>
+  <si>
+    <t>線路</t>
+  </si>
+  <si>
+    <t>Đường ray</t>
+  </si>
+  <si>
+    <t>絡</t>
+  </si>
+  <si>
+    <t>lạc</t>
+  </si>
+  <si>
+    <t>からまる</t>
+  </si>
+  <si>
+    <t>絡まる</t>
+  </si>
+  <si>
+    <t>mắc(dây mắc)</t>
+  </si>
+  <si>
+    <t>Các vị khách liên lạc với nhau qua sợi dây</t>
+  </si>
+  <si>
+    <t>れんらく</t>
+  </si>
+  <si>
+    <t>連絡</t>
+  </si>
+  <si>
+    <t>liên lạc</t>
+  </si>
+  <si>
+    <t>からめる</t>
+  </si>
+  <si>
+    <t>絡める</t>
+  </si>
+  <si>
+    <t>quấn(quấn chỉ)</t>
+  </si>
+  <si>
+    <t>編</t>
+  </si>
+  <si>
+    <t>へんしゅう</t>
+  </si>
+  <si>
+    <t>編集</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> biên tập</t>
+  </si>
+  <si>
+    <t>dùng chỉ đan thành quyển sách để dưới cửa</t>
+  </si>
+  <si>
+    <t>あみ</t>
+  </si>
+  <si>
+    <t>編み</t>
+  </si>
+  <si>
+    <t>đan lát</t>
+  </si>
+  <si>
+    <t>あみもの</t>
+  </si>
+  <si>
+    <t>編み物</t>
+  </si>
+  <si>
+    <t>đan vật gì đó</t>
+  </si>
+  <si>
+    <t>てあみ</t>
+  </si>
+  <si>
+    <t>手編み</t>
+  </si>
+  <si>
+    <t>đan bằng tay</t>
+  </si>
+  <si>
+    <t>綿</t>
+  </si>
+  <si>
+    <t>miên</t>
+  </si>
+  <si>
+    <t>わた</t>
+  </si>
+  <si>
+    <t>bông</t>
+  </si>
+  <si>
+    <t>Miếng vải có sợi chỉ trắng dài MIÊN man.</t>
+  </si>
+  <si>
+    <t>わたいり</t>
+  </si>
+  <si>
+    <t>綿入り</t>
+  </si>
+  <si>
+    <t>nhồi bông</t>
   </si>
   <si>
     <t>công thức</t>
@@ -13655,10 +13868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1112"/>
+  <dimension ref="A1:I1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1099" workbookViewId="0">
-      <selection activeCell="E1113" sqref="E1113"/>
+    <sheetView tabSelected="1" topLeftCell="A1116" workbookViewId="0">
+      <selection activeCell="F1131" sqref="F1131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13728,11 +13941,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTA(A2:A100181)</f>
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="I2" s="1">
         <f>COUNTA(C2:C10181)</f>
-        <v>1111</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -30087,6 +30300,287 @@
       </c>
       <c r="E1112" s="1" t="s">
         <v>4021</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7">
+      <c r="A1113" s="1" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>4023</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>4024</v>
+      </c>
+      <c r="D1113" s="1" t="s">
+        <v>4025</v>
+      </c>
+      <c r="E1113" s="1" t="s">
+        <v>4026</v>
+      </c>
+      <c r="F1113" s="1">
+        <v>17</v>
+      </c>
+      <c r="G1113" s="1" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7">
+      <c r="C1114" s="1" t="s">
+        <v>4028</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="E1114" s="1" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7">
+      <c r="C1115" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="D1115" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="E1115" s="1" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7">
+      <c r="A1116" s="1" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="E1116" s="1" t="s">
+        <v>4037</v>
+      </c>
+      <c r="F1116" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1116" s="1" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7">
+      <c r="C1117" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="D1117" s="1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E1117" s="1" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7">
+      <c r="C1118" s="1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="E1118" s="1" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7">
+      <c r="C1119" s="1" t="s">
+        <v>4045</v>
+      </c>
+      <c r="D1119" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E1119" s="1" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7">
+      <c r="A1120" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C1120" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="D1120" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E1120" s="1" t="s">
+        <v>4051</v>
+      </c>
+      <c r="F1120" s="1">
+        <v>15</v>
+      </c>
+      <c r="G1120" s="1" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7">
+      <c r="C1121" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D1121" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E1121" s="1" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7">
+      <c r="C1122" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="D1122" s="1" t="s">
+        <v>4057</v>
+      </c>
+      <c r="E1122" s="1" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7">
+      <c r="A1123" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C1123" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="E1123" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="F1123" s="1">
+        <v>12</v>
+      </c>
+      <c r="G1123" s="1" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7">
+      <c r="C1124" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="D1124" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E1124" s="1" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7">
+      <c r="C1125" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="D1125" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E1125" s="1" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7">
+      <c r="A1126" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C1126" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="D1126" s="1" t="s">
+        <v>4073</v>
+      </c>
+      <c r="E1126" s="1" t="s">
+        <v>4074</v>
+      </c>
+      <c r="F1126" s="1">
+        <v>15</v>
+      </c>
+      <c r="G1126" s="1" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7">
+      <c r="C1127" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D1127" s="1" t="s">
+        <v>4077</v>
+      </c>
+      <c r="E1127" s="1" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7">
+      <c r="C1128" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D1128" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E1128" s="1" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7">
+      <c r="C1129" s="1" t="s">
+        <v>4082</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="E1129" s="1" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7">
+      <c r="A1130" s="1" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>4086</v>
+      </c>
+      <c r="C1130" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>4085</v>
+      </c>
+      <c r="E1130" s="1" t="s">
+        <v>4088</v>
+      </c>
+      <c r="F1130" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1130" s="1" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7">
+      <c r="C1131" s="1" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="E1131" s="1" t="s">
+        <v>4092</v>
       </c>
     </row>
   </sheetData>
@@ -30120,50 +30614,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>4022</v>
+        <v>4093</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4023</v>
+        <v>4094</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4024</v>
+        <v>4095</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4025</v>
+        <v>4096</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4026</v>
+        <v>4097</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4027</v>
+        <v>4098</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4028</v>
+        <v>4099</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="18.75">
       <c r="A2" s="5" t="s">
-        <v>4029</v>
+        <v>4100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4030</v>
+        <v>4101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4033</v>
+        <v>4104</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>4034</v>
+        <v>4105</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -30178,15 +30672,15 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>4035</v>
+        <v>4106</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4036</v>
+        <v>4107</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -30201,15 +30695,15 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>4037</v>
+        <v>4108</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4038</v>
+        <v>4109</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -30222,25 +30716,25 @@
     </row>
     <row r="5" spans="1:22" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>4039</v>
+        <v>4110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4040</v>
+        <v>4111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D5" s="1">
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4041</v>
+        <v>4112</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>4042</v>
+        <v>4113</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -30255,15 +30749,15 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>4043</v>
+        <v>4114</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4044</v>
+        <v>4115</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -30278,15 +30772,15 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>4045</v>
+        <v>4116</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4046</v>
+        <v>4117</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -30299,25 +30793,25 @@
     </row>
     <row r="8" spans="1:22" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>4047</v>
+        <v>4118</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4048</v>
+        <v>4119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D8" s="1">
         <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>4033</v>
+        <v>4104</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>4049</v>
+        <v>4120</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -30332,13 +30826,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>4050</v>
+        <v>4121</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>4051</v>
+        <v>4122</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -30351,25 +30845,25 @@
     </row>
     <row r="10" spans="1:22" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>4052</v>
+        <v>4123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4053</v>
+        <v>4124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D10" s="1">
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4054</v>
+        <v>4125</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>4055</v>
+        <v>4126</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -30391,15 +30885,15 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>4056</v>
+        <v>4127</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>4057</v>
+        <v>4128</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -30419,25 +30913,25 @@
     </row>
     <row r="12" spans="1:22" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>4058</v>
+        <v>4129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4059</v>
+        <v>4130</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D12" s="1">
         <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>4060</v>
+        <v>4131</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>4061</v>
+        <v>4132</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -30459,15 +30953,15 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>4062</v>
+        <v>4133</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>4063</v>
+        <v>4134</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -30487,25 +30981,25 @@
     </row>
     <row r="14" spans="1:22" ht="18.75">
       <c r="A14" s="7" t="s">
-        <v>4064</v>
+        <v>4135</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4065</v>
+        <v>4136</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D14" s="1">
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>4066</v>
+        <v>4137</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>4067</v>
+        <v>4138</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -30527,15 +31021,15 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>4068</v>
+        <v>4139</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>4069</v>
+        <v>4140</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -30555,25 +31049,25 @@
     </row>
     <row r="16" spans="1:22" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>4070</v>
+        <v>4141</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4071</v>
+        <v>4142</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D16" s="1">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>4072</v>
+        <v>4143</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>4073</v>
+        <v>4144</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -30595,15 +31089,15 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>4074</v>
+        <v>4145</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>4075</v>
+        <v>4146</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -30623,25 +31117,25 @@
     </row>
     <row r="18" spans="1:22" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>4076</v>
+        <v>4147</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4077</v>
+        <v>4148</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D18" s="1">
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>4078</v>
+        <v>4149</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>4079</v>
+        <v>4150</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -30663,15 +31157,15 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>4080</v>
+        <v>4151</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>4081</v>
+        <v>4152</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -30691,25 +31185,25 @@
     </row>
     <row r="20" spans="1:22" ht="56.25">
       <c r="A20" s="3" t="s">
-        <v>4082</v>
+        <v>4153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4083</v>
+        <v>4154</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D20" s="1">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>4084</v>
+        <v>4155</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>4085</v>
+        <v>4156</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -30731,15 +31225,15 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>4086</v>
+        <v>4157</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>4087</v>
+        <v>4158</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -30761,15 +31255,15 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>4088</v>
+        <v>4159</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>4089</v>
+        <v>4160</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -30791,15 +31285,15 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>4090</v>
+        <v>4161</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>4091</v>
+        <v>4162</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -30819,25 +31313,25 @@
     </row>
     <row r="24" spans="1:22" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>4092</v>
+        <v>4163</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4093</v>
+        <v>4164</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D24" s="1">
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>4094</v>
+        <v>4165</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>4095</v>
+        <v>4166</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -30859,15 +31353,15 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>4096</v>
+        <v>4167</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>4097</v>
+        <v>4168</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -30887,25 +31381,25 @@
     </row>
     <row r="26" spans="1:22" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>4098</v>
+        <v>4169</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4099</v>
+        <v>4170</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D26" s="1">
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>4100</v>
+        <v>4171</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>4101</v>
+        <v>4172</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -30915,15 +31409,15 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>4102</v>
+        <v>4173</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>4103</v>
+        <v>4174</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -30931,25 +31425,25 @@
     </row>
     <row r="28" spans="1:22" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>4104</v>
+        <v>4175</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4105</v>
+        <v>4176</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D28" s="1">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>4106</v>
+        <v>4177</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>4107</v>
+        <v>4178</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -30959,15 +31453,15 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>4108</v>
+        <v>4179</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>4109</v>
+        <v>4180</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -30977,15 +31471,15 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>4110</v>
+        <v>4181</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>4111</v>
+        <v>4182</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -30993,25 +31487,25 @@
     </row>
     <row r="31" spans="1:22" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>4112</v>
+        <v>4183</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4113</v>
+        <v>4184</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D31" s="1">
         <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>4114</v>
+        <v>4185</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>4115</v>
+        <v>4186</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -31019,25 +31513,25 @@
     </row>
     <row r="32" spans="1:22" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>4116</v>
+        <v>4187</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4117</v>
+        <v>4188</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D32" s="1">
         <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>4118</v>
+        <v>4189</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>4119</v>
+        <v>4190</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -31047,15 +31541,15 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>4120</v>
+        <v>4191</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>4121</v>
+        <v>4192</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -31065,15 +31559,15 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>4122</v>
+        <v>4193</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>4123</v>
+        <v>4194</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -31081,25 +31575,25 @@
     </row>
     <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>4124</v>
+        <v>4195</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4125</v>
+        <v>4196</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D35" s="1">
         <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>4126</v>
+        <v>4197</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>4127</v>
+        <v>4198</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -31109,15 +31603,15 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>4128</v>
+        <v>4199</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>4129</v>
+        <v>4200</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -31125,25 +31619,25 @@
     </row>
     <row r="37" spans="1:10" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>4130</v>
+        <v>4201</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4131</v>
+        <v>4202</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D37" s="1">
         <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>4132</v>
+        <v>4203</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>4133</v>
+        <v>4204</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -31153,15 +31647,15 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>4134</v>
+        <v>4205</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>4135</v>
+        <v>4206</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -31169,25 +31663,25 @@
     </row>
     <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>4136</v>
+        <v>4207</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>4137</v>
+        <v>4208</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D39" s="1">
         <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>4138</v>
+        <v>4209</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>4139</v>
+        <v>4210</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -31197,15 +31691,15 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>4140</v>
+        <v>4211</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>4141</v>
+        <v>4212</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -31213,801 +31707,801 @@
     </row>
     <row r="41" spans="1:10" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>4142</v>
+        <v>4213</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>4143</v>
+        <v>4214</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>4144</v>
+        <v>4215</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>4145</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75">
       <c r="C42" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>4146</v>
+        <v>4217</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>4147</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75">
       <c r="C43" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>4148</v>
+        <v>4219</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>4149</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18.75">
       <c r="A44" t="s">
-        <v>4150</v>
+        <v>4221</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4151</v>
+        <v>4222</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D44" s="1">
         <v>40</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>4152</v>
+        <v>4223</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>4153</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75">
       <c r="C45" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>4154</v>
+        <v>4225</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>4155</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75">
       <c r="C46" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>4156</v>
+        <v>4227</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>4157</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75">
       <c r="A47" t="s">
-        <v>4158</v>
+        <v>4229</v>
       </c>
       <c r="B47" t="s">
-        <v>4159</v>
+        <v>4230</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D47">
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>4160</v>
+        <v>4231</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>4161</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75">
       <c r="C48" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>4162</v>
+        <v>4233</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>4163</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18.75">
       <c r="C49" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>4164</v>
+        <v>4235</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>4165</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75">
       <c r="A50" t="s">
-        <v>4166</v>
+        <v>4237</v>
       </c>
       <c r="B50" t="s">
-        <v>4167</v>
+        <v>4238</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D50">
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1313</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>4168</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75">
       <c r="C51" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>4169</v>
+        <v>4240</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>4170</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.75">
       <c r="C52" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>4171</v>
+        <v>4242</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>4172</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="72.75">
       <c r="A53" t="s">
-        <v>4173</v>
+        <v>4244</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>4174</v>
+        <v>4245</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D53">
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>4175</v>
+        <v>4246</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>4176</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75">
       <c r="C54" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>4177</v>
+        <v>4248</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>4178</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75">
       <c r="C55" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>4179</v>
+        <v>4250</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>4180</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18.75">
       <c r="C56" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>4181</v>
+        <v>4252</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>4182</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18.75">
       <c r="C57" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>4183</v>
+        <v>4254</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>4184</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.75">
       <c r="A58" t="s">
-        <v>4185</v>
+        <v>4256</v>
       </c>
       <c r="B58" t="s">
-        <v>4186</v>
+        <v>4257</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D58">
         <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>4187</v>
+        <v>4258</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>4188</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75">
       <c r="C59" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>4189</v>
+        <v>4260</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>4190</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75">
       <c r="A60" t="s">
-        <v>4191</v>
+        <v>4262</v>
       </c>
       <c r="B60" t="s">
-        <v>4192</v>
+        <v>4263</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D60">
         <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>4193</v>
+        <v>4264</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>4194</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75">
       <c r="C61" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>4195</v>
+        <v>4266</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>4196</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="58.5">
       <c r="A62" t="s">
-        <v>4197</v>
+        <v>4268</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>4198</v>
+        <v>4269</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D62">
         <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>4199</v>
+        <v>4270</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>4200</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75">
       <c r="C63" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>4201</v>
+        <v>4272</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>4202</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75">
       <c r="C64" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>4203</v>
+        <v>4274</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>4204</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75">
       <c r="C65" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>4205</v>
+        <v>4276</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>4206</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75">
       <c r="C66" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>4207</v>
+        <v>4278</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>4208</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75">
       <c r="A67" t="s">
-        <v>4209</v>
+        <v>4280</v>
       </c>
       <c r="B67" t="s">
-        <v>4210</v>
+        <v>4281</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D67">
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>4211</v>
+        <v>4282</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>4212</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75">
       <c r="C68" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>4213</v>
+        <v>4284</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>4214</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75">
       <c r="C69" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>4215</v>
+        <v>4286</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>4216</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75">
       <c r="A70" t="s">
-        <v>4217</v>
+        <v>4288</v>
       </c>
       <c r="B70" t="s">
-        <v>4218</v>
+        <v>4289</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D70">
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>4219</v>
+        <v>4290</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>4220</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75">
       <c r="F71" s="1" t="s">
-        <v>4221</v>
+        <v>4292</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>4222</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75">
       <c r="F72" s="1" t="s">
-        <v>4223</v>
+        <v>4294</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>4224</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75">
       <c r="A73" t="s">
-        <v>4225</v>
+        <v>4296</v>
       </c>
       <c r="B73" t="s">
-        <v>4226</v>
+        <v>4297</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D73">
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>4227</v>
+        <v>4298</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>4228</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
       <c r="F74" s="1" t="s">
-        <v>4229</v>
+        <v>4300</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>4230</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
       <c r="F75" s="1" t="s">
-        <v>4231</v>
+        <v>4302</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>4232</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75">
       <c r="A76" t="s">
-        <v>4233</v>
+        <v>4304</v>
       </c>
       <c r="B76" t="s">
-        <v>4234</v>
+        <v>4305</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D76">
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>4235</v>
+        <v>4306</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>4236</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75">
       <c r="F77" s="1" t="s">
-        <v>4237</v>
+        <v>4308</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>4238</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75">
       <c r="A78" t="s">
-        <v>4239</v>
+        <v>4310</v>
       </c>
       <c r="B78" t="s">
-        <v>4240</v>
+        <v>4311</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D78">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>4241</v>
+        <v>4312</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>4242</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75">
       <c r="F79" s="1" t="s">
-        <v>4243</v>
+        <v>4314</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>4244</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75">
       <c r="A80" t="s">
-        <v>4245</v>
+        <v>4316</v>
       </c>
       <c r="B80" t="s">
-        <v>4246</v>
+        <v>4317</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D80">
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>4247</v>
+        <v>4318</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>4248</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75">
       <c r="F81" s="1" t="s">
-        <v>4249</v>
+        <v>4320</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>4250</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75">
       <c r="A82" t="s">
-        <v>4251</v>
+        <v>4322</v>
       </c>
       <c r="B82" t="s">
-        <v>4252</v>
+        <v>4323</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D82">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>4253</v>
+        <v>4324</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>4254</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75">
       <c r="F83" s="1" t="s">
-        <v>4255</v>
+        <v>4326</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>4256</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75">
       <c r="A84" t="s">
-        <v>4257</v>
+        <v>4328</v>
       </c>
       <c r="B84" t="s">
-        <v>4258</v>
+        <v>4329</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D84">
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>4259</v>
+        <v>4330</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>4260</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75">
       <c r="F85" s="1" t="s">
-        <v>4261</v>
+        <v>4332</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>4262</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75">
       <c r="A86" t="s">
-        <v>4263</v>
+        <v>4334</v>
       </c>
       <c r="B86" t="s">
-        <v>4264</v>
+        <v>4335</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D86">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>4265</v>
+        <v>4336</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>4266</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75">
       <c r="A87" t="s">
-        <v>4267</v>
+        <v>4338</v>
       </c>
       <c r="B87" t="s">
-        <v>4268</v>
+        <v>4339</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D87">
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>4269</v>
+        <v>4340</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>4270</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75">
       <c r="F88" s="1" t="s">
-        <v>4271</v>
+        <v>4342</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>4272</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75">
       <c r="F89" s="1" t="s">
-        <v>4273</v>
+        <v>4344</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>4274</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18.75">
       <c r="A90" t="s">
-        <v>4275</v>
+        <v>4346</v>
       </c>
       <c r="B90" t="s">
-        <v>4276</v>
+        <v>4347</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D90">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>4277</v>
+        <v>4348</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>4278</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75">
       <c r="F91" s="1" t="s">
-        <v>4279</v>
+        <v>4350</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>4280</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75">
       <c r="F92" s="1" t="s">
-        <v>4281</v>
+        <v>4352</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>4282</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75">
       <c r="F93" s="1" t="s">
-        <v>4283</v>
+        <v>4354</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>4284</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18.75">
       <c r="A94" t="s">
-        <v>4285</v>
+        <v>4356</v>
       </c>
       <c r="B94" t="s">
-        <v>4286</v>
+        <v>4357</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>4031</v>
+        <v>4102</v>
       </c>
       <c r="D94">
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>4287</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18.75">
       <c r="F95" s="1" t="s">
-        <v>4288</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75">
       <c r="F96" s="1" t="s">
-        <v>4289</v>
+        <v>4360</v>
       </c>
     </row>
   </sheetData>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22715"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB785B1D-050D-4871-886B-5D18E855E60C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1487CB-587D-41CC-BE56-E2E9DE63B30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1404">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -3138,6 +3138,303 @@
   </si>
   <si>
     <t>phương hướng</t>
+  </si>
+  <si>
+    <t>打</t>
+  </si>
+  <si>
+    <t>đả</t>
+  </si>
+  <si>
+    <t>うった</t>
+  </si>
+  <si>
+    <t>打った</t>
+  </si>
+  <si>
+    <t>đánh</t>
+  </si>
+  <si>
+    <t>dùng tay đóng đinh</t>
+  </si>
+  <si>
+    <t>だきゅう</t>
+  </si>
+  <si>
+    <t>打球</t>
+  </si>
+  <si>
+    <t>quả bóng đánh</t>
+  </si>
+  <si>
+    <t>きょうだ</t>
+  </si>
+  <si>
+    <t>強打</t>
+  </si>
+  <si>
+    <t>đánh mạnh</t>
+  </si>
+  <si>
+    <t>とうだ</t>
+  </si>
+  <si>
+    <t>投打</t>
+  </si>
+  <si>
+    <t>ném và đánh</t>
+  </si>
+  <si>
+    <t>だてん</t>
+  </si>
+  <si>
+    <t>打点</t>
+  </si>
+  <si>
+    <t>điểm đánh, điểm phát bóng</t>
+  </si>
+  <si>
+    <t>押</t>
+  </si>
+  <si>
+    <t>áp</t>
+  </si>
+  <si>
+    <t>おす</t>
+  </si>
+  <si>
+    <t>押す</t>
+  </si>
+  <si>
+    <t>ấn</t>
+  </si>
+  <si>
+    <t>dùng tay đẩy áo giáp</t>
+  </si>
+  <si>
+    <t>おさえる</t>
+  </si>
+  <si>
+    <t>押さえる</t>
+  </si>
+  <si>
+    <t>giữ chặt</t>
+  </si>
+  <si>
+    <t>おういん</t>
+  </si>
+  <si>
+    <t>押印</t>
+  </si>
+  <si>
+    <t>đóng dấu</t>
+  </si>
+  <si>
+    <t>拾</t>
+  </si>
+  <si>
+    <t>thập</t>
+  </si>
+  <si>
+    <t>ひろう</t>
+  </si>
+  <si>
+    <t>拾う</t>
+  </si>
+  <si>
+    <t>nhặt</t>
+  </si>
+  <si>
+    <t>dùng tay hợp lại(chụm lại) để nhặt đồ</t>
+  </si>
+  <si>
+    <t>しゅうとくぶつ</t>
+  </si>
+  <si>
+    <t>拾得物</t>
+  </si>
+  <si>
+    <t>đồ nhặt được</t>
+  </si>
+  <si>
+    <t>捨</t>
+  </si>
+  <si>
+    <t>xả</t>
+  </si>
+  <si>
+    <t>すてる</t>
+  </si>
+  <si>
+    <t>捨てる</t>
+  </si>
+  <si>
+    <t>vứt</t>
+  </si>
+  <si>
+    <t>đang nhặt đồ 拾 mà xoè 10 ngón tay ra thì phải vứt đồ đi 捨</t>
+  </si>
+  <si>
+    <t>投</t>
+  </si>
+  <si>
+    <t>đầu</t>
+  </si>
+  <si>
+    <t>なげる</t>
+  </si>
+  <si>
+    <t>投げる</t>
+  </si>
+  <si>
+    <t>ném</t>
+  </si>
+  <si>
+    <t>2 tay bê cái bàn đi ném</t>
+  </si>
+  <si>
+    <t>えんとう</t>
+  </si>
+  <si>
+    <t>遠投</t>
+  </si>
+  <si>
+    <t>ném ở khoảng cách xa</t>
+  </si>
+  <si>
+    <t>とうしゅう</t>
+  </si>
+  <si>
+    <t>投手</t>
+  </si>
+  <si>
+    <t>ném liên tục(ko thay ng)</t>
+  </si>
+  <si>
+    <t>とうしょばこ</t>
+  </si>
+  <si>
+    <t>投書箱</t>
+  </si>
+  <si>
+    <t>hòm thư góp ý</t>
+  </si>
+  <si>
+    <t>担ぐ</t>
+  </si>
+  <si>
+    <t>đảm</t>
+  </si>
+  <si>
+    <t>1 tay khiêng cả bầu trời</t>
+  </si>
+  <si>
+    <t>かつがない</t>
+  </si>
+  <si>
+    <t>担が無い</t>
+  </si>
+  <si>
+    <t>đừng mang vác</t>
+  </si>
+  <si>
+    <t>たんとう</t>
+  </si>
+  <si>
+    <t>担当</t>
+  </si>
+  <si>
+    <t>đảm đương</t>
+  </si>
+  <si>
+    <t>ふたん</t>
+  </si>
+  <si>
+    <t>負担</t>
+  </si>
+  <si>
+    <t>Trách nhiệm</t>
+  </si>
+  <si>
+    <t>接</t>
+  </si>
+  <si>
+    <t>tiếp</t>
+  </si>
+  <si>
+    <t>めんせつ</t>
+  </si>
+  <si>
+    <t>面接</t>
+  </si>
+  <si>
+    <t>phỏng vấn</t>
+  </si>
+  <si>
+    <t>cầm tay đứng trực tiếp nói chuyện với người con gái mình yêu</t>
+  </si>
+  <si>
+    <t>せっきん</t>
+  </si>
+  <si>
+    <t>接近</t>
+  </si>
+  <si>
+    <t>tiếp cận</t>
+  </si>
+  <si>
+    <t>せっする</t>
+  </si>
+  <si>
+    <t>接する</t>
+  </si>
+  <si>
+    <t>tiếp xúc</t>
+  </si>
+  <si>
+    <t>授</t>
+  </si>
+  <si>
+    <t>thụ</t>
+  </si>
+  <si>
+    <t>じゅぎょう</t>
+  </si>
+  <si>
+    <t>授業</t>
+  </si>
+  <si>
+    <t>giờ học</t>
+  </si>
+  <si>
+    <t>dùng Tay truyền thụ những gì đã nhận được(Thụ)</t>
+  </si>
+  <si>
+    <t>さずかった</t>
+  </si>
+  <si>
+    <t>授かった</t>
+  </si>
+  <si>
+    <t>được truyền thụ(trao)</t>
+  </si>
+  <si>
+    <t>さずけた</t>
+  </si>
+  <si>
+    <t>授けた</t>
+  </si>
+  <si>
+    <t>được trao(truyền thụ)</t>
+  </si>
+  <si>
+    <t>きょうじゅ</t>
+  </si>
+  <si>
+    <t>教授</t>
+  </si>
+  <si>
+    <t>giáo sư</t>
   </si>
   <si>
     <t>công thức</t>
@@ -4681,10 +4978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A801" workbookViewId="0">
-      <selection activeCell="A900" sqref="A2:XFD900"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -8696,6 +8993,388 @@
       </c>
       <c r="E271" s="1" t="s">
         <v>1035</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F272" s="1">
+        <v>5</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="C273" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="C274" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="C275" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="C276" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F277" s="1">
+        <v>8</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="C278" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="C279" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F280" s="1">
+        <v>9</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="C281" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F282" s="1">
+        <v>11</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F283" s="1">
+        <v>7</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="C284" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="C285" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="C286" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F287" s="1">
+        <v>8</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="C288" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="C289" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="C290" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F291" s="1">
+        <v>11</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="C292" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="C293" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F294" s="1">
+        <v>11</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="C295" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="C296" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="C297" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1134</v>
       </c>
     </row>
   </sheetData>
@@ -8729,50 +9408,50 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
       <c r="A1" s="2" t="s">
-        <v>1036</v>
+        <v>1135</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1037</v>
+        <v>1136</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1038</v>
+        <v>1137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1039</v>
+        <v>1138</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1040</v>
+        <v>1139</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1041</v>
+        <v>1140</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1042</v>
+        <v>1141</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="18.75">
       <c r="A2" s="4" t="s">
-        <v>1043</v>
+        <v>1142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1044</v>
+        <v>1143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D2" s="1">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1047</v>
+        <v>1146</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1048</v>
+        <v>1147</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -8787,15 +9466,15 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>1049</v>
+        <v>1148</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1050</v>
+        <v>1149</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -8810,15 +9489,15 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>1051</v>
+        <v>1150</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1052</v>
+        <v>1151</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -8831,25 +9510,25 @@
     </row>
     <row r="5" spans="1:22" ht="18.75">
       <c r="A5" s="3" t="s">
-        <v>1053</v>
+        <v>1152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1054</v>
+        <v>1153</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D5" s="1">
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1055</v>
+        <v>1154</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1056</v>
+        <v>1155</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -8864,15 +9543,15 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>1057</v>
+        <v>1156</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1058</v>
+        <v>1157</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -8887,15 +9566,15 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>1059</v>
+        <v>1158</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1060</v>
+        <v>1159</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -8908,25 +9587,25 @@
     </row>
     <row r="8" spans="1:22" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>1061</v>
+        <v>1160</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1062</v>
+        <v>1161</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D8" s="1">
         <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1047</v>
+        <v>1146</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1063</v>
+        <v>1162</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -8941,13 +9620,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1064</v>
+        <v>1163</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1065</v>
+        <v>1164</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -8960,25 +9639,25 @@
     </row>
     <row r="10" spans="1:22" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>1066</v>
+        <v>1165</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1067</v>
+        <v>1166</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D10" s="1">
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1068</v>
+        <v>1167</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1069</v>
+        <v>1168</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -9000,15 +9679,15 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>1070</v>
+        <v>1169</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1071</v>
+        <v>1170</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -9028,25 +9707,25 @@
     </row>
     <row r="12" spans="1:22" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>1072</v>
+        <v>1171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1073</v>
+        <v>1172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D12" s="1">
         <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1074</v>
+        <v>1173</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1075</v>
+        <v>1174</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -9068,15 +9747,15 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>1076</v>
+        <v>1175</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1077</v>
+        <v>1176</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -9096,25 +9775,25 @@
     </row>
     <row r="14" spans="1:22" ht="18.75">
       <c r="A14" s="6" t="s">
-        <v>1078</v>
+        <v>1177</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1079</v>
+        <v>1178</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D14" s="1">
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1080</v>
+        <v>1179</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1081</v>
+        <v>1180</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -9136,15 +9815,15 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>1082</v>
+        <v>1181</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1083</v>
+        <v>1182</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -9164,25 +9843,25 @@
     </row>
     <row r="16" spans="1:22" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>1084</v>
+        <v>1183</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1085</v>
+        <v>1184</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D16" s="1">
         <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1086</v>
+        <v>1185</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1087</v>
+        <v>1186</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -9204,15 +9883,15 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1088</v>
+        <v>1187</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1089</v>
+        <v>1188</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -9232,25 +9911,25 @@
     </row>
     <row r="18" spans="1:22" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>1090</v>
+        <v>1189</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1091</v>
+        <v>1190</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D18" s="1">
         <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1092</v>
+        <v>1191</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1093</v>
+        <v>1192</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -9272,15 +9951,15 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1094</v>
+        <v>1193</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1095</v>
+        <v>1194</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -9300,25 +9979,25 @@
     </row>
     <row r="20" spans="1:22" ht="56.25">
       <c r="A20" s="3" t="s">
-        <v>1096</v>
+        <v>1195</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1097</v>
+        <v>1196</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D20" s="1">
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1098</v>
+        <v>1197</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1099</v>
+        <v>1198</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -9340,15 +10019,15 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>1100</v>
+        <v>1199</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1101</v>
+        <v>1200</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -9370,15 +10049,15 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1102</v>
+        <v>1201</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1103</v>
+        <v>1202</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -9400,15 +10079,15 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1104</v>
+        <v>1203</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1105</v>
+        <v>1204</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -9428,25 +10107,25 @@
     </row>
     <row r="24" spans="1:22" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>1106</v>
+        <v>1205</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1107</v>
+        <v>1206</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D24" s="1">
         <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1108</v>
+        <v>1207</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1109</v>
+        <v>1208</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -9468,15 +10147,15 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>1110</v>
+        <v>1209</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1111</v>
+        <v>1210</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -9496,25 +10175,25 @@
     </row>
     <row r="26" spans="1:22" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>1112</v>
+        <v>1211</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1113</v>
+        <v>1212</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D26" s="1">
         <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1114</v>
+        <v>1213</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1115</v>
+        <v>1214</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -9524,15 +10203,15 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1116</v>
+        <v>1215</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1117</v>
+        <v>1216</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -9540,25 +10219,25 @@
     </row>
     <row r="28" spans="1:22" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>1118</v>
+        <v>1217</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1119</v>
+        <v>1218</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D28" s="1">
         <v>42</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1120</v>
+        <v>1219</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1121</v>
+        <v>1220</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -9568,15 +10247,15 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1122</v>
+        <v>1221</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1123</v>
+        <v>1222</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -9586,15 +10265,15 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1124</v>
+        <v>1223</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1125</v>
+        <v>1224</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -9602,25 +10281,25 @@
     </row>
     <row r="31" spans="1:22" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>1126</v>
+        <v>1225</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1127</v>
+        <v>1226</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D31" s="1">
         <v>42</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1128</v>
+        <v>1227</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1129</v>
+        <v>1228</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -9628,25 +10307,25 @@
     </row>
     <row r="32" spans="1:22" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>1130</v>
+        <v>1229</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1131</v>
+        <v>1230</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D32" s="1">
         <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1132</v>
+        <v>1231</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1133</v>
+        <v>1232</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -9656,15 +10335,15 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>1134</v>
+        <v>1233</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1135</v>
+        <v>1234</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -9674,15 +10353,15 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>1136</v>
+        <v>1235</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1137</v>
+        <v>1236</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -9690,25 +10369,25 @@
     </row>
     <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>1138</v>
+        <v>1237</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1139</v>
+        <v>1238</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D35" s="1">
         <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1140</v>
+        <v>1239</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1141</v>
+        <v>1240</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -9718,15 +10397,15 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>1142</v>
+        <v>1241</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1143</v>
+        <v>1242</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -9734,25 +10413,25 @@
     </row>
     <row r="37" spans="1:10" ht="18.75">
       <c r="A37" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1045</v>
       </c>
       <c r="D37" s="1">
         <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1146</v>
+        <v>1245</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1147</v>
+        <v>1246</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -9762,15 +10441,15 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>1148</v>
+        <v>1247</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1149</v>
+        <v>1248</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -9778,25 +10457,25 @@
     </row>
     <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>1150</v>
+        <v>1249</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1151</v>
+        <v>1250</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D39" s="1">
         <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1152</v>
+        <v>1251</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1153</v>
+        <v>1252</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -9806,15 +10485,15 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>1154</v>
+        <v>1253</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1155</v>
+        <v>1254</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -9822,801 +10501,801 @@
     </row>
     <row r="41" spans="1:10" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>1156</v>
+        <v>1255</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1157</v>
+        <v>1256</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D41" s="1">
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1158</v>
+        <v>1257</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1159</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75">
       <c r="C42" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1160</v>
+        <v>1259</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1161</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18.75">
       <c r="C43" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1162</v>
+        <v>1261</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1163</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="18.75">
       <c r="A44" t="s">
-        <v>1164</v>
+        <v>1263</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1165</v>
+        <v>1264</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D44" s="1">
         <v>40</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1166</v>
+        <v>1265</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1167</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75">
       <c r="C45" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1168</v>
+        <v>1267</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1169</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="18.75">
       <c r="C46" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1170</v>
+        <v>1269</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1171</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75">
       <c r="A47" t="s">
-        <v>1172</v>
+        <v>1271</v>
       </c>
       <c r="B47" t="s">
-        <v>1173</v>
+        <v>1272</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D47">
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1174</v>
+        <v>1273</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1175</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18.75">
       <c r="C48" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1176</v>
+        <v>1275</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1177</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18.75">
       <c r="C49" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1178</v>
+        <v>1277</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1179</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18.75">
       <c r="A50" t="s">
-        <v>1180</v>
+        <v>1279</v>
       </c>
       <c r="B50" t="s">
-        <v>1181</v>
+        <v>1280</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D50">
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1182</v>
+        <v>1281</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1183</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75">
       <c r="C51" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1184</v>
+        <v>1283</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1185</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.75">
       <c r="C52" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1186</v>
+        <v>1285</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1187</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="72.75">
       <c r="A53" t="s">
-        <v>1188</v>
+        <v>1287</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1189</v>
+        <v>1288</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D53">
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1190</v>
+        <v>1289</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1191</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75">
       <c r="C54" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1192</v>
+        <v>1291</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1193</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75">
       <c r="C55" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1194</v>
+        <v>1293</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1195</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18.75">
       <c r="C56" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1196</v>
+        <v>1295</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1197</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18.75">
       <c r="C57" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1198</v>
+        <v>1297</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1199</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.75">
       <c r="A58" t="s">
-        <v>1200</v>
+        <v>1299</v>
       </c>
       <c r="B58" t="s">
-        <v>1201</v>
+        <v>1300</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D58">
         <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1202</v>
+        <v>1301</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1203</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75">
       <c r="C59" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1204</v>
+        <v>1303</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1205</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18.75">
       <c r="A60" t="s">
-        <v>1206</v>
+        <v>1305</v>
       </c>
       <c r="B60" t="s">
-        <v>1207</v>
+        <v>1306</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D60">
         <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1208</v>
+        <v>1307</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1209</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75">
       <c r="C61" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1210</v>
+        <v>1309</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1211</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="58.5">
       <c r="A62" t="s">
-        <v>1212</v>
+        <v>1311</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1213</v>
+        <v>1312</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D62">
         <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1214</v>
+        <v>1313</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1215</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75">
       <c r="C63" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1216</v>
+        <v>1315</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1217</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75">
       <c r="C64" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1218</v>
+        <v>1317</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1219</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18.75">
       <c r="C65" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1220</v>
+        <v>1319</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1221</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75">
       <c r="C66" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1222</v>
+        <v>1321</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1223</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75">
       <c r="A67" t="s">
-        <v>1224</v>
+        <v>1323</v>
       </c>
       <c r="B67" t="s">
-        <v>1225</v>
+        <v>1324</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D67">
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1226</v>
+        <v>1325</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1227</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75">
       <c r="C68" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1228</v>
+        <v>1327</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1229</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18.75">
       <c r="C69" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1230</v>
+        <v>1329</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1231</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18.75">
       <c r="A70" t="s">
-        <v>1232</v>
+        <v>1331</v>
       </c>
       <c r="B70" t="s">
-        <v>1233</v>
+        <v>1332</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D70">
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1234</v>
+        <v>1333</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1235</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18.75">
       <c r="F71" s="1" t="s">
-        <v>1236</v>
+        <v>1335</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1237</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75">
       <c r="F72" s="1" t="s">
-        <v>1238</v>
+        <v>1337</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1239</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75">
       <c r="A73" t="s">
-        <v>1240</v>
+        <v>1339</v>
       </c>
       <c r="B73" t="s">
-        <v>1241</v>
+        <v>1340</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D73">
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1242</v>
+        <v>1341</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1243</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75">
       <c r="F74" s="1" t="s">
-        <v>1244</v>
+        <v>1343</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1245</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75">
       <c r="F75" s="1" t="s">
-        <v>1246</v>
+        <v>1345</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1247</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75">
       <c r="A76" t="s">
-        <v>1248</v>
+        <v>1347</v>
       </c>
       <c r="B76" t="s">
-        <v>1249</v>
+        <v>1348</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D76">
         <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1250</v>
+        <v>1349</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1251</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18.75">
       <c r="F77" s="1" t="s">
-        <v>1252</v>
+        <v>1351</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1253</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18.75">
       <c r="A78" t="s">
-        <v>1254</v>
+        <v>1353</v>
       </c>
       <c r="B78" t="s">
-        <v>1255</v>
+        <v>1354</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D78">
         <v>27</v>
       </c>
       <c r="E78" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1256</v>
+        <v>1355</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1257</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18.75">
       <c r="F79" s="1" t="s">
-        <v>1258</v>
+        <v>1357</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1259</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18.75">
       <c r="A80" t="s">
-        <v>1260</v>
+        <v>1359</v>
       </c>
       <c r="B80" t="s">
-        <v>1261</v>
+        <v>1360</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D80">
         <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1262</v>
+        <v>1361</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1263</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18.75">
       <c r="F81" s="1" t="s">
-        <v>1264</v>
+        <v>1363</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1265</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18.75">
       <c r="A82" t="s">
-        <v>1266</v>
+        <v>1365</v>
       </c>
       <c r="B82" t="s">
-        <v>1267</v>
+        <v>1366</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D82">
         <v>28</v>
       </c>
       <c r="E82" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1268</v>
+        <v>1367</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1269</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18.75">
       <c r="F83" s="1" t="s">
-        <v>1270</v>
+        <v>1369</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1271</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18.75">
       <c r="A84" t="s">
-        <v>1272</v>
+        <v>1371</v>
       </c>
       <c r="B84" t="s">
-        <v>1273</v>
+        <v>1372</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D84">
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1274</v>
+        <v>1373</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1275</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18.75">
       <c r="F85" s="1" t="s">
-        <v>1276</v>
+        <v>1375</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1277</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18.75">
       <c r="A86" t="s">
-        <v>1278</v>
+        <v>1377</v>
       </c>
       <c r="B86" t="s">
-        <v>1279</v>
+        <v>1378</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D86">
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1280</v>
+        <v>1379</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1281</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18.75">
       <c r="A87" t="s">
-        <v>1282</v>
+        <v>1381</v>
       </c>
       <c r="B87" t="s">
-        <v>1283</v>
+        <v>1382</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D87">
         <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1284</v>
+        <v>1383</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1285</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18.75">
       <c r="F88" s="1" t="s">
-        <v>1286</v>
+        <v>1385</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1287</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75">
       <c r="F89" s="1" t="s">
-        <v>1288</v>
+        <v>1387</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1289</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18.75">
       <c r="A90" t="s">
-        <v>1290</v>
+        <v>1389</v>
       </c>
       <c r="B90" t="s">
-        <v>1291</v>
+        <v>1390</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D90">
         <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1292</v>
+        <v>1391</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1293</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75">
       <c r="F91" s="1" t="s">
-        <v>1294</v>
+        <v>1393</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1295</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75">
       <c r="F92" s="1" t="s">
-        <v>1296</v>
+        <v>1395</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1297</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75">
       <c r="F93" s="1" t="s">
-        <v>1298</v>
+        <v>1397</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1299</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18.75">
       <c r="A94" t="s">
-        <v>1300</v>
+        <v>1399</v>
       </c>
       <c r="B94" t="s">
-        <v>1301</v>
+        <v>1400</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="D94">
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1302</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18.75">
       <c r="F95" s="1" t="s">
-        <v>1303</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18.75">
       <c r="F96" s="1" t="s">
-        <v>1304</v>
+        <v>1403</v>
       </c>
     </row>
   </sheetData>

--- a/kanji.xlsx
+++ b/kanji.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22715"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1487CB-587D-41CC-BE56-E2E9DE63B30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7043CAF1-E35D-49B2-B4F3-394105E79E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1499">
   <si>
     <t>Chữ hán</t>
   </si>
@@ -1635,6 +1635,294 @@
   </si>
   <si>
     <t>thể trạng(vóc dáng)</t>
+  </si>
+  <si>
+    <t>未</t>
+  </si>
+  <si>
+    <t>みらい</t>
+  </si>
+  <si>
+    <t>未来</t>
+  </si>
+  <si>
+    <t>tương lai</t>
+  </si>
+  <si>
+    <t>giống chữ mạt(chữ mạt nét trên dài hơn chỉ sự kết thúc) chữ vị nét trên ngắn hơn chỉ chưa tới</t>
+  </si>
+  <si>
+    <t>みまん</t>
+  </si>
+  <si>
+    <t>未満</t>
+  </si>
+  <si>
+    <t>chưa đầy</t>
+  </si>
+  <si>
+    <t>みてい</t>
+  </si>
+  <si>
+    <t>未定</t>
+  </si>
+  <si>
+    <t>chưa quyết định</t>
+  </si>
+  <si>
+    <t>みせいねん</t>
+  </si>
+  <si>
+    <t>未成年</t>
+  </si>
+  <si>
+    <t>vị thành niên</t>
+  </si>
+  <si>
+    <t>板</t>
+  </si>
+  <si>
+    <t>bản</t>
+  </si>
+  <si>
+    <t>こくばん</t>
+  </si>
+  <si>
+    <t>黒板</t>
+  </si>
+  <si>
+    <t>bảng đen</t>
+  </si>
+  <si>
+    <t>tấm phản làm bằng gỗ</t>
+  </si>
+  <si>
+    <t>きのいた</t>
+  </si>
+  <si>
+    <t>木の板</t>
+  </si>
+  <si>
+    <t>tấm gỗ</t>
+  </si>
+  <si>
+    <t>ばんしょ</t>
+  </si>
+  <si>
+    <t>板書</t>
+  </si>
+  <si>
+    <t>việc trình bày trên bảng</t>
+  </si>
+  <si>
+    <t>いたまえ</t>
+  </si>
+  <si>
+    <t>板前</t>
+  </si>
+  <si>
+    <t>đầu bếp</t>
+  </si>
+  <si>
+    <t>棒</t>
+  </si>
+  <si>
+    <t>bổng</t>
+  </si>
+  <si>
+    <t>ぼう</t>
+  </si>
+  <si>
+    <t>gậy</t>
+  </si>
+  <si>
+    <t>cầm gậy chọc vào háng 3 người đang trèo lên cây</t>
+  </si>
+  <si>
+    <t>てつぼう</t>
+  </si>
+  <si>
+    <t>鉄棒</t>
+  </si>
+  <si>
+    <t>xà đơn</t>
+  </si>
+  <si>
+    <t>横</t>
+  </si>
+  <si>
+    <t>hoành</t>
+  </si>
+  <si>
+    <t>おうてん</t>
+  </si>
+  <si>
+    <t>横転</t>
+  </si>
+  <si>
+    <t>lật nhào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bên cạnh vệ đường có 1 hàng cây màu vàng </t>
+  </si>
+  <si>
+    <t>よこがお</t>
+  </si>
+  <si>
+    <t>横顔</t>
+  </si>
+  <si>
+    <t>khuôn mặt ngang</t>
+  </si>
+  <si>
+    <t>よこがき</t>
+  </si>
+  <si>
+    <t>横書き</t>
+  </si>
+  <si>
+    <t>viết theo chiều ngang</t>
+  </si>
+  <si>
+    <t>おうだん</t>
+  </si>
+  <si>
+    <t>横断</t>
+  </si>
+  <si>
+    <t>sự băng qua</t>
+  </si>
+  <si>
+    <t>橋</t>
+  </si>
+  <si>
+    <t>kiều</t>
+  </si>
+  <si>
+    <t>てっきょう</t>
+  </si>
+  <si>
+    <t>鉄橋</t>
+  </si>
+  <si>
+    <t>cầu sắt</t>
+  </si>
+  <si>
+    <t>cây cầu làm bằng gỗ ở trên cao</t>
+  </si>
+  <si>
+    <t>ほどうきょう</t>
+  </si>
+  <si>
+    <t>歩道橋</t>
+  </si>
+  <si>
+    <t>cầu vựợt(cho ng đi bộ)</t>
+  </si>
+  <si>
+    <t>機</t>
+  </si>
+  <si>
+    <t>きかい</t>
+  </si>
+  <si>
+    <t>機会</t>
+  </si>
+  <si>
+    <t>cơ hội</t>
+  </si>
+  <si>
+    <t>Người thợ (人) dệt tơ (幺) qua (戈) máy dệt bằng gỗ (木).</t>
+  </si>
+  <si>
+    <t>きかん</t>
+  </si>
+  <si>
+    <t>機関</t>
+  </si>
+  <si>
+    <t>cơ quan</t>
+  </si>
+  <si>
+    <t>きき</t>
+  </si>
+  <si>
+    <t>危機</t>
+  </si>
+  <si>
+    <t>nguy cơ</t>
+  </si>
+  <si>
+    <t>しんきのう</t>
+  </si>
+  <si>
+    <t>新機能</t>
+  </si>
+  <si>
+    <t>chức năng mới</t>
+  </si>
+  <si>
+    <t>械</t>
+  </si>
+  <si>
+    <t>機械</t>
+  </si>
+  <si>
+    <t>máy móc</t>
+  </si>
+  <si>
+    <t>Cuộc chiến với cây gỗ mở ra thời kì cơ giới hoá</t>
+  </si>
+  <si>
+    <t>身</t>
+  </si>
+  <si>
+    <t>しんちょう</t>
+  </si>
+  <si>
+    <t>身長</t>
+  </si>
+  <si>
+    <t>chiều cao</t>
+  </si>
+  <si>
+    <t>hình ảnh bản thân với chữ tự như cái bụng, dưới là cái chân</t>
+  </si>
+  <si>
+    <t>どくしん</t>
+  </si>
+  <si>
+    <t>独身</t>
+  </si>
+  <si>
+    <t>độc thân</t>
+  </si>
+  <si>
+    <t>みじか</t>
+  </si>
+  <si>
+    <t>身近</t>
+  </si>
+  <si>
+    <t>thân cận</t>
+  </si>
+  <si>
+    <t>しゅっしん</t>
+  </si>
+  <si>
+    <t>出身</t>
+  </si>
+  <si>
+    <t>xuất thân</t>
+  </si>
+  <si>
+    <t>みぶん</t>
+  </si>
+  <si>
+    <t>身分</t>
+  </si>
+  <si>
+    <t>thân phận</t>
   </si>
   <si>
     <t>寝</t>
@@ -4119,9 +4407,6 @@
   </si>
   <si>
     <t>たかさ</t>
-  </si>
-  <si>
-    <t>chiều cao</t>
   </si>
   <si>
     <t>ながさ</t>
@@ -4978,10 +5263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I297"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7077,249 +7362,257 @@
         <v>535</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="F141" s="1">
+        <v>5</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="F141" s="1">
-        <v>13</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="C142" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="G142"/>
     </row>
     <row r="143" spans="1:7">
       <c r="C143" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="C144" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="F145" s="1">
+        <v>8</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="F145" s="1">
-        <v>10</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="C146" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G146"/>
     </row>
     <row r="147" spans="1:7">
       <c r="C147" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="C148" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E148" s="1" t="s">
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="B149" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="C149" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="F149" s="1">
+        <v>12</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
       <c r="C150" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F151" s="1">
-        <v>12</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>576</v>
+        <v>15</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="C152" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="G152"/>
+        <v>580</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
       <c r="C153" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F154" s="1">
-        <v>7</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="F155" s="1">
+        <v>16</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F155" s="1">
-        <v>13</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="C156" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D156" s="1" t="s">
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="B157" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="G156"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" s="1">
+        <v>16</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>600</v>
       </c>
     </row>
@@ -7346,915 +7639,913 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D160" s="1" t="s">
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="B161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F160" s="1">
-        <v>10</v>
-      </c>
-      <c r="G160" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="C161" s="1" t="s">
+      <c r="F161" s="1">
+        <v>11</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D161" s="1" t="s">
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="B162" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="F162" s="1">
+        <v>7</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="28.5">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:7">
+      <c r="C163" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F163" s="1">
-        <v>13</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="C164" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G164"/>
+        <v>624</v>
+      </c>
     </row>
     <row r="165" spans="1:7">
       <c r="C165" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="C166" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="F167" s="1">
+        <v>13</v>
+      </c>
+      <c r="G167" s="10" t="s">
         <v>636</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="F167" s="1">
-        <v>9</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="C168" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G168"/>
     </row>
     <row r="169" spans="1:7">
       <c r="C169" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="C170" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="1" t="s">
+    <row r="171" spans="1:7">
+      <c r="A171" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F170" s="1">
-        <v>8</v>
-      </c>
-      <c r="G170" s="10" t="s">
+      <c r="F171" s="1">
+        <v>10</v>
+      </c>
+      <c r="G171" s="10" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="C171" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G171"/>
     </row>
     <row r="172" spans="1:7">
       <c r="C172" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G172"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="C173" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F173" s="1">
-        <v>11</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="C174" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G174"/>
+        <v>660</v>
+      </c>
     </row>
     <row r="175" spans="1:7">
       <c r="C175" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="C176" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="F177" s="1">
+        <v>12</v>
+      </c>
+      <c r="G177" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="F176" s="1">
-        <v>10</v>
-      </c>
-      <c r="G176" s="10" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="C177" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="G177"/>
     </row>
     <row r="178" spans="1:7">
       <c r="C178" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G178"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="C179" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="F180" s="1">
+        <v>7</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D179" s="1" t="s">
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F179" s="1">
-        <v>12</v>
-      </c>
-      <c r="G179" s="10" t="s">
+      <c r="C181" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="C180" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G180"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="C181" s="1" t="s">
+      <c r="F181" s="1">
+        <v>13</v>
+      </c>
+      <c r="G181" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="D181" s="1" t="s">
+    </row>
+    <row r="182" spans="1:7">
+      <c r="C182" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="F182" s="1">
-        <v>8</v>
-      </c>
-      <c r="G182" s="10" t="s">
-        <v>698</v>
-      </c>
+      <c r="G182"/>
     </row>
     <row r="183" spans="1:7">
       <c r="C183" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="G183"/>
+        <v>696</v>
+      </c>
     </row>
     <row r="184" spans="1:7">
       <c r="C184" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="C185" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F186" s="1">
+        <v>10</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="F186" s="1">
-        <v>13</v>
-      </c>
-      <c r="G186" s="10" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="C187" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="G187"/>
+        <v>711</v>
+      </c>
     </row>
     <row r="188" spans="1:7">
       <c r="C188" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="28.5">
+      <c r="A189" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" s="15" customFormat="1">
-      <c r="A189" s="15" t="s">
+      <c r="F189" s="1">
+        <v>13</v>
+      </c>
+      <c r="G189" s="10" t="s">
         <v>720</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>721</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="E189" s="15" t="s">
-        <v>724</v>
-      </c>
-      <c r="F189" s="15">
-        <v>10</v>
-      </c>
-      <c r="G189" s="16" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="C190" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G190"/>
     </row>
     <row r="191" spans="1:7">
       <c r="C191" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="C192" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E191" s="1" t="s">
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="37.5">
-      <c r="A192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="F193" s="1">
+        <v>9</v>
+      </c>
+      <c r="G193" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="F192" s="1">
-        <v>12</v>
-      </c>
-      <c r="G192" s="14" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="C193" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G193"/>
     </row>
     <row r="194" spans="1:7">
       <c r="C194" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G194"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="C195" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="E194" s="1" t="s">
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="F196" s="1">
+        <v>8</v>
+      </c>
+      <c r="G196" s="10" t="s">
         <v>747</v>
-      </c>
-      <c r="F195" s="1">
-        <v>9</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="C196" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="C197" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>754</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="G197"/>
     </row>
     <row r="198" spans="1:7">
       <c r="C198" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="F199" s="1">
+        <v>11</v>
+      </c>
+      <c r="G199" s="10" t="s">
         <v>759</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="F199" s="1">
-        <v>12</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="C200" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>766</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="G200"/>
     </row>
     <row r="201" spans="1:7">
       <c r="C201" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="F202" s="1">
+        <v>10</v>
+      </c>
+      <c r="G202" s="10" t="s">
         <v>771</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="F202" s="1">
-        <v>12</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="C203" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>778</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="G203"/>
     </row>
     <row r="204" spans="1:7">
       <c r="C204" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="F205" s="1">
+        <v>12</v>
+      </c>
+      <c r="G205" s="10" t="s">
         <v>783</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="F205" s="1">
-        <v>13</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="C206" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>790</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="G206"/>
     </row>
     <row r="207" spans="1:7">
       <c r="C207" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="C208" s="1" t="s">
+      <c r="F208" s="1">
+        <v>8</v>
+      </c>
+      <c r="G208" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="D208" s="1" t="s">
+    </row>
+    <row r="209" spans="1:7">
+      <c r="C209" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F209" s="1">
-        <v>11</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>799</v>
-      </c>
+      <c r="G209"/>
     </row>
     <row r="210" spans="1:7">
       <c r="C210" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="C211" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="F212" s="1">
+        <v>13</v>
+      </c>
+      <c r="G212" s="10" t="s">
         <v>809</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="F212" s="1">
-        <v>11</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="C213" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>814</v>
-      </c>
+      <c r="G213"/>
     </row>
     <row r="214" spans="1:7">
       <c r="C214" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D214" s="1" t="s">
+    </row>
+    <row r="215" spans="1:7" s="15" customFormat="1">
+      <c r="A215" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="B215" s="15" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" s="15" t="s">
         <v>820</v>
       </c>
+      <c r="F215" s="15">
+        <v>10</v>
+      </c>
+      <c r="G215" s="16" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="F216" s="1">
-        <v>17</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>826</v>
-      </c>
+      <c r="G216"/>
     </row>
     <row r="217" spans="1:7">
       <c r="C217" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="37.5">
+      <c r="A218" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="F218" s="1">
+        <v>12</v>
+      </c>
+      <c r="G218" s="14" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="F219" s="1">
-        <v>9</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>837</v>
-      </c>
+      <c r="G219"/>
     </row>
     <row r="220" spans="1:7">
       <c r="C220" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D220" s="1" t="s">
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
       <c r="C221" s="1" t="s">
         <v>841</v>
       </c>
@@ -8264,70 +8555,70 @@
       <c r="E221" s="1" t="s">
         <v>843</v>
       </c>
+      <c r="F221" s="1">
+        <v>9</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="222" spans="1:7">
       <c r="C222" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>847</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="F223" s="1">
-        <v>15</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>851</v>
-      </c>
     </row>
     <row r="224" spans="1:7">
       <c r="C224" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="E224" s="1" t="s">
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="B225" s="1" t="s">
+        <v>855</v>
+      </c>
       <c r="C225" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
+      </c>
+      <c r="F225" s="1">
+        <v>12</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>859</v>
-      </c>
       <c r="C226" s="1" t="s">
         <v>860</v>
       </c>
@@ -8337,42 +8628,42 @@
       <c r="E226" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="F226" s="1">
-        <v>12</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>863</v>
-      </c>
     </row>
     <row r="227" spans="1:7">
       <c r="C227" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E227" s="1" t="s">
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="B228" s="1" t="s">
+        <v>867</v>
+      </c>
       <c r="C228" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
+      </c>
+      <c r="F228" s="1">
+        <v>12</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>871</v>
-      </c>
       <c r="C229" s="1" t="s">
         <v>872</v>
       </c>
@@ -8382,66 +8673,60 @@
       <c r="E229" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="F229" s="1">
-        <v>15</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>875</v>
-      </c>
     </row>
     <row r="230" spans="1:7">
       <c r="C230" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="E230" s="1" t="s">
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="B231" s="1" t="s">
+        <v>879</v>
+      </c>
       <c r="C231" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
+      </c>
+      <c r="F231" s="1">
+        <v>13</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="C232" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>886</v>
-      </c>
       <c r="C233" s="1" t="s">
         <v>887</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="F233" s="1">
-        <v>14</v>
-      </c>
-      <c r="G233" s="1" t="s">
         <v>889</v>
       </c>
     </row>
@@ -8464,639 +8749,657 @@
         <v>894</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" s="1">
+        <v>11</v>
+      </c>
+      <c r="G235" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="F235" s="1">
-        <v>8</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="C236" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="C237" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="F238" s="1">
+        <v>11</v>
+      </c>
+      <c r="G238" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="F238" s="1">
-        <v>6</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="C239" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="C240" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="C241" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="F242" s="1">
+        <v>17</v>
+      </c>
+      <c r="G242" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="F242" s="1">
-        <v>5</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="C243" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="C244" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E245" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="F245" s="1">
+        <v>9</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="F245" s="1">
-        <v>7</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="C246" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="C247" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="C248" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="E247" s="1" t="s">
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D249" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="F249" s="1">
+        <v>15</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="F248" s="1">
-        <v>12</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="C249" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="C250" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="C251" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E251" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="D250" s="1" t="s">
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="F252" s="1">
+        <v>12</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="E251" s="1" t="s">
+    </row>
+    <row r="253" spans="1:7">
+      <c r="C253" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="F251" s="1">
-        <v>6</v>
-      </c>
-      <c r="G251" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="C252" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="F253" s="1">
-        <v>8</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="C254" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r=